--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF49CDEB-7B5D-4C5F-8F69-2068611FA56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEEAE9-D4CF-4FCA-93CD-C32D1BBCC69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -95,7 +95,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1235,6 +1234,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2338,7 +2338,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -5195,8 +5195,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5403,8 +5403,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="19">
-        <f>Data!G9</f>
-        <v>354.20000000000005</v>
+        <v>30.97</v>
       </c>
       <c r="M4" s="18">
         <f>Data!G5/1000</f>
@@ -5468,8 +5467,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="19">
-        <f>Data!F9</f>
-        <v>2288</v>
+        <v>55.94</v>
       </c>
       <c r="M5" s="18">
         <f>Data!F5/1000</f>
@@ -5531,8 +5529,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="19">
-        <f>Data!E9</f>
-        <v>2906.2000000000003</v>
+        <v>98.38</v>
       </c>
       <c r="M6" s="18">
         <f>Data!E5/1000</f>

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF49CDEB-7B5D-4C5F-8F69-2068611FA56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47740BEF-CBCC-4545-BAFC-C21F59BE7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -1122,9 +1122,6 @@
     <t>I/E rule</t>
   </si>
   <si>
-    <t>EUR18</t>
-  </si>
-  <si>
     <t>TIMES-Ireland Model</t>
   </si>
   <si>
@@ -1174,6 +1171,9 @@
   </si>
   <si>
     <t xml:space="preserve">Olexandr Balyk ( MaREI, olexandr.balyk@ucc.ie) </t>
+  </si>
+  <si>
+    <t>MEUR2018</t>
   </si>
 </sst>
 </file>
@@ -2338,25 +2338,25 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="29" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="29" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="29" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="29" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="29" customWidth="1"/>
     <col min="13" max="13" width="10" style="29" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="29" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="29"/>
+    <col min="14" max="14" width="11.3984375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2384,7 +2384,7 @@
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -2412,7 +2412,7 @@
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2440,7 +2440,7 @@
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -2468,7 +2468,7 @@
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -2496,7 +2496,7 @@
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -2524,7 +2524,7 @@
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2552,7 +2552,7 @@
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -2580,7 +2580,7 @@
       <c r="Y8" s="28"/>
       <c r="Z8" s="28"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -2608,7 +2608,7 @@
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -2636,7 +2636,7 @@
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -2664,7 +2664,7 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -2692,7 +2692,7 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -2720,7 +2720,7 @@
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -2748,7 +2748,7 @@
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -2776,9 +2776,9 @@
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -2806,7 +2806,7 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -2834,7 +2834,7 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -2862,12 +2862,12 @@
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -2894,12 +2894,12 @@
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -2926,12 +2926,12 @@
       <c r="Y20" s="28"/>
       <c r="Z20" s="28"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -2958,7 +2958,7 @@
       <c r="Y21" s="28"/>
       <c r="Z21" s="28"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -2986,12 +2986,12 @@
       <c r="Y22" s="28"/>
       <c r="Z22" s="28"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -3018,10 +3018,10 @@
       <c r="Y23" s="28"/>
       <c r="Z23" s="28"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -3048,7 +3048,7 @@
       <c r="Y24" s="28"/>
       <c r="Z24" s="28"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -3076,12 +3076,12 @@
       <c r="Y25" s="28"/>
       <c r="Z25" s="28"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -3108,10 +3108,10 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="35"/>
       <c r="B27" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -3138,7 +3138,7 @@
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="35"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -3166,9 +3166,9 @@
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="39">
         <v>1</v>
@@ -3198,12 +3198,12 @@
       <c r="Y29" s="28"/>
       <c r="Z29" s="28"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="45" t="s">
         <v>95</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>96</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -3230,12 +3230,12 @@
       <c r="Y30" s="28"/>
       <c r="Z30" s="28"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>98</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -3262,10 +3262,10 @@
       <c r="Y31" s="28"/>
       <c r="Z31" s="28"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
@@ -3292,7 +3292,7 @@
       <c r="Y32" s="28"/>
       <c r="Z32" s="28"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -3320,7 +3320,7 @@
       <c r="Y33" s="28"/>
       <c r="Z33" s="28"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -3348,7 +3348,7 @@
       <c r="Y34" s="28"/>
       <c r="Z34" s="28"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -3376,7 +3376,7 @@
       <c r="Y35" s="28"/>
       <c r="Z35" s="28"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -3404,7 +3404,7 @@
       <c r="Y36" s="28"/>
       <c r="Z36" s="28"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -3432,7 +3432,7 @@
       <c r="Y37" s="28"/>
       <c r="Z37" s="28"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -3460,7 +3460,7 @@
       <c r="Y38" s="28"/>
       <c r="Z38" s="28"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -3488,7 +3488,7 @@
       <c r="Y39" s="28"/>
       <c r="Z39" s="28"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -3516,7 +3516,7 @@
       <c r="Y40" s="28"/>
       <c r="Z40" s="28"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3544,7 +3544,7 @@
       <c r="Y41" s="28"/>
       <c r="Z41" s="28"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -3572,7 +3572,7 @@
       <c r="Y42" s="28"/>
       <c r="Z42" s="28"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -3600,7 +3600,7 @@
       <c r="Y43" s="28"/>
       <c r="Z43" s="28"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -3628,7 +3628,7 @@
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -3656,7 +3656,7 @@
       <c r="Y45" s="28"/>
       <c r="Z45" s="28"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -3684,7 +3684,7 @@
       <c r="Y46" s="28"/>
       <c r="Z46" s="28"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -3712,7 +3712,7 @@
       <c r="Y47" s="28"/>
       <c r="Z47" s="28"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -3740,7 +3740,7 @@
       <c r="Y48" s="28"/>
       <c r="Z48" s="28"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -3768,7 +3768,7 @@
       <c r="Y49" s="28"/>
       <c r="Z49" s="28"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -3796,7 +3796,7 @@
       <c r="Y50" s="28"/>
       <c r="Z50" s="28"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -3824,7 +3824,7 @@
       <c r="Y51" s="28"/>
       <c r="Z51" s="28"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -3852,7 +3852,7 @@
       <c r="Y52" s="28"/>
       <c r="Z52" s="28"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -3880,7 +3880,7 @@
       <c r="Y53" s="28"/>
       <c r="Z53" s="28"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -3908,7 +3908,7 @@
       <c r="Y54" s="28"/>
       <c r="Z54" s="28"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -3936,7 +3936,7 @@
       <c r="Y55" s="28"/>
       <c r="Z55" s="28"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -3964,7 +3964,7 @@
       <c r="Y56" s="28"/>
       <c r="Z56" s="28"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -3992,7 +3992,7 @@
       <c r="Y57" s="28"/>
       <c r="Z57" s="28"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -4020,7 +4020,7 @@
       <c r="Y58" s="28"/>
       <c r="Z58" s="28"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -4048,7 +4048,7 @@
       <c r="Y59" s="28"/>
       <c r="Z59" s="28"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -4076,7 +4076,7 @@
       <c r="Y60" s="28"/>
       <c r="Z60" s="28"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -4104,7 +4104,7 @@
       <c r="Y61" s="28"/>
       <c r="Z61" s="28"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -4132,7 +4132,7 @@
       <c r="Y62" s="28"/>
       <c r="Z62" s="28"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -4160,7 +4160,7 @@
       <c r="Y63" s="28"/>
       <c r="Z63" s="28"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4188,7 +4188,7 @@
       <c r="Y64" s="28"/>
       <c r="Z64" s="28"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -4216,7 +4216,7 @@
       <c r="Y65" s="28"/>
       <c r="Z65" s="28"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -4244,7 +4244,7 @@
       <c r="Y66" s="28"/>
       <c r="Z66" s="28"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -4272,7 +4272,7 @@
       <c r="Y67" s="28"/>
       <c r="Z67" s="28"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4300,7 +4300,7 @@
       <c r="Y68" s="28"/>
       <c r="Z68" s="28"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -4328,7 +4328,7 @@
       <c r="Y69" s="28"/>
       <c r="Z69" s="28"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -4356,7 +4356,7 @@
       <c r="Y70" s="28"/>
       <c r="Z70" s="28"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -4384,7 +4384,7 @@
       <c r="Y71" s="28"/>
       <c r="Z71" s="28"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -4412,7 +4412,7 @@
       <c r="Y72" s="28"/>
       <c r="Z72" s="28"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -4440,7 +4440,7 @@
       <c r="Y73" s="28"/>
       <c r="Z73" s="28"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -4468,7 +4468,7 @@
       <c r="Y74" s="28"/>
       <c r="Z74" s="28"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -4496,7 +4496,7 @@
       <c r="Y75" s="28"/>
       <c r="Z75" s="28"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -4524,7 +4524,7 @@
       <c r="Y76" s="28"/>
       <c r="Z76" s="28"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -4552,7 +4552,7 @@
       <c r="Y77" s="28"/>
       <c r="Z77" s="28"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -4580,7 +4580,7 @@
       <c r="Y78" s="28"/>
       <c r="Z78" s="28"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -4608,7 +4608,7 @@
       <c r="Y79" s="28"/>
       <c r="Z79" s="28"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -4636,7 +4636,7 @@
       <c r="Y80" s="28"/>
       <c r="Z80" s="28"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -4664,7 +4664,7 @@
       <c r="Y81" s="28"/>
       <c r="Z81" s="28"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -4692,7 +4692,7 @@
       <c r="Y82" s="28"/>
       <c r="Z82" s="28"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -4720,7 +4720,7 @@
       <c r="Y83" s="28"/>
       <c r="Z83" s="28"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -4748,7 +4748,7 @@
       <c r="Y84" s="28"/>
       <c r="Z84" s="28"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -4776,7 +4776,7 @@
       <c r="Y85" s="28"/>
       <c r="Z85" s="28"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -4804,7 +4804,7 @@
       <c r="Y86" s="28"/>
       <c r="Z86" s="28"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -4832,7 +4832,7 @@
       <c r="Y87" s="28"/>
       <c r="Z87" s="28"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -4860,7 +4860,7 @@
       <c r="Y88" s="28"/>
       <c r="Z88" s="28"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -4888,7 +4888,7 @@
       <c r="Y89" s="28"/>
       <c r="Z89" s="28"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -4916,7 +4916,7 @@
       <c r="Y90" s="28"/>
       <c r="Z90" s="28"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -4944,7 +4944,7 @@
       <c r="Y91" s="28"/>
       <c r="Z91" s="28"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -4972,7 +4972,7 @@
       <c r="Y92" s="28"/>
       <c r="Z92" s="28"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -5000,7 +5000,7 @@
       <c r="Y93" s="28"/>
       <c r="Z93" s="28"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -5028,7 +5028,7 @@
       <c r="Y94" s="28"/>
       <c r="Z94" s="28"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -5056,7 +5056,7 @@
       <c r="Y95" s="28"/>
       <c r="Z95" s="28"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5084,7 +5084,7 @@
       <c r="Y96" s="28"/>
       <c r="Z96" s="28"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5112,7 +5112,7 @@
       <c r="Y97" s="28"/>
       <c r="Z97" s="28"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -5140,7 +5140,7 @@
       <c r="Y98" s="28"/>
       <c r="Z98" s="28"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -5195,34 +5195,34 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.73046875" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.265625" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>2020</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>2022</v>
@@ -5436,7 +5436,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>79</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2020</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>2022</v>
@@ -5499,7 +5499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>80</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>2020</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H6">
         <v>2022</v>
@@ -5562,7 +5562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
       <c r="R10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="13.15" x14ac:dyDescent="0.4">
       <c r="R11" s="5" t="s">
         <v>8</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R12" s="7" t="s">
         <v>24</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -5651,17 +5651,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5671,7 +5671,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -5681,7 +5681,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
         <v>64</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>70</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>73</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>74</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
         <v>75</v>
       </c>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
         <v>76</v>
       </c>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -5829,7 +5829,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>77</v>
       </c>
@@ -5840,13 +5840,13 @@
       <c r="G11" s="24"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="C12" s="14"/>
       <c r="E12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="C13" s="14"/>
       <c r="E13" s="14"/>

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47FDF8-FABB-4336-9B84-DD59DD3BA985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78462F3B-80F2-4D1B-8360-EDD71B6A3056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8145" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -2394,9 +2394,6 @@
     <t>Galway</t>
   </si>
   <si>
-    <t>*HET</t>
-  </si>
-  <si>
     <t>TimeSlice</t>
   </si>
   <si>
@@ -2548,6 +2545,9 @@
   </si>
   <si>
     <t>District Heating - Low Urban Density</t>
+  </si>
+  <si>
+    <t>FT-RSDHET,FT-SRVHET</t>
   </si>
 </sst>
 </file>
@@ -7239,6 +7239,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7263,20 +7277,6 @@
     <xf numFmtId="0" fontId="30" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2868">
     <cellStyle name="20 % - Markeringsfarve1" xfId="2197" xr:uid="{F2B1431A-9259-4D97-8046-C992FC9CF755}"/>
@@ -11455,12 +11455,12 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -11544,11 +11544,11 @@
       <c r="A19" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
@@ -11576,11 +11576,11 @@
       <c r="A20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
@@ -11668,11 +11668,11 @@
       <c r="A23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -11698,11 +11698,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="31"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -11758,11 +11758,11 @@
       <c r="A26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -11788,11 +11788,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="31"/>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -11880,11 +11880,11 @@
       <c r="A30" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="24"/>
@@ -11912,11 +11912,11 @@
       <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="24"/>
@@ -13874,7 +13874,7 @@
   <dimension ref="A2:AZ134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>50</v>
@@ -13958,10 +13958,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>42</v>
@@ -14043,7 +14043,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>51</v>
@@ -14111,27 +14111,27 @@
         <v>0</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="H5" s="93">
         <v>2020</v>
       </c>
-      <c r="I5" s="106" t="s">
-        <v>544</v>
-      </c>
-      <c r="J5" s="107">
+      <c r="I5" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="99">
         <v>0.85</v>
       </c>
       <c r="K5" s="93">
@@ -14148,11 +14148,11 @@
       <c r="N5" s="93">
         <v>1</v>
       </c>
-      <c r="O5" s="109">
+      <c r="O5" s="101">
         <f>L5*$Q$5</f>
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="Q5" s="113">
+      <c r="Q5" s="105">
         <v>0.03</v>
       </c>
       <c r="S5" s="14" t="s">
@@ -14189,16 +14189,16 @@
     <row r="6" spans="1:36">
       <c r="C6" s="45"/>
       <c r="D6" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
       <c r="H6" s="58"/>
-      <c r="I6" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J6" s="109">
+      <c r="I6" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J6" s="101">
         <v>0.85</v>
       </c>
       <c r="K6" s="58">
@@ -14215,7 +14215,7 @@
       <c r="N6" s="58">
         <v>1</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="101">
         <f t="shared" ref="O6:O9" si="0">L6*$Q$5</f>
         <v>9.3899999999999997E-2</v>
       </c>
@@ -14253,16 +14253,16 @@
     <row r="7" spans="1:36">
       <c r="C7" s="45"/>
       <c r="D7" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="58"/>
-      <c r="I7" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J7" s="109">
+      <c r="I7" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="101">
         <v>0.85</v>
       </c>
       <c r="K7" s="58">
@@ -14279,7 +14279,7 @@
       <c r="N7" s="58">
         <v>1</v>
       </c>
-      <c r="O7" s="109">
+      <c r="O7" s="101">
         <f t="shared" si="0"/>
         <v>7.9200000000000007E-2</v>
       </c>
@@ -14317,16 +14317,16 @@
     <row r="8" spans="1:36">
       <c r="C8" s="45"/>
       <c r="D8" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="58"/>
-      <c r="I8" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J8" s="109">
+      <c r="I8" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J8" s="101">
         <v>0.85</v>
       </c>
       <c r="K8" s="58">
@@ -14343,7 +14343,7 @@
       <c r="N8" s="58">
         <v>1</v>
       </c>
-      <c r="O8" s="109">
+      <c r="O8" s="101">
         <f t="shared" si="0"/>
         <v>9.69E-2</v>
       </c>
@@ -14381,16 +14381,16 @@
     <row r="9" spans="1:36" ht="13.5" thickBot="1">
       <c r="C9" s="92"/>
       <c r="D9" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E9" s="92"/>
       <c r="F9" s="92"/>
       <c r="G9" s="92"/>
       <c r="H9" s="91"/>
-      <c r="I9" s="110" t="s">
-        <v>544</v>
-      </c>
-      <c r="J9" s="111">
+      <c r="I9" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="103">
         <v>0.85</v>
       </c>
       <c r="K9" s="91">
@@ -14407,7 +14407,7 @@
       <c r="N9" s="91">
         <v>1</v>
       </c>
-      <c r="O9" s="111">
+      <c r="O9" s="103">
         <f t="shared" si="0"/>
         <v>7.3499999999999996E-2</v>
       </c>
@@ -14423,27 +14423,27 @@
         <v>1</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="H10" s="93">
         <v>2020</v>
       </c>
-      <c r="I10" s="106" t="s">
-        <v>544</v>
-      </c>
-      <c r="J10" s="107">
+      <c r="I10" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" s="99">
         <v>0.85</v>
       </c>
       <c r="K10" s="93">
@@ -14460,7 +14460,7 @@
       <c r="N10" s="58">
         <v>1</v>
       </c>
-      <c r="O10" s="118">
+      <c r="O10" s="110">
         <f>L10*$Q$5</f>
         <v>0</v>
       </c>
@@ -14474,16 +14474,16 @@
     <row r="11" spans="1:36">
       <c r="C11" s="45"/>
       <c r="D11" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J11" s="109">
+      <c r="I11" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J11" s="101">
         <v>0.85</v>
       </c>
       <c r="K11" s="58">
@@ -14500,8 +14500,8 @@
       <c r="N11" s="58">
         <v>1</v>
       </c>
-      <c r="O11" s="118">
-        <f t="shared" ref="O11:O36" si="1">L11*$Q$5</f>
+      <c r="O11" s="110">
+        <f t="shared" ref="O11:O35" si="1">L11*$Q$5</f>
         <v>7.4649772794334601E-2</v>
       </c>
       <c r="S11" s="14"/>
@@ -14514,16 +14514,16 @@
     <row r="12" spans="1:36">
       <c r="C12" s="45"/>
       <c r="D12" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J12" s="109">
+      <c r="I12" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J12" s="101">
         <v>0.85</v>
       </c>
       <c r="K12" s="58">
@@ -14540,7 +14540,7 @@
       <c r="N12" s="58">
         <v>1</v>
       </c>
-      <c r="O12" s="118">
+      <c r="O12" s="110">
         <f t="shared" si="1"/>
         <v>0.13132317300521995</v>
       </c>
@@ -14554,16 +14554,16 @@
     <row r="13" spans="1:36">
       <c r="C13" s="45"/>
       <c r="D13" s="58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="58"/>
-      <c r="I13" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J13" s="109">
+      <c r="I13" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J13" s="101">
         <v>0.85</v>
       </c>
       <c r="K13" s="58">
@@ -14580,7 +14580,7 @@
       <c r="N13" s="58">
         <v>1</v>
       </c>
-      <c r="O13" s="118">
+      <c r="O13" s="110">
         <f t="shared" si="1"/>
         <v>9.682819058524629E-2</v>
       </c>
@@ -14594,16 +14594,16 @@
     <row r="14" spans="1:36">
       <c r="C14" s="45"/>
       <c r="D14" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="58"/>
-      <c r="I14" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J14" s="109">
+      <c r="I14" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J14" s="101">
         <v>0.85</v>
       </c>
       <c r="K14" s="58">
@@ -14620,7 +14620,7 @@
       <c r="N14" s="58">
         <v>1</v>
       </c>
-      <c r="O14" s="118">
+      <c r="O14" s="110">
         <f t="shared" si="1"/>
         <v>9.8554426712877966E-2</v>
       </c>
@@ -14634,16 +14634,16 @@
     <row r="15" spans="1:36">
       <c r="C15" s="45"/>
       <c r="D15" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="H15" s="58"/>
-      <c r="I15" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J15" s="109">
+      <c r="I15" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="101">
         <v>0.85</v>
       </c>
       <c r="K15" s="58">
@@ -14660,7 +14660,7 @@
       <c r="N15" s="58">
         <v>1</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="110">
         <f t="shared" si="1"/>
         <v>0.13085289689220789</v>
       </c>
@@ -14674,16 +14674,16 @@
     <row r="16" spans="1:36">
       <c r="C16" s="45"/>
       <c r="D16" s="58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="58"/>
-      <c r="I16" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J16" s="109">
+      <c r="I16" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="101">
         <v>0.85</v>
       </c>
       <c r="K16" s="58">
@@ -14700,7 +14700,7 @@
       <c r="N16" s="58">
         <v>1</v>
       </c>
-      <c r="O16" s="118">
+      <c r="O16" s="110">
         <f t="shared" si="1"/>
         <v>0.10831163849560281</v>
       </c>
@@ -14714,16 +14714,16 @@
     <row r="17" spans="3:27">
       <c r="C17" s="45"/>
       <c r="D17" s="58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="58"/>
-      <c r="I17" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J17" s="109">
+      <c r="I17" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J17" s="101">
         <v>0.85</v>
       </c>
       <c r="K17" s="58">
@@ -14740,7 +14740,7 @@
       <c r="N17" s="58">
         <v>1</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14754,16 +14754,16 @@
     <row r="18" spans="3:27">
       <c r="C18" s="45"/>
       <c r="D18" s="58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="58"/>
-      <c r="I18" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J18" s="109">
+      <c r="I18" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J18" s="101">
         <v>0.85</v>
       </c>
       <c r="K18" s="58">
@@ -14780,7 +14780,7 @@
       <c r="N18" s="58">
         <v>1</v>
       </c>
-      <c r="O18" s="118">
+      <c r="O18" s="110">
         <f t="shared" si="1"/>
         <v>7.3511124431490354E-2</v>
       </c>
@@ -14794,16 +14794,16 @@
     <row r="19" spans="3:27">
       <c r="C19" s="45"/>
       <c r="D19" s="58" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J19" s="109">
+      <c r="I19" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J19" s="101">
         <v>0.85</v>
       </c>
       <c r="K19" s="58">
@@ -14820,7 +14820,7 @@
       <c r="N19" s="58">
         <v>1</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="110">
         <f t="shared" si="1"/>
         <v>7.6336571062036118E-2</v>
       </c>
@@ -14834,16 +14834,16 @@
     <row r="20" spans="3:27">
       <c r="C20" s="45"/>
       <c r="D20" s="58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J20" s="109">
+      <c r="I20" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J20" s="101">
         <v>0.85</v>
       </c>
       <c r="K20" s="58">
@@ -14860,7 +14860,7 @@
       <c r="N20" s="58">
         <v>1</v>
       </c>
-      <c r="O20" s="118">
+      <c r="O20" s="110">
         <f t="shared" si="1"/>
         <v>7.7253695078612961E-2</v>
       </c>
@@ -14874,16 +14874,16 @@
     <row r="21" spans="3:27">
       <c r="C21" s="45"/>
       <c r="D21" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J21" s="109">
+      <c r="I21" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J21" s="101">
         <v>0.85</v>
       </c>
       <c r="K21" s="58">
@@ -14900,7 +14900,7 @@
       <c r="N21" s="58">
         <v>1</v>
       </c>
-      <c r="O21" s="118">
+      <c r="O21" s="110">
         <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
@@ -14914,16 +14914,16 @@
     <row r="22" spans="3:27">
       <c r="C22" s="45"/>
       <c r="D22" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J22" s="109">
+      <c r="I22" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J22" s="101">
         <v>0.85</v>
       </c>
       <c r="K22" s="58">
@@ -14940,7 +14940,7 @@
       <c r="N22" s="58">
         <v>1</v>
       </c>
-      <c r="O22" s="118">
+      <c r="O22" s="110">
         <f t="shared" si="1"/>
         <v>3.7502647887323944E-2</v>
       </c>
@@ -14954,16 +14954,16 @@
     <row r="23" spans="3:27">
       <c r="C23" s="45"/>
       <c r="D23" s="58" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J23" s="109">
+      <c r="I23" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J23" s="101">
         <v>0.85</v>
       </c>
       <c r="K23" s="58">
@@ -14980,7 +14980,7 @@
       <c r="N23" s="58">
         <v>1</v>
       </c>
-      <c r="O23" s="118">
+      <c r="O23" s="110">
         <f t="shared" si="1"/>
         <v>0.10117743191596761</v>
       </c>
@@ -14994,16 +14994,16 @@
     <row r="24" spans="3:27">
       <c r="C24" s="45"/>
       <c r="D24" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J24" s="109">
+      <c r="I24" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J24" s="101">
         <v>0.85</v>
       </c>
       <c r="K24" s="58">
@@ -15020,7 +15020,7 @@
       <c r="N24" s="58">
         <v>1</v>
       </c>
-      <c r="O24" s="118">
+      <c r="O24" s="110">
         <f t="shared" si="1"/>
         <v>8.2682332260460498E-2</v>
       </c>
@@ -15034,16 +15034,16 @@
     <row r="25" spans="3:27">
       <c r="C25" s="45"/>
       <c r="D25" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J25" s="109">
+      <c r="I25" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25" s="101">
         <v>0.85</v>
       </c>
       <c r="K25" s="58">
@@ -15060,7 +15060,7 @@
       <c r="N25" s="58">
         <v>1</v>
       </c>
-      <c r="O25" s="118">
+      <c r="O25" s="110">
         <f t="shared" si="1"/>
         <v>8.8771509578544044E-2</v>
       </c>
@@ -15074,16 +15074,16 @@
     <row r="26" spans="3:27">
       <c r="C26" s="45"/>
       <c r="D26" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J26" s="109">
+      <c r="I26" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26" s="101">
         <v>0.85</v>
       </c>
       <c r="K26" s="58">
@@ -15100,7 +15100,7 @@
       <c r="N26" s="58">
         <v>1</v>
       </c>
-      <c r="O26" s="118">
+      <c r="O26" s="110">
         <f t="shared" si="1"/>
         <v>8.072845202419221E-2</v>
       </c>
@@ -15114,16 +15114,16 @@
     <row r="27" spans="3:27">
       <c r="C27" s="45"/>
       <c r="D27" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J27" s="109">
+      <c r="I27" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J27" s="101">
         <v>0.85</v>
       </c>
       <c r="K27" s="58">
@@ -15140,7 +15140,7 @@
       <c r="N27" s="58">
         <v>1</v>
       </c>
-      <c r="O27" s="118">
+      <c r="O27" s="110">
         <f t="shared" si="1"/>
         <v>0.10817601264243534</v>
       </c>
@@ -15154,16 +15154,16 @@
     <row r="28" spans="3:27">
       <c r="C28" s="45"/>
       <c r="D28" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J28" s="109">
+      <c r="I28" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J28" s="101">
         <v>0.85</v>
       </c>
       <c r="K28" s="58">
@@ -15180,7 +15180,7 @@
       <c r="N28" s="58">
         <v>1</v>
       </c>
-      <c r="O28" s="118">
+      <c r="O28" s="110">
         <f t="shared" si="1"/>
         <v>8.6972871434365273E-2</v>
       </c>
@@ -15194,16 +15194,16 @@
     <row r="29" spans="3:27">
       <c r="C29" s="45"/>
       <c r="D29" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J29" s="109">
+      <c r="I29" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J29" s="101">
         <v>0.85</v>
       </c>
       <c r="K29" s="58">
@@ -15220,7 +15220,7 @@
       <c r="N29" s="58">
         <v>1</v>
       </c>
-      <c r="O29" s="118">
+      <c r="O29" s="110">
         <f t="shared" si="1"/>
         <v>0.11327099070920744</v>
       </c>
@@ -15234,16 +15234,16 @@
     <row r="30" spans="3:27">
       <c r="C30" s="45"/>
       <c r="D30" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J30" s="109">
+      <c r="I30" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J30" s="101">
         <v>0.85</v>
       </c>
       <c r="K30" s="58">
@@ -15260,7 +15260,7 @@
       <c r="N30" s="58">
         <v>1</v>
       </c>
-      <c r="O30" s="118">
+      <c r="O30" s="110">
         <f t="shared" si="1"/>
         <v>8.7531336315891842E-2</v>
       </c>
@@ -15274,16 +15274,16 @@
     <row r="31" spans="3:27">
       <c r="C31" s="45"/>
       <c r="D31" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J31" s="109">
+      <c r="I31" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J31" s="101">
         <v>0.85</v>
       </c>
       <c r="K31" s="58">
@@ -15300,7 +15300,7 @@
       <c r="N31" s="58">
         <v>1</v>
       </c>
-      <c r="O31" s="118">
+      <c r="O31" s="110">
         <f t="shared" si="1"/>
         <v>0.12882137215425118</v>
       </c>
@@ -15314,16 +15314,16 @@
     <row r="32" spans="3:27">
       <c r="C32" s="45"/>
       <c r="D32" s="58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J32" s="109">
+      <c r="I32" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J32" s="101">
         <v>0.85</v>
       </c>
       <c r="K32" s="58">
@@ -15340,7 +15340,7 @@
       <c r="N32" s="58">
         <v>1</v>
       </c>
-      <c r="O32" s="118">
+      <c r="O32" s="110">
         <f t="shared" si="1"/>
         <v>9.0222512296632626E-2</v>
       </c>
@@ -15354,16 +15354,16 @@
     <row r="33" spans="1:27">
       <c r="C33" s="45"/>
       <c r="D33" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J33" s="109">
+      <c r="I33" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J33" s="101">
         <v>0.85</v>
       </c>
       <c r="K33" s="58">
@@ -15380,7 +15380,7 @@
       <c r="N33" s="58">
         <v>1</v>
       </c>
-      <c r="O33" s="118">
+      <c r="O33" s="110">
         <f t="shared" si="1"/>
         <v>8.4200629117455031E-2</v>
       </c>
@@ -15394,16 +15394,16 @@
     <row r="34" spans="1:27">
       <c r="C34" s="45"/>
       <c r="D34" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J34" s="109">
+      <c r="I34" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J34" s="101">
         <v>0.85</v>
       </c>
       <c r="K34" s="58">
@@ -15420,7 +15420,7 @@
       <c r="N34" s="58">
         <v>1</v>
       </c>
-      <c r="O34" s="118">
+      <c r="O34" s="110">
         <f t="shared" si="1"/>
         <v>9.8101481798382059E-2</v>
       </c>
@@ -15434,16 +15434,16 @@
     <row r="35" spans="1:27" ht="13.5" thickBot="1">
       <c r="C35" s="92"/>
       <c r="D35" s="91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E35" s="92"/>
       <c r="F35" s="92"/>
       <c r="G35" s="92"/>
       <c r="H35" s="91"/>
-      <c r="I35" s="110" t="s">
-        <v>544</v>
-      </c>
-      <c r="J35" s="111">
+      <c r="I35" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="J35" s="103">
         <v>0.85</v>
       </c>
       <c r="K35" s="91">
@@ -15460,7 +15460,7 @@
       <c r="N35" s="91">
         <v>1</v>
       </c>
-      <c r="O35" s="119">
+      <c r="O35" s="111">
         <f t="shared" si="1"/>
         <v>0.10045520741319565</v>
       </c>
@@ -15476,27 +15476,27 @@
         <v>2</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="41" t="s">
-        <v>504</v>
+      <c r="G36" s="46" t="s">
+        <v>555</v>
       </c>
       <c r="H36">
         <v>2020</v>
       </c>
-      <c r="I36" s="106" t="s">
-        <v>544</v>
-      </c>
-      <c r="J36" s="107">
+      <c r="I36" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J36" s="99">
         <v>0.85</v>
       </c>
       <c r="K36" s="93">
@@ -15513,7 +15513,7 @@
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36" s="118">
+      <c r="O36" s="110">
         <f>L36*$Q$5</f>
         <v>0.12238041222408444</v>
       </c>
@@ -15527,15 +15527,15 @@
     <row r="37" spans="1:27">
       <c r="C37" s="41"/>
       <c r="D37" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
-      <c r="I37" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J37" s="109">
+      <c r="I37" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J37" s="101">
         <v>0.85</v>
       </c>
       <c r="K37" s="58">
@@ -15552,7 +15552,7 @@
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="O37" s="118">
+      <c r="O37" s="110">
         <f t="shared" ref="O37:O87" si="2">L37*$Q$5</f>
         <v>0.1878787687376261</v>
       </c>
@@ -15566,15 +15566,15 @@
     <row r="38" spans="1:27">
       <c r="C38" s="41"/>
       <c r="D38" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
-      <c r="I38" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J38" s="109">
+      <c r="I38" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J38" s="101">
         <v>0.85</v>
       </c>
       <c r="K38" s="58">
@@ -15591,7 +15591,7 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" s="118">
+      <c r="O38" s="110">
         <f t="shared" si="2"/>
         <v>0.23756137328127652</v>
       </c>
@@ -15605,15 +15605,15 @@
     <row r="39" spans="1:27">
       <c r="C39" s="41"/>
       <c r="D39" s="58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
-      <c r="I39" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J39" s="109">
+      <c r="I39" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J39" s="101">
         <v>0.85</v>
       </c>
       <c r="K39" s="58">
@@ -15630,7 +15630,7 @@
       <c r="N39">
         <v>1</v>
       </c>
-      <c r="O39" s="118">
+      <c r="O39" s="110">
         <f t="shared" si="2"/>
         <v>0.17371266892801376</v>
       </c>
@@ -15644,15 +15644,15 @@
     <row r="40" spans="1:27">
       <c r="C40" s="41"/>
       <c r="D40" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
-      <c r="I40" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J40" s="109">
+      <c r="I40" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J40" s="101">
         <v>0.85</v>
       </c>
       <c r="K40" s="58">
@@ -15669,7 +15669,7 @@
       <c r="N40">
         <v>1</v>
       </c>
-      <c r="O40" s="118">
+      <c r="O40" s="110">
         <f t="shared" si="2"/>
         <v>0.19510025825195706</v>
       </c>
@@ -15683,15 +15683,15 @@
     <row r="41" spans="1:27">
       <c r="C41" s="41"/>
       <c r="D41" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
-      <c r="I41" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J41" s="109">
+      <c r="I41" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J41" s="101">
         <v>0.85</v>
       </c>
       <c r="K41" s="58">
@@ -15708,7 +15708,7 @@
       <c r="N41">
         <v>1</v>
       </c>
-      <c r="O41" s="118">
+      <c r="O41" s="110">
         <f t="shared" si="2"/>
         <v>0.19978052441160304</v>
       </c>
@@ -15722,15 +15722,15 @@
     <row r="42" spans="1:27">
       <c r="C42" s="41"/>
       <c r="D42" s="58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
-      <c r="I42" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J42" s="109">
+      <c r="I42" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J42" s="101">
         <v>0.85</v>
       </c>
       <c r="K42" s="58">
@@ -15747,7 +15747,7 @@
       <c r="N42">
         <v>1</v>
       </c>
-      <c r="O42" s="118">
+      <c r="O42" s="110">
         <f t="shared" si="2"/>
         <v>0.17080519443966663</v>
       </c>
@@ -15761,15 +15761,15 @@
     <row r="43" spans="1:27">
       <c r="C43" s="41"/>
       <c r="D43" s="58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
-      <c r="I43" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J43" s="109">
+      <c r="I43" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J43" s="101">
         <v>0.85</v>
       </c>
       <c r="K43" s="58">
@@ -15786,7 +15786,7 @@
       <c r="N43">
         <v>1</v>
       </c>
-      <c r="O43" s="118">
+      <c r="O43" s="110">
         <f t="shared" si="2"/>
         <v>0.11176310682845059</v>
       </c>
@@ -15800,15 +15800,15 @@
     <row r="44" spans="1:27">
       <c r="C44" s="41"/>
       <c r="D44" s="58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
-      <c r="I44" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J44" s="109">
+      <c r="I44" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J44" s="101">
         <v>0.85</v>
       </c>
       <c r="K44" s="58">
@@ -15825,7 +15825,7 @@
       <c r="N44">
         <v>1</v>
       </c>
-      <c r="O44" s="118">
+      <c r="O44" s="110">
         <f t="shared" si="2"/>
         <v>0.17871557703014393</v>
       </c>
@@ -15839,15 +15839,15 @@
     <row r="45" spans="1:27">
       <c r="C45" s="41"/>
       <c r="D45" s="58" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
-      <c r="I45" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J45" s="109">
+      <c r="I45" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J45" s="101">
         <v>0.85</v>
       </c>
       <c r="K45" s="58">
@@ -15864,7 +15864,7 @@
       <c r="N45">
         <v>1</v>
       </c>
-      <c r="O45" s="118">
+      <c r="O45" s="110">
         <f t="shared" si="2"/>
         <v>0.26753157345575962</v>
       </c>
@@ -15878,15 +15878,15 @@
     <row r="46" spans="1:27">
       <c r="C46" s="41"/>
       <c r="D46" s="58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
-      <c r="I46" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J46" s="109">
+      <c r="I46" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J46" s="101">
         <v>0.85</v>
       </c>
       <c r="K46" s="58">
@@ -15903,7 +15903,7 @@
       <c r="N46">
         <v>1</v>
       </c>
-      <c r="O46" s="118">
+      <c r="O46" s="110">
         <f t="shared" si="2"/>
         <v>0.15637467563671312</v>
       </c>
@@ -15917,15 +15917,15 @@
     <row r="47" spans="1:27">
       <c r="C47" s="41"/>
       <c r="D47" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
-      <c r="I47" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J47" s="109">
+      <c r="I47" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J47" s="101">
         <v>0.85</v>
       </c>
       <c r="K47" s="58">
@@ -15942,7 +15942,7 @@
       <c r="N47">
         <v>1</v>
       </c>
-      <c r="O47" s="118">
+      <c r="O47" s="110">
         <f t="shared" si="2"/>
         <v>0.20999135645079045</v>
       </c>
@@ -15956,15 +15956,15 @@
     <row r="48" spans="1:27">
       <c r="C48" s="41"/>
       <c r="D48" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
-      <c r="I48" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J48" s="109">
+      <c r="I48" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J48" s="101">
         <v>0.85</v>
       </c>
       <c r="K48" s="58">
@@ -15981,7 +15981,7 @@
       <c r="N48">
         <v>1</v>
       </c>
-      <c r="O48" s="118">
+      <c r="O48" s="110">
         <f t="shared" si="2"/>
         <v>0.1709030981067125</v>
       </c>
@@ -15995,15 +15995,15 @@
     <row r="49" spans="1:27">
       <c r="C49" s="41"/>
       <c r="D49" s="58" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
-      <c r="I49" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J49" s="109">
+      <c r="I49" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J49" s="101">
         <v>0.85</v>
       </c>
       <c r="K49" s="58">
@@ -16020,7 +16020,7 @@
       <c r="N49">
         <v>1</v>
       </c>
-      <c r="O49" s="118">
+      <c r="O49" s="110">
         <f t="shared" si="2"/>
         <v>0.21876790553138595</v>
       </c>
@@ -16034,15 +16034,15 @@
     <row r="50" spans="1:27">
       <c r="C50" s="41"/>
       <c r="D50" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
-      <c r="I50" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J50" s="109">
+      <c r="I50" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J50" s="101">
         <v>0.85</v>
       </c>
       <c r="K50" s="58">
@@ -16059,7 +16059,7 @@
       <c r="N50">
         <v>1</v>
       </c>
-      <c r="O50" s="118">
+      <c r="O50" s="110">
         <f t="shared" si="2"/>
         <v>0.16918759009714826</v>
       </c>
@@ -16073,15 +16073,15 @@
     <row r="51" spans="1:27">
       <c r="C51" s="41"/>
       <c r="D51" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
-      <c r="I51" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J51" s="109">
+      <c r="I51" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J51" s="101">
         <v>0.85</v>
       </c>
       <c r="K51" s="58">
@@ -16098,7 +16098,7 @@
       <c r="N51">
         <v>1</v>
       </c>
-      <c r="O51" s="118">
+      <c r="O51" s="110">
         <f t="shared" si="2"/>
         <v>0.16750823375050464</v>
       </c>
@@ -16112,15 +16112,15 @@
     <row r="52" spans="1:27">
       <c r="C52" s="41"/>
       <c r="D52" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
-      <c r="I52" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J52" s="109">
+      <c r="I52" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J52" s="101">
         <v>0.85</v>
       </c>
       <c r="K52" s="58">
@@ -16137,7 +16137,7 @@
       <c r="N52">
         <v>1</v>
       </c>
-      <c r="O52" s="118">
+      <c r="O52" s="110">
         <f t="shared" si="2"/>
         <v>0.1594821352895516</v>
       </c>
@@ -16151,15 +16151,15 @@
     <row r="53" spans="1:27">
       <c r="C53" s="41"/>
       <c r="D53" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
-      <c r="I53" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J53" s="109">
+      <c r="I53" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J53" s="101">
         <v>0.85</v>
       </c>
       <c r="K53" s="58">
@@ -16176,7 +16176,7 @@
       <c r="N53">
         <v>1</v>
       </c>
-      <c r="O53" s="118">
+      <c r="O53" s="110">
         <f t="shared" si="2"/>
         <v>0.15098776028440833</v>
       </c>
@@ -16190,15 +16190,15 @@
     <row r="54" spans="1:27">
       <c r="C54" s="41"/>
       <c r="D54" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
-      <c r="I54" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J54" s="109">
+      <c r="I54" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J54" s="101">
         <v>0.85</v>
       </c>
       <c r="K54" s="58">
@@ -16215,7 +16215,7 @@
       <c r="N54">
         <v>1</v>
       </c>
-      <c r="O54" s="118">
+      <c r="O54" s="110">
         <f t="shared" si="2"/>
         <v>0.1717709816923742</v>
       </c>
@@ -16229,15 +16229,15 @@
     <row r="55" spans="1:27">
       <c r="C55" s="41"/>
       <c r="D55" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
-      <c r="I55" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J55" s="109">
+      <c r="I55" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J55" s="101">
         <v>0.85</v>
       </c>
       <c r="K55" s="58">
@@ -16254,7 +16254,7 @@
       <c r="N55">
         <v>1</v>
       </c>
-      <c r="O55" s="118">
+      <c r="O55" s="110">
         <f t="shared" si="2"/>
         <v>0.18554555666003977</v>
       </c>
@@ -16268,15 +16268,15 @@
     <row r="56" spans="1:27">
       <c r="C56" s="41"/>
       <c r="D56" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
-      <c r="I56" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J56" s="109">
+      <c r="I56" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J56" s="101">
         <v>0.85</v>
       </c>
       <c r="K56" s="58">
@@ -16293,7 +16293,7 @@
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="O56" s="118">
+      <c r="O56" s="110">
         <f t="shared" si="2"/>
         <v>0.17762595275331305</v>
       </c>
@@ -16307,15 +16307,15 @@
     <row r="57" spans="1:27">
       <c r="C57" s="41"/>
       <c r="D57" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
-      <c r="I57" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J57" s="109">
+      <c r="I57" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J57" s="101">
         <v>0.85</v>
       </c>
       <c r="K57" s="58">
@@ -16332,7 +16332,7 @@
       <c r="N57">
         <v>1</v>
       </c>
-      <c r="O57" s="118">
+      <c r="O57" s="110">
         <f t="shared" si="2"/>
         <v>0.18008836989767021</v>
       </c>
@@ -16346,15 +16346,15 @@
     <row r="58" spans="1:27">
       <c r="C58" s="41"/>
       <c r="D58" s="58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
-      <c r="I58" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J58" s="109">
+      <c r="I58" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J58" s="101">
         <v>0.85</v>
       </c>
       <c r="K58" s="58">
@@ -16371,7 +16371,7 @@
       <c r="N58">
         <v>1</v>
       </c>
-      <c r="O58" s="118">
+      <c r="O58" s="110">
         <f t="shared" si="2"/>
         <v>0.21970307603017991</v>
       </c>
@@ -16385,15 +16385,15 @@
     <row r="59" spans="1:27">
       <c r="C59" s="41"/>
       <c r="D59" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
-      <c r="I59" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J59" s="109">
+      <c r="I59" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J59" s="101">
         <v>0.85</v>
       </c>
       <c r="K59" s="58">
@@ -16410,7 +16410,7 @@
       <c r="N59">
         <v>1</v>
       </c>
-      <c r="O59" s="118">
+      <c r="O59" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16424,15 +16424,15 @@
     <row r="60" spans="1:27">
       <c r="C60" s="41"/>
       <c r="D60" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
-      <c r="I60" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J60" s="109">
+      <c r="I60" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J60" s="101">
         <v>0.85</v>
       </c>
       <c r="K60" s="58">
@@ -16449,7 +16449,7 @@
       <c r="N60">
         <v>1</v>
       </c>
-      <c r="O60" s="118">
+      <c r="O60" s="110">
         <f t="shared" si="2"/>
         <v>0.21060598425804461</v>
       </c>
@@ -16463,33 +16463,33 @@
     <row r="61" spans="1:27" ht="13.5" thickBot="1">
       <c r="C61" s="92"/>
       <c r="D61" s="91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E61" s="92"/>
       <c r="F61" s="92"/>
       <c r="G61" s="92"/>
       <c r="H61" s="91"/>
-      <c r="I61" s="110" t="s">
-        <v>544</v>
-      </c>
-      <c r="J61" s="111">
+      <c r="I61" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="J61" s="103">
         <v>0.85</v>
       </c>
       <c r="K61" s="91">
         <v>30</v>
       </c>
-      <c r="L61" s="112" cm="1">
+      <c r="L61" s="104" cm="1">
         <f t="array" ref="L61">IFERROR(SUMPRODUCT((Table1[Region]=D61)*(Table1[Group]=$A$36)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M61*1000))),0)</f>
         <v>5.8743219211859472</v>
       </c>
-      <c r="M61" s="112">
+      <c r="M61" s="104">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D61,Table1[Group],$A$36)/1000</f>
         <v>0.66916999999999993</v>
       </c>
       <c r="N61" s="91">
         <v>1</v>
       </c>
-      <c r="O61" s="119">
+      <c r="O61" s="111">
         <f t="shared" si="2"/>
         <v>0.17622965763557841</v>
       </c>
@@ -16505,27 +16505,27 @@
         <v>3</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F62" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="41" t="s">
-        <v>504</v>
+      <c r="G62" s="46" t="s">
+        <v>555</v>
       </c>
       <c r="H62">
         <v>2020</v>
       </c>
-      <c r="I62" s="106" t="s">
-        <v>544</v>
-      </c>
-      <c r="J62" s="107">
+      <c r="I62" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="J62" s="99">
         <v>0.85</v>
       </c>
       <c r="K62" s="93">
@@ -16539,10 +16539,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D62,Table1[Group],$A$62)/1000</f>
         <v>7.7429999999999999E-2</v>
       </c>
-      <c r="N62" s="114">
+      <c r="N62" s="106">
         <v>1</v>
       </c>
-      <c r="O62" s="117">
+      <c r="O62" s="109">
         <f t="shared" si="2"/>
         <v>0.31911728012398299</v>
       </c>
@@ -16556,15 +16556,15 @@
     <row r="63" spans="1:27">
       <c r="C63" s="41"/>
       <c r="D63" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
-      <c r="I63" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J63" s="109">
+      <c r="I63" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J63" s="101">
         <v>0.85</v>
       </c>
       <c r="K63" s="58">
@@ -16578,10 +16578,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D63,Table1[Group],$A$62)/1000</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N63" s="115">
+      <c r="N63" s="107">
         <v>1</v>
       </c>
-      <c r="O63" s="118">
+      <c r="O63" s="110">
         <f t="shared" si="2"/>
         <v>0.38189937499999999</v>
       </c>
@@ -16595,15 +16595,15 @@
     <row r="64" spans="1:27">
       <c r="C64" s="41"/>
       <c r="D64" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
-      <c r="I64" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J64" s="109">
+      <c r="I64" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J64" s="101">
         <v>0.85</v>
       </c>
       <c r="K64" s="58">
@@ -16617,10 +16617,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D64,Table1[Group],$A$62)/1000</f>
         <v>9.0020000000000003E-2</v>
       </c>
-      <c r="N64" s="115">
+      <c r="N64" s="107">
         <v>1</v>
       </c>
-      <c r="O64" s="118">
+      <c r="O64" s="110">
         <f t="shared" si="2"/>
         <v>0.39659860031104205</v>
       </c>
@@ -16634,15 +16634,15 @@
     <row r="65" spans="3:27">
       <c r="C65" s="41"/>
       <c r="D65" s="58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-      <c r="I65" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J65" s="109">
+      <c r="I65" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J65" s="101">
         <v>0.85</v>
       </c>
       <c r="K65" s="58">
@@ -16656,10 +16656,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D65,Table1[Group],$A$62)/1000</f>
         <v>0.27913000000000004</v>
       </c>
-      <c r="N65" s="115">
+      <c r="N65" s="107">
         <v>1</v>
       </c>
-      <c r="O65" s="118">
+      <c r="O65" s="110">
         <f t="shared" si="2"/>
         <v>0.29820836169526743</v>
       </c>
@@ -16673,15 +16673,15 @@
     <row r="66" spans="3:27">
       <c r="C66" s="41"/>
       <c r="D66" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
-      <c r="I66" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J66" s="109">
+      <c r="I66" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J66" s="101">
         <v>0.85</v>
       </c>
       <c r="K66" s="58">
@@ -16695,10 +16695,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D66,Table1[Group],$A$62)/1000</f>
         <v>0.28690000000000004</v>
       </c>
-      <c r="N66" s="115">
+      <c r="N66" s="107">
         <v>1</v>
       </c>
-      <c r="O66" s="118">
+      <c r="O66" s="110">
         <f t="shared" si="2"/>
         <v>0.36986733356570228</v>
       </c>
@@ -16712,15 +16712,15 @@
     <row r="67" spans="3:27">
       <c r="C67" s="41"/>
       <c r="D67" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
-      <c r="I67" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J67" s="109">
+      <c r="I67" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" s="101">
         <v>0.85</v>
       </c>
       <c r="K67" s="58">
@@ -16734,10 +16734,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D67,Table1[Group],$A$62)/1000</f>
         <v>1.264E-2</v>
       </c>
-      <c r="N67" s="115">
+      <c r="N67" s="107">
         <v>1</v>
       </c>
-      <c r="O67" s="118">
+      <c r="O67" s="110">
         <f t="shared" si="2"/>
         <v>0.61499999999999999</v>
       </c>
@@ -16751,15 +16751,15 @@
     <row r="68" spans="3:27">
       <c r="C68" s="41"/>
       <c r="D68" s="58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
-      <c r="I68" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J68" s="109">
+      <c r="I68" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J68" s="101">
         <v>0.85</v>
       </c>
       <c r="K68" s="58">
@@ -16773,10 +16773,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D68,Table1[Group],$A$62)/1000</f>
         <v>0.12188999999999998</v>
       </c>
-      <c r="N68" s="115">
+      <c r="N68" s="107">
         <v>1</v>
       </c>
-      <c r="O68" s="118">
+      <c r="O68" s="110">
         <f t="shared" si="2"/>
         <v>0.36516785626384451</v>
       </c>
@@ -16790,15 +16790,15 @@
     <row r="69" spans="3:27">
       <c r="C69" s="41"/>
       <c r="D69" s="58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
-      <c r="I69" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J69" s="109">
+      <c r="I69" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" s="101">
         <v>0.85</v>
       </c>
       <c r="K69" s="58">
@@ -16812,10 +16812,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D69,Table1[Group],$A$62)/1000</f>
         <v>0.17945</v>
       </c>
-      <c r="N69" s="115">
+      <c r="N69" s="107">
         <v>1</v>
       </c>
-      <c r="O69" s="118">
+      <c r="O69" s="110">
         <f t="shared" si="2"/>
         <v>0.34597370855391474</v>
       </c>
@@ -16829,15 +16829,15 @@
     <row r="70" spans="3:27">
       <c r="C70" s="41"/>
       <c r="D70" s="58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
-      <c r="I70" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J70" s="109">
+      <c r="I70" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" s="101">
         <v>0.85</v>
       </c>
       <c r="K70" s="58">
@@ -16851,10 +16851,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D70,Table1[Group],$A$62)/1000</f>
         <v>0.10152000000000003</v>
       </c>
-      <c r="N70" s="115">
+      <c r="N70" s="107">
         <v>1</v>
       </c>
-      <c r="O70" s="118">
+      <c r="O70" s="110">
         <f t="shared" si="2"/>
         <v>0.41387751182033083</v>
       </c>
@@ -16868,15 +16868,15 @@
     <row r="71" spans="3:27">
       <c r="C71" s="41"/>
       <c r="D71" s="58" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
-      <c r="I71" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J71" s="109">
+      <c r="I71" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J71" s="101">
         <v>0.85</v>
       </c>
       <c r="K71" s="58">
@@ -16890,10 +16890,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D71,Table1[Group],$A$62)/1000</f>
         <v>5.2170000000000001E-2</v>
       </c>
-      <c r="N71" s="115">
+      <c r="N71" s="107">
         <v>1</v>
       </c>
-      <c r="O71" s="118">
+      <c r="O71" s="110">
         <f t="shared" si="2"/>
         <v>0.37292972972972976</v>
       </c>
@@ -16907,15 +16907,15 @@
     <row r="72" spans="3:27">
       <c r="C72" s="41"/>
       <c r="D72" s="58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
-      <c r="I72" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J72" s="109">
+      <c r="I72" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J72" s="101">
         <v>0.85</v>
       </c>
       <c r="K72" s="58">
@@ -16929,10 +16929,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D72,Table1[Group],$A$62)/1000</f>
         <v>7.1859999999999979E-2</v>
       </c>
-      <c r="N72" s="115">
+      <c r="N72" s="107">
         <v>1</v>
       </c>
-      <c r="O72" s="118">
+      <c r="O72" s="110">
         <f t="shared" si="2"/>
         <v>0.36222946006123019</v>
       </c>
@@ -16946,15 +16946,15 @@
     <row r="73" spans="3:27">
       <c r="C73" s="41"/>
       <c r="D73" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
-      <c r="I73" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J73" s="109">
+      <c r="I73" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" s="101">
         <v>0.85</v>
       </c>
       <c r="K73" s="58">
@@ -16968,10 +16968,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D73,Table1[Group],$A$62)/1000</f>
         <v>5.6119999999999996E-2</v>
       </c>
-      <c r="N73" s="115">
+      <c r="N73" s="107">
         <v>1</v>
       </c>
-      <c r="O73" s="118">
+      <c r="O73" s="110">
         <f t="shared" si="2"/>
         <v>0.32101641126158231</v>
       </c>
@@ -16985,15 +16985,15 @@
     <row r="74" spans="3:27">
       <c r="C74" s="41"/>
       <c r="D74" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
-      <c r="I74" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J74" s="109">
+      <c r="I74" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J74" s="101">
         <v>0.85</v>
       </c>
       <c r="K74" s="58">
@@ -17007,10 +17007,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D74,Table1[Group],$A$62)/1000</f>
         <v>0.21781999999999996</v>
       </c>
-      <c r="N74" s="115">
+      <c r="N74" s="107">
         <v>1</v>
       </c>
-      <c r="O74" s="118">
+      <c r="O74" s="110">
         <f t="shared" si="2"/>
         <v>0.36027242677440097</v>
       </c>
@@ -17024,15 +17024,15 @@
     <row r="75" spans="3:27">
       <c r="C75" s="41"/>
       <c r="D75" s="58" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
-      <c r="I75" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J75" s="109">
+      <c r="I75" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J75" s="101">
         <v>0.85</v>
       </c>
       <c r="K75" s="58">
@@ -17046,10 +17046,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D75,Table1[Group],$A$62)/1000</f>
         <v>2.4259999999999997E-2</v>
       </c>
-      <c r="N75" s="115">
+      <c r="N75" s="107">
         <v>1</v>
       </c>
-      <c r="O75" s="118">
+      <c r="O75" s="110">
         <f t="shared" si="2"/>
         <v>0.46014361088211053</v>
       </c>
@@ -17063,15 +17063,15 @@
     <row r="76" spans="3:27">
       <c r="C76" s="41"/>
       <c r="D76" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
-      <c r="I76" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J76" s="109">
+      <c r="I76" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J76" s="101">
         <v>0.85</v>
       </c>
       <c r="K76" s="58">
@@ -17085,10 +17085,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D76,Table1[Group],$A$62)/1000</f>
         <v>9.8029999999999992E-2</v>
       </c>
-      <c r="N76" s="115">
+      <c r="N76" s="107">
         <v>1</v>
       </c>
-      <c r="O76" s="118">
+      <c r="O76" s="110">
         <f t="shared" si="2"/>
         <v>0.3882615729878609</v>
       </c>
@@ -17102,15 +17102,15 @@
     <row r="77" spans="3:27">
       <c r="C77" s="41"/>
       <c r="D77" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
-      <c r="I77" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J77" s="109">
+      <c r="I77" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J77" s="101">
         <v>0.85</v>
       </c>
       <c r="K77" s="58">
@@ -17124,10 +17124,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D77,Table1[Group],$A$62)/1000</f>
         <v>0.10370999999999998</v>
       </c>
-      <c r="N77" s="115">
+      <c r="N77" s="107">
         <v>1</v>
       </c>
-      <c r="O77" s="118">
+      <c r="O77" s="110">
         <f t="shared" si="2"/>
         <v>0.41984665895284939</v>
       </c>
@@ -17141,15 +17141,15 @@
     <row r="78" spans="3:27">
       <c r="C78" s="41"/>
       <c r="D78" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
-      <c r="I78" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J78" s="109">
+      <c r="I78" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" s="101">
         <v>0.85</v>
       </c>
       <c r="K78" s="58">
@@ -17163,10 +17163,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D78,Table1[Group],$A$62)/1000</f>
         <v>3.4279999999999998E-2</v>
       </c>
-      <c r="N78" s="115">
+      <c r="N78" s="107">
         <v>1</v>
       </c>
-      <c r="O78" s="118">
+      <c r="O78" s="110">
         <f t="shared" si="2"/>
         <v>0.4243514002333722</v>
       </c>
@@ -17180,15 +17180,15 @@
     <row r="79" spans="3:27">
       <c r="C79" s="41"/>
       <c r="D79" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
-      <c r="I79" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J79" s="109">
+      <c r="I79" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J79" s="101">
         <v>0.85</v>
       </c>
       <c r="K79" s="58">
@@ -17202,10 +17202,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D79,Table1[Group],$A$62)/1000</f>
         <v>3.7789999999999997E-2</v>
       </c>
-      <c r="N79" s="115">
+      <c r="N79" s="107">
         <v>1</v>
       </c>
-      <c r="O79" s="118">
+      <c r="O79" s="110">
         <f t="shared" si="2"/>
         <v>0.36541540089970892</v>
       </c>
@@ -17219,15 +17219,15 @@
     <row r="80" spans="3:27">
       <c r="C80" s="41"/>
       <c r="D80" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
-      <c r="I80" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J80" s="109">
+      <c r="I80" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J80" s="101">
         <v>0.85</v>
       </c>
       <c r="K80" s="58">
@@ -17241,10 +17241,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D80,Table1[Group],$A$62)/1000</f>
         <v>7.6310000000000003E-2</v>
       </c>
-      <c r="N80" s="115">
+      <c r="N80" s="107">
         <v>1</v>
       </c>
-      <c r="O80" s="118">
+      <c r="O80" s="110">
         <f t="shared" si="2"/>
         <v>0.35008934608832393</v>
       </c>
@@ -17258,15 +17258,15 @@
     <row r="81" spans="3:52">
       <c r="C81" s="41"/>
       <c r="D81" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
-      <c r="I81" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J81" s="109">
+      <c r="I81" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J81" s="101">
         <v>0.85</v>
       </c>
       <c r="K81" s="58">
@@ -17280,10 +17280,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D81,Table1[Group],$A$62)/1000</f>
         <v>4.6119999999999994E-2</v>
       </c>
-      <c r="N81" s="115">
+      <c r="N81" s="107">
         <v>1</v>
       </c>
-      <c r="O81" s="118">
+      <c r="O81" s="110">
         <f t="shared" si="2"/>
         <v>0.34374301821335645</v>
       </c>
@@ -17297,15 +17297,15 @@
     <row r="82" spans="3:52">
       <c r="C82" s="41"/>
       <c r="D82" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
-      <c r="I82" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J82" s="109">
+      <c r="I82" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J82" s="101">
         <v>0.85</v>
       </c>
       <c r="K82" s="58">
@@ -17319,10 +17319,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D82,Table1[Group],$A$62)/1000</f>
         <v>9.8280000000000006E-2</v>
       </c>
-      <c r="N82" s="115">
+      <c r="N82" s="107">
         <v>1</v>
       </c>
-      <c r="O82" s="118">
+      <c r="O82" s="110">
         <f t="shared" si="2"/>
         <v>0.36491468253968251</v>
       </c>
@@ -17336,13 +17336,13 @@
     <row r="83" spans="3:52">
       <c r="C83" s="41"/>
       <c r="D83" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E83" s="41"/>
-      <c r="I83" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J83" s="109">
+      <c r="I83" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J83" s="101">
         <v>0.85</v>
       </c>
       <c r="K83" s="58">
@@ -17356,10 +17356,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D83,Table1[Group],$A$62)/1000</f>
         <v>4.4120000000000006E-2</v>
       </c>
-      <c r="N83" s="115">
+      <c r="N83" s="107">
         <v>1</v>
       </c>
-      <c r="O83" s="118">
+      <c r="O83" s="110">
         <f t="shared" si="2"/>
         <v>0.37222486400725291</v>
       </c>
@@ -17373,13 +17373,13 @@
     <row r="84" spans="3:52">
       <c r="C84" s="41"/>
       <c r="D84" s="58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E84" s="41"/>
-      <c r="I84" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J84" s="109">
+      <c r="I84" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J84" s="101">
         <v>0.85</v>
       </c>
       <c r="K84" s="58">
@@ -17393,10 +17393,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D84,Table1[Group],$A$62)/1000</f>
         <v>7.6769999999999991E-2</v>
       </c>
-      <c r="N84" s="115">
+      <c r="N84" s="107">
         <v>1</v>
       </c>
-      <c r="O84" s="118">
+      <c r="O84" s="110">
         <f t="shared" si="2"/>
         <v>0.35022145369284874</v>
       </c>
@@ -17410,13 +17410,13 @@
     <row r="85" spans="3:52">
       <c r="C85" s="41"/>
       <c r="D85" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E85" s="41"/>
-      <c r="I85" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J85" s="109">
+      <c r="I85" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J85" s="101">
         <v>0.85</v>
       </c>
       <c r="K85" s="58">
@@ -17430,10 +17430,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D85,Table1[Group],$A$62)/1000</f>
         <v>3.422E-2</v>
       </c>
-      <c r="N85" s="115">
+      <c r="N85" s="107">
         <v>1</v>
       </c>
-      <c r="O85" s="118">
+      <c r="O85" s="110">
         <f t="shared" si="2"/>
         <v>0.35348705435417882</v>
       </c>
@@ -17447,13 +17447,13 @@
     <row r="86" spans="3:52">
       <c r="C86" s="41"/>
       <c r="D86" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E86" s="41"/>
-      <c r="I86" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="J86" s="109">
+      <c r="I86" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J86" s="101">
         <v>0.85</v>
       </c>
       <c r="K86" s="58">
@@ -17467,10 +17467,10 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D86,Table1[Group],$A$62)/1000</f>
         <v>0.12456999999999999</v>
       </c>
-      <c r="N86" s="115">
+      <c r="N86" s="107">
         <v>1</v>
       </c>
-      <c r="O86" s="118">
+      <c r="O86" s="110">
         <f t="shared" si="2"/>
         <v>0.35249527976238265</v>
       </c>
@@ -17478,33 +17478,33 @@
     <row r="87" spans="3:52" ht="13.5" thickBot="1">
       <c r="C87" s="91"/>
       <c r="D87" s="91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E87" s="92"/>
       <c r="F87" s="91"/>
       <c r="G87" s="91"/>
       <c r="H87" s="91"/>
-      <c r="I87" s="110" t="s">
-        <v>544</v>
-      </c>
-      <c r="J87" s="111">
+      <c r="I87" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="J87" s="103">
         <v>0.85</v>
       </c>
       <c r="K87" s="91">
         <v>30</v>
       </c>
-      <c r="L87" s="112" cm="1">
+      <c r="L87" s="104" cm="1">
         <f t="array" ref="L87">IFERROR(SUMPRODUCT((Table1[Region]=D87)*(Table1[Group]=$A$62)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M87*1000))),0)</f>
         <v>14.2956011196641</v>
       </c>
-      <c r="M87" s="112">
+      <c r="M87" s="104">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D87,Table1[Group],$A$62)/1000</f>
         <v>0.1429</v>
       </c>
-      <c r="N87" s="116">
+      <c r="N87" s="108">
         <v>1</v>
       </c>
-      <c r="O87" s="119">
+      <c r="O87" s="111">
         <f t="shared" si="2"/>
         <v>0.42886803358992298</v>
       </c>
@@ -17543,118 +17543,118 @@
     </row>
     <row r="92" spans="3:52" ht="15.75" thickBot="1">
       <c r="C92" s="65" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D92" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="65" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F92" s="65" t="s">
         <v>53</v>
       </c>
       <c r="G92" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="H92" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="H92" s="64" t="s">
+      <c r="I92" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="I92" s="64" t="s">
+      <c r="J92" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="J92" s="64" t="s">
+      <c r="K92" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="K92" s="64" t="s">
+      <c r="L92" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="L92" s="64" t="s">
+      <c r="M92" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="M92" s="64" t="s">
+      <c r="N92" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="N92" s="64" t="s">
+      <c r="O92" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="O92" s="64" t="s">
+      <c r="P92" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="P92" s="64" t="s">
+      <c r="Q92" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="Q92" s="64" t="s">
+      <c r="R92" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="R92" s="64" t="s">
+      <c r="S92" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="S92" s="64" t="s">
+      <c r="T92" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="T92" s="64" t="s">
+      <c r="U92" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="U92" s="64" t="s">
+      <c r="V92" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="V92" s="64" t="s">
+      <c r="W92" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="W92" s="64" t="s">
+      <c r="X92" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="X92" s="64" t="s">
+      <c r="Y92" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="Y92" s="64" t="s">
+      <c r="Z92" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="Z92" s="64" t="s">
+      <c r="AA92" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="AA92" s="64" t="s">
+      <c r="AB92" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="AB92" s="64" t="s">
+      <c r="AC92" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="AC92" s="64" t="s">
+      <c r="AD92" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="AD92" s="64" t="s">
+      <c r="AE92" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="AE92" s="64" t="s">
+      <c r="AF92" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="AF92" s="64" t="s">
-        <v>536</v>
-      </c>
       <c r="AG92" s="63" t="s">
-        <v>507</v>
-      </c>
-      <c r="AN92" s="101">
+        <v>506</v>
+      </c>
+      <c r="AN92" s="115">
         <v>2040</v>
       </c>
-      <c r="AO92" s="102"/>
-      <c r="AP92" s="103"/>
-      <c r="AR92" s="104">
+      <c r="AO92" s="116"/>
+      <c r="AP92" s="117"/>
+      <c r="AR92" s="118">
         <v>2018</v>
       </c>
-      <c r="AS92" s="105"/>
-      <c r="AT92" s="105"/>
-      <c r="AU92" s="105"/>
-      <c r="AW92" s="101">
+      <c r="AS92" s="119"/>
+      <c r="AT92" s="119"/>
+      <c r="AU92" s="119"/>
+      <c r="AW92" s="115">
         <v>2070</v>
       </c>
-      <c r="AX92" s="102"/>
-      <c r="AY92" s="103"/>
+      <c r="AX92" s="116"/>
+      <c r="AY92" s="117"/>
     </row>
     <row r="93" spans="3:52" ht="15.75" thickBot="1">
       <c r="C93" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D93" s="72"/>
       <c r="E93" s="72"/>
@@ -17690,49 +17690,49 @@
         <v>128</v>
       </c>
       <c r="AM93" s="75" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN93" s="75" t="s">
         <v>538</v>
       </c>
-      <c r="AN93" s="75" t="s">
+      <c r="AO93" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="AO93" s="75" t="s">
+      <c r="AP93" s="75" t="s">
         <v>540</v>
       </c>
-      <c r="AP93" s="75" t="s">
+      <c r="AR93" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="AS93" s="75" t="s">
+        <v>539</v>
+      </c>
+      <c r="AT93" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="AU93" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="AR93" s="75" t="s">
+      <c r="AW93" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="AX93" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="AS93" s="75" t="s">
+      <c r="AY93" s="75" t="s">
         <v>540</v>
       </c>
-      <c r="AT93" s="75" t="s">
+      <c r="AZ93" s="76" t="s">
         <v>541</v>
-      </c>
-      <c r="AU93" s="76" t="s">
-        <v>542</v>
-      </c>
-      <c r="AW93" s="75" t="s">
-        <v>539</v>
-      </c>
-      <c r="AX93" s="75" t="s">
-        <v>540</v>
-      </c>
-      <c r="AY93" s="75" t="s">
-        <v>541</v>
-      </c>
-      <c r="AZ93" s="76" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="94" spans="3:52" ht="15">
       <c r="C94" s="42"/>
       <c r="D94" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="E94" s="47" t="s">
         <v>509</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>510</v>
       </c>
       <c r="F94" s="47">
         <v>2020</v>
@@ -17849,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="AM94" s="77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN94" s="77">
         <v>2147.2393448382686</v>
@@ -17890,10 +17890,10 @@
     <row r="95" spans="3:52" ht="15">
       <c r="C95" s="70"/>
       <c r="D95" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E95" s="68" t="s">
         <v>509</v>
-      </c>
-      <c r="E95" s="68" t="s">
-        <v>510</v>
       </c>
       <c r="F95" s="68">
         <v>2020</v>
@@ -18010,7 +18010,7 @@
         <v>1</v>
       </c>
       <c r="AM95" s="80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AN95" s="80">
         <v>2205.2532676076271</v>
@@ -18051,10 +18051,10 @@
     <row r="96" spans="3:52" ht="15">
       <c r="C96" s="70"/>
       <c r="D96" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E96" s="68" t="s">
         <v>509</v>
-      </c>
-      <c r="E96" s="68" t="s">
-        <v>510</v>
       </c>
       <c r="F96" s="68">
         <v>2020</v>
@@ -18171,7 +18171,7 @@
         <v>2</v>
       </c>
       <c r="AM96" s="83" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN96" s="83">
         <v>4241.4624588972301</v>
@@ -18212,10 +18212,10 @@
     <row r="97" spans="3:52" ht="15.75" thickBot="1">
       <c r="C97" s="44"/>
       <c r="D97" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="E97" s="62" t="s">
         <v>509</v>
-      </c>
-      <c r="E97" s="62" t="s">
-        <v>510</v>
       </c>
       <c r="F97" s="62">
         <v>2020</v>
@@ -18332,7 +18332,7 @@
         <v>3</v>
       </c>
       <c r="AM97" s="80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN97" s="80">
         <v>33904.965501641578</v>
@@ -18373,10 +18373,10 @@
     <row r="98" spans="3:52" ht="15">
       <c r="C98" s="53"/>
       <c r="D98" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="E98" s="49" t="s">
         <v>509</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>510</v>
       </c>
       <c r="F98" s="49">
         <v>2040</v>
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="AM98" s="83" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN98" s="83">
         <v>4230.8917031575793</v>
@@ -18534,10 +18534,10 @@
     <row r="99" spans="3:52" ht="15">
       <c r="C99" s="69"/>
       <c r="D99" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E99" s="68" t="s">
         <v>509</v>
-      </c>
-      <c r="E99" s="68" t="s">
-        <v>510</v>
       </c>
       <c r="F99" s="68">
         <v>2040</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AM99" s="80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AN99" s="80">
         <v>331544.88442569622</v>
@@ -18695,10 +18695,10 @@
     <row r="100" spans="3:52" ht="15">
       <c r="C100" s="69"/>
       <c r="D100" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E100" s="68" t="s">
         <v>509</v>
-      </c>
-      <c r="E100" s="68" t="s">
-        <v>510</v>
       </c>
       <c r="F100" s="68">
         <v>2040</v>
@@ -18815,7 +18815,7 @@
         <v>2</v>
       </c>
       <c r="AM100" s="83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AN100" s="83">
         <v>18374.90607452079</v>
@@ -18856,10 +18856,10 @@
     <row r="101" spans="3:52" ht="15">
       <c r="C101" s="56"/>
       <c r="D101" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="E101" s="62" t="s">
         <v>509</v>
-      </c>
-      <c r="E101" s="62" t="s">
-        <v>510</v>
       </c>
       <c r="F101" s="62">
         <v>2040</v>
@@ -18976,7 +18976,7 @@
         <v>3</v>
       </c>
       <c r="AM101" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AN101" s="80">
         <v>5142.2050019474082</v>
@@ -19017,10 +19017,10 @@
     <row r="102" spans="3:52" ht="15">
       <c r="C102" s="59"/>
       <c r="D102" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" s="60" t="s">
         <v>509</v>
-      </c>
-      <c r="E102" s="60" t="s">
-        <v>510</v>
       </c>
       <c r="F102" s="60">
         <v>2070</v>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
       <c r="AM102" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN102" s="83">
         <v>13521.198496029834</v>
@@ -19178,10 +19178,10 @@
     <row r="103" spans="3:52" ht="15">
       <c r="C103" s="59"/>
       <c r="D103" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E103" s="60" t="s">
         <v>509</v>
-      </c>
-      <c r="E103" s="60" t="s">
-        <v>510</v>
       </c>
       <c r="F103" s="60">
         <v>2070</v>
@@ -19298,7 +19298,7 @@
         <v>1</v>
       </c>
       <c r="AM103" s="80" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN103" s="80">
         <v>3163.4278089531094</v>
@@ -19339,10 +19339,10 @@
     <row r="104" spans="3:52" ht="15">
       <c r="C104" s="59"/>
       <c r="D104" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E104" s="60" t="s">
         <v>509</v>
-      </c>
-      <c r="E104" s="60" t="s">
-        <v>510</v>
       </c>
       <c r="F104" s="60">
         <v>2070</v>
@@ -19459,7 +19459,7 @@
         <v>2</v>
       </c>
       <c r="AM104" s="83" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN104" s="83">
         <v>2479.4778390486781</v>
@@ -19500,10 +19500,10 @@
     <row r="105" spans="3:52" ht="15.75" thickBot="1">
       <c r="C105" s="59"/>
       <c r="D105" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="E105" s="60" t="s">
         <v>509</v>
-      </c>
-      <c r="E105" s="60" t="s">
-        <v>510</v>
       </c>
       <c r="F105" s="60">
         <v>2070</v>
@@ -19620,7 +19620,7 @@
         <v>3</v>
       </c>
       <c r="AM105" s="80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AN105" s="80">
         <v>963.92792496495713</v>
@@ -19661,10 +19661,10 @@
     <row r="106" spans="3:52" ht="15">
       <c r="C106" s="73"/>
       <c r="D106" s="74" t="s">
+        <v>508</v>
+      </c>
+      <c r="E106" s="73" t="s">
         <v>509</v>
-      </c>
-      <c r="E106" s="73" t="s">
-        <v>510</v>
       </c>
       <c r="F106" s="73">
         <v>0</v>
@@ -19696,10 +19696,10 @@
       <c r="AE106" s="73"/>
       <c r="AF106" s="73"/>
       <c r="AG106" s="74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM106" s="83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN106" s="83">
         <v>14291.320895619709</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="107" spans="3:52">
       <c r="AM107" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN107" s="80">
         <v>1208.2795748252174</v>
@@ -19779,7 +19779,7 @@
     </row>
     <row r="108" spans="3:52">
       <c r="AM108" s="83" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN108" s="83">
         <v>5421.7544986476432</v>
@@ -19819,7 +19819,7 @@
     </row>
     <row r="109" spans="3:52">
       <c r="AM109" s="80" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AN109" s="80">
         <v>3781.2702619485922</v>
@@ -19859,7 +19859,7 @@
     </row>
     <row r="110" spans="3:52">
       <c r="AM110" s="83" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN110" s="83">
         <v>9699.9738107296016</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="111" spans="3:52">
       <c r="AM111" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN111" s="80">
         <v>1804.5072709515578</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="112" spans="3:52">
       <c r="AM112" s="83" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN112" s="83">
         <v>2023.9620089074197</v>
@@ -19982,7 +19982,7 @@
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="AM113" s="80" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN113" s="80">
         <v>1184.9040929671744</v>
@@ -20022,100 +20022,100 @@
     </row>
     <row r="114" spans="3:52" ht="13.5" thickBot="1">
       <c r="C114" s="65" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D114" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="65" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F114" s="65" t="s">
         <v>53</v>
       </c>
       <c r="G114" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="H114" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="H114" s="64" t="s">
+      <c r="I114" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="I114" s="64" t="s">
+      <c r="J114" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="J114" s="64" t="s">
+      <c r="K114" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="K114" s="64" t="s">
+      <c r="L114" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="L114" s="64" t="s">
+      <c r="M114" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="M114" s="64" t="s">
+      <c r="N114" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="N114" s="64" t="s">
+      <c r="O114" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="O114" s="64" t="s">
+      <c r="P114" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="P114" s="64" t="s">
+      <c r="Q114" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="Q114" s="64" t="s">
+      <c r="R114" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="R114" s="64" t="s">
+      <c r="S114" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="S114" s="64" t="s">
+      <c r="T114" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="T114" s="64" t="s">
+      <c r="U114" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="U114" s="64" t="s">
+      <c r="V114" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="V114" s="64" t="s">
+      <c r="W114" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="W114" s="64" t="s">
+      <c r="X114" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="X114" s="64" t="s">
+      <c r="Y114" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="Y114" s="64" t="s">
+      <c r="Z114" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="Z114" s="64" t="s">
+      <c r="AA114" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="AA114" s="64" t="s">
+      <c r="AB114" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="AB114" s="64" t="s">
+      <c r="AC114" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="AC114" s="64" t="s">
+      <c r="AD114" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="AD114" s="64" t="s">
+      <c r="AE114" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="AE114" s="64" t="s">
+      <c r="AF114" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="AF114" s="64" t="s">
-        <v>536</v>
-      </c>
       <c r="AG114" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM114" s="83" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN114" s="83">
         <v>3262.0560002502193</v>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="115" spans="3:52" ht="13.5" thickBot="1">
       <c r="C115" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D115" s="72"/>
       <c r="E115" s="72"/>
@@ -20191,7 +20191,7 @@
         <v>128</v>
       </c>
       <c r="AM115" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN115" s="80">
         <v>4273.8344484038525</v>
@@ -20232,7 +20232,7 @@
     <row r="116" spans="3:52" ht="15">
       <c r="C116" s="42"/>
       <c r="D116" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E116" s="47" t="s">
         <v>55</v>
@@ -20352,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="AM116" s="83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN116" s="83">
         <v>5707.7302867114549</v>
@@ -20393,7 +20393,7 @@
     <row r="117" spans="3:52" ht="15">
       <c r="C117" s="70"/>
       <c r="D117" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E117" s="68" t="s">
         <v>55</v>
@@ -20513,7 +20513,7 @@
         <v>1</v>
       </c>
       <c r="AM117" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN117" s="80">
         <v>5171.9442387568897</v>
@@ -20554,7 +20554,7 @@
     <row r="118" spans="3:52" ht="15">
       <c r="C118" s="70"/>
       <c r="D118" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E118" s="68" t="s">
         <v>55</v>
@@ -20674,7 +20674,7 @@
         <v>2</v>
       </c>
       <c r="AM118" s="83" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN118" s="83">
         <v>4812.6607915009608</v>
@@ -20715,7 +20715,7 @@
     <row r="119" spans="3:52" ht="15.75" thickBot="1">
       <c r="C119" s="89"/>
       <c r="D119" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E119" s="61" t="s">
         <v>55</v>
@@ -20835,7 +20835,7 @@
         <v>3</v>
       </c>
       <c r="AM119" s="86" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AN119" s="86">
         <v>8263.9619724765162</v>
@@ -20876,7 +20876,7 @@
     <row r="120" spans="3:52" ht="15">
       <c r="C120" s="58"/>
       <c r="D120" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E120" s="68" t="s">
         <v>55</v>
@@ -20999,7 +20999,7 @@
     <row r="121" spans="3:52" ht="15">
       <c r="C121" s="58"/>
       <c r="D121" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E121" s="68" t="s">
         <v>55</v>
@@ -21122,7 +21122,7 @@
     <row r="122" spans="3:52" ht="15">
       <c r="C122" s="58"/>
       <c r="D122" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E122" s="68" t="s">
         <v>55</v>
@@ -21245,7 +21245,7 @@
     <row r="123" spans="3:52" ht="15.75" thickBot="1">
       <c r="C123" s="91"/>
       <c r="D123" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E123" s="61" t="s">
         <v>55</v>
@@ -21368,7 +21368,7 @@
     <row r="124" spans="3:52" ht="15">
       <c r="C124" s="93"/>
       <c r="D124" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E124" s="47" t="s">
         <v>55</v>
@@ -21491,7 +21491,7 @@
     <row r="125" spans="3:52" ht="15">
       <c r="C125" s="58"/>
       <c r="D125" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E125" s="68" t="s">
         <v>55</v>
@@ -21614,7 +21614,7 @@
     <row r="126" spans="3:52" ht="15">
       <c r="C126" s="58"/>
       <c r="D126" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E126" s="68" t="s">
         <v>55</v>
@@ -21737,7 +21737,7 @@
     <row r="127" spans="3:52" ht="15.75" thickBot="1">
       <c r="C127" s="91"/>
       <c r="D127" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E127" s="61" t="s">
         <v>55</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="128" spans="3:52" ht="15">
       <c r="D128" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E128" s="68" t="s">
         <v>55</v>
@@ -21981,7 +21981,7 @@
     </row>
     <row r="129" spans="4:35" ht="15">
       <c r="D129" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E129" s="68" t="s">
         <v>55</v>
@@ -22103,7 +22103,7 @@
     </row>
     <row r="130" spans="4:35" ht="15">
       <c r="D130" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E130" s="68" t="s">
         <v>55</v>
@@ -22225,7 +22225,7 @@
     </row>
     <row r="131" spans="4:35" ht="15.75" thickBot="1">
       <c r="D131" s="71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E131" s="68" t="s">
         <v>55</v>
@@ -22736,7 +22736,7 @@
         <v>128</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -22859,7 +22859,7 @@
         <v>2</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -22982,7 +22982,7 @@
         <v>3</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -23105,7 +23105,7 @@
         <v>2</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -23228,7 +23228,7 @@
         <v>3</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -23351,7 +23351,7 @@
         <v>1</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -23474,7 +23474,7 @@
         <v>2</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -23597,7 +23597,7 @@
         <v>2</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -23720,7 +23720,7 @@
         <v>2</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -23843,7 +23843,7 @@
         <v>3</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -23966,7 +23966,7 @@
         <v>2</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -24089,7 +24089,7 @@
         <v>1</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -24212,7 +24212,7 @@
         <v>3</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -24335,7 +24335,7 @@
         <v>3</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -24458,7 +24458,7 @@
         <v>2</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -24581,7 +24581,7 @@
         <v>1</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -24704,7 +24704,7 @@
         <v>1</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -24827,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -24950,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -25073,7 +25073,7 @@
         <v>3</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -25196,7 +25196,7 @@
         <v>2</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -25319,7 +25319,7 @@
         <v>2</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -25442,7 +25442,7 @@
         <v>2</v>
       </c>
       <c r="AN36" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -25565,7 +25565,7 @@
         <v>3</v>
       </c>
       <c r="AN37" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -25688,7 +25688,7 @@
         <v>3</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -25811,7 +25811,7 @@
         <v>3</v>
       </c>
       <c r="AN39" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -25934,7 +25934,7 @@
         <v>1</v>
       </c>
       <c r="AN40" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -26057,7 +26057,7 @@
         <v>1</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -26180,7 +26180,7 @@
         <v>1</v>
       </c>
       <c r="AN42" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -26303,7 +26303,7 @@
         <v>1</v>
       </c>
       <c r="AN43" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -26426,7 +26426,7 @@
         <v>2</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:40">
@@ -26549,7 +26549,7 @@
         <v>1</v>
       </c>
       <c r="AN45" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:40">
@@ -26672,7 +26672,7 @@
         <v>2</v>
       </c>
       <c r="AN46" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -26795,7 +26795,7 @@
         <v>1</v>
       </c>
       <c r="AN47" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:40">
@@ -26918,7 +26918,7 @@
         <v>2</v>
       </c>
       <c r="AN48" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:40">
@@ -27041,7 +27041,7 @@
         <v>2</v>
       </c>
       <c r="AN49" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:40">
@@ -27164,7 +27164,7 @@
         <v>1</v>
       </c>
       <c r="AN50" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:40">
@@ -27287,7 +27287,7 @@
         <v>2</v>
       </c>
       <c r="AN51" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -27410,7 +27410,7 @@
         <v>3</v>
       </c>
       <c r="AN52" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -27533,7 +27533,7 @@
         <v>1</v>
       </c>
       <c r="AN53" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:40">
@@ -27656,7 +27656,7 @@
         <v>1</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:40">
@@ -27779,7 +27779,7 @@
         <v>2</v>
       </c>
       <c r="AN55" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:40">
@@ -27902,7 +27902,7 @@
         <v>3</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:40">
@@ -28025,7 +28025,7 @@
         <v>2</v>
       </c>
       <c r="AN57" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:40">
@@ -28148,7 +28148,7 @@
         <v>3</v>
       </c>
       <c r="AN58" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59" spans="1:40">
@@ -28271,7 +28271,7 @@
         <v>3</v>
       </c>
       <c r="AN59" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:40">
@@ -28394,7 +28394,7 @@
         <v>2</v>
       </c>
       <c r="AN60" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:40">
@@ -28517,7 +28517,7 @@
         <v>2</v>
       </c>
       <c r="AN61" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:40">
@@ -28640,7 +28640,7 @@
         <v>3</v>
       </c>
       <c r="AN62" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:40">
@@ -28763,7 +28763,7 @@
         <v>2</v>
       </c>
       <c r="AN63" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:40">
@@ -28886,7 +28886,7 @@
         <v>2</v>
       </c>
       <c r="AN64" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="1:40">
@@ -29009,7 +29009,7 @@
         <v>2</v>
       </c>
       <c r="AN65" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="1:40">
@@ -29132,7 +29132,7 @@
         <v>2</v>
       </c>
       <c r="AN66" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:40">
@@ -29255,7 +29255,7 @@
         <v>1</v>
       </c>
       <c r="AN67" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:40">
@@ -29378,7 +29378,7 @@
         <v>2</v>
       </c>
       <c r="AN68" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:40">
@@ -29501,7 +29501,7 @@
         <v>3</v>
       </c>
       <c r="AN69" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:40">
@@ -29624,7 +29624,7 @@
         <v>3</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:40">
@@ -29747,7 +29747,7 @@
         <v>3</v>
       </c>
       <c r="AN71" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:40">
@@ -29870,7 +29870,7 @@
         <v>3</v>
       </c>
       <c r="AN72" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:40">
@@ -29993,7 +29993,7 @@
         <v>2</v>
       </c>
       <c r="AN73" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:40">
@@ -30116,7 +30116,7 @@
         <v>3</v>
       </c>
       <c r="AN74" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:40">
@@ -30239,7 +30239,7 @@
         <v>1</v>
       </c>
       <c r="AN75" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:40">
@@ -30362,7 +30362,7 @@
         <v>1</v>
       </c>
       <c r="AN76" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:40">
@@ -30485,7 +30485,7 @@
         <v>1</v>
       </c>
       <c r="AN77" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:40">
@@ -30608,7 +30608,7 @@
         <v>2</v>
       </c>
       <c r="AN78" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:40">
@@ -30731,7 +30731,7 @@
         <v>2</v>
       </c>
       <c r="AN79" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:40">
@@ -30854,7 +30854,7 @@
         <v>1</v>
       </c>
       <c r="AN80" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:40">
@@ -30977,7 +30977,7 @@
         <v>1</v>
       </c>
       <c r="AN81" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="82" spans="1:40">
@@ -31100,7 +31100,7 @@
         <v>3</v>
       </c>
       <c r="AN82" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:40">
@@ -31223,7 +31223,7 @@
         <v>1</v>
       </c>
       <c r="AN83" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -31346,7 +31346,7 @@
         <v>2</v>
       </c>
       <c r="AN84" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:40">
@@ -31469,7 +31469,7 @@
         <v>3</v>
       </c>
       <c r="AN85" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -31592,7 +31592,7 @@
         <v>1</v>
       </c>
       <c r="AN86" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:40">
@@ -31715,7 +31715,7 @@
         <v>1</v>
       </c>
       <c r="AN87" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:40">
@@ -31838,7 +31838,7 @@
         <v>3</v>
       </c>
       <c r="AN88" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:40">
@@ -31961,7 +31961,7 @@
         <v>1</v>
       </c>
       <c r="AN89" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -32084,7 +32084,7 @@
         <v>3</v>
       </c>
       <c r="AN90" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -32207,7 +32207,7 @@
         <v>1</v>
       </c>
       <c r="AN91" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:40">
@@ -32330,7 +32330,7 @@
         <v>3</v>
       </c>
       <c r="AN92" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -32453,7 +32453,7 @@
         <v>3</v>
       </c>
       <c r="AN93" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" spans="1:40">
@@ -32576,7 +32576,7 @@
         <v>1</v>
       </c>
       <c r="AN94" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:40">
@@ -32699,7 +32699,7 @@
         <v>2</v>
       </c>
       <c r="AN95" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96" spans="1:40">
@@ -32822,7 +32822,7 @@
         <v>3</v>
       </c>
       <c r="AN96" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:40">
@@ -32945,7 +32945,7 @@
         <v>3</v>
       </c>
       <c r="AN97" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:40">
@@ -33068,7 +33068,7 @@
         <v>2</v>
       </c>
       <c r="AN98" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:40">
@@ -33191,7 +33191,7 @@
         <v>1</v>
       </c>
       <c r="AN99" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="1:40">
@@ -33314,7 +33314,7 @@
         <v>2</v>
       </c>
       <c r="AN100" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:40">
@@ -33437,7 +33437,7 @@
         <v>3</v>
       </c>
       <c r="AN101" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:40">
@@ -33560,7 +33560,7 @@
         <v>3</v>
       </c>
       <c r="AN102" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:40">
@@ -33683,7 +33683,7 @@
         <v>3</v>
       </c>
       <c r="AN103" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:40">
@@ -33806,7 +33806,7 @@
         <v>1</v>
       </c>
       <c r="AN104" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="105" spans="1:40">
@@ -33929,7 +33929,7 @@
         <v>1</v>
       </c>
       <c r="AN105" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:40">
@@ -34052,7 +34052,7 @@
         <v>1</v>
       </c>
       <c r="AN106" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:40">
@@ -34175,7 +34175,7 @@
         <v>1</v>
       </c>
       <c r="AN107" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:40">
@@ -34298,7 +34298,7 @@
         <v>1</v>
       </c>
       <c r="AN108" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:40">
@@ -34421,7 +34421,7 @@
         <v>1</v>
       </c>
       <c r="AN109" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:40">
@@ -34544,7 +34544,7 @@
         <v>2</v>
       </c>
       <c r="AN110" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:40">
@@ -34667,7 +34667,7 @@
         <v>1</v>
       </c>
       <c r="AN111" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:40">
@@ -34790,7 +34790,7 @@
         <v>2</v>
       </c>
       <c r="AN112" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:40">
@@ -34913,7 +34913,7 @@
         <v>2</v>
       </c>
       <c r="AN113" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:40">
@@ -35036,7 +35036,7 @@
         <v>2</v>
       </c>
       <c r="AN114" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115" spans="1:40">
@@ -35159,7 +35159,7 @@
         <v>1</v>
       </c>
       <c r="AN115" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:40">
@@ -35282,7 +35282,7 @@
         <v>1</v>
       </c>
       <c r="AN116" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:40">
@@ -35405,7 +35405,7 @@
         <v>2</v>
       </c>
       <c r="AN117" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:40">
@@ -35528,7 +35528,7 @@
         <v>3</v>
       </c>
       <c r="AN118" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:40">
@@ -35651,7 +35651,7 @@
         <v>1</v>
       </c>
       <c r="AN119" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="1:40">
@@ -35774,7 +35774,7 @@
         <v>2</v>
       </c>
       <c r="AN120" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:40">
@@ -35897,7 +35897,7 @@
         <v>1</v>
       </c>
       <c r="AN121" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:40">
@@ -36020,7 +36020,7 @@
         <v>1</v>
       </c>
       <c r="AN122" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:40">
@@ -36143,7 +36143,7 @@
         <v>1</v>
       </c>
       <c r="AN123" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="124" spans="1:40">
@@ -36266,7 +36266,7 @@
         <v>2</v>
       </c>
       <c r="AN124" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="125" spans="1:40">
@@ -36389,7 +36389,7 @@
         <v>1</v>
       </c>
       <c r="AN125" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" spans="1:40">
@@ -36512,7 +36512,7 @@
         <v>2</v>
       </c>
       <c r="AN126" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:40">
@@ -36635,7 +36635,7 @@
         <v>2</v>
       </c>
       <c r="AN127" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="1:40">
@@ -36758,7 +36758,7 @@
         <v>2</v>
       </c>
       <c r="AN128" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:40">
@@ -36881,7 +36881,7 @@
         <v>2</v>
       </c>
       <c r="AN129" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="130" spans="1:40">
@@ -37004,7 +37004,7 @@
         <v>1</v>
       </c>
       <c r="AN130" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:40">
@@ -37127,7 +37127,7 @@
         <v>3</v>
       </c>
       <c r="AN131" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:40">
@@ -37250,7 +37250,7 @@
         <v>3</v>
       </c>
       <c r="AN132" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="133" spans="1:40">
@@ -37373,7 +37373,7 @@
         <v>2</v>
       </c>
       <c r="AN133" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:40">
@@ -37496,7 +37496,7 @@
         <v>2</v>
       </c>
       <c r="AN134" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:40">
@@ -37619,7 +37619,7 @@
         <v>2</v>
       </c>
       <c r="AN135" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:40">
@@ -37742,7 +37742,7 @@
         <v>3</v>
       </c>
       <c r="AN136" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:40">
@@ -37865,7 +37865,7 @@
         <v>3</v>
       </c>
       <c r="AN137" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:40">
@@ -37988,7 +37988,7 @@
         <v>3</v>
       </c>
       <c r="AN138" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:40">
@@ -38111,7 +38111,7 @@
         <v>3</v>
       </c>
       <c r="AN139" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:40">
@@ -38234,7 +38234,7 @@
         <v>3</v>
       </c>
       <c r="AN140" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:40">
@@ -38357,7 +38357,7 @@
         <v>2</v>
       </c>
       <c r="AN141" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:40">
@@ -38480,7 +38480,7 @@
         <v>2</v>
       </c>
       <c r="AN142" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:40">
@@ -38603,7 +38603,7 @@
         <v>3</v>
       </c>
       <c r="AN143" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:40">
@@ -38726,7 +38726,7 @@
         <v>3</v>
       </c>
       <c r="AN144" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:40">
@@ -38849,7 +38849,7 @@
         <v>3</v>
       </c>
       <c r="AN145" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:40">
@@ -38972,7 +38972,7 @@
         <v>2</v>
       </c>
       <c r="AN146" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:40">
@@ -39095,7 +39095,7 @@
         <v>2</v>
       </c>
       <c r="AN147" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:40">
@@ -39218,7 +39218,7 @@
         <v>3</v>
       </c>
       <c r="AN148" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:40">
@@ -39341,7 +39341,7 @@
         <v>3</v>
       </c>
       <c r="AN149" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:40">
@@ -39464,7 +39464,7 @@
         <v>3</v>
       </c>
       <c r="AN150" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:40">
@@ -39587,7 +39587,7 @@
         <v>3</v>
       </c>
       <c r="AN151" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:40">
@@ -39710,7 +39710,7 @@
         <v>1</v>
       </c>
       <c r="AN152" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153" spans="1:40">
@@ -39833,7 +39833,7 @@
         <v>1</v>
       </c>
       <c r="AN153" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="154" spans="1:40">
@@ -39956,7 +39956,7 @@
         <v>2</v>
       </c>
       <c r="AN154" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:40">
@@ -40079,7 +40079,7 @@
         <v>1</v>
       </c>
       <c r="AN155" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="1:40">
@@ -40202,7 +40202,7 @@
         <v>1</v>
       </c>
       <c r="AN156" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:40">
@@ -40325,7 +40325,7 @@
         <v>1</v>
       </c>
       <c r="AN157" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="1:40">
@@ -40448,7 +40448,7 @@
         <v>2</v>
       </c>
       <c r="AN158" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:40">
@@ -40571,7 +40571,7 @@
         <v>2</v>
       </c>
       <c r="AN159" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="1:40">
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AN160" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="1:40">
@@ -40817,7 +40817,7 @@
         <v>2</v>
       </c>
       <c r="AN161" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" spans="1:40">
@@ -40940,7 +40940,7 @@
         <v>2</v>
       </c>
       <c r="AN162" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="163" spans="1:40">
@@ -41063,7 +41063,7 @@
         <v>2</v>
       </c>
       <c r="AN163" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="1:40">
@@ -41186,7 +41186,7 @@
         <v>2</v>
       </c>
       <c r="AN164" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:40">
@@ -41309,7 +41309,7 @@
         <v>2</v>
       </c>
       <c r="AN165" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:40">
@@ -41432,7 +41432,7 @@
         <v>1</v>
       </c>
       <c r="AN166" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="167" spans="1:40">
@@ -41555,7 +41555,7 @@
         <v>3</v>
       </c>
       <c r="AN167" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="1:40">
@@ -41678,7 +41678,7 @@
         <v>1</v>
       </c>
       <c r="AN168" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="169" spans="1:40">
@@ -41801,7 +41801,7 @@
         <v>3</v>
       </c>
       <c r="AN169" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:40">
@@ -41924,7 +41924,7 @@
         <v>3</v>
       </c>
       <c r="AN170" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="171" spans="1:40">
@@ -42047,7 +42047,7 @@
         <v>3</v>
       </c>
       <c r="AN171" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="172" spans="1:40">
@@ -42170,7 +42170,7 @@
         <v>3</v>
       </c>
       <c r="AN172" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:40">
@@ -42293,7 +42293,7 @@
         <v>2</v>
       </c>
       <c r="AN173" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="174" spans="1:40">
@@ -42416,7 +42416,7 @@
         <v>3</v>
       </c>
       <c r="AN174" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:40">
@@ -42539,7 +42539,7 @@
         <v>3</v>
       </c>
       <c r="AN175" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="1:40">
@@ -42662,7 +42662,7 @@
         <v>1</v>
       </c>
       <c r="AN176" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" spans="1:40">
@@ -42785,7 +42785,7 @@
         <v>1</v>
       </c>
       <c r="AN177" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:40">
@@ -42908,7 +42908,7 @@
         <v>1</v>
       </c>
       <c r="AN178" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:40">
@@ -43031,7 +43031,7 @@
         <v>1</v>
       </c>
       <c r="AN179" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="180" spans="1:40">
@@ -43154,7 +43154,7 @@
         <v>1</v>
       </c>
       <c r="AN180" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="181" spans="1:40">
@@ -43277,7 +43277,7 @@
         <v>2</v>
       </c>
       <c r="AN181" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="182" spans="1:40">
@@ -43400,7 +43400,7 @@
         <v>3</v>
       </c>
       <c r="AN182" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="183" spans="1:40">
@@ -43523,7 +43523,7 @@
         <v>3</v>
       </c>
       <c r="AN183" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="184" spans="1:40">
@@ -43646,7 +43646,7 @@
         <v>2</v>
       </c>
       <c r="AN184" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="1:40">
@@ -43769,7 +43769,7 @@
         <v>2</v>
       </c>
       <c r="AN185" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:40">
@@ -43892,7 +43892,7 @@
         <v>2</v>
       </c>
       <c r="AN186" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="1:40">
@@ -44015,7 +44015,7 @@
         <v>1</v>
       </c>
       <c r="AN187" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="188" spans="1:40">
@@ -44138,7 +44138,7 @@
         <v>2</v>
       </c>
       <c r="AN188" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="189" spans="1:40">
@@ -44261,7 +44261,7 @@
         <v>2</v>
       </c>
       <c r="AN189" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="1:40">
@@ -44384,7 +44384,7 @@
         <v>2</v>
       </c>
       <c r="AN190" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="191" spans="1:40">
@@ -44507,7 +44507,7 @@
         <v>1</v>
       </c>
       <c r="AN191" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="192" spans="1:40">
@@ -44630,7 +44630,7 @@
         <v>1</v>
       </c>
       <c r="AN192" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="1:40">
@@ -44753,7 +44753,7 @@
         <v>1</v>
       </c>
       <c r="AN193" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="1:40">
@@ -44876,7 +44876,7 @@
         <v>3</v>
       </c>
       <c r="AN194" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="195" spans="1:40">
@@ -44999,7 +44999,7 @@
         <v>1</v>
       </c>
       <c r="AN195" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="196" spans="1:40">
@@ -45122,7 +45122,7 @@
         <v>2</v>
       </c>
       <c r="AN196" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:40">
@@ -45245,7 +45245,7 @@
         <v>3</v>
       </c>
       <c r="AN197" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="198" spans="1:40">
@@ -45368,7 +45368,7 @@
         <v>3</v>
       </c>
       <c r="AN198" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="199" spans="1:40">
@@ -45491,7 +45491,7 @@
         <v>3</v>
       </c>
       <c r="AN199" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:40">
@@ -45614,7 +45614,7 @@
         <v>2</v>
       </c>
       <c r="AN200" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="1:40">
@@ -45737,7 +45737,7 @@
         <v>1</v>
       </c>
       <c r="AN201" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="202" spans="1:40">
@@ -45860,7 +45860,7 @@
         <v>2</v>
       </c>
       <c r="AN202" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:40">
@@ -45983,7 +45983,7 @@
         <v>3</v>
       </c>
       <c r="AN203" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="204" spans="1:40">
@@ -46106,7 +46106,7 @@
         <v>3</v>
       </c>
       <c r="AN204" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="205" spans="1:40">
@@ -46229,7 +46229,7 @@
         <v>3</v>
       </c>
       <c r="AN205" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="206" spans="1:40">
@@ -46352,7 +46352,7 @@
         <v>3</v>
       </c>
       <c r="AN206" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="1:40">
@@ -46475,7 +46475,7 @@
         <v>2</v>
       </c>
       <c r="AN207" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:40">
@@ -46598,7 +46598,7 @@
         <v>2</v>
       </c>
       <c r="AN208" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="1:40">
@@ -46721,7 +46721,7 @@
         <v>2</v>
       </c>
       <c r="AN209" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="1:40">
@@ -46844,7 +46844,7 @@
         <v>2</v>
       </c>
       <c r="AN210" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211" spans="1:40">
@@ -46967,7 +46967,7 @@
         <v>3</v>
       </c>
       <c r="AN211" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="1:40">
@@ -47090,7 +47090,7 @@
         <v>3</v>
       </c>
       <c r="AN212" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="213" spans="1:40">
@@ -47213,7 +47213,7 @@
         <v>3</v>
       </c>
       <c r="AN213" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="1:40">
@@ -47336,7 +47336,7 @@
         <v>3</v>
       </c>
       <c r="AN214" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="215" spans="1:40">
@@ -47459,7 +47459,7 @@
         <v>3</v>
       </c>
       <c r="AN215" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="216" spans="1:40">
@@ -47582,7 +47582,7 @@
         <v>3</v>
       </c>
       <c r="AN216" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="217" spans="1:40">
@@ -47705,7 +47705,7 @@
         <v>3</v>
       </c>
       <c r="AN217" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="218" spans="1:40">
@@ -47828,7 +47828,7 @@
         <v>3</v>
       </c>
       <c r="AN218" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="219" spans="1:40">
@@ -47951,7 +47951,7 @@
         <v>3</v>
       </c>
       <c r="AN219" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="220" spans="1:40">
@@ -48074,7 +48074,7 @@
         <v>3</v>
       </c>
       <c r="AN220" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="221" spans="1:40">
@@ -48197,7 +48197,7 @@
         <v>2</v>
       </c>
       <c r="AN221" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="1:40">
@@ -48320,7 +48320,7 @@
         <v>3</v>
       </c>
       <c r="AN222" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="1:40">
@@ -48443,7 +48443,7 @@
         <v>1</v>
       </c>
       <c r="AN223" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="1:40">
@@ -48566,7 +48566,7 @@
         <v>1</v>
       </c>
       <c r="AN224" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="1:40">
@@ -48689,7 +48689,7 @@
         <v>1</v>
       </c>
       <c r="AN225" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="1:40">
@@ -48812,7 +48812,7 @@
         <v>1</v>
       </c>
       <c r="AN226" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="227" spans="1:40">
@@ -48935,7 +48935,7 @@
         <v>1</v>
       </c>
       <c r="AN227" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="228" spans="1:40">
@@ -49058,7 +49058,7 @@
         <v>2</v>
       </c>
       <c r="AN228" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="229" spans="1:40">
@@ -49181,7 +49181,7 @@
         <v>2</v>
       </c>
       <c r="AN229" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="230" spans="1:40">
@@ -49304,7 +49304,7 @@
         <v>2</v>
       </c>
       <c r="AN230" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="231" spans="1:40">
@@ -49427,7 +49427,7 @@
         <v>3</v>
       </c>
       <c r="AN231" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="232" spans="1:40">
@@ -49550,7 +49550,7 @@
         <v>3</v>
       </c>
       <c r="AN232" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="233" spans="1:40">
@@ -49673,7 +49673,7 @@
         <v>1</v>
       </c>
       <c r="AN233" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="1:40">
@@ -49796,7 +49796,7 @@
         <v>1</v>
       </c>
       <c r="AN234" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:40">
@@ -49919,7 +49919,7 @@
         <v>3</v>
       </c>
       <c r="AN235" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="1:40">
@@ -50042,7 +50042,7 @@
         <v>3</v>
       </c>
       <c r="AN236" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="1:40">
@@ -50165,7 +50165,7 @@
         <v>2</v>
       </c>
       <c r="AN237" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="1:40">
@@ -50288,7 +50288,7 @@
         <v>3</v>
       </c>
       <c r="AN238" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="1:40">
@@ -50411,7 +50411,7 @@
         <v>2</v>
       </c>
       <c r="AN239" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="1:40">
@@ -50534,7 +50534,7 @@
         <v>3</v>
       </c>
       <c r="AN240" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="1:40">
@@ -50657,7 +50657,7 @@
         <v>3</v>
       </c>
       <c r="AN241" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:40">
@@ -50780,7 +50780,7 @@
         <v>2</v>
       </c>
       <c r="AN242" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="1:40">
@@ -50903,7 +50903,7 @@
         <v>1</v>
       </c>
       <c r="AN243" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="244" spans="1:40">
@@ -51026,7 +51026,7 @@
         <v>2</v>
       </c>
       <c r="AN244" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="1:40">
@@ -51149,7 +51149,7 @@
         <v>2</v>
       </c>
       <c r="AN245" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="1:40">
@@ -51272,7 +51272,7 @@
         <v>2</v>
       </c>
       <c r="AN246" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="247" spans="1:40">
@@ -51395,7 +51395,7 @@
         <v>1</v>
       </c>
       <c r="AN247" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:40">
@@ -51518,7 +51518,7 @@
         <v>2</v>
       </c>
       <c r="AN248" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="1:40">
@@ -51641,7 +51641,7 @@
         <v>3</v>
       </c>
       <c r="AN249" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="1:40">
@@ -51764,7 +51764,7 @@
         <v>3</v>
       </c>
       <c r="AN250" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="1:40">
@@ -51887,7 +51887,7 @@
         <v>2</v>
       </c>
       <c r="AN251" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="252" spans="1:40">
@@ -52010,7 +52010,7 @@
         <v>3</v>
       </c>
       <c r="AN252" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="1:40">
@@ -52133,7 +52133,7 @@
         <v>3</v>
       </c>
       <c r="AN253" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="1:40">
@@ -52256,7 +52256,7 @@
         <v>3</v>
       </c>
       <c r="AN254" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="1:40">
@@ -52379,7 +52379,7 @@
         <v>3</v>
       </c>
       <c r="AN255" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="1:40">
@@ -52502,7 +52502,7 @@
         <v>3</v>
       </c>
       <c r="AN256" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="1:40">
@@ -52625,7 +52625,7 @@
         <v>2</v>
       </c>
       <c r="AN257" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="258" spans="1:40">
@@ -52748,7 +52748,7 @@
         <v>1</v>
       </c>
       <c r="AN258" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="259" spans="1:40">
@@ -52871,7 +52871,7 @@
         <v>1</v>
       </c>
       <c r="AN259" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="260" spans="1:40">
@@ -52994,7 +52994,7 @@
         <v>2</v>
       </c>
       <c r="AN260" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="261" spans="1:40">
@@ -53117,7 +53117,7 @@
         <v>1</v>
       </c>
       <c r="AN261" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="262" spans="1:40">
@@ -53240,7 +53240,7 @@
         <v>2</v>
       </c>
       <c r="AN262" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="263" spans="1:40">
@@ -53363,7 +53363,7 @@
         <v>2</v>
       </c>
       <c r="AN263" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="264" spans="1:40">
@@ -53486,7 +53486,7 @@
         <v>2</v>
       </c>
       <c r="AN264" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="265" spans="1:40">
@@ -53609,7 +53609,7 @@
         <v>2</v>
       </c>
       <c r="AN265" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="266" spans="1:40">
@@ -53732,7 +53732,7 @@
         <v>1</v>
       </c>
       <c r="AN266" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="267" spans="1:40">
@@ -53855,7 +53855,7 @@
         <v>2</v>
       </c>
       <c r="AN267" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="268" spans="1:40">
@@ -53978,7 +53978,7 @@
         <v>1</v>
       </c>
       <c r="AN268" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="269" spans="1:40">
@@ -54101,7 +54101,7 @@
         <v>1</v>
       </c>
       <c r="AN269" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="270" spans="1:40">
@@ -54224,7 +54224,7 @@
         <v>2</v>
       </c>
       <c r="AN270" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="271" spans="1:40">
@@ -54347,7 +54347,7 @@
         <v>3</v>
       </c>
       <c r="AN271" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="272" spans="1:40">
@@ -54470,7 +54470,7 @@
         <v>3</v>
       </c>
       <c r="AN272" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="273" spans="1:40">
@@ -54593,7 +54593,7 @@
         <v>2</v>
       </c>
       <c r="AN273" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="274" spans="1:40">
@@ -54716,7 +54716,7 @@
         <v>2</v>
       </c>
       <c r="AN274" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="275" spans="1:40">
@@ -54839,7 +54839,7 @@
         <v>1</v>
       </c>
       <c r="AN275" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="276" spans="1:40">
@@ -54962,7 +54962,7 @@
         <v>1</v>
       </c>
       <c r="AN276" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="277" spans="1:40">
@@ -55085,7 +55085,7 @@
         <v>1</v>
       </c>
       <c r="AN277" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="278" spans="1:40">
@@ -55208,7 +55208,7 @@
         <v>1</v>
       </c>
       <c r="AN278" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="279" spans="1:40">
@@ -55331,7 +55331,7 @@
         <v>2</v>
       </c>
       <c r="AN279" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="280" spans="1:40">
@@ -55454,7 +55454,7 @@
         <v>2</v>
       </c>
       <c r="AN280" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="281" spans="1:40">
@@ -55577,7 +55577,7 @@
         <v>1</v>
       </c>
       <c r="AN281" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="282" spans="1:40">
@@ -55700,7 +55700,7 @@
         <v>1</v>
       </c>
       <c r="AN282" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="283" spans="1:40">
@@ -55823,7 +55823,7 @@
         <v>3</v>
       </c>
       <c r="AN283" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="284" spans="1:40">
@@ -55946,7 +55946,7 @@
         <v>3</v>
       </c>
       <c r="AN284" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="285" spans="1:40">
@@ -56069,7 +56069,7 @@
         <v>1</v>
       </c>
       <c r="AN285" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="286" spans="1:40">
@@ -56192,7 +56192,7 @@
         <v>2</v>
       </c>
       <c r="AN286" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="287" spans="1:40">
@@ -56315,7 +56315,7 @@
         <v>1</v>
       </c>
       <c r="AN287" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="288" spans="1:40">
@@ -56438,7 +56438,7 @@
         <v>1</v>
       </c>
       <c r="AN288" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="289" spans="1:40">
@@ -56561,7 +56561,7 @@
         <v>3</v>
       </c>
       <c r="AN289" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="290" spans="1:40">
@@ -56684,7 +56684,7 @@
         <v>2</v>
       </c>
       <c r="AN290" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="291" spans="1:40">
@@ -56807,7 +56807,7 @@
         <v>3</v>
       </c>
       <c r="AN291" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="292" spans="1:40">
@@ -56930,7 +56930,7 @@
         <v>2</v>
       </c>
       <c r="AN292" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="293" spans="1:40">
@@ -57053,7 +57053,7 @@
         <v>3</v>
       </c>
       <c r="AN293" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="294" spans="1:40">
@@ -57176,7 +57176,7 @@
         <v>3</v>
       </c>
       <c r="AN294" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="295" spans="1:40">
@@ -57299,7 +57299,7 @@
         <v>2</v>
       </c>
       <c r="AN295" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="296" spans="1:40">
@@ -57422,7 +57422,7 @@
         <v>1</v>
       </c>
       <c r="AN296" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="1:40">
@@ -57545,7 +57545,7 @@
         <v>1</v>
       </c>
       <c r="AN297" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="298" spans="1:40">
@@ -57668,7 +57668,7 @@
         <v>1</v>
       </c>
       <c r="AN298" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="299" spans="1:40">
@@ -57791,7 +57791,7 @@
         <v>2</v>
       </c>
       <c r="AN299" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="300" spans="1:40">
@@ -57914,7 +57914,7 @@
         <v>3</v>
       </c>
       <c r="AN300" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="301" spans="1:40">
@@ -58037,7 +58037,7 @@
         <v>2</v>
       </c>
       <c r="AN301" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:40">
@@ -58160,7 +58160,7 @@
         <v>3</v>
       </c>
       <c r="AN302" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303" spans="1:40">
@@ -58283,7 +58283,7 @@
         <v>2</v>
       </c>
       <c r="AN303" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="304" spans="1:40">
@@ -58406,7 +58406,7 @@
         <v>1</v>
       </c>
       <c r="AN304" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="305" spans="1:40">
@@ -58529,7 +58529,7 @@
         <v>2</v>
       </c>
       <c r="AN305" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:40">
@@ -58652,7 +58652,7 @@
         <v>1</v>
       </c>
       <c r="AN306" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="307" spans="1:40">
@@ -58775,7 +58775,7 @@
         <v>2</v>
       </c>
       <c r="AN307" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="308" spans="1:40">
@@ -58898,7 +58898,7 @@
         <v>3</v>
       </c>
       <c r="AN308" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="309" spans="1:40">
@@ -59021,7 +59021,7 @@
         <v>3</v>
       </c>
       <c r="AN309" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="310" spans="1:40">
@@ -59144,7 +59144,7 @@
         <v>3</v>
       </c>
       <c r="AN310" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="311" spans="1:40">
@@ -59267,7 +59267,7 @@
         <v>2</v>
       </c>
       <c r="AN311" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="312" spans="1:40">
@@ -59390,7 +59390,7 @@
         <v>3</v>
       </c>
       <c r="AN312" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="313" spans="1:40">
@@ -59513,7 +59513,7 @@
         <v>3</v>
       </c>
       <c r="AN313" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="314" spans="1:40">
@@ -59636,7 +59636,7 @@
         <v>2</v>
       </c>
       <c r="AN314" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="315" spans="1:40">
@@ -59759,7 +59759,7 @@
         <v>1</v>
       </c>
       <c r="AN315" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="316" spans="1:40">
@@ -59882,7 +59882,7 @@
         <v>1</v>
       </c>
       <c r="AN316" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="317" spans="1:40">
@@ -60005,7 +60005,7 @@
         <v>1</v>
       </c>
       <c r="AN317" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="318" spans="1:40">
@@ -60128,7 +60128,7 @@
         <v>2</v>
       </c>
       <c r="AN318" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="319" spans="1:40">
@@ -60251,7 +60251,7 @@
         <v>1</v>
       </c>
       <c r="AN319" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="320" spans="1:40">
@@ -60374,7 +60374,7 @@
         <v>1</v>
       </c>
       <c r="AN320" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="321" spans="1:40">
@@ -60497,7 +60497,7 @@
         <v>2</v>
       </c>
       <c r="AN321" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="322" spans="1:40">
@@ -60620,7 +60620,7 @@
         <v>3</v>
       </c>
       <c r="AN322" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="323" spans="1:40">
@@ -60743,7 +60743,7 @@
         <v>2</v>
       </c>
       <c r="AN323" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="324" spans="1:40">
@@ -60866,7 +60866,7 @@
         <v>3</v>
       </c>
       <c r="AN324" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="325" spans="1:40">
@@ -60989,7 +60989,7 @@
         <v>2</v>
       </c>
       <c r="AN325" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="326" spans="1:40">
@@ -61112,7 +61112,7 @@
         <v>2</v>
       </c>
       <c r="AN326" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="327" spans="1:40">
@@ -61235,7 +61235,7 @@
         <v>2</v>
       </c>
       <c r="AN327" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="328" spans="1:40">
@@ -61358,7 +61358,7 @@
         <v>1</v>
       </c>
       <c r="AN328" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="329" spans="1:40">
@@ -61481,7 +61481,7 @@
         <v>2</v>
       </c>
       <c r="AN329" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="330" spans="1:40">
@@ -61604,7 +61604,7 @@
         <v>1</v>
       </c>
       <c r="AN330" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="331" spans="1:40">
@@ -61727,7 +61727,7 @@
         <v>3</v>
       </c>
       <c r="AN331" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="332" spans="1:40">
@@ -61850,7 +61850,7 @@
         <v>2</v>
       </c>
       <c r="AN332" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="333" spans="1:40">
@@ -61973,7 +61973,7 @@
         <v>3</v>
       </c>
       <c r="AN333" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="334" spans="1:40">
@@ -62096,7 +62096,7 @@
         <v>3</v>
       </c>
       <c r="AN334" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="335" spans="1:40">
@@ -62219,7 +62219,7 @@
         <v>3</v>
       </c>
       <c r="AN335" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="336" spans="1:40">
@@ -62342,7 +62342,7 @@
         <v>1</v>
       </c>
       <c r="AN336" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="337" spans="1:40">
@@ -62465,7 +62465,7 @@
         <v>1</v>
       </c>
       <c r="AN337" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="338" spans="1:40">
@@ -62588,7 +62588,7 @@
         <v>3</v>
       </c>
       <c r="AN338" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="339" spans="1:40">
@@ -62711,7 +62711,7 @@
         <v>2</v>
       </c>
       <c r="AN339" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="340" spans="1:40">
@@ -62834,7 +62834,7 @@
         <v>1</v>
       </c>
       <c r="AN340" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="341" spans="1:40">
@@ -62957,7 +62957,7 @@
         <v>3</v>
       </c>
       <c r="AN341" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="342" spans="1:40">
@@ -63080,7 +63080,7 @@
         <v>3</v>
       </c>
       <c r="AN342" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="343" spans="1:40">
@@ -63203,7 +63203,7 @@
         <v>3</v>
       </c>
       <c r="AN343" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="344" spans="1:40">
@@ -63326,7 +63326,7 @@
         <v>1</v>
       </c>
       <c r="AN344" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="345" spans="1:40">
@@ -63449,7 +63449,7 @@
         <v>1</v>
       </c>
       <c r="AN345" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="346" spans="1:40">
@@ -63572,7 +63572,7 @@
         <v>1</v>
       </c>
       <c r="AN346" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="347" spans="1:40">
@@ -63695,7 +63695,7 @@
         <v>1</v>
       </c>
       <c r="AN347" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="348" spans="1:40">
@@ -63818,7 +63818,7 @@
         <v>2</v>
       </c>
       <c r="AN348" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="349" spans="1:40">
@@ -63941,7 +63941,7 @@
         <v>1</v>
       </c>
       <c r="AN349" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="350" spans="1:40">
@@ -64064,7 +64064,7 @@
         <v>1</v>
       </c>
       <c r="AN350" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="351" spans="1:40">
@@ -64187,7 +64187,7 @@
         <v>2</v>
       </c>
       <c r="AN351" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="352" spans="1:40">
@@ -64310,7 +64310,7 @@
         <v>1</v>
       </c>
       <c r="AN352" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="353" spans="1:40">
@@ -64433,7 +64433,7 @@
         <v>3</v>
       </c>
       <c r="AN353" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="354" spans="1:40">
@@ -64556,7 +64556,7 @@
         <v>3</v>
       </c>
       <c r="AN354" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="355" spans="1:40">
@@ -64679,7 +64679,7 @@
         <v>3</v>
       </c>
       <c r="AN355" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="356" spans="1:40">
@@ -64802,7 +64802,7 @@
         <v>3</v>
       </c>
       <c r="AN356" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="357" spans="1:40">
@@ -64925,7 +64925,7 @@
         <v>3</v>
       </c>
       <c r="AN357" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="358" spans="1:40">
@@ -65048,7 +65048,7 @@
         <v>3</v>
       </c>
       <c r="AN358" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="359" spans="1:40">
@@ -65171,7 +65171,7 @@
         <v>1</v>
       </c>
       <c r="AN359" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="360" spans="1:40">
@@ -65294,7 +65294,7 @@
         <v>1</v>
       </c>
       <c r="AN360" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="361" spans="1:40">
@@ -65417,7 +65417,7 @@
         <v>1</v>
       </c>
       <c r="AN361" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="362" spans="1:40">
@@ -65540,7 +65540,7 @@
         <v>2</v>
       </c>
       <c r="AN362" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="363" spans="1:40">
@@ -65663,7 +65663,7 @@
         <v>2</v>
       </c>
       <c r="AN363" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="364" spans="1:40">
@@ -65786,7 +65786,7 @@
         <v>1</v>
       </c>
       <c r="AN364" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="365" spans="1:40">
@@ -65909,7 +65909,7 @@
         <v>2</v>
       </c>
       <c r="AN365" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="366" spans="1:40">
@@ -66032,7 +66032,7 @@
         <v>1</v>
       </c>
       <c r="AN366" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="367" spans="1:40">
@@ -66155,7 +66155,7 @@
         <v>3</v>
       </c>
       <c r="AN367" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="368" spans="1:40">
@@ -66278,7 +66278,7 @@
         <v>2</v>
       </c>
       <c r="AN368" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="369" spans="1:40">
@@ -66401,7 +66401,7 @@
         <v>3</v>
       </c>
       <c r="AN369" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="370" spans="1:40">
@@ -66524,7 +66524,7 @@
         <v>3</v>
       </c>
       <c r="AN370" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="371" spans="1:40">
@@ -66647,7 +66647,7 @@
         <v>3</v>
       </c>
       <c r="AN371" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="372" spans="1:40">
@@ -66770,7 +66770,7 @@
         <v>3</v>
       </c>
       <c r="AN372" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="373" spans="1:40">
@@ -66893,7 +66893,7 @@
         <v>3</v>
       </c>
       <c r="AN373" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="374" spans="1:40">
@@ -67016,7 +67016,7 @@
         <v>3</v>
       </c>
       <c r="AN374" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="375" spans="1:40">
@@ -67139,7 +67139,7 @@
         <v>3</v>
       </c>
       <c r="AN375" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="376" spans="1:40">
@@ -67262,7 +67262,7 @@
         <v>2</v>
       </c>
       <c r="AN376" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="377" spans="1:40">
@@ -67385,7 +67385,7 @@
         <v>2</v>
       </c>
       <c r="AN377" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="378" spans="1:40">
@@ -67508,7 +67508,7 @@
         <v>1</v>
       </c>
       <c r="AN378" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="379" spans="1:40">
@@ -67628,7 +67628,7 @@
         <v>0</v>
       </c>
       <c r="AN379" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="380" spans="1:40">
@@ -67748,7 +67748,7 @@
         <v>0</v>
       </c>
       <c r="AN380" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="381" spans="1:40">
@@ -67868,7 +67868,7 @@
         <v>0</v>
       </c>
       <c r="AN381" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="382" spans="1:40">
@@ -67988,7 +67988,7 @@
         <v>0</v>
       </c>
       <c r="AN382" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="383" spans="1:40">
@@ -68108,7 +68108,7 @@
         <v>0</v>
       </c>
       <c r="AN383" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB30573-38EF-46DF-A8F6-E1E5AC7528D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEE47E-65CF-4FCE-89DC-0F0B8C21EBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="557">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2551,9 +2551,6 @@
   </si>
   <si>
     <t>IE</t>
-  </si>
-  <si>
-    <t>EUR16</t>
   </si>
 </sst>
 </file>
@@ -7255,30 +7252,6 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -7305,6 +7278,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="71" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="71" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="71" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="71" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2868">
     <cellStyle name="20 % - Markeringsfarve1" xfId="2197" xr:uid="{F2B1431A-9259-4D97-8046-C992FC9CF755}"/>
@@ -11483,12 +11480,12 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -11572,11 +11569,11 @@
       <c r="A19" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
@@ -11604,11 +11601,11 @@
       <c r="A20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
@@ -11696,11 +11693,11 @@
       <c r="A23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -11726,11 +11723,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="31"/>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -11786,11 +11783,11 @@
       <c r="A26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -11816,11 +11813,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="31"/>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -11908,11 +11905,11 @@
       <c r="A30" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="24"/>
@@ -11940,11 +11937,11 @@
       <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="24"/>
@@ -13902,7 +13899,7 @@
   <dimension ref="A2:BA137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14169,7 +14166,7 @@
         <f t="array" ref="L5">IFERROR(SUMPRODUCT((Table1[Region]=D5)*(Table1[Group]=$A5)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M5*1000))),0)</f>
         <v>2.94</v>
       </c>
-      <c r="M5" s="118">
+      <c r="M5" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D5,Table1[Group],A5)/1000</f>
         <v>4.5912100000000002</v>
       </c>
@@ -14246,7 +14243,7 @@
         <f t="array" ref="L6">IFERROR(SUMPRODUCT((Table1[Region]=D6)*(Table1[Group]=$A6)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M6*1000))),0)</f>
         <v>3.13</v>
       </c>
-      <c r="M6" s="118">
+      <c r="M6" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D6,Table1[Group],A6)/1000</f>
         <v>20.99024</v>
       </c>
@@ -14320,7 +14317,7 @@
         <f t="array" ref="L7">IFERROR(SUMPRODUCT((Table1[Region]=D7)*(Table1[Group]=$A7)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M7*1000))),0)</f>
         <v>2.64</v>
       </c>
-      <c r="M7" s="118">
+      <c r="M7" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D7,Table1[Group],A7)/1000</f>
         <v>2.5825100000000001</v>
       </c>
@@ -14394,7 +14391,7 @@
         <f t="array" ref="L8">IFERROR(SUMPRODUCT((Table1[Region]=D8)*(Table1[Group]=$A8)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M8*1000))),0)</f>
         <v>3.23</v>
       </c>
-      <c r="M8" s="118">
+      <c r="M8" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D8,Table1[Group],A8)/1000</f>
         <v>2.33738</v>
       </c>
@@ -14468,7 +14465,7 @@
         <f t="array" ref="L9">IFERROR(SUMPRODUCT((Table1[Region]=D9)*(Table1[Group]=$A9)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M9*1000))),0)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="M9" s="119">
+      <c r="M9" s="111">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D9,Table1[Group],A9)/1000</f>
         <v>1.3865399999999999</v>
       </c>
@@ -14514,18 +14511,18 @@
       <c r="K10" s="90">
         <v>30</v>
       </c>
-      <c r="L10" s="122" cm="1">
+      <c r="L10" s="114" cm="1">
         <f t="array" ref="L10">IFERROR(SUMPRODUCT((Table1[Group]=A5)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M10*1000))),0)</f>
         <v>3.0407225378419636</v>
       </c>
-      <c r="M10" s="123">
+      <c r="M10" s="115">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$5)/1000</f>
         <v>31.887880000000006</v>
       </c>
-      <c r="N10" s="123">
+      <c r="N10" s="115">
         <v>1</v>
       </c>
-      <c r="O10" s="124">
+      <c r="O10" s="116">
         <f t="shared" si="0"/>
         <v>9.1221676135258903E-2</v>
       </c>
@@ -14567,11 +14564,11 @@
       <c r="K11" s="92">
         <v>30</v>
       </c>
-      <c r="L11" s="117" cm="1">
+      <c r="L11" s="109" cm="1">
         <f t="array" ref="L11">IFERROR(SUMPRODUCT((Table1[Region]=D11)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M11*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="117">
+      <c r="M11" s="109">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D11,Table1[Group],$A$11)/1000</f>
         <v>0</v>
       </c>
@@ -14617,11 +14614,11 @@
       <c r="K12" s="57">
         <v>30</v>
       </c>
-      <c r="L12" s="118" cm="1">
+      <c r="L12" s="110" cm="1">
         <f t="array" ref="L12">IFERROR(SUMPRODUCT((Table1[Region]=D12)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M12*1000))),0)</f>
         <v>2.4883257598111537</v>
       </c>
-      <c r="M12" s="118">
+      <c r="M12" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D12,Table1[Group],$A$11)/1000</f>
         <v>0.50834999999999997</v>
       </c>
@@ -14667,11 +14664,11 @@
       <c r="K13" s="57">
         <v>30</v>
       </c>
-      <c r="L13" s="118" cm="1">
+      <c r="L13" s="110" cm="1">
         <f t="array" ref="L13">IFERROR(SUMPRODUCT((Table1[Region]=D13)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M13*1000))),0)</f>
         <v>4.3774391001739987</v>
       </c>
-      <c r="M13" s="118">
+      <c r="M13" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D13,Table1[Group],$A$11)/1000</f>
         <v>0.96552000000000004</v>
       </c>
@@ -14717,11 +14714,11 @@
       <c r="K14" s="57">
         <v>30</v>
       </c>
-      <c r="L14" s="118" cm="1">
+      <c r="L14" s="110" cm="1">
         <f t="array" ref="L14">IFERROR(SUMPRODUCT((Table1[Region]=D14)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M14*1000))),0)</f>
         <v>3.2276063528415433</v>
       </c>
-      <c r="M14" s="118">
+      <c r="M14" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D14,Table1[Group],$A$11)/1000</f>
         <v>1.6767299999999998</v>
       </c>
@@ -14767,11 +14764,11 @@
       <c r="K15" s="57">
         <v>30</v>
       </c>
-      <c r="L15" s="118" cm="1">
+      <c r="L15" s="110" cm="1">
         <f t="array" ref="L15">IFERROR(SUMPRODUCT((Table1[Region]=D15)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M15*1000))),0)</f>
         <v>3.2851475570959323</v>
       </c>
-      <c r="M15" s="118">
+      <c r="M15" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D15,Table1[Group],$A$11)/1000</f>
         <v>1.1598899999999999</v>
       </c>
@@ -14817,11 +14814,11 @@
       <c r="K16" s="57">
         <v>30</v>
       </c>
-      <c r="L16" s="118" cm="1">
+      <c r="L16" s="110" cm="1">
         <f t="array" ref="L16">IFERROR(SUMPRODUCT((Table1[Region]=D16)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M16*1000))),0)</f>
         <v>4.3617632297402631</v>
       </c>
-      <c r="M16" s="118">
+      <c r="M16" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D16,Table1[Group],$A$11)/1000</f>
         <v>2.8093900000000001</v>
       </c>
@@ -14867,11 +14864,11 @@
       <c r="K17" s="57">
         <v>30</v>
       </c>
-      <c r="L17" s="118" cm="1">
+      <c r="L17" s="110" cm="1">
         <f t="array" ref="L17">IFERROR(SUMPRODUCT((Table1[Region]=D17)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M17*1000))),0)</f>
         <v>3.6103879498534273</v>
       </c>
-      <c r="M17" s="118">
+      <c r="M17" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D17,Table1[Group],$A$11)/1000</f>
         <v>0.32065999999999995</v>
       </c>
@@ -14917,11 +14914,11 @@
       <c r="K18" s="57">
         <v>30</v>
       </c>
-      <c r="L18" s="118" cm="1">
+      <c r="L18" s="110" cm="1">
         <f t="array" ref="L18">IFERROR(SUMPRODUCT((Table1[Region]=D18)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M18*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D18,Table1[Group],$A$11)/1000</f>
         <v>0</v>
       </c>
@@ -14967,11 +14964,11 @@
       <c r="K19" s="57">
         <v>30</v>
       </c>
-      <c r="L19" s="118" cm="1">
+      <c r="L19" s="110" cm="1">
         <f t="array" ref="L19">IFERROR(SUMPRODUCT((Table1[Region]=D19)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M19*1000))),0)</f>
         <v>2.4503708143830121</v>
       </c>
-      <c r="M19" s="118">
+      <c r="M19" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D19,Table1[Group],$A$11)/1000</f>
         <v>2.6692600000000004</v>
       </c>
@@ -15017,11 +15014,11 @@
       <c r="K20" s="57">
         <v>30</v>
       </c>
-      <c r="L20" s="118" cm="1">
+      <c r="L20" s="110" cm="1">
         <f t="array" ref="L20">IFERROR(SUMPRODUCT((Table1[Region]=D20)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M20*1000))),0)</f>
         <v>2.5445523687345375</v>
       </c>
-      <c r="M20" s="118">
+      <c r="M20" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D20,Table1[Group],$A$11)/1000</f>
         <v>1.3095599999999998</v>
       </c>
@@ -15067,11 +15064,11 @@
       <c r="K21" s="57">
         <v>30</v>
       </c>
-      <c r="L21" s="118" cm="1">
+      <c r="L21" s="110" cm="1">
         <f t="array" ref="L21">IFERROR(SUMPRODUCT((Table1[Region]=D21)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M21*1000))),0)</f>
         <v>2.5751231692870986</v>
       </c>
-      <c r="M21" s="118">
+      <c r="M21" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D21,Table1[Group],$A$11)/1000</f>
         <v>0.74287999999999998</v>
       </c>
@@ -15117,11 +15114,11 @@
       <c r="K22" s="57">
         <v>30</v>
       </c>
-      <c r="L22" s="118" cm="1">
+      <c r="L22" s="110" cm="1">
         <f t="array" ref="L22">IFERROR(SUMPRODUCT((Table1[Region]=D22)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M22*1000))),0)</f>
         <v>3.6</v>
       </c>
-      <c r="M22" s="118">
+      <c r="M22" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D22,Table1[Group],$A$11)/1000</f>
         <v>0.21205000000000002</v>
       </c>
@@ -15167,11 +15164,11 @@
       <c r="K23" s="57">
         <v>30</v>
       </c>
-      <c r="L23" s="118" cm="1">
+      <c r="L23" s="110" cm="1">
         <f t="array" ref="L23">IFERROR(SUMPRODUCT((Table1[Region]=D23)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M23*1000))),0)</f>
         <v>1.2500882629107981</v>
       </c>
-      <c r="M23" s="118">
+      <c r="M23" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D23,Table1[Group],$A$11)/1000</f>
         <v>5.3249999999999999E-2</v>
       </c>
@@ -15217,11 +15214,11 @@
       <c r="K24" s="57">
         <v>30</v>
       </c>
-      <c r="L24" s="118" cm="1">
+      <c r="L24" s="110" cm="1">
         <f t="array" ref="L24">IFERROR(SUMPRODUCT((Table1[Region]=D24)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M24*1000))),0)</f>
         <v>3.3725810638655869</v>
       </c>
-      <c r="M24" s="118">
+      <c r="M24" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D24,Table1[Group],$A$11)/1000</f>
         <v>0.41602999999999996</v>
       </c>
@@ -15267,11 +15264,11 @@
       <c r="K25" s="57">
         <v>30</v>
       </c>
-      <c r="L25" s="118" cm="1">
+      <c r="L25" s="110" cm="1">
         <f t="array" ref="L25">IFERROR(SUMPRODUCT((Table1[Region]=D25)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M25*1000))),0)</f>
         <v>2.7560777420153499</v>
       </c>
-      <c r="M25" s="118">
+      <c r="M25" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D25,Table1[Group],$A$11)/1000</f>
         <v>1.6156000000000001</v>
       </c>
@@ -15317,11 +15314,11 @@
       <c r="K26" s="57">
         <v>30</v>
       </c>
-      <c r="L26" s="118" cm="1">
+      <c r="L26" s="110" cm="1">
         <f t="array" ref="L26">IFERROR(SUMPRODUCT((Table1[Region]=D26)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M26*1000))),0)</f>
         <v>2.9590503192848017</v>
       </c>
-      <c r="M26" s="118">
+      <c r="M26" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D26,Table1[Group],$A$11)/1000</f>
         <v>0.58725000000000005</v>
       </c>
@@ -15367,11 +15364,11 @@
       <c r="K27" s="57">
         <v>30</v>
       </c>
-      <c r="L27" s="118" cm="1">
+      <c r="L27" s="110" cm="1">
         <f t="array" ref="L27">IFERROR(SUMPRODUCT((Table1[Region]=D27)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M27*1000))),0)</f>
         <v>2.6909484008064073</v>
       </c>
-      <c r="M27" s="118">
+      <c r="M27" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D27,Table1[Group],$A$11)/1000</f>
         <v>1.8353000000000002</v>
       </c>
@@ -15417,11 +15414,11 @@
       <c r="K28" s="57">
         <v>30</v>
       </c>
-      <c r="L28" s="118" cm="1">
+      <c r="L28" s="110" cm="1">
         <f t="array" ref="L28">IFERROR(SUMPRODUCT((Table1[Region]=D28)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M28*1000))),0)</f>
         <v>3.6058670880811783</v>
       </c>
-      <c r="M28" s="118">
+      <c r="M28" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D28,Table1[Group],$A$11)/1000</f>
         <v>0.24045999999999998</v>
       </c>
@@ -15467,11 +15464,11 @@
       <c r="K29" s="57">
         <v>30</v>
       </c>
-      <c r="L29" s="118" cm="1">
+      <c r="L29" s="110" cm="1">
         <f t="array" ref="L29">IFERROR(SUMPRODUCT((Table1[Region]=D29)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M29*1000))),0)</f>
         <v>2.8990957144788427</v>
       </c>
-      <c r="M29" s="118">
+      <c r="M29" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D29,Table1[Group],$A$11)/1000</f>
         <v>0.73970000000000002</v>
       </c>
@@ -15517,11 +15514,11 @@
       <c r="K30" s="57">
         <v>30</v>
       </c>
-      <c r="L30" s="118" cm="1">
+      <c r="L30" s="110" cm="1">
         <f t="array" ref="L30">IFERROR(SUMPRODUCT((Table1[Region]=D30)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M30*1000))),0)</f>
         <v>3.7756996903069151</v>
       </c>
-      <c r="M30" s="118">
+      <c r="M30" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D30,Table1[Group],$A$11)/1000</f>
         <v>0.97192999999999996</v>
       </c>
@@ -15567,11 +15564,11 @@
       <c r="K31" s="57">
         <v>30</v>
       </c>
-      <c r="L31" s="118" cm="1">
+      <c r="L31" s="110" cm="1">
         <f t="array" ref="L31">IFERROR(SUMPRODUCT((Table1[Region]=D31)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M31*1000))),0)</f>
         <v>2.917711210529728</v>
       </c>
-      <c r="M31" s="118">
+      <c r="M31" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D31,Table1[Group],$A$11)/1000</f>
         <v>0.77115</v>
       </c>
@@ -15617,11 +15614,11 @@
       <c r="K32" s="57">
         <v>30</v>
       </c>
-      <c r="L32" s="118" cm="1">
+      <c r="L32" s="110" cm="1">
         <f t="array" ref="L32">IFERROR(SUMPRODUCT((Table1[Region]=D32)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M32*1000))),0)</f>
         <v>4.2940457384750399</v>
       </c>
-      <c r="M32" s="118">
+      <c r="M32" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D32,Table1[Group],$A$11)/1000</f>
         <v>1.1622600000000001</v>
       </c>
@@ -15667,11 +15664,11 @@
       <c r="K33" s="57">
         <v>30</v>
       </c>
-      <c r="L33" s="118" cm="1">
+      <c r="L33" s="110" cm="1">
         <f t="array" ref="L33">IFERROR(SUMPRODUCT((Table1[Region]=D33)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M33*1000))),0)</f>
         <v>3.0074170765544208</v>
       </c>
-      <c r="M33" s="118">
+      <c r="M33" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D33,Table1[Group],$A$11)/1000</f>
         <v>0.31715999999999994</v>
       </c>
@@ -15717,11 +15714,11 @@
       <c r="K34" s="57">
         <v>30</v>
       </c>
-      <c r="L34" s="118" cm="1">
+      <c r="L34" s="110" cm="1">
         <f t="array" ref="L34">IFERROR(SUMPRODUCT((Table1[Region]=D34)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M34*1000))),0)</f>
         <v>2.8066876372485012</v>
       </c>
-      <c r="M34" s="118">
+      <c r="M34" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D34,Table1[Group],$A$11)/1000</f>
         <v>0.50546999999999997</v>
       </c>
@@ -15767,11 +15764,11 @@
       <c r="K35" s="57">
         <v>30</v>
       </c>
-      <c r="L35" s="118" cm="1">
+      <c r="L35" s="110" cm="1">
         <f t="array" ref="L35">IFERROR(SUMPRODUCT((Table1[Region]=D35)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M35*1000))),0)</f>
         <v>3.2700493932794021</v>
       </c>
-      <c r="M35" s="118">
+      <c r="M35" s="110">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D35,Table1[Group],$A$11)/1000</f>
         <v>1.2855999999999999</v>
       </c>
@@ -15817,11 +15814,11 @@
       <c r="K36" s="90">
         <v>30</v>
       </c>
-      <c r="L36" s="119" cm="1">
+      <c r="L36" s="111" cm="1">
         <f t="array" ref="L36">IFERROR(SUMPRODUCT((Table1[Region]=D36)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M36*1000))),0)</f>
         <v>3.3485069137731882</v>
       </c>
-      <c r="M36" s="119">
+      <c r="M36" s="111">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D36,Table1[Group],$A$11)/1000</f>
         <v>1.17736</v>
       </c>
@@ -15840,45 +15837,45 @@
       <c r="AA36" s="14"/>
     </row>
     <row r="37" spans="1:27" ht="13.5" thickBot="1">
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="117" t="s">
         <v>548</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="E37" s="125" t="s">
+      <c r="E37" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="F37" s="125" t="s">
+      <c r="F37" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="125" t="s">
+      <c r="G37" s="117" t="s">
         <v>554</v>
       </c>
-      <c r="H37" s="126">
+      <c r="H37" s="118">
         <v>2020</v>
       </c>
-      <c r="I37" s="127" t="s">
+      <c r="I37" s="119" t="s">
         <v>543</v>
       </c>
-      <c r="J37" s="128">
+      <c r="J37" s="120">
         <v>0.85</v>
       </c>
-      <c r="K37" s="126">
+      <c r="K37" s="118">
         <v>30</v>
       </c>
-      <c r="L37" s="129" cm="1">
+      <c r="L37" s="121" cm="1">
         <f t="array" ref="L37">IFERROR(SUMPRODUCT((Table1[Group]=A11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M37*1000))),0)</f>
         <v>3.2309865999024647</v>
       </c>
-      <c r="M37" s="129">
+      <c r="M37" s="121">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$11)/1000</f>
         <v>24.052809999999994</v>
       </c>
-      <c r="N37" s="126">
+      <c r="N37" s="118">
         <v>1</v>
       </c>
-      <c r="O37" s="130">
+      <c r="O37" s="122">
         <f t="shared" si="1"/>
         <v>9.6929597997073944E-2</v>
       </c>
@@ -15920,11 +15917,11 @@
       <c r="K38" s="57">
         <v>30</v>
       </c>
-      <c r="L38" s="120" cm="1">
+      <c r="L38" s="112" cm="1">
         <f t="array" ref="L38">IFERROR(SUMPRODUCT((Table1[Region]=D38)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M38*1000))),0)</f>
         <v>4.0793470741361482</v>
       </c>
-      <c r="M38" s="120">
+      <c r="M38" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D38,Table1[Group],$A$38)/1000</f>
         <v>0.56086000000000003</v>
       </c>
@@ -15970,11 +15967,11 @@
       <c r="K39" s="57">
         <v>30</v>
       </c>
-      <c r="L39" s="120" cm="1">
+      <c r="L39" s="112" cm="1">
         <f t="array" ref="L39">IFERROR(SUMPRODUCT((Table1[Region]=D39)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M39*1000))),0)</f>
         <v>6.2626256245875371</v>
       </c>
-      <c r="M39" s="120">
+      <c r="M39" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D39,Table1[Group],$A$38)/1000</f>
         <v>0.21214</v>
       </c>
@@ -16020,11 +16017,11 @@
       <c r="K40" s="57">
         <v>30</v>
       </c>
-      <c r="L40" s="120" cm="1">
+      <c r="L40" s="112" cm="1">
         <f t="array" ref="L40">IFERROR(SUMPRODUCT((Table1[Region]=D40)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M40*1000))),0)</f>
         <v>7.9187124427092179</v>
       </c>
-      <c r="M40" s="120">
+      <c r="M40" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D40,Table1[Group],$A$38)/1000</f>
         <v>0.11781999999999999</v>
       </c>
@@ -16070,11 +16067,11 @@
       <c r="K41" s="57">
         <v>30</v>
       </c>
-      <c r="L41" s="120" cm="1">
+      <c r="L41" s="112" cm="1">
         <f t="array" ref="L41">IFERROR(SUMPRODUCT((Table1[Region]=D41)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M41*1000))),0)</f>
         <v>5.7904222976004593</v>
       </c>
-      <c r="M41" s="120">
+      <c r="M41" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D41,Table1[Group],$A$38)/1000</f>
         <v>1.1143799999999999</v>
       </c>
@@ -16120,11 +16117,11 @@
       <c r="K42" s="57">
         <v>30</v>
       </c>
-      <c r="L42" s="120" cm="1">
+      <c r="L42" s="112" cm="1">
         <f t="array" ref="L42">IFERROR(SUMPRODUCT((Table1[Region]=D42)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M42*1000))),0)</f>
         <v>6.5033419417319021</v>
       </c>
-      <c r="M42" s="120">
+      <c r="M42" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D42,Table1[Group],$A$38)/1000</f>
         <v>0.12390999999999999</v>
       </c>
@@ -16170,11 +16167,11 @@
       <c r="K43" s="57">
         <v>30</v>
       </c>
-      <c r="L43" s="120" cm="1">
+      <c r="L43" s="112" cm="1">
         <f t="array" ref="L43">IFERROR(SUMPRODUCT((Table1[Region]=D43)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M43*1000))),0)</f>
         <v>6.6593508137201018</v>
       </c>
-      <c r="M43" s="120">
+      <c r="M43" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D43,Table1[Group],$A$38)/1000</f>
         <v>0.78220999999999996</v>
       </c>
@@ -16220,11 +16217,11 @@
       <c r="K44" s="57">
         <v>30</v>
       </c>
-      <c r="L44" s="120" cm="1">
+      <c r="L44" s="112" cm="1">
         <f t="array" ref="L44">IFERROR(SUMPRODUCT((Table1[Region]=D44)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M44*1000))),0)</f>
         <v>5.6935064813222214</v>
       </c>
-      <c r="M44" s="120">
+      <c r="M44" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D44,Table1[Group],$A$38)/1000</f>
         <v>0.63952999999999993</v>
       </c>
@@ -16270,11 +16267,11 @@
       <c r="K45" s="57">
         <v>30</v>
       </c>
-      <c r="L45" s="120" cm="1">
+      <c r="L45" s="112" cm="1">
         <f t="array" ref="L45">IFERROR(SUMPRODUCT((Table1[Region]=D45)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M45*1000))),0)</f>
         <v>3.7254368942816862</v>
       </c>
-      <c r="M45" s="120">
+      <c r="M45" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D45,Table1[Group],$A$38)/1000</f>
         <v>0.90079000000000009</v>
       </c>
@@ -16320,11 +16317,11 @@
       <c r="K46" s="57">
         <v>30</v>
       </c>
-      <c r="L46" s="120" cm="1">
+      <c r="L46" s="112" cm="1">
         <f t="array" ref="L46">IFERROR(SUMPRODUCT((Table1[Region]=D46)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M46*1000))),0)</f>
         <v>5.9571859010047978</v>
       </c>
-      <c r="M46" s="120">
+      <c r="M46" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D46,Table1[Group],$A$38)/1000</f>
         <v>0.75438000000000005</v>
       </c>
@@ -16370,11 +16367,11 @@
       <c r="K47" s="57">
         <v>30</v>
       </c>
-      <c r="L47" s="120" cm="1">
+      <c r="L47" s="112" cm="1">
         <f t="array" ref="L47">IFERROR(SUMPRODUCT((Table1[Region]=D47)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M47*1000))),0)</f>
         <v>8.9177191151919875</v>
       </c>
-      <c r="M47" s="120">
+      <c r="M47" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D47,Table1[Group],$A$38)/1000</f>
         <v>0.14376</v>
       </c>
@@ -16420,11 +16417,11 @@
       <c r="K48" s="57">
         <v>30</v>
       </c>
-      <c r="L48" s="120" cm="1">
+      <c r="L48" s="112" cm="1">
         <f t="array" ref="L48">IFERROR(SUMPRODUCT((Table1[Region]=D48)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M48*1000))),0)</f>
         <v>5.2124891878904371</v>
       </c>
-      <c r="M48" s="120">
+      <c r="M48" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D48,Table1[Group],$A$38)/1000</f>
         <v>4.1619999999999997E-2</v>
       </c>
@@ -16470,11 +16467,11 @@
       <c r="K49" s="57">
         <v>30</v>
       </c>
-      <c r="L49" s="120" cm="1">
+      <c r="L49" s="112" cm="1">
         <f t="array" ref="L49">IFERROR(SUMPRODUCT((Table1[Region]=D49)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M49*1000))),0)</f>
         <v>6.9997118816930151</v>
       </c>
-      <c r="M49" s="120">
+      <c r="M49" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D49,Table1[Group],$A$38)/1000</f>
         <v>3.9219999999999998E-2</v>
       </c>
@@ -16520,11 +16517,11 @@
       <c r="K50" s="57">
         <v>30</v>
       </c>
-      <c r="L50" s="120" cm="1">
+      <c r="L50" s="112" cm="1">
         <f t="array" ref="L50">IFERROR(SUMPRODUCT((Table1[Region]=D50)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M50*1000))),0)</f>
         <v>5.6967699368904174</v>
       </c>
-      <c r="M50" s="120">
+      <c r="M50" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D50,Table1[Group],$A$38)/1000</f>
         <v>0.52290000000000014</v>
       </c>
@@ -16570,11 +16567,11 @@
       <c r="K51" s="57">
         <v>30</v>
       </c>
-      <c r="L51" s="120" cm="1">
+      <c r="L51" s="112" cm="1">
         <f t="array" ref="L51">IFERROR(SUMPRODUCT((Table1[Region]=D51)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M51*1000))),0)</f>
         <v>7.2922635177128647</v>
       </c>
-      <c r="M51" s="120">
+      <c r="M51" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D51,Table1[Group],$A$38)/1000</f>
         <v>8.0450000000000008E-2</v>
       </c>
@@ -16620,11 +16617,11 @@
       <c r="K52" s="57">
         <v>30</v>
       </c>
-      <c r="L52" s="120" cm="1">
+      <c r="L52" s="112" cm="1">
         <f t="array" ref="L52">IFERROR(SUMPRODUCT((Table1[Region]=D52)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M52*1000))),0)</f>
         <v>5.6395863365716092</v>
       </c>
-      <c r="M52" s="120">
+      <c r="M52" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D52,Table1[Group],$A$38)/1000</f>
         <v>6.3819999999999988E-2</v>
       </c>
@@ -16670,11 +16667,11 @@
       <c r="K53" s="57">
         <v>30</v>
       </c>
-      <c r="L53" s="120" cm="1">
+      <c r="L53" s="112" cm="1">
         <f t="array" ref="L53">IFERROR(SUMPRODUCT((Table1[Region]=D53)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M53*1000))),0)</f>
         <v>5.5836077916834883</v>
       </c>
-      <c r="M53" s="120">
+      <c r="M53" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D53,Table1[Group],$A$38)/1000</f>
         <v>0.49539999999999995</v>
       </c>
@@ -16720,11 +16717,11 @@
       <c r="K54" s="57">
         <v>30</v>
       </c>
-      <c r="L54" s="120" cm="1">
+      <c r="L54" s="112" cm="1">
         <f t="array" ref="L54">IFERROR(SUMPRODUCT((Table1[Region]=D54)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M54*1000))),0)</f>
         <v>5.3160711763183865</v>
       </c>
-      <c r="M54" s="120">
+      <c r="M54" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D54,Table1[Group],$A$38)/1000</f>
         <v>1.4299699999999997</v>
       </c>
@@ -16770,11 +16767,11 @@
       <c r="K55" s="57">
         <v>30</v>
       </c>
-      <c r="L55" s="120" cm="1">
+      <c r="L55" s="112" cm="1">
         <f t="array" ref="L55">IFERROR(SUMPRODUCT((Table1[Region]=D55)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M55*1000))),0)</f>
         <v>5.0329253428136109</v>
       </c>
-      <c r="M55" s="120">
+      <c r="M55" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D55,Table1[Group],$A$38)/1000</f>
         <v>0.33473000000000003</v>
       </c>
@@ -16820,11 +16817,11 @@
       <c r="K56" s="57">
         <v>30</v>
       </c>
-      <c r="L56" s="120" cm="1">
+      <c r="L56" s="112" cm="1">
         <f t="array" ref="L56">IFERROR(SUMPRODUCT((Table1[Region]=D56)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M56*1000))),0)</f>
         <v>5.7256993897458068</v>
       </c>
-      <c r="M56" s="120">
+      <c r="M56" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D56,Table1[Group],$A$38)/1000</f>
         <v>0.20811000000000002</v>
       </c>
@@ -16870,11 +16867,11 @@
       <c r="K57" s="57">
         <v>30</v>
       </c>
-      <c r="L57" s="120" cm="1">
+      <c r="L57" s="112" cm="1">
         <f t="array" ref="L57">IFERROR(SUMPRODUCT((Table1[Region]=D57)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M57*1000))),0)</f>
         <v>6.1848518886679926</v>
       </c>
-      <c r="M57" s="120">
+      <c r="M57" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D57,Table1[Group],$A$38)/1000</f>
         <v>0.10060000000000001</v>
       </c>
@@ -16920,11 +16917,11 @@
       <c r="K58" s="57">
         <v>30</v>
       </c>
-      <c r="L58" s="120" cm="1">
+      <c r="L58" s="112" cm="1">
         <f t="array" ref="L58">IFERROR(SUMPRODUCT((Table1[Region]=D58)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M58*1000))),0)</f>
         <v>5.9208650917771024</v>
       </c>
-      <c r="M58" s="120">
+      <c r="M58" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D58,Table1[Group],$A$38)/1000</f>
         <v>0.12148999999999999</v>
       </c>
@@ -16970,11 +16967,11 @@
       <c r="K59" s="57">
         <v>30</v>
       </c>
-      <c r="L59" s="120" cm="1">
+      <c r="L59" s="112" cm="1">
         <f t="array" ref="L59">IFERROR(SUMPRODUCT((Table1[Region]=D59)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M59*1000))),0)</f>
         <v>6.0029456632556739</v>
       </c>
-      <c r="M59" s="120">
+      <c r="M59" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D59,Table1[Group],$A$38)/1000</f>
         <v>0.26483000000000001</v>
       </c>
@@ -17020,11 +17017,11 @@
       <c r="K60" s="57">
         <v>30</v>
       </c>
-      <c r="L60" s="120" cm="1">
+      <c r="L60" s="112" cm="1">
         <f t="array" ref="L60">IFERROR(SUMPRODUCT((Table1[Region]=D60)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M60*1000))),0)</f>
         <v>7.3234358676726643</v>
       </c>
-      <c r="M60" s="120">
+      <c r="M60" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D60,Table1[Group],$A$38)/1000</f>
         <v>0.31013999999999997</v>
       </c>
@@ -17070,11 +17067,11 @@
       <c r="K61" s="57">
         <v>30</v>
       </c>
-      <c r="L61" s="120" cm="1">
+      <c r="L61" s="112" cm="1">
         <f t="array" ref="L61">IFERROR(SUMPRODUCT((Table1[Region]=D61)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M61*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="120">
+      <c r="M61" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D61,Table1[Group],$A$38)/1000</f>
         <v>0</v>
       </c>
@@ -17120,11 +17117,11 @@
       <c r="K62" s="57">
         <v>30</v>
       </c>
-      <c r="L62" s="120" cm="1">
+      <c r="L62" s="112" cm="1">
         <f t="array" ref="L62">IFERROR(SUMPRODUCT((Table1[Region]=D62)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M62*1000))),0)</f>
         <v>7.0201994752681536</v>
       </c>
-      <c r="M62" s="120">
+      <c r="M62" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D62,Table1[Group],$A$38)/1000</f>
         <v>0.25918000000000002</v>
       </c>
@@ -17170,11 +17167,11 @@
       <c r="K63" s="90">
         <v>30</v>
       </c>
-      <c r="L63" s="121" cm="1">
+      <c r="L63" s="113" cm="1">
         <f t="array" ref="L63">IFERROR(SUMPRODUCT((Table1[Region]=D63)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M63*1000))),0)</f>
         <v>5.8743219211859472</v>
       </c>
-      <c r="M63" s="121">
+      <c r="M63" s="113">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D63,Table1[Group],$A$38)/1000</f>
         <v>0.66916999999999993</v>
       </c>
@@ -17196,7 +17193,7 @@
       <c r="C64" s="91" t="s">
         <v>549</v>
       </c>
-      <c r="D64" s="133" t="s">
+      <c r="D64" s="125" t="s">
         <v>556</v>
       </c>
       <c r="E64" s="91" t="s">
@@ -17220,18 +17217,18 @@
       <c r="K64" s="90">
         <v>30</v>
       </c>
-      <c r="L64" s="131" cm="1">
+      <c r="L64" s="123" cm="1">
         <f t="array" ref="L64">IFERROR(SUMPRODUCT((Table1[Group]=A38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M64*1000))),0)</f>
         <v>5.675035529631022</v>
       </c>
-      <c r="M64" s="131">
+      <c r="M64" s="123">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$38)/1000</f>
         <v>10.291409999999997</v>
       </c>
-      <c r="N64" s="132">
+      <c r="N64" s="124">
         <v>1</v>
       </c>
-      <c r="O64" s="130">
+      <c r="O64" s="122">
         <f t="shared" si="2"/>
         <v>0.17025106588893066</v>
       </c>
@@ -17273,11 +17270,11 @@
       <c r="K65" s="57">
         <v>30</v>
       </c>
-      <c r="L65" s="120" cm="1">
+      <c r="L65" s="112" cm="1">
         <f t="array" ref="L65">IFERROR(SUMPRODUCT((Table1[Region]=D65)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M65*1000))),0)</f>
         <v>10.637242670799434</v>
       </c>
-      <c r="M65" s="120">
+      <c r="M65" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D65,Table1[Group],$A$65)/1000</f>
         <v>7.7429999999999999E-2</v>
       </c>
@@ -17323,11 +17320,11 @@
       <c r="K66" s="57">
         <v>30</v>
       </c>
-      <c r="L66" s="120" cm="1">
+      <c r="L66" s="112" cm="1">
         <f t="array" ref="L66">IFERROR(SUMPRODUCT((Table1[Region]=D66)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M66*1000))),0)</f>
         <v>12.729979166666666</v>
       </c>
-      <c r="M66" s="120">
+      <c r="M66" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D66,Table1[Group],$A$65)/1000</f>
         <v>4.8000000000000001E-2</v>
       </c>
@@ -17373,11 +17370,11 @@
       <c r="K67" s="57">
         <v>30</v>
       </c>
-      <c r="L67" s="120" cm="1">
+      <c r="L67" s="112" cm="1">
         <f t="array" ref="L67">IFERROR(SUMPRODUCT((Table1[Region]=D67)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M67*1000))),0)</f>
         <v>13.219953343701402</v>
       </c>
-      <c r="M67" s="120">
+      <c r="M67" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D67,Table1[Group],$A$65)/1000</f>
         <v>9.0020000000000003E-2</v>
       </c>
@@ -17423,11 +17420,11 @@
       <c r="K68" s="57">
         <v>30</v>
       </c>
-      <c r="L68" s="120" cm="1">
+      <c r="L68" s="112" cm="1">
         <f t="array" ref="L68">IFERROR(SUMPRODUCT((Table1[Region]=D68)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M68*1000))),0)</f>
         <v>9.9402787231755809</v>
       </c>
-      <c r="M68" s="120">
+      <c r="M68" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D68,Table1[Group],$A$65)/1000</f>
         <v>0.27913000000000004</v>
       </c>
@@ -17473,11 +17470,11 @@
       <c r="K69" s="57">
         <v>30</v>
       </c>
-      <c r="L69" s="120" cm="1">
+      <c r="L69" s="112" cm="1">
         <f t="array" ref="L69">IFERROR(SUMPRODUCT((Table1[Region]=D69)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M69*1000))),0)</f>
         <v>12.328911118856743</v>
       </c>
-      <c r="M69" s="120">
+      <c r="M69" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D69,Table1[Group],$A$65)/1000</f>
         <v>0.28690000000000004</v>
       </c>
@@ -17523,11 +17520,11 @@
       <c r="K70" s="57">
         <v>30</v>
       </c>
-      <c r="L70" s="120" cm="1">
+      <c r="L70" s="112" cm="1">
         <f t="array" ref="L70">IFERROR(SUMPRODUCT((Table1[Region]=D70)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M70*1000))),0)</f>
         <v>20.5</v>
       </c>
-      <c r="M70" s="120">
+      <c r="M70" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D70,Table1[Group],$A$65)/1000</f>
         <v>1.264E-2</v>
       </c>
@@ -17573,11 +17570,11 @@
       <c r="K71" s="57">
         <v>30</v>
       </c>
-      <c r="L71" s="120" cm="1">
+      <c r="L71" s="112" cm="1">
         <f t="array" ref="L71">IFERROR(SUMPRODUCT((Table1[Region]=D71)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M71*1000))),0)</f>
         <v>12.172261875461484</v>
       </c>
-      <c r="M71" s="120">
+      <c r="M71" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D71,Table1[Group],$A$65)/1000</f>
         <v>0.12188999999999998</v>
       </c>
@@ -17623,11 +17620,11 @@
       <c r="K72" s="57">
         <v>30</v>
       </c>
-      <c r="L72" s="120" cm="1">
+      <c r="L72" s="112" cm="1">
         <f t="array" ref="L72">IFERROR(SUMPRODUCT((Table1[Region]=D72)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M72*1000))),0)</f>
         <v>11.532456951797158</v>
       </c>
-      <c r="M72" s="120">
+      <c r="M72" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D72,Table1[Group],$A$65)/1000</f>
         <v>0.17945</v>
       </c>
@@ -17673,11 +17670,11 @@
       <c r="K73" s="57">
         <v>30</v>
       </c>
-      <c r="L73" s="120" cm="1">
+      <c r="L73" s="112" cm="1">
         <f t="array" ref="L73">IFERROR(SUMPRODUCT((Table1[Region]=D73)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M73*1000))),0)</f>
         <v>13.795917060677695</v>
       </c>
-      <c r="M73" s="120">
+      <c r="M73" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D73,Table1[Group],$A$65)/1000</f>
         <v>0.10152000000000003</v>
       </c>
@@ -17723,11 +17720,11 @@
       <c r="K74" s="57">
         <v>30</v>
       </c>
-      <c r="L74" s="120" cm="1">
+      <c r="L74" s="112" cm="1">
         <f t="array" ref="L74">IFERROR(SUMPRODUCT((Table1[Region]=D74)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M74*1000))),0)</f>
         <v>12.430990990990992</v>
       </c>
-      <c r="M74" s="120">
+      <c r="M74" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D74,Table1[Group],$A$65)/1000</f>
         <v>5.2170000000000001E-2</v>
       </c>
@@ -17773,11 +17770,11 @@
       <c r="K75" s="57">
         <v>30</v>
       </c>
-      <c r="L75" s="120" cm="1">
+      <c r="L75" s="112" cm="1">
         <f t="array" ref="L75">IFERROR(SUMPRODUCT((Table1[Region]=D75)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M75*1000))),0)</f>
         <v>12.07431533537434</v>
       </c>
-      <c r="M75" s="120">
+      <c r="M75" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D75,Table1[Group],$A$65)/1000</f>
         <v>7.1859999999999979E-2</v>
       </c>
@@ -17823,11 +17820,11 @@
       <c r="K76" s="57">
         <v>30</v>
       </c>
-      <c r="L76" s="120" cm="1">
+      <c r="L76" s="112" cm="1">
         <f t="array" ref="L76">IFERROR(SUMPRODUCT((Table1[Region]=D76)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M76*1000))),0)</f>
         <v>10.700547042052744</v>
       </c>
-      <c r="M76" s="120">
+      <c r="M76" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D76,Table1[Group],$A$65)/1000</f>
         <v>5.6119999999999996E-2</v>
       </c>
@@ -17873,11 +17870,11 @@
       <c r="K77" s="57">
         <v>30</v>
       </c>
-      <c r="L77" s="120" cm="1">
+      <c r="L77" s="112" cm="1">
         <f t="array" ref="L77">IFERROR(SUMPRODUCT((Table1[Region]=D77)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M77*1000))),0)</f>
         <v>12.009080892480032</v>
       </c>
-      <c r="M77" s="120">
+      <c r="M77" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D77,Table1[Group],$A$65)/1000</f>
         <v>0.21781999999999996</v>
       </c>
@@ -17923,11 +17920,11 @@
       <c r="K78" s="57">
         <v>30</v>
       </c>
-      <c r="L78" s="120" cm="1">
+      <c r="L78" s="112" cm="1">
         <f t="array" ref="L78">IFERROR(SUMPRODUCT((Table1[Region]=D78)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M78*1000))),0)</f>
         <v>15.338120362737019</v>
       </c>
-      <c r="M78" s="120">
+      <c r="M78" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D78,Table1[Group],$A$65)/1000</f>
         <v>2.4259999999999997E-2</v>
       </c>
@@ -17973,11 +17970,11 @@
       <c r="K79" s="57">
         <v>30</v>
       </c>
-      <c r="L79" s="120" cm="1">
+      <c r="L79" s="112" cm="1">
         <f t="array" ref="L79">IFERROR(SUMPRODUCT((Table1[Region]=D79)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M79*1000))),0)</f>
         <v>12.942052432928698</v>
       </c>
-      <c r="M79" s="120">
+      <c r="M79" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D79,Table1[Group],$A$65)/1000</f>
         <v>9.8029999999999992E-2</v>
       </c>
@@ -18023,11 +18020,11 @@
       <c r="K80" s="57">
         <v>30</v>
       </c>
-      <c r="L80" s="120" cm="1">
+      <c r="L80" s="112" cm="1">
         <f t="array" ref="L80">IFERROR(SUMPRODUCT((Table1[Region]=D80)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M80*1000))),0)</f>
         <v>13.994888631761647</v>
       </c>
-      <c r="M80" s="120">
+      <c r="M80" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D80,Table1[Group],$A$65)/1000</f>
         <v>0.10370999999999998</v>
       </c>
@@ -18073,11 +18070,11 @@
       <c r="K81" s="57">
         <v>30</v>
       </c>
-      <c r="L81" s="120" cm="1">
+      <c r="L81" s="112" cm="1">
         <f t="array" ref="L81">IFERROR(SUMPRODUCT((Table1[Region]=D81)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M81*1000))),0)</f>
         <v>14.145046674445741</v>
       </c>
-      <c r="M81" s="120">
+      <c r="M81" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D81,Table1[Group],$A$65)/1000</f>
         <v>3.4279999999999998E-2</v>
       </c>
@@ -18123,11 +18120,11 @@
       <c r="K82" s="57">
         <v>30</v>
       </c>
-      <c r="L82" s="120" cm="1">
+      <c r="L82" s="112" cm="1">
         <f t="array" ref="L82">IFERROR(SUMPRODUCT((Table1[Region]=D82)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M82*1000))),0)</f>
         <v>12.18051336332363</v>
       </c>
-      <c r="M82" s="120">
+      <c r="M82" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D82,Table1[Group],$A$65)/1000</f>
         <v>3.7789999999999997E-2</v>
       </c>
@@ -18173,11 +18170,11 @@
       <c r="K83" s="57">
         <v>30</v>
       </c>
-      <c r="L83" s="120" cm="1">
+      <c r="L83" s="112" cm="1">
         <f t="array" ref="L83">IFERROR(SUMPRODUCT((Table1[Region]=D83)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M83*1000))),0)</f>
         <v>11.669644869610797</v>
       </c>
-      <c r="M83" s="120">
+      <c r="M83" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D83,Table1[Group],$A$65)/1000</f>
         <v>7.6310000000000003E-2</v>
       </c>
@@ -18223,11 +18220,11 @@
       <c r="K84" s="57">
         <v>30</v>
       </c>
-      <c r="L84" s="120" cm="1">
+      <c r="L84" s="112" cm="1">
         <f t="array" ref="L84">IFERROR(SUMPRODUCT((Table1[Region]=D84)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M84*1000))),0)</f>
         <v>11.458100607111882</v>
       </c>
-      <c r="M84" s="120">
+      <c r="M84" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D84,Table1[Group],$A$65)/1000</f>
         <v>4.6119999999999994E-2</v>
       </c>
@@ -18273,11 +18270,11 @@
       <c r="K85" s="57">
         <v>30</v>
       </c>
-      <c r="L85" s="120" cm="1">
+      <c r="L85" s="112" cm="1">
         <f t="array" ref="L85">IFERROR(SUMPRODUCT((Table1[Region]=D85)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M85*1000))),0)</f>
         <v>12.163822751322751</v>
       </c>
-      <c r="M85" s="120">
+      <c r="M85" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D85,Table1[Group],$A$65)/1000</f>
         <v>9.8280000000000006E-2</v>
       </c>
@@ -18323,11 +18320,11 @@
       <c r="K86" s="57">
         <v>30</v>
       </c>
-      <c r="L86" s="120" cm="1">
+      <c r="L86" s="112" cm="1">
         <f t="array" ref="L86">IFERROR(SUMPRODUCT((Table1[Region]=D86)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M86*1000))),0)</f>
         <v>12.407495466908431</v>
       </c>
-      <c r="M86" s="120">
+      <c r="M86" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D86,Table1[Group],$A$65)/1000</f>
         <v>4.4120000000000006E-2</v>
       </c>
@@ -18373,11 +18370,11 @@
       <c r="K87" s="57">
         <v>30</v>
       </c>
-      <c r="L87" s="120" cm="1">
+      <c r="L87" s="112" cm="1">
         <f t="array" ref="L87">IFERROR(SUMPRODUCT((Table1[Region]=D87)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M87*1000))),0)</f>
         <v>11.674048456428292</v>
       </c>
-      <c r="M87" s="120">
+      <c r="M87" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D87,Table1[Group],$A$65)/1000</f>
         <v>7.6769999999999991E-2</v>
       </c>
@@ -18423,11 +18420,11 @@
       <c r="K88" s="57">
         <v>30</v>
       </c>
-      <c r="L88" s="120" cm="1">
+      <c r="L88" s="112" cm="1">
         <f t="array" ref="L88">IFERROR(SUMPRODUCT((Table1[Region]=D88)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M88*1000))),0)</f>
         <v>11.782901811805962</v>
       </c>
-      <c r="M88" s="120">
+      <c r="M88" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D88,Table1[Group],$A$65)/1000</f>
         <v>3.422E-2</v>
       </c>
@@ -18473,11 +18470,11 @@
       <c r="K89" s="57">
         <v>30</v>
       </c>
-      <c r="L89" s="120" cm="1">
+      <c r="L89" s="112" cm="1">
         <f t="array" ref="L89">IFERROR(SUMPRODUCT((Table1[Region]=D89)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M89*1000))),0)</f>
         <v>11.749842658746088</v>
       </c>
-      <c r="M89" s="120">
+      <c r="M89" s="112">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D89,Table1[Group],$A$65)/1000</f>
         <v>0.12456999999999999</v>
       </c>
@@ -18517,11 +18514,11 @@
       <c r="K90" s="90">
         <v>30</v>
       </c>
-      <c r="L90" s="121" cm="1">
+      <c r="L90" s="113" cm="1">
         <f t="array" ref="L90">IFERROR(SUMPRODUCT((Table1[Region]=D90)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M90*1000))),0)</f>
         <v>14.2956011196641</v>
       </c>
-      <c r="M90" s="121">
+      <c r="M90" s="113">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D90,Table1[Group],$A$65)/1000</f>
         <v>0.1429</v>
       </c>
@@ -18534,45 +18531,45 @@
       </c>
     </row>
     <row r="91" spans="3:53" ht="13.5" thickBot="1">
-      <c r="C91" s="125" t="s">
+      <c r="C91" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="D91" s="133" t="s">
+      <c r="D91" s="125" t="s">
         <v>556</v>
       </c>
-      <c r="E91" s="125" t="s">
+      <c r="E91" s="117" t="s">
         <v>553</v>
       </c>
-      <c r="F91" s="125" t="s">
+      <c r="F91" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="G91" s="125" t="s">
+      <c r="G91" s="117" t="s">
         <v>554</v>
       </c>
-      <c r="H91" s="126">
-        <v>2021</v>
-      </c>
-      <c r="I91" s="127" t="s">
-        <v>557</v>
-      </c>
-      <c r="J91" s="128">
+      <c r="H91" s="118">
+        <v>2020</v>
+      </c>
+      <c r="I91" s="101" t="s">
+        <v>543</v>
+      </c>
+      <c r="J91" s="120">
         <v>0.85</v>
       </c>
-      <c r="K91" s="126">
+      <c r="K91" s="118">
         <v>30</v>
       </c>
-      <c r="L91" s="131" cm="1">
+      <c r="L91" s="123" cm="1">
         <f t="array" ref="L91">IFERROR(SUMPRODUCT((Table1[Group]=A65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M91*1000))),0)</f>
         <v>12.177971699043084</v>
       </c>
-      <c r="M91" s="131">
+      <c r="M91" s="123">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$65)/1000</f>
         <v>2.5363100000000007</v>
       </c>
-      <c r="N91" s="134">
+      <c r="N91" s="126">
         <v>1</v>
       </c>
-      <c r="O91" s="130">
+      <c r="O91" s="122">
         <f t="shared" si="2"/>
         <v>0.36533915097129249</v>
       </c>
@@ -18706,22 +18703,22 @@
       <c r="AH95" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="AO95" s="112">
+      <c r="AO95" s="130">
         <v>2040</v>
       </c>
-      <c r="AP95" s="113"/>
-      <c r="AQ95" s="114"/>
-      <c r="AS95" s="115">
+      <c r="AP95" s="131"/>
+      <c r="AQ95" s="132"/>
+      <c r="AS95" s="133">
         <v>2018</v>
       </c>
-      <c r="AT95" s="116"/>
-      <c r="AU95" s="116"/>
-      <c r="AV95" s="116"/>
-      <c r="AX95" s="112">
+      <c r="AT95" s="134"/>
+      <c r="AU95" s="134"/>
+      <c r="AV95" s="134"/>
+      <c r="AX95" s="130">
         <v>2070</v>
       </c>
-      <c r="AY95" s="113"/>
-      <c r="AZ95" s="114"/>
+      <c r="AY95" s="131"/>
+      <c r="AZ95" s="132"/>
     </row>
     <row r="96" spans="3:53" ht="15.75" thickBot="1">
       <c r="C96" s="71" t="s">

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3186E-BCC1-44F7-84B0-B5740E1953F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C445DB03-7B78-4752-9313-C838CE83F2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,9 +2511,6 @@
     <t>EUR15</t>
   </si>
   <si>
-    <t>COST</t>
-  </si>
-  <si>
     <t>ACT_BND</t>
   </si>
   <si>
@@ -2551,6 +2548,9 @@
   </si>
   <si>
     <t>RSDHET,SRVHET</t>
+  </si>
+  <si>
+    <t>INVCOST</t>
   </si>
 </sst>
 </file>
@@ -3104,7 +3104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="73">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3132,12 +3132,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,34 +4038,36 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4088,43 +4084,41 @@
     <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="54" fillId="61" borderId="5">
+    <xf numFmtId="4" fontId="54" fillId="60" borderId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="54" fillId="61" borderId="5">
+    <xf numFmtId="4" fontId="54" fillId="60" borderId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="63" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="62" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4412,10 +4406,10 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4841,7 +4835,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
@@ -4890,7 +4884,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="64" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -5088,14 +5082,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5360,10 +5354,10 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5773,34 +5767,34 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6043,20 +6037,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6072,6 +6066,42 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6102,67 +6132,31 @@
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0">
       <alignment horizontal="right"/>
@@ -6184,8 +6178,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="62" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="63" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="62" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6203,7 +6197,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6227,7 +6221,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -6261,7 +6255,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -6280,24 +6274,24 @@
     <xf numFmtId="172" fontId="78" fillId="0" borderId="28">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6386,14 +6380,14 @@
     <xf numFmtId="167" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6665,16 +6659,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="66" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6763,7 +6757,7 @@
     <xf numFmtId="168" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="62" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6897,19 +6891,19 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -6921,19 +6915,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -6945,19 +6939,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -6969,7 +6963,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -6981,19 +6975,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -7005,19 +6999,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -7029,19 +7023,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="79" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="69" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="68" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" applyFill="0" applyProtection="0">
@@ -7056,7 +7050,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7094,58 +7088,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7158,7 +7152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="799" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="799" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="799" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="68" borderId="3" xfId="1985" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="67" borderId="3" xfId="1985" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7174,7 +7168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="799" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="799" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="67" borderId="1" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="66" borderId="1" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="799" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7184,49 +7178,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="68" borderId="1" xfId="1985" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="67" borderId="1" xfId="1985" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="799" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="799" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="43" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="42" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="43" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="42" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="43" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="42" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="72" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="71" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="72" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="71" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="72" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="71" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="43" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="42" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="43" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="42" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="42" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="72" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="71" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="72" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="71" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="81" fillId="72" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="81" fillId="71" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="799" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7240,68 +7234,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2868">
     <cellStyle name="20 % - Markeringsfarve1" xfId="2197" xr:uid="{F2B1431A-9259-4D97-8046-C992FC9CF755}"/>
@@ -11480,12 +11466,12 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -11569,11 +11555,11 @@
       <c r="A19" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
@@ -11601,11 +11587,11 @@
       <c r="A20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
@@ -11693,11 +11679,11 @@
       <c r="A23" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -11723,11 +11709,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="31"/>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -11783,11 +11769,11 @@
       <c r="A26" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -11813,11 +11799,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="31"/>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -11905,11 +11891,11 @@
       <c r="A30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="24"/>
@@ -11937,11 +11923,11 @@
       <c r="A31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="24"/>
@@ -13899,23 +13885,25 @@
   <dimension ref="A2:BA137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -13954,7 +13942,7 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" ht="25.5">
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
@@ -13983,10 +13971,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>42</v>
@@ -14068,7 +14056,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>51</v>
@@ -14136,27 +14124,27 @@
         <v>0</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>522</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H5" s="57">
         <v>2020</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="51">
         <v>0.85</v>
       </c>
       <c r="K5" s="57">
@@ -14166,18 +14154,18 @@
         <f t="array" ref="L5">IFERROR(SUMPRODUCT((Table1[Region]=D5)*(Table1[Group]=$A5)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M5*1000))),0)</f>
         <v>2.94</v>
       </c>
-      <c r="M5" s="110">
+      <c r="M5" s="98">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D5,Table1[Group],A5)/1000</f>
         <v>4.5912100000000002</v>
       </c>
       <c r="N5" s="57">
         <v>1</v>
       </c>
-      <c r="O5" s="100">
+      <c r="O5" s="51">
         <f>L5*$Q$5</f>
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="Q5" s="103">
+      <c r="Q5" s="97">
         <v>0.03</v>
       </c>
       <c r="S5" s="14" t="s">
@@ -14213,44 +14201,44 @@
     </row>
     <row r="6" spans="1:36">
       <c r="C6" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>510</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H6" s="57">
         <v>2020</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="51">
         <v>0.85</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="51">
         <v>30</v>
       </c>
-      <c r="L6" s="57" cm="1">
+      <c r="L6" s="51" cm="1">
         <f t="array" ref="L6">IFERROR(SUMPRODUCT((Table1[Region]=D6)*(Table1[Group]=$A6)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M6*1000))),0)</f>
         <v>3.13</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D6,Table1[Group],A6)/1000</f>
         <v>20.99024</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="51">
         <v>1</v>
       </c>
-      <c r="O6" s="100">
+      <c r="O6" s="51">
         <f t="shared" ref="O6:O10" si="0">L6*$Q$5</f>
         <v>9.3899999999999997E-2</v>
       </c>
@@ -14287,44 +14275,44 @@
     </row>
     <row r="7" spans="1:36">
       <c r="C7" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>527</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="F7" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>556</v>
+      <c r="F7" s="116" t="s">
+        <v>552</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>555</v>
       </c>
       <c r="H7" s="57">
         <v>2020</v>
       </c>
-      <c r="I7" s="99" t="s">
+      <c r="I7" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="51">
         <v>0.85</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="51">
         <v>30</v>
       </c>
-      <c r="L7" s="57" cm="1">
+      <c r="L7" s="51" cm="1">
         <f t="array" ref="L7">IFERROR(SUMPRODUCT((Table1[Region]=D7)*(Table1[Group]=$A7)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M7*1000))),0)</f>
         <v>2.64</v>
       </c>
-      <c r="M7" s="110">
+      <c r="M7" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D7,Table1[Group],A7)/1000</f>
         <v>2.5825100000000001</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="51">
         <v>1</v>
       </c>
-      <c r="O7" s="100">
+      <c r="O7" s="51">
         <f t="shared" si="0"/>
         <v>7.9200000000000007E-2</v>
       </c>
@@ -14361,44 +14349,44 @@
     </row>
     <row r="8" spans="1:36">
       <c r="C8" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>524</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H8" s="57">
         <v>2020</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="51">
         <v>0.85</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="51">
         <v>30</v>
       </c>
-      <c r="L8" s="57" cm="1">
+      <c r="L8" s="51" cm="1">
         <f t="array" ref="L8">IFERROR(SUMPRODUCT((Table1[Region]=D8)*(Table1[Group]=$A8)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M8*1000))),0)</f>
         <v>3.23</v>
       </c>
-      <c r="M8" s="110">
+      <c r="M8" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D8,Table1[Group],A8)/1000</f>
         <v>2.33738</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="51">
         <v>1</v>
       </c>
-      <c r="O8" s="100">
+      <c r="O8" s="51">
         <f t="shared" si="0"/>
         <v>9.69E-2</v>
       </c>
@@ -14435,44 +14423,44 @@
     </row>
     <row r="9" spans="1:36" ht="13.5" thickBot="1">
       <c r="C9" s="91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D9" s="91" t="s">
         <v>526</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>554</v>
-      </c>
-      <c r="F9" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>556</v>
+      <c r="F9" s="91" t="s">
+        <v>552</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>555</v>
       </c>
       <c r="H9" s="90">
         <v>2020</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J9" s="102">
+      <c r="J9" s="117">
         <v>0.85</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="117">
         <v>30</v>
       </c>
-      <c r="L9" s="90" cm="1">
+      <c r="L9" s="117" cm="1">
         <f t="array" ref="L9">IFERROR(SUMPRODUCT((Table1[Region]=D9)*(Table1[Group]=$A9)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M9*1000))),0)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="100">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D9,Table1[Group],A9)/1000</f>
         <v>1.3865399999999999</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="117">
         <v>1</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="117">
         <f t="shared" si="0"/>
         <v>7.3499999999999996E-2</v>
       </c>
@@ -14485,44 +14473,44 @@
     </row>
     <row r="10" spans="1:36" ht="13.5" thickBot="1">
       <c r="C10" s="91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D10" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>553</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>552</v>
+      </c>
+      <c r="G10" s="102" t="s">
         <v>555</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>554</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>556</v>
       </c>
       <c r="H10" s="90">
         <v>2020</v>
       </c>
-      <c r="I10" s="101" t="s">
+      <c r="I10" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J10" s="102">
+      <c r="J10" s="117">
         <v>0.85</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="117">
         <v>30</v>
       </c>
-      <c r="L10" s="114" cm="1">
+      <c r="L10" s="101" cm="1">
         <f t="array" ref="L10">IFERROR(SUMPRODUCT((Table1[Group]=A5)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M10*1000))),0)</f>
         <v>3.0407225378419636</v>
       </c>
-      <c r="M10" s="115">
+      <c r="M10" s="101">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$5)/1000</f>
         <v>31.887880000000006</v>
       </c>
-      <c r="N10" s="115">
+      <c r="N10" s="101">
         <v>1</v>
       </c>
-      <c r="O10" s="116">
+      <c r="O10" s="118">
         <f t="shared" si="0"/>
         <v>9.1221676135258903E-2</v>
       </c>
@@ -14538,44 +14526,44 @@
         <v>1</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>509</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H11" s="92">
         <v>2020</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="I11" s="119" t="s">
         <v>542</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="119">
         <v>0.85</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="119">
         <v>30</v>
       </c>
-      <c r="L11" s="109" cm="1">
+      <c r="L11" s="120" cm="1">
         <f t="array" ref="L11">IFERROR(SUMPRODUCT((Table1[Region]=D11)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M11*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="109">
+      <c r="M11" s="120">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D11,Table1[Group],$A$11)/1000</f>
         <v>0</v>
       </c>
-      <c r="N11" s="92">
+      <c r="N11" s="119">
         <v>1</v>
       </c>
-      <c r="O11" s="106">
+      <c r="O11" s="121">
         <f>L11*$Q$5</f>
         <v>0</v>
       </c>
@@ -14588,44 +14576,44 @@
     </row>
     <row r="12" spans="1:36">
       <c r="C12" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D12" s="57" t="s">
         <v>532</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H12" s="57">
         <v>2020</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J12" s="100">
+      <c r="J12" s="51">
         <v>0.85</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="51">
         <v>30</v>
       </c>
-      <c r="L12" s="110" cm="1">
+      <c r="L12" s="99" cm="1">
         <f t="array" ref="L12">IFERROR(SUMPRODUCT((Table1[Region]=D12)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M12*1000))),0)</f>
         <v>2.4883257598111537</v>
       </c>
-      <c r="M12" s="110">
+      <c r="M12" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D12,Table1[Group],$A$11)/1000</f>
         <v>0.50834999999999997</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="51">
         <v>1</v>
       </c>
-      <c r="O12" s="107">
+      <c r="O12" s="122">
         <f t="shared" ref="O12:O37" si="1">L12*$Q$5</f>
         <v>7.4649772794334601E-2</v>
       </c>
@@ -14638,44 +14626,44 @@
     </row>
     <row r="13" spans="1:36">
       <c r="C13" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>521</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H13" s="57">
         <v>2020</v>
       </c>
-      <c r="I13" s="99" t="s">
+      <c r="I13" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="51">
         <v>0.85</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="51">
         <v>30</v>
       </c>
-      <c r="L13" s="110" cm="1">
+      <c r="L13" s="99" cm="1">
         <f t="array" ref="L13">IFERROR(SUMPRODUCT((Table1[Region]=D13)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M13*1000))),0)</f>
         <v>4.3774391001739987</v>
       </c>
-      <c r="M13" s="110">
+      <c r="M13" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D13,Table1[Group],$A$11)/1000</f>
         <v>0.96552000000000004</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="51">
         <v>1</v>
       </c>
-      <c r="O13" s="107">
+      <c r="O13" s="122">
         <f t="shared" si="1"/>
         <v>0.13132317300521995</v>
       </c>
@@ -14688,44 +14676,44 @@
     </row>
     <row r="14" spans="1:36">
       <c r="C14" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>522</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H14" s="57">
         <v>2020</v>
       </c>
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="51">
         <v>0.85</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="51">
         <v>30</v>
       </c>
-      <c r="L14" s="110" cm="1">
+      <c r="L14" s="99" cm="1">
         <f t="array" ref="L14">IFERROR(SUMPRODUCT((Table1[Region]=D14)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M14*1000))),0)</f>
         <v>3.2276063528415433</v>
       </c>
-      <c r="M14" s="110">
+      <c r="M14" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D14,Table1[Group],$A$11)/1000</f>
         <v>1.6767299999999998</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="51">
         <v>1</v>
       </c>
-      <c r="O14" s="107">
+      <c r="O14" s="122">
         <f t="shared" si="1"/>
         <v>9.682819058524629E-2</v>
       </c>
@@ -14738,44 +14726,44 @@
     </row>
     <row r="15" spans="1:36">
       <c r="C15" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>533</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H15" s="57">
         <v>2020</v>
       </c>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J15" s="100">
+      <c r="J15" s="51">
         <v>0.85</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="51">
         <v>30</v>
       </c>
-      <c r="L15" s="110" cm="1">
+      <c r="L15" s="99" cm="1">
         <f t="array" ref="L15">IFERROR(SUMPRODUCT((Table1[Region]=D15)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M15*1000))),0)</f>
         <v>3.2851475570959323</v>
       </c>
-      <c r="M15" s="110">
+      <c r="M15" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D15,Table1[Group],$A$11)/1000</f>
         <v>1.1598899999999999</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="51">
         <v>1</v>
       </c>
-      <c r="O15" s="107">
+      <c r="O15" s="122">
         <f t="shared" si="1"/>
         <v>9.8554426712877966E-2</v>
       </c>
@@ -14788,44 +14776,44 @@
     </row>
     <row r="16" spans="1:36">
       <c r="C16" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>510</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H16" s="57">
         <v>2020</v>
       </c>
-      <c r="I16" s="99" t="s">
+      <c r="I16" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J16" s="100">
+      <c r="J16" s="51">
         <v>0.85</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="51">
         <v>30</v>
       </c>
-      <c r="L16" s="110" cm="1">
+      <c r="L16" s="99" cm="1">
         <f t="array" ref="L16">IFERROR(SUMPRODUCT((Table1[Region]=D16)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M16*1000))),0)</f>
         <v>4.3617632297402631</v>
       </c>
-      <c r="M16" s="110">
+      <c r="M16" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D16,Table1[Group],$A$11)/1000</f>
         <v>2.8093900000000001</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="51">
         <v>1</v>
       </c>
-      <c r="O16" s="107">
+      <c r="O16" s="122">
         <f t="shared" si="1"/>
         <v>0.13085289689220789</v>
       </c>
@@ -14838,44 +14826,44 @@
     </row>
     <row r="17" spans="3:27">
       <c r="C17" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>527</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H17" s="57">
         <v>2020</v>
       </c>
-      <c r="I17" s="99" t="s">
+      <c r="I17" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="51">
         <v>0.85</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="51">
         <v>30</v>
       </c>
-      <c r="L17" s="110" cm="1">
+      <c r="L17" s="99" cm="1">
         <f t="array" ref="L17">IFERROR(SUMPRODUCT((Table1[Region]=D17)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M17*1000))),0)</f>
         <v>3.6103879498534273</v>
       </c>
-      <c r="M17" s="110">
+      <c r="M17" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D17,Table1[Group],$A$11)/1000</f>
         <v>0.32065999999999995</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="51">
         <v>1</v>
       </c>
-      <c r="O17" s="107">
+      <c r="O17" s="122">
         <f t="shared" si="1"/>
         <v>0.10831163849560281</v>
       </c>
@@ -14888,44 +14876,44 @@
     </row>
     <row r="18" spans="3:27">
       <c r="C18" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>523</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H18" s="57">
         <v>2020</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J18" s="100">
+      <c r="J18" s="51">
         <v>0.85</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="51">
         <v>30</v>
       </c>
-      <c r="L18" s="110" cm="1">
+      <c r="L18" s="99" cm="1">
         <f t="array" ref="L18">IFERROR(SUMPRODUCT((Table1[Region]=D18)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M18*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="110">
+      <c r="M18" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D18,Table1[Group],$A$11)/1000</f>
         <v>0</v>
       </c>
-      <c r="N18" s="57">
+      <c r="N18" s="51">
         <v>1</v>
       </c>
-      <c r="O18" s="107">
+      <c r="O18" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14938,44 +14926,44 @@
     </row>
     <row r="19" spans="3:27">
       <c r="C19" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>511</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H19" s="57">
         <v>2020</v>
       </c>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J19" s="100">
+      <c r="J19" s="51">
         <v>0.85</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="51">
         <v>30</v>
       </c>
-      <c r="L19" s="110" cm="1">
+      <c r="L19" s="99" cm="1">
         <f t="array" ref="L19">IFERROR(SUMPRODUCT((Table1[Region]=D19)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M19*1000))),0)</f>
         <v>2.4503708143830121</v>
       </c>
-      <c r="M19" s="110">
+      <c r="M19" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D19,Table1[Group],$A$11)/1000</f>
         <v>2.6692600000000004</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="51">
         <v>1</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="122">
         <f t="shared" si="1"/>
         <v>7.3511124431490354E-2</v>
       </c>
@@ -14988,44 +14976,44 @@
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>512</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H20" s="57">
         <v>2020</v>
       </c>
-      <c r="I20" s="99" t="s">
+      <c r="I20" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J20" s="100">
+      <c r="J20" s="51">
         <v>0.85</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="51">
         <v>30</v>
       </c>
-      <c r="L20" s="110" cm="1">
+      <c r="L20" s="99" cm="1">
         <f t="array" ref="L20">IFERROR(SUMPRODUCT((Table1[Region]=D20)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M20*1000))),0)</f>
         <v>2.5445523687345375</v>
       </c>
-      <c r="M20" s="110">
+      <c r="M20" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D20,Table1[Group],$A$11)/1000</f>
         <v>1.3095599999999998</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="51">
         <v>1</v>
       </c>
-      <c r="O20" s="107">
+      <c r="O20" s="122">
         <f t="shared" si="1"/>
         <v>7.6336571062036118E-2</v>
       </c>
@@ -15038,44 +15026,44 @@
     </row>
     <row r="21" spans="3:27">
       <c r="C21" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>513</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H21" s="57">
         <v>2020</v>
       </c>
-      <c r="I21" s="99" t="s">
+      <c r="I21" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J21" s="100">
+      <c r="J21" s="51">
         <v>0.85</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="51">
         <v>30</v>
       </c>
-      <c r="L21" s="110" cm="1">
+      <c r="L21" s="99" cm="1">
         <f t="array" ref="L21">IFERROR(SUMPRODUCT((Table1[Region]=D21)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M21*1000))),0)</f>
         <v>2.5751231692870986</v>
       </c>
-      <c r="M21" s="110">
+      <c r="M21" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D21,Table1[Group],$A$11)/1000</f>
         <v>0.74287999999999998</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="51">
         <v>1</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="122">
         <f t="shared" si="1"/>
         <v>7.7253695078612961E-2</v>
       </c>
@@ -15088,44 +15076,44 @@
     </row>
     <row r="22" spans="3:27">
       <c r="C22" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>528</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H22" s="57">
         <v>2020</v>
       </c>
-      <c r="I22" s="99" t="s">
+      <c r="I22" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J22" s="100">
+      <c r="J22" s="51">
         <v>0.85</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="51">
         <v>30</v>
       </c>
-      <c r="L22" s="110" cm="1">
+      <c r="L22" s="99" cm="1">
         <f t="array" ref="L22">IFERROR(SUMPRODUCT((Table1[Region]=D22)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M22*1000))),0)</f>
         <v>3.6</v>
       </c>
-      <c r="M22" s="110">
+      <c r="M22" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D22,Table1[Group],$A$11)/1000</f>
         <v>0.21205000000000002</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N22" s="51">
         <v>1</v>
       </c>
-      <c r="O22" s="107">
+      <c r="O22" s="122">
         <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
@@ -15138,44 +15126,44 @@
     </row>
     <row r="23" spans="3:27">
       <c r="C23" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D23" s="57" t="s">
         <v>524</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H23" s="57">
         <v>2020</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J23" s="100">
+      <c r="J23" s="51">
         <v>0.85</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="51">
         <v>30</v>
       </c>
-      <c r="L23" s="110" cm="1">
+      <c r="L23" s="99" cm="1">
         <f t="array" ref="L23">IFERROR(SUMPRODUCT((Table1[Region]=D23)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M23*1000))),0)</f>
         <v>1.2500882629107981</v>
       </c>
-      <c r="M23" s="110">
+      <c r="M23" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D23,Table1[Group],$A$11)/1000</f>
         <v>5.3249999999999999E-2</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="51">
         <v>1</v>
       </c>
-      <c r="O23" s="107">
+      <c r="O23" s="122">
         <f t="shared" si="1"/>
         <v>3.7502647887323944E-2</v>
       </c>
@@ -15188,44 +15176,44 @@
     </row>
     <row r="24" spans="3:27">
       <c r="C24" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>514</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H24" s="57">
         <v>2020</v>
       </c>
-      <c r="I24" s="99" t="s">
+      <c r="I24" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="51">
         <v>0.85</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="51">
         <v>30</v>
       </c>
-      <c r="L24" s="110" cm="1">
+      <c r="L24" s="99" cm="1">
         <f t="array" ref="L24">IFERROR(SUMPRODUCT((Table1[Region]=D24)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M24*1000))),0)</f>
         <v>3.3725810638655869</v>
       </c>
-      <c r="M24" s="110">
+      <c r="M24" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D24,Table1[Group],$A$11)/1000</f>
         <v>0.41602999999999996</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="51">
         <v>1</v>
       </c>
-      <c r="O24" s="107">
+      <c r="O24" s="122">
         <f t="shared" si="1"/>
         <v>0.10117743191596761</v>
       </c>
@@ -15238,44 +15226,44 @@
     </row>
     <row r="25" spans="3:27">
       <c r="C25" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D25" s="57" t="s">
         <v>515</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H25" s="57">
         <v>2020</v>
       </c>
-      <c r="I25" s="99" t="s">
+      <c r="I25" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J25" s="100">
+      <c r="J25" s="51">
         <v>0.85</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="51">
         <v>30</v>
       </c>
-      <c r="L25" s="110" cm="1">
+      <c r="L25" s="99" cm="1">
         <f t="array" ref="L25">IFERROR(SUMPRODUCT((Table1[Region]=D25)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M25*1000))),0)</f>
         <v>2.7560777420153499</v>
       </c>
-      <c r="M25" s="110">
+      <c r="M25" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D25,Table1[Group],$A$11)/1000</f>
         <v>1.6156000000000001</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N25" s="51">
         <v>1</v>
       </c>
-      <c r="O25" s="107">
+      <c r="O25" s="122">
         <f t="shared" si="1"/>
         <v>8.2682332260460498E-2</v>
       </c>
@@ -15288,44 +15276,44 @@
     </row>
     <row r="26" spans="3:27">
       <c r="C26" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D26" s="57" t="s">
         <v>529</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H26" s="57">
         <v>2020</v>
       </c>
-      <c r="I26" s="99" t="s">
+      <c r="I26" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J26" s="100">
+      <c r="J26" s="51">
         <v>0.85</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="51">
         <v>30</v>
       </c>
-      <c r="L26" s="110" cm="1">
+      <c r="L26" s="99" cm="1">
         <f t="array" ref="L26">IFERROR(SUMPRODUCT((Table1[Region]=D26)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M26*1000))),0)</f>
         <v>2.9590503192848017</v>
       </c>
-      <c r="M26" s="110">
+      <c r="M26" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D26,Table1[Group],$A$11)/1000</f>
         <v>0.58725000000000005</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="51">
         <v>1</v>
       </c>
-      <c r="O26" s="107">
+      <c r="O26" s="122">
         <f t="shared" si="1"/>
         <v>8.8771509578544044E-2</v>
       </c>
@@ -15338,44 +15326,44 @@
     </row>
     <row r="27" spans="3:27">
       <c r="C27" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>516</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H27" s="57">
         <v>2020</v>
       </c>
-      <c r="I27" s="99" t="s">
+      <c r="I27" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J27" s="100">
+      <c r="J27" s="51">
         <v>0.85</v>
       </c>
-      <c r="K27" s="57">
+      <c r="K27" s="51">
         <v>30</v>
       </c>
-      <c r="L27" s="110" cm="1">
+      <c r="L27" s="99" cm="1">
         <f t="array" ref="L27">IFERROR(SUMPRODUCT((Table1[Region]=D27)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M27*1000))),0)</f>
         <v>2.6909484008064073</v>
       </c>
-      <c r="M27" s="110">
+      <c r="M27" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D27,Table1[Group],$A$11)/1000</f>
         <v>1.8353000000000002</v>
       </c>
-      <c r="N27" s="57">
+      <c r="N27" s="51">
         <v>1</v>
       </c>
-      <c r="O27" s="107">
+      <c r="O27" s="122">
         <f t="shared" si="1"/>
         <v>8.072845202419221E-2</v>
       </c>
@@ -15388,44 +15376,44 @@
     </row>
     <row r="28" spans="3:27">
       <c r="C28" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D28" s="57" t="s">
         <v>534</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H28" s="57">
         <v>2020</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J28" s="100">
+      <c r="J28" s="51">
         <v>0.85</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="51">
         <v>30</v>
       </c>
-      <c r="L28" s="110" cm="1">
+      <c r="L28" s="99" cm="1">
         <f t="array" ref="L28">IFERROR(SUMPRODUCT((Table1[Region]=D28)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M28*1000))),0)</f>
         <v>3.6058670880811783</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D28,Table1[Group],$A$11)/1000</f>
         <v>0.24045999999999998</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="51">
         <v>1</v>
       </c>
-      <c r="O28" s="107">
+      <c r="O28" s="122">
         <f t="shared" si="1"/>
         <v>0.10817601264243534</v>
       </c>
@@ -15438,44 +15426,44 @@
     </row>
     <row r="29" spans="3:27">
       <c r="C29" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="57" t="s">
         <v>517</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H29" s="57">
         <v>2020</v>
       </c>
-      <c r="I29" s="99" t="s">
+      <c r="I29" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J29" s="100">
+      <c r="J29" s="51">
         <v>0.85</v>
       </c>
-      <c r="K29" s="57">
+      <c r="K29" s="51">
         <v>30</v>
       </c>
-      <c r="L29" s="110" cm="1">
+      <c r="L29" s="99" cm="1">
         <f t="array" ref="L29">IFERROR(SUMPRODUCT((Table1[Region]=D29)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M29*1000))),0)</f>
         <v>2.8990957144788427</v>
       </c>
-      <c r="M29" s="110">
+      <c r="M29" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D29,Table1[Group],$A$11)/1000</f>
         <v>0.73970000000000002</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N29" s="51">
         <v>1</v>
       </c>
-      <c r="O29" s="107">
+      <c r="O29" s="122">
         <f t="shared" si="1"/>
         <v>8.6972871434365273E-2</v>
       </c>
@@ -15488,44 +15476,44 @@
     </row>
     <row r="30" spans="3:27">
       <c r="C30" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="57" t="s">
         <v>530</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H30" s="57">
         <v>2020</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J30" s="100">
+      <c r="J30" s="51">
         <v>0.85</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="51">
         <v>30</v>
       </c>
-      <c r="L30" s="110" cm="1">
+      <c r="L30" s="99" cm="1">
         <f t="array" ref="L30">IFERROR(SUMPRODUCT((Table1[Region]=D30)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M30*1000))),0)</f>
         <v>3.7756996903069151</v>
       </c>
-      <c r="M30" s="110">
+      <c r="M30" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D30,Table1[Group],$A$11)/1000</f>
         <v>0.97192999999999996</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="51">
         <v>1</v>
       </c>
-      <c r="O30" s="107">
+      <c r="O30" s="122">
         <f t="shared" si="1"/>
         <v>0.11327099070920744</v>
       </c>
@@ -15538,44 +15526,44 @@
     </row>
     <row r="31" spans="3:27">
       <c r="C31" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D31" s="57" t="s">
         <v>531</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H31" s="57">
         <v>2020</v>
       </c>
-      <c r="I31" s="99" t="s">
+      <c r="I31" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J31" s="100">
+      <c r="J31" s="51">
         <v>0.85</v>
       </c>
-      <c r="K31" s="57">
+      <c r="K31" s="51">
         <v>30</v>
       </c>
-      <c r="L31" s="110" cm="1">
+      <c r="L31" s="99" cm="1">
         <f t="array" ref="L31">IFERROR(SUMPRODUCT((Table1[Region]=D31)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M31*1000))),0)</f>
         <v>2.917711210529728</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D31,Table1[Group],$A$11)/1000</f>
         <v>0.77115</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="51">
         <v>1</v>
       </c>
-      <c r="O31" s="107">
+      <c r="O31" s="122">
         <f t="shared" si="1"/>
         <v>8.7531336315891842E-2</v>
       </c>
@@ -15588,44 +15576,44 @@
     </row>
     <row r="32" spans="3:27">
       <c r="C32" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D32" s="57" t="s">
         <v>525</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H32" s="57">
         <v>2020</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J32" s="100">
+      <c r="J32" s="51">
         <v>0.85</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="51">
         <v>30</v>
       </c>
-      <c r="L32" s="110" cm="1">
+      <c r="L32" s="99" cm="1">
         <f t="array" ref="L32">IFERROR(SUMPRODUCT((Table1[Region]=D32)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M32*1000))),0)</f>
         <v>4.2940457384750399</v>
       </c>
-      <c r="M32" s="110">
+      <c r="M32" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D32,Table1[Group],$A$11)/1000</f>
         <v>1.1622600000000001</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="51">
         <v>1</v>
       </c>
-      <c r="O32" s="107">
+      <c r="O32" s="122">
         <f t="shared" si="1"/>
         <v>0.12882137215425118</v>
       </c>
@@ -15638,44 +15626,44 @@
     </row>
     <row r="33" spans="1:27">
       <c r="C33" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D33" s="57" t="s">
         <v>526</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H33" s="57">
         <v>2020</v>
       </c>
-      <c r="I33" s="99" t="s">
+      <c r="I33" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J33" s="100">
+      <c r="J33" s="51">
         <v>0.85</v>
       </c>
-      <c r="K33" s="57">
+      <c r="K33" s="51">
         <v>30</v>
       </c>
-      <c r="L33" s="110" cm="1">
+      <c r="L33" s="99" cm="1">
         <f t="array" ref="L33">IFERROR(SUMPRODUCT((Table1[Region]=D33)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M33*1000))),0)</f>
         <v>3.0074170765544208</v>
       </c>
-      <c r="M33" s="110">
+      <c r="M33" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D33,Table1[Group],$A$11)/1000</f>
         <v>0.31715999999999994</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="51">
         <v>1</v>
       </c>
-      <c r="O33" s="107">
+      <c r="O33" s="122">
         <f t="shared" si="1"/>
         <v>9.0222512296632626E-2</v>
       </c>
@@ -15688,44 +15676,44 @@
     </row>
     <row r="34" spans="1:27">
       <c r="C34" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>518</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H34" s="57">
         <v>2020</v>
       </c>
-      <c r="I34" s="99" t="s">
+      <c r="I34" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J34" s="100">
+      <c r="J34" s="51">
         <v>0.85</v>
       </c>
-      <c r="K34" s="57">
+      <c r="K34" s="51">
         <v>30</v>
       </c>
-      <c r="L34" s="110" cm="1">
+      <c r="L34" s="99" cm="1">
         <f t="array" ref="L34">IFERROR(SUMPRODUCT((Table1[Region]=D34)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M34*1000))),0)</f>
         <v>2.8066876372485012</v>
       </c>
-      <c r="M34" s="110">
+      <c r="M34" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D34,Table1[Group],$A$11)/1000</f>
         <v>0.50546999999999997</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="51">
         <v>1</v>
       </c>
-      <c r="O34" s="107">
+      <c r="O34" s="122">
         <f t="shared" si="1"/>
         <v>8.4200629117455031E-2</v>
       </c>
@@ -15738,44 +15726,44 @@
     </row>
     <row r="35" spans="1:27">
       <c r="C35" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D35" s="57" t="s">
         <v>519</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H35" s="57">
         <v>2020</v>
       </c>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J35" s="100">
+      <c r="J35" s="51">
         <v>0.85</v>
       </c>
-      <c r="K35" s="57">
+      <c r="K35" s="51">
         <v>30</v>
       </c>
-      <c r="L35" s="110" cm="1">
+      <c r="L35" s="99" cm="1">
         <f t="array" ref="L35">IFERROR(SUMPRODUCT((Table1[Region]=D35)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M35*1000))),0)</f>
         <v>3.2700493932794021</v>
       </c>
-      <c r="M35" s="110">
+      <c r="M35" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D35,Table1[Group],$A$11)/1000</f>
         <v>1.2855999999999999</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="51">
         <v>1</v>
       </c>
-      <c r="O35" s="107">
+      <c r="O35" s="122">
         <f t="shared" si="1"/>
         <v>9.8101481798382059E-2</v>
       </c>
@@ -15788,44 +15776,44 @@
     </row>
     <row r="36" spans="1:27" ht="13.5" thickBot="1">
       <c r="C36" s="91" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D36" s="90" t="s">
         <v>520</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H36" s="90">
         <v>2020</v>
       </c>
-      <c r="I36" s="101" t="s">
+      <c r="I36" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J36" s="102">
+      <c r="J36" s="117">
         <v>0.85</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36" s="117">
         <v>30</v>
       </c>
-      <c r="L36" s="111" cm="1">
+      <c r="L36" s="100" cm="1">
         <f t="array" ref="L36">IFERROR(SUMPRODUCT((Table1[Region]=D36)*(Table1[Group]=$A$11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M36*1000))),0)</f>
         <v>3.3485069137731882</v>
       </c>
-      <c r="M36" s="111">
+      <c r="M36" s="100">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D36,Table1[Group],$A$11)/1000</f>
         <v>1.17736</v>
       </c>
-      <c r="N36" s="90">
+      <c r="N36" s="117">
         <v>1</v>
       </c>
-      <c r="O36" s="108">
+      <c r="O36" s="123">
         <f t="shared" si="1"/>
         <v>0.10045520741319565</v>
       </c>
@@ -15837,45 +15825,45 @@
       <c r="AA36" s="14"/>
     </row>
     <row r="37" spans="1:27" ht="13.5" thickBot="1">
-      <c r="C37" s="117" t="s">
-        <v>547</v>
-      </c>
-      <c r="D37" s="117" t="s">
+      <c r="C37" s="102" t="s">
+        <v>546</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="E37" s="102" t="s">
+        <v>550</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G37" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="E37" s="117" t="s">
-        <v>551</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="H37" s="118">
+      <c r="H37" s="103">
         <v>2020</v>
       </c>
-      <c r="I37" s="119" t="s">
+      <c r="I37" s="105" t="s">
         <v>542</v>
       </c>
-      <c r="J37" s="120">
+      <c r="J37" s="105">
         <v>0.85</v>
       </c>
-      <c r="K37" s="118">
+      <c r="K37" s="105">
         <v>30</v>
       </c>
-      <c r="L37" s="121" cm="1">
+      <c r="L37" s="104" cm="1">
         <f t="array" ref="L37">IFERROR(SUMPRODUCT((Table1[Group]=A11)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M37*1000))),0)</f>
         <v>3.2309865999024647</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="104">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$11)/1000</f>
         <v>24.052809999999994</v>
       </c>
-      <c r="N37" s="118">
+      <c r="N37" s="105">
         <v>1</v>
       </c>
-      <c r="O37" s="122">
+      <c r="O37" s="124">
         <f t="shared" si="1"/>
         <v>9.6929597997073944E-2</v>
       </c>
@@ -15891,44 +15879,44 @@
         <v>2</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D38" s="57" t="s">
         <v>509</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H38" s="57">
         <v>2020</v>
       </c>
-      <c r="I38" s="99" t="s">
+      <c r="I38" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J38" s="100">
+      <c r="J38" s="51">
         <v>0.85</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="51">
         <v>30</v>
       </c>
-      <c r="L38" s="112" cm="1">
+      <c r="L38" s="99" cm="1">
         <f t="array" ref="L38">IFERROR(SUMPRODUCT((Table1[Region]=D38)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M38*1000))),0)</f>
         <v>4.0793470741361482</v>
       </c>
-      <c r="M38" s="112">
+      <c r="M38" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D38,Table1[Group],$A$38)/1000</f>
         <v>0.56086000000000003</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="51">
         <v>1</v>
       </c>
-      <c r="O38" s="107">
+      <c r="O38" s="122">
         <f>L38*$Q$5</f>
         <v>0.12238041222408444</v>
       </c>
@@ -15941,44 +15929,44 @@
     </row>
     <row r="39" spans="1:27">
       <c r="C39" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D39" s="57" t="s">
         <v>532</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H39" s="57">
         <v>2020</v>
       </c>
-      <c r="I39" s="99" t="s">
+      <c r="I39" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J39" s="100">
+      <c r="J39" s="51">
         <v>0.85</v>
       </c>
-      <c r="K39" s="57">
+      <c r="K39" s="51">
         <v>30</v>
       </c>
-      <c r="L39" s="112" cm="1">
+      <c r="L39" s="99" cm="1">
         <f t="array" ref="L39">IFERROR(SUMPRODUCT((Table1[Region]=D39)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M39*1000))),0)</f>
         <v>6.2626256245875371</v>
       </c>
-      <c r="M39" s="112">
+      <c r="M39" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D39,Table1[Group],$A$38)/1000</f>
         <v>0.21214</v>
       </c>
-      <c r="N39" s="57">
+      <c r="N39" s="51">
         <v>1</v>
       </c>
-      <c r="O39" s="107">
+      <c r="O39" s="122">
         <f t="shared" ref="O39:O91" si="2">L39*$Q$5</f>
         <v>0.1878787687376261</v>
       </c>
@@ -15991,44 +15979,44 @@
     </row>
     <row r="40" spans="1:27">
       <c r="C40" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D40" s="57" t="s">
         <v>521</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H40" s="57">
         <v>2020</v>
       </c>
-      <c r="I40" s="99" t="s">
+      <c r="I40" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J40" s="100">
+      <c r="J40" s="51">
         <v>0.85</v>
       </c>
-      <c r="K40" s="57">
+      <c r="K40" s="51">
         <v>30</v>
       </c>
-      <c r="L40" s="112" cm="1">
+      <c r="L40" s="99" cm="1">
         <f t="array" ref="L40">IFERROR(SUMPRODUCT((Table1[Region]=D40)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M40*1000))),0)</f>
         <v>7.9187124427092179</v>
       </c>
-      <c r="M40" s="112">
+      <c r="M40" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D40,Table1[Group],$A$38)/1000</f>
         <v>0.11781999999999999</v>
       </c>
-      <c r="N40" s="57">
+      <c r="N40" s="51">
         <v>1</v>
       </c>
-      <c r="O40" s="107">
+      <c r="O40" s="122">
         <f t="shared" si="2"/>
         <v>0.23756137328127652</v>
       </c>
@@ -16041,44 +16029,44 @@
     </row>
     <row r="41" spans="1:27">
       <c r="C41" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D41" s="57" t="s">
         <v>522</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H41" s="57">
         <v>2020</v>
       </c>
-      <c r="I41" s="99" t="s">
+      <c r="I41" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J41" s="100">
+      <c r="J41" s="51">
         <v>0.85</v>
       </c>
-      <c r="K41" s="57">
+      <c r="K41" s="51">
         <v>30</v>
       </c>
-      <c r="L41" s="112" cm="1">
+      <c r="L41" s="99" cm="1">
         <f t="array" ref="L41">IFERROR(SUMPRODUCT((Table1[Region]=D41)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M41*1000))),0)</f>
         <v>5.7904222976004593</v>
       </c>
-      <c r="M41" s="112">
+      <c r="M41" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D41,Table1[Group],$A$38)/1000</f>
         <v>1.1143799999999999</v>
       </c>
-      <c r="N41" s="57">
+      <c r="N41" s="51">
         <v>1</v>
       </c>
-      <c r="O41" s="107">
+      <c r="O41" s="122">
         <f t="shared" si="2"/>
         <v>0.17371266892801376</v>
       </c>
@@ -16091,44 +16079,44 @@
     </row>
     <row r="42" spans="1:27">
       <c r="C42" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D42" s="57" t="s">
         <v>533</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H42" s="57">
         <v>2020</v>
       </c>
-      <c r="I42" s="99" t="s">
+      <c r="I42" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J42" s="100">
+      <c r="J42" s="51">
         <v>0.85</v>
       </c>
-      <c r="K42" s="57">
+      <c r="K42" s="51">
         <v>30</v>
       </c>
-      <c r="L42" s="112" cm="1">
+      <c r="L42" s="99" cm="1">
         <f t="array" ref="L42">IFERROR(SUMPRODUCT((Table1[Region]=D42)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M42*1000))),0)</f>
         <v>6.5033419417319021</v>
       </c>
-      <c r="M42" s="112">
+      <c r="M42" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D42,Table1[Group],$A$38)/1000</f>
         <v>0.12390999999999999</v>
       </c>
-      <c r="N42" s="57">
+      <c r="N42" s="51">
         <v>1</v>
       </c>
-      <c r="O42" s="107">
+      <c r="O42" s="122">
         <f t="shared" si="2"/>
         <v>0.19510025825195706</v>
       </c>
@@ -16141,44 +16129,44 @@
     </row>
     <row r="43" spans="1:27">
       <c r="C43" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D43" s="57" t="s">
         <v>510</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H43" s="57">
         <v>2020</v>
       </c>
-      <c r="I43" s="99" t="s">
+      <c r="I43" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J43" s="100">
+      <c r="J43" s="51">
         <v>0.85</v>
       </c>
-      <c r="K43" s="57">
+      <c r="K43" s="51">
         <v>30</v>
       </c>
-      <c r="L43" s="112" cm="1">
+      <c r="L43" s="99" cm="1">
         <f t="array" ref="L43">IFERROR(SUMPRODUCT((Table1[Region]=D43)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M43*1000))),0)</f>
         <v>6.6593508137201018</v>
       </c>
-      <c r="M43" s="112">
+      <c r="M43" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D43,Table1[Group],$A$38)/1000</f>
         <v>0.78220999999999996</v>
       </c>
-      <c r="N43" s="57">
+      <c r="N43" s="51">
         <v>1</v>
       </c>
-      <c r="O43" s="107">
+      <c r="O43" s="122">
         <f t="shared" si="2"/>
         <v>0.19978052441160304</v>
       </c>
@@ -16191,44 +16179,44 @@
     </row>
     <row r="44" spans="1:27">
       <c r="C44" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D44" s="57" t="s">
         <v>527</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H44" s="57">
         <v>2020</v>
       </c>
-      <c r="I44" s="99" t="s">
+      <c r="I44" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J44" s="100">
+      <c r="J44" s="51">
         <v>0.85</v>
       </c>
-      <c r="K44" s="57">
+      <c r="K44" s="51">
         <v>30</v>
       </c>
-      <c r="L44" s="112" cm="1">
+      <c r="L44" s="99" cm="1">
         <f t="array" ref="L44">IFERROR(SUMPRODUCT((Table1[Region]=D44)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M44*1000))),0)</f>
         <v>5.6935064813222214</v>
       </c>
-      <c r="M44" s="112">
+      <c r="M44" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D44,Table1[Group],$A$38)/1000</f>
         <v>0.63952999999999993</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N44" s="51">
         <v>1</v>
       </c>
-      <c r="O44" s="107">
+      <c r="O44" s="122">
         <f t="shared" si="2"/>
         <v>0.17080519443966663</v>
       </c>
@@ -16241,44 +16229,44 @@
     </row>
     <row r="45" spans="1:27">
       <c r="C45" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>523</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H45" s="57">
         <v>2020</v>
       </c>
-      <c r="I45" s="99" t="s">
+      <c r="I45" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J45" s="100">
+      <c r="J45" s="51">
         <v>0.85</v>
       </c>
-      <c r="K45" s="57">
+      <c r="K45" s="51">
         <v>30</v>
       </c>
-      <c r="L45" s="112" cm="1">
+      <c r="L45" s="99" cm="1">
         <f t="array" ref="L45">IFERROR(SUMPRODUCT((Table1[Region]=D45)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M45*1000))),0)</f>
         <v>3.7254368942816862</v>
       </c>
-      <c r="M45" s="112">
+      <c r="M45" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D45,Table1[Group],$A$38)/1000</f>
         <v>0.90079000000000009</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N45" s="51">
         <v>1</v>
       </c>
-      <c r="O45" s="107">
+      <c r="O45" s="122">
         <f t="shared" si="2"/>
         <v>0.11176310682845059</v>
       </c>
@@ -16291,44 +16279,44 @@
     </row>
     <row r="46" spans="1:27">
       <c r="C46" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>511</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H46" s="57">
         <v>2020</v>
       </c>
-      <c r="I46" s="99" t="s">
+      <c r="I46" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J46" s="100">
+      <c r="J46" s="51">
         <v>0.85</v>
       </c>
-      <c r="K46" s="57">
+      <c r="K46" s="51">
         <v>30</v>
       </c>
-      <c r="L46" s="112" cm="1">
+      <c r="L46" s="99" cm="1">
         <f t="array" ref="L46">IFERROR(SUMPRODUCT((Table1[Region]=D46)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M46*1000))),0)</f>
         <v>5.9571859010047978</v>
       </c>
-      <c r="M46" s="112">
+      <c r="M46" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D46,Table1[Group],$A$38)/1000</f>
         <v>0.75438000000000005</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="51">
         <v>1</v>
       </c>
-      <c r="O46" s="107">
+      <c r="O46" s="122">
         <f t="shared" si="2"/>
         <v>0.17871557703014393</v>
       </c>
@@ -16341,44 +16329,44 @@
     </row>
     <row r="47" spans="1:27">
       <c r="C47" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>512</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H47" s="57">
         <v>2020</v>
       </c>
-      <c r="I47" s="99" t="s">
+      <c r="I47" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J47" s="100">
+      <c r="J47" s="51">
         <v>0.85</v>
       </c>
-      <c r="K47" s="57">
+      <c r="K47" s="51">
         <v>30</v>
       </c>
-      <c r="L47" s="112" cm="1">
+      <c r="L47" s="99" cm="1">
         <f t="array" ref="L47">IFERROR(SUMPRODUCT((Table1[Region]=D47)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M47*1000))),0)</f>
         <v>8.9177191151919875</v>
       </c>
-      <c r="M47" s="112">
+      <c r="M47" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D47,Table1[Group],$A$38)/1000</f>
         <v>0.14376</v>
       </c>
-      <c r="N47" s="57">
+      <c r="N47" s="51">
         <v>1</v>
       </c>
-      <c r="O47" s="107">
+      <c r="O47" s="122">
         <f t="shared" si="2"/>
         <v>0.26753157345575962</v>
       </c>
@@ -16391,44 +16379,44 @@
     </row>
     <row r="48" spans="1:27">
       <c r="C48" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D48" s="57" t="s">
         <v>513</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H48" s="57">
         <v>2020</v>
       </c>
-      <c r="I48" s="99" t="s">
+      <c r="I48" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J48" s="100">
+      <c r="J48" s="51">
         <v>0.85</v>
       </c>
-      <c r="K48" s="57">
+      <c r="K48" s="51">
         <v>30</v>
       </c>
-      <c r="L48" s="112" cm="1">
+      <c r="L48" s="99" cm="1">
         <f t="array" ref="L48">IFERROR(SUMPRODUCT((Table1[Region]=D48)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M48*1000))),0)</f>
         <v>5.2124891878904371</v>
       </c>
-      <c r="M48" s="112">
+      <c r="M48" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D48,Table1[Group],$A$38)/1000</f>
         <v>4.1619999999999997E-2</v>
       </c>
-      <c r="N48" s="57">
+      <c r="N48" s="51">
         <v>1</v>
       </c>
-      <c r="O48" s="107">
+      <c r="O48" s="122">
         <f t="shared" si="2"/>
         <v>0.15637467563671312</v>
       </c>
@@ -16441,44 +16429,44 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D49" s="57" t="s">
         <v>528</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H49" s="57">
         <v>2020</v>
       </c>
-      <c r="I49" s="99" t="s">
+      <c r="I49" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J49" s="100">
+      <c r="J49" s="51">
         <v>0.85</v>
       </c>
-      <c r="K49" s="57">
+      <c r="K49" s="51">
         <v>30</v>
       </c>
-      <c r="L49" s="112" cm="1">
+      <c r="L49" s="99" cm="1">
         <f t="array" ref="L49">IFERROR(SUMPRODUCT((Table1[Region]=D49)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M49*1000))),0)</f>
         <v>6.9997118816930151</v>
       </c>
-      <c r="M49" s="112">
+      <c r="M49" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D49,Table1[Group],$A$38)/1000</f>
         <v>3.9219999999999998E-2</v>
       </c>
-      <c r="N49" s="57">
+      <c r="N49" s="51">
         <v>1</v>
       </c>
-      <c r="O49" s="107">
+      <c r="O49" s="122">
         <f t="shared" si="2"/>
         <v>0.20999135645079045</v>
       </c>
@@ -16491,44 +16479,44 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D50" s="57" t="s">
         <v>524</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H50" s="57">
         <v>2020</v>
       </c>
-      <c r="I50" s="99" t="s">
+      <c r="I50" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J50" s="100">
+      <c r="J50" s="51">
         <v>0.85</v>
       </c>
-      <c r="K50" s="57">
+      <c r="K50" s="51">
         <v>30</v>
       </c>
-      <c r="L50" s="112" cm="1">
+      <c r="L50" s="99" cm="1">
         <f t="array" ref="L50">IFERROR(SUMPRODUCT((Table1[Region]=D50)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M50*1000))),0)</f>
         <v>5.6967699368904174</v>
       </c>
-      <c r="M50" s="112">
+      <c r="M50" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D50,Table1[Group],$A$38)/1000</f>
         <v>0.52290000000000014</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="51">
         <v>1</v>
       </c>
-      <c r="O50" s="107">
+      <c r="O50" s="122">
         <f t="shared" si="2"/>
         <v>0.1709030981067125</v>
       </c>
@@ -16541,44 +16529,44 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D51" s="57" t="s">
         <v>514</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H51" s="57">
         <v>2020</v>
       </c>
-      <c r="I51" s="99" t="s">
+      <c r="I51" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J51" s="100">
+      <c r="J51" s="51">
         <v>0.85</v>
       </c>
-      <c r="K51" s="57">
+      <c r="K51" s="51">
         <v>30</v>
       </c>
-      <c r="L51" s="112" cm="1">
+      <c r="L51" s="99" cm="1">
         <f t="array" ref="L51">IFERROR(SUMPRODUCT((Table1[Region]=D51)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M51*1000))),0)</f>
         <v>7.2922635177128647</v>
       </c>
-      <c r="M51" s="112">
+      <c r="M51" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D51,Table1[Group],$A$38)/1000</f>
         <v>8.0450000000000008E-2</v>
       </c>
-      <c r="N51" s="57">
+      <c r="N51" s="51">
         <v>1</v>
       </c>
-      <c r="O51" s="107">
+      <c r="O51" s="122">
         <f t="shared" si="2"/>
         <v>0.21876790553138595</v>
       </c>
@@ -16591,44 +16579,44 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D52" s="57" t="s">
         <v>515</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H52" s="57">
         <v>2020</v>
       </c>
-      <c r="I52" s="99" t="s">
+      <c r="I52" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J52" s="100">
+      <c r="J52" s="51">
         <v>0.85</v>
       </c>
-      <c r="K52" s="57">
+      <c r="K52" s="51">
         <v>30</v>
       </c>
-      <c r="L52" s="112" cm="1">
+      <c r="L52" s="99" cm="1">
         <f t="array" ref="L52">IFERROR(SUMPRODUCT((Table1[Region]=D52)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M52*1000))),0)</f>
         <v>5.6395863365716092</v>
       </c>
-      <c r="M52" s="112">
+      <c r="M52" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D52,Table1[Group],$A$38)/1000</f>
         <v>6.3819999999999988E-2</v>
       </c>
-      <c r="N52" s="57">
+      <c r="N52" s="51">
         <v>1</v>
       </c>
-      <c r="O52" s="107">
+      <c r="O52" s="122">
         <f t="shared" si="2"/>
         <v>0.16918759009714826</v>
       </c>
@@ -16641,44 +16629,44 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D53" s="57" t="s">
         <v>529</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H53" s="57">
         <v>2020</v>
       </c>
-      <c r="I53" s="99" t="s">
+      <c r="I53" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J53" s="100">
+      <c r="J53" s="51">
         <v>0.85</v>
       </c>
-      <c r="K53" s="57">
+      <c r="K53" s="51">
         <v>30</v>
       </c>
-      <c r="L53" s="112" cm="1">
+      <c r="L53" s="99" cm="1">
         <f t="array" ref="L53">IFERROR(SUMPRODUCT((Table1[Region]=D53)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M53*1000))),0)</f>
         <v>5.5836077916834883</v>
       </c>
-      <c r="M53" s="112">
+      <c r="M53" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D53,Table1[Group],$A$38)/1000</f>
         <v>0.49539999999999995</v>
       </c>
-      <c r="N53" s="57">
+      <c r="N53" s="51">
         <v>1</v>
       </c>
-      <c r="O53" s="107">
+      <c r="O53" s="122">
         <f t="shared" si="2"/>
         <v>0.16750823375050464</v>
       </c>
@@ -16691,44 +16679,44 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D54" s="57" t="s">
         <v>516</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H54" s="57">
         <v>2020</v>
       </c>
-      <c r="I54" s="99" t="s">
+      <c r="I54" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J54" s="100">
+      <c r="J54" s="51">
         <v>0.85</v>
       </c>
-      <c r="K54" s="57">
+      <c r="K54" s="51">
         <v>30</v>
       </c>
-      <c r="L54" s="112" cm="1">
+      <c r="L54" s="99" cm="1">
         <f t="array" ref="L54">IFERROR(SUMPRODUCT((Table1[Region]=D54)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M54*1000))),0)</f>
         <v>5.3160711763183865</v>
       </c>
-      <c r="M54" s="112">
+      <c r="M54" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D54,Table1[Group],$A$38)/1000</f>
         <v>1.4299699999999997</v>
       </c>
-      <c r="N54" s="57">
+      <c r="N54" s="51">
         <v>1</v>
       </c>
-      <c r="O54" s="107">
+      <c r="O54" s="122">
         <f t="shared" si="2"/>
         <v>0.1594821352895516</v>
       </c>
@@ -16741,44 +16729,44 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D55" s="57" t="s">
         <v>534</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H55" s="57">
         <v>2020</v>
       </c>
-      <c r="I55" s="99" t="s">
+      <c r="I55" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J55" s="100">
+      <c r="J55" s="51">
         <v>0.85</v>
       </c>
-      <c r="K55" s="57">
+      <c r="K55" s="51">
         <v>30</v>
       </c>
-      <c r="L55" s="112" cm="1">
+      <c r="L55" s="99" cm="1">
         <f t="array" ref="L55">IFERROR(SUMPRODUCT((Table1[Region]=D55)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M55*1000))),0)</f>
         <v>5.0329253428136109</v>
       </c>
-      <c r="M55" s="112">
+      <c r="M55" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D55,Table1[Group],$A$38)/1000</f>
         <v>0.33473000000000003</v>
       </c>
-      <c r="N55" s="57">
+      <c r="N55" s="51">
         <v>1</v>
       </c>
-      <c r="O55" s="107">
+      <c r="O55" s="122">
         <f t="shared" si="2"/>
         <v>0.15098776028440833</v>
       </c>
@@ -16791,44 +16779,44 @@
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D56" s="57" t="s">
         <v>517</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H56" s="57">
         <v>2020</v>
       </c>
-      <c r="I56" s="99" t="s">
+      <c r="I56" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J56" s="100">
+      <c r="J56" s="51">
         <v>0.85</v>
       </c>
-      <c r="K56" s="57">
+      <c r="K56" s="51">
         <v>30</v>
       </c>
-      <c r="L56" s="112" cm="1">
+      <c r="L56" s="99" cm="1">
         <f t="array" ref="L56">IFERROR(SUMPRODUCT((Table1[Region]=D56)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M56*1000))),0)</f>
         <v>5.7256993897458068</v>
       </c>
-      <c r="M56" s="112">
+      <c r="M56" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D56,Table1[Group],$A$38)/1000</f>
         <v>0.20811000000000002</v>
       </c>
-      <c r="N56" s="57">
+      <c r="N56" s="51">
         <v>1</v>
       </c>
-      <c r="O56" s="107">
+      <c r="O56" s="122">
         <f t="shared" si="2"/>
         <v>0.1717709816923742</v>
       </c>
@@ -16841,44 +16829,44 @@
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D57" s="57" t="s">
         <v>530</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H57" s="57">
         <v>2020</v>
       </c>
-      <c r="I57" s="99" t="s">
+      <c r="I57" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J57" s="100">
+      <c r="J57" s="51">
         <v>0.85</v>
       </c>
-      <c r="K57" s="57">
+      <c r="K57" s="51">
         <v>30</v>
       </c>
-      <c r="L57" s="112" cm="1">
+      <c r="L57" s="99" cm="1">
         <f t="array" ref="L57">IFERROR(SUMPRODUCT((Table1[Region]=D57)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M57*1000))),0)</f>
         <v>6.1848518886679926</v>
       </c>
-      <c r="M57" s="112">
+      <c r="M57" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D57,Table1[Group],$A$38)/1000</f>
         <v>0.10060000000000001</v>
       </c>
-      <c r="N57" s="57">
+      <c r="N57" s="51">
         <v>1</v>
       </c>
-      <c r="O57" s="107">
+      <c r="O57" s="122">
         <f t="shared" si="2"/>
         <v>0.18554555666003977</v>
       </c>
@@ -16891,44 +16879,44 @@
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D58" s="57" t="s">
         <v>531</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H58" s="57">
         <v>2020</v>
       </c>
-      <c r="I58" s="99" t="s">
+      <c r="I58" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J58" s="100">
+      <c r="J58" s="51">
         <v>0.85</v>
       </c>
-      <c r="K58" s="57">
+      <c r="K58" s="51">
         <v>30</v>
       </c>
-      <c r="L58" s="112" cm="1">
+      <c r="L58" s="99" cm="1">
         <f t="array" ref="L58">IFERROR(SUMPRODUCT((Table1[Region]=D58)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M58*1000))),0)</f>
         <v>5.9208650917771024</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D58,Table1[Group],$A$38)/1000</f>
         <v>0.12148999999999999</v>
       </c>
-      <c r="N58" s="57">
+      <c r="N58" s="51">
         <v>1</v>
       </c>
-      <c r="O58" s="107">
+      <c r="O58" s="122">
         <f t="shared" si="2"/>
         <v>0.17762595275331305</v>
       </c>
@@ -16941,44 +16929,44 @@
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D59" s="57" t="s">
         <v>525</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H59" s="57">
         <v>2020</v>
       </c>
-      <c r="I59" s="99" t="s">
+      <c r="I59" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J59" s="100">
+      <c r="J59" s="51">
         <v>0.85</v>
       </c>
-      <c r="K59" s="57">
+      <c r="K59" s="51">
         <v>30</v>
       </c>
-      <c r="L59" s="112" cm="1">
+      <c r="L59" s="99" cm="1">
         <f t="array" ref="L59">IFERROR(SUMPRODUCT((Table1[Region]=D59)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M59*1000))),0)</f>
         <v>6.0029456632556739</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D59,Table1[Group],$A$38)/1000</f>
         <v>0.26483000000000001</v>
       </c>
-      <c r="N59" s="57">
+      <c r="N59" s="51">
         <v>1</v>
       </c>
-      <c r="O59" s="107">
+      <c r="O59" s="122">
         <f t="shared" si="2"/>
         <v>0.18008836989767021</v>
       </c>
@@ -16991,44 +16979,44 @@
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D60" s="57" t="s">
         <v>526</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H60" s="57">
         <v>2020</v>
       </c>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J60" s="100">
+      <c r="J60" s="51">
         <v>0.85</v>
       </c>
-      <c r="K60" s="57">
+      <c r="K60" s="51">
         <v>30</v>
       </c>
-      <c r="L60" s="112" cm="1">
+      <c r="L60" s="99" cm="1">
         <f t="array" ref="L60">IFERROR(SUMPRODUCT((Table1[Region]=D60)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M60*1000))),0)</f>
         <v>7.3234358676726643</v>
       </c>
-      <c r="M60" s="112">
+      <c r="M60" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D60,Table1[Group],$A$38)/1000</f>
         <v>0.31013999999999997</v>
       </c>
-      <c r="N60" s="57">
+      <c r="N60" s="51">
         <v>1</v>
       </c>
-      <c r="O60" s="107">
+      <c r="O60" s="122">
         <f t="shared" si="2"/>
         <v>0.21970307603017991</v>
       </c>
@@ -17041,44 +17029,44 @@
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D61" s="57" t="s">
         <v>518</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H61" s="57">
         <v>2020</v>
       </c>
-      <c r="I61" s="99" t="s">
+      <c r="I61" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J61" s="100">
+      <c r="J61" s="51">
         <v>0.85</v>
       </c>
-      <c r="K61" s="57">
+      <c r="K61" s="51">
         <v>30</v>
       </c>
-      <c r="L61" s="112" cm="1">
+      <c r="L61" s="99" cm="1">
         <f t="array" ref="L61">IFERROR(SUMPRODUCT((Table1[Region]=D61)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M61*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="112">
+      <c r="M61" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D61,Table1[Group],$A$38)/1000</f>
         <v>0</v>
       </c>
-      <c r="N61" s="57">
+      <c r="N61" s="51">
         <v>1</v>
       </c>
-      <c r="O61" s="107">
+      <c r="O61" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17091,44 +17079,44 @@
     </row>
     <row r="62" spans="3:27">
       <c r="C62" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D62" s="57" t="s">
         <v>519</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H62" s="57">
         <v>2020</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J62" s="100">
+      <c r="J62" s="51">
         <v>0.85</v>
       </c>
-      <c r="K62" s="57">
+      <c r="K62" s="51">
         <v>30</v>
       </c>
-      <c r="L62" s="112" cm="1">
+      <c r="L62" s="99" cm="1">
         <f t="array" ref="L62">IFERROR(SUMPRODUCT((Table1[Region]=D62)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M62*1000))),0)</f>
         <v>7.0201994752681536</v>
       </c>
-      <c r="M62" s="112">
+      <c r="M62" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D62,Table1[Group],$A$38)/1000</f>
         <v>0.25918000000000002</v>
       </c>
-      <c r="N62" s="57">
+      <c r="N62" s="51">
         <v>1</v>
       </c>
-      <c r="O62" s="107">
+      <c r="O62" s="122">
         <f t="shared" si="2"/>
         <v>0.21060598425804461</v>
       </c>
@@ -17141,44 +17129,44 @@
     </row>
     <row r="63" spans="3:27" ht="13.5" thickBot="1">
       <c r="C63" s="91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D63" s="90" t="s">
         <v>520</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H63" s="90">
         <v>2020</v>
       </c>
-      <c r="I63" s="101" t="s">
+      <c r="I63" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J63" s="102">
+      <c r="J63" s="117">
         <v>0.85</v>
       </c>
-      <c r="K63" s="90">
+      <c r="K63" s="117">
         <v>30</v>
       </c>
-      <c r="L63" s="113" cm="1">
+      <c r="L63" s="100" cm="1">
         <f t="array" ref="L63">IFERROR(SUMPRODUCT((Table1[Region]=D63)*(Table1[Group]=$A$38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M63*1000))),0)</f>
         <v>5.8743219211859472</v>
       </c>
-      <c r="M63" s="113">
+      <c r="M63" s="100">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D63,Table1[Group],$A$38)/1000</f>
         <v>0.66916999999999993</v>
       </c>
-      <c r="N63" s="90">
+      <c r="N63" s="117">
         <v>1</v>
       </c>
-      <c r="O63" s="108">
+      <c r="O63" s="123">
         <f t="shared" si="2"/>
         <v>0.17622965763557841</v>
       </c>
@@ -17191,44 +17179,44 @@
     </row>
     <row r="64" spans="3:27" ht="13.5" thickBot="1">
       <c r="C64" s="91" t="s">
-        <v>548</v>
-      </c>
-      <c r="D64" s="125" t="s">
+        <v>547</v>
+      </c>
+      <c r="D64" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>549</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G64" s="44" t="s">
         <v>555</v>
-      </c>
-      <c r="E64" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="G64" s="44" t="s">
-        <v>556</v>
       </c>
       <c r="H64" s="90">
         <v>2020</v>
       </c>
-      <c r="I64" s="101" t="s">
+      <c r="I64" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J64" s="102">
+      <c r="J64" s="117">
         <v>0.85</v>
       </c>
-      <c r="K64" s="90">
+      <c r="K64" s="117">
         <v>30</v>
       </c>
-      <c r="L64" s="123" cm="1">
+      <c r="L64" s="104" cm="1">
         <f t="array" ref="L64">IFERROR(SUMPRODUCT((Table1[Group]=A38)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M64*1000))),0)</f>
         <v>5.675035529631022</v>
       </c>
-      <c r="M64" s="123">
+      <c r="M64" s="104">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$38)/1000</f>
         <v>10.291409999999997</v>
       </c>
-      <c r="N64" s="124">
+      <c r="N64" s="105">
         <v>1</v>
       </c>
-      <c r="O64" s="122">
+      <c r="O64" s="124">
         <f t="shared" si="2"/>
         <v>0.17025106588893066</v>
       </c>
@@ -17244,44 +17232,44 @@
         <v>3</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D65" s="57" t="s">
         <v>509</v>
       </c>
       <c r="E65" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F65" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F65" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G65" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H65" s="57">
         <v>2020</v>
       </c>
-      <c r="I65" s="99" t="s">
+      <c r="I65" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J65" s="100">
+      <c r="J65" s="51">
         <v>0.85</v>
       </c>
-      <c r="K65" s="57">
+      <c r="K65" s="51">
         <v>30</v>
       </c>
-      <c r="L65" s="112" cm="1">
+      <c r="L65" s="99" cm="1">
         <f t="array" ref="L65">IFERROR(SUMPRODUCT((Table1[Region]=D65)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M65*1000))),0)</f>
         <v>10.637242670799434</v>
       </c>
-      <c r="M65" s="112">
+      <c r="M65" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D65,Table1[Group],$A$65)/1000</f>
         <v>7.7429999999999999E-2</v>
       </c>
-      <c r="N65" s="104">
+      <c r="N65" s="125">
         <v>1</v>
       </c>
-      <c r="O65" s="107">
+      <c r="O65" s="122">
         <f t="shared" si="2"/>
         <v>0.31911728012398299</v>
       </c>
@@ -17294,44 +17282,44 @@
     </row>
     <row r="66" spans="1:27">
       <c r="C66" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>532</v>
       </c>
       <c r="E66" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F66" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F66" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G66" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H66" s="57">
         <v>2020</v>
       </c>
-      <c r="I66" s="99" t="s">
+      <c r="I66" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J66" s="100">
+      <c r="J66" s="51">
         <v>0.85</v>
       </c>
-      <c r="K66" s="57">
+      <c r="K66" s="51">
         <v>30</v>
       </c>
-      <c r="L66" s="112" cm="1">
+      <c r="L66" s="99" cm="1">
         <f t="array" ref="L66">IFERROR(SUMPRODUCT((Table1[Region]=D66)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M66*1000))),0)</f>
         <v>12.729979166666666</v>
       </c>
-      <c r="M66" s="112">
+      <c r="M66" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D66,Table1[Group],$A$65)/1000</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N66" s="104">
+      <c r="N66" s="125">
         <v>1</v>
       </c>
-      <c r="O66" s="107">
+      <c r="O66" s="122">
         <f t="shared" si="2"/>
         <v>0.38189937499999999</v>
       </c>
@@ -17344,44 +17332,44 @@
     </row>
     <row r="67" spans="1:27">
       <c r="C67" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D67" s="57" t="s">
         <v>521</v>
       </c>
       <c r="E67" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F67" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F67" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G67" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H67" s="57">
         <v>2020</v>
       </c>
-      <c r="I67" s="99" t="s">
+      <c r="I67" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J67" s="100">
+      <c r="J67" s="51">
         <v>0.85</v>
       </c>
-      <c r="K67" s="57">
+      <c r="K67" s="51">
         <v>30</v>
       </c>
-      <c r="L67" s="112" cm="1">
+      <c r="L67" s="99" cm="1">
         <f t="array" ref="L67">IFERROR(SUMPRODUCT((Table1[Region]=D67)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M67*1000))),0)</f>
         <v>13.219953343701402</v>
       </c>
-      <c r="M67" s="112">
+      <c r="M67" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D67,Table1[Group],$A$65)/1000</f>
         <v>9.0020000000000003E-2</v>
       </c>
-      <c r="N67" s="104">
+      <c r="N67" s="125">
         <v>1</v>
       </c>
-      <c r="O67" s="107">
+      <c r="O67" s="122">
         <f t="shared" si="2"/>
         <v>0.39659860031104205</v>
       </c>
@@ -17394,44 +17382,44 @@
     </row>
     <row r="68" spans="1:27">
       <c r="C68" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>522</v>
       </c>
       <c r="E68" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F68" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F68" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G68" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H68" s="57">
         <v>2020</v>
       </c>
-      <c r="I68" s="99" t="s">
+      <c r="I68" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J68" s="100">
+      <c r="J68" s="51">
         <v>0.85</v>
       </c>
-      <c r="K68" s="57">
+      <c r="K68" s="51">
         <v>30</v>
       </c>
-      <c r="L68" s="112" cm="1">
+      <c r="L68" s="99" cm="1">
         <f t="array" ref="L68">IFERROR(SUMPRODUCT((Table1[Region]=D68)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M68*1000))),0)</f>
         <v>9.9402787231755809</v>
       </c>
-      <c r="M68" s="112">
+      <c r="M68" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D68,Table1[Group],$A$65)/1000</f>
         <v>0.27913000000000004</v>
       </c>
-      <c r="N68" s="104">
+      <c r="N68" s="125">
         <v>1</v>
       </c>
-      <c r="O68" s="107">
+      <c r="O68" s="122">
         <f t="shared" si="2"/>
         <v>0.29820836169526743</v>
       </c>
@@ -17444,44 +17432,44 @@
     </row>
     <row r="69" spans="1:27">
       <c r="C69" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>533</v>
       </c>
       <c r="E69" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F69" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F69" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G69" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H69" s="57">
         <v>2020</v>
       </c>
-      <c r="I69" s="99" t="s">
+      <c r="I69" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J69" s="100">
+      <c r="J69" s="51">
         <v>0.85</v>
       </c>
-      <c r="K69" s="57">
+      <c r="K69" s="51">
         <v>30</v>
       </c>
-      <c r="L69" s="112" cm="1">
+      <c r="L69" s="99" cm="1">
         <f t="array" ref="L69">IFERROR(SUMPRODUCT((Table1[Region]=D69)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M69*1000))),0)</f>
         <v>12.328911118856743</v>
       </c>
-      <c r="M69" s="112">
+      <c r="M69" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D69,Table1[Group],$A$65)/1000</f>
         <v>0.28690000000000004</v>
       </c>
-      <c r="N69" s="104">
+      <c r="N69" s="125">
         <v>1</v>
       </c>
-      <c r="O69" s="107">
+      <c r="O69" s="122">
         <f t="shared" si="2"/>
         <v>0.36986733356570228</v>
       </c>
@@ -17494,44 +17482,44 @@
     </row>
     <row r="70" spans="1:27">
       <c r="C70" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>510</v>
       </c>
       <c r="E70" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F70" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F70" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G70" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H70" s="57">
         <v>2020</v>
       </c>
-      <c r="I70" s="99" t="s">
+      <c r="I70" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J70" s="100">
+      <c r="J70" s="51">
         <v>0.85</v>
       </c>
-      <c r="K70" s="57">
+      <c r="K70" s="51">
         <v>30</v>
       </c>
-      <c r="L70" s="112" cm="1">
+      <c r="L70" s="99" cm="1">
         <f t="array" ref="L70">IFERROR(SUMPRODUCT((Table1[Region]=D70)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M70*1000))),0)</f>
         <v>20.5</v>
       </c>
-      <c r="M70" s="112">
+      <c r="M70" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D70,Table1[Group],$A$65)/1000</f>
         <v>1.264E-2</v>
       </c>
-      <c r="N70" s="104">
+      <c r="N70" s="125">
         <v>1</v>
       </c>
-      <c r="O70" s="107">
+      <c r="O70" s="122">
         <f t="shared" si="2"/>
         <v>0.61499999999999999</v>
       </c>
@@ -17544,44 +17532,44 @@
     </row>
     <row r="71" spans="1:27">
       <c r="C71" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>527</v>
       </c>
       <c r="E71" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F71" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F71" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G71" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H71" s="57">
         <v>2020</v>
       </c>
-      <c r="I71" s="99" t="s">
+      <c r="I71" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J71" s="100">
+      <c r="J71" s="51">
         <v>0.85</v>
       </c>
-      <c r="K71" s="57">
+      <c r="K71" s="51">
         <v>30</v>
       </c>
-      <c r="L71" s="112" cm="1">
+      <c r="L71" s="99" cm="1">
         <f t="array" ref="L71">IFERROR(SUMPRODUCT((Table1[Region]=D71)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M71*1000))),0)</f>
         <v>12.172261875461484</v>
       </c>
-      <c r="M71" s="112">
+      <c r="M71" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D71,Table1[Group],$A$65)/1000</f>
         <v>0.12188999999999998</v>
       </c>
-      <c r="N71" s="104">
+      <c r="N71" s="125">
         <v>1</v>
       </c>
-      <c r="O71" s="107">
+      <c r="O71" s="122">
         <f t="shared" si="2"/>
         <v>0.36516785626384451</v>
       </c>
@@ -17594,44 +17582,44 @@
     </row>
     <row r="72" spans="1:27">
       <c r="C72" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>523</v>
       </c>
       <c r="E72" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F72" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F72" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G72" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H72" s="57">
         <v>2020</v>
       </c>
-      <c r="I72" s="99" t="s">
+      <c r="I72" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J72" s="100">
+      <c r="J72" s="51">
         <v>0.85</v>
       </c>
-      <c r="K72" s="57">
+      <c r="K72" s="51">
         <v>30</v>
       </c>
-      <c r="L72" s="112" cm="1">
+      <c r="L72" s="99" cm="1">
         <f t="array" ref="L72">IFERROR(SUMPRODUCT((Table1[Region]=D72)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M72*1000))),0)</f>
         <v>11.532456951797158</v>
       </c>
-      <c r="M72" s="112">
+      <c r="M72" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D72,Table1[Group],$A$65)/1000</f>
         <v>0.17945</v>
       </c>
-      <c r="N72" s="104">
+      <c r="N72" s="125">
         <v>1</v>
       </c>
-      <c r="O72" s="107">
+      <c r="O72" s="122">
         <f t="shared" si="2"/>
         <v>0.34597370855391474</v>
       </c>
@@ -17644,44 +17632,44 @@
     </row>
     <row r="73" spans="1:27">
       <c r="C73" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>511</v>
       </c>
       <c r="E73" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F73" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F73" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G73" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H73" s="57">
         <v>2020</v>
       </c>
-      <c r="I73" s="99" t="s">
+      <c r="I73" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J73" s="100">
+      <c r="J73" s="51">
         <v>0.85</v>
       </c>
-      <c r="K73" s="57">
+      <c r="K73" s="51">
         <v>30</v>
       </c>
-      <c r="L73" s="112" cm="1">
+      <c r="L73" s="99" cm="1">
         <f t="array" ref="L73">IFERROR(SUMPRODUCT((Table1[Region]=D73)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M73*1000))),0)</f>
         <v>13.795917060677695</v>
       </c>
-      <c r="M73" s="112">
+      <c r="M73" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D73,Table1[Group],$A$65)/1000</f>
         <v>0.10152000000000003</v>
       </c>
-      <c r="N73" s="104">
+      <c r="N73" s="125">
         <v>1</v>
       </c>
-      <c r="O73" s="107">
+      <c r="O73" s="122">
         <f t="shared" si="2"/>
         <v>0.41387751182033083</v>
       </c>
@@ -17694,44 +17682,44 @@
     </row>
     <row r="74" spans="1:27">
       <c r="C74" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>512</v>
       </c>
       <c r="E74" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F74" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F74" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G74" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H74" s="57">
         <v>2020</v>
       </c>
-      <c r="I74" s="99" t="s">
+      <c r="I74" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J74" s="100">
+      <c r="J74" s="51">
         <v>0.85</v>
       </c>
-      <c r="K74" s="57">
+      <c r="K74" s="51">
         <v>30</v>
       </c>
-      <c r="L74" s="112" cm="1">
+      <c r="L74" s="99" cm="1">
         <f t="array" ref="L74">IFERROR(SUMPRODUCT((Table1[Region]=D74)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M74*1000))),0)</f>
         <v>12.430990990990992</v>
       </c>
-      <c r="M74" s="112">
+      <c r="M74" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D74,Table1[Group],$A$65)/1000</f>
         <v>5.2170000000000001E-2</v>
       </c>
-      <c r="N74" s="104">
+      <c r="N74" s="125">
         <v>1</v>
       </c>
-      <c r="O74" s="107">
+      <c r="O74" s="122">
         <f t="shared" si="2"/>
         <v>0.37292972972972976</v>
       </c>
@@ -17744,44 +17732,44 @@
     </row>
     <row r="75" spans="1:27">
       <c r="C75" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D75" s="57" t="s">
         <v>513</v>
       </c>
       <c r="E75" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F75" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F75" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G75" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H75" s="57">
         <v>2020</v>
       </c>
-      <c r="I75" s="99" t="s">
+      <c r="I75" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J75" s="100">
+      <c r="J75" s="51">
         <v>0.85</v>
       </c>
-      <c r="K75" s="57">
+      <c r="K75" s="51">
         <v>30</v>
       </c>
-      <c r="L75" s="112" cm="1">
+      <c r="L75" s="99" cm="1">
         <f t="array" ref="L75">IFERROR(SUMPRODUCT((Table1[Region]=D75)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M75*1000))),0)</f>
         <v>12.07431533537434</v>
       </c>
-      <c r="M75" s="112">
+      <c r="M75" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D75,Table1[Group],$A$65)/1000</f>
         <v>7.1859999999999979E-2</v>
       </c>
-      <c r="N75" s="104">
+      <c r="N75" s="125">
         <v>1</v>
       </c>
-      <c r="O75" s="107">
+      <c r="O75" s="122">
         <f t="shared" si="2"/>
         <v>0.36222946006123019</v>
       </c>
@@ -17794,44 +17782,44 @@
     </row>
     <row r="76" spans="1:27">
       <c r="C76" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D76" s="57" t="s">
         <v>528</v>
       </c>
       <c r="E76" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F76" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F76" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G76" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H76" s="57">
         <v>2020</v>
       </c>
-      <c r="I76" s="99" t="s">
+      <c r="I76" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J76" s="100">
+      <c r="J76" s="51">
         <v>0.85</v>
       </c>
-      <c r="K76" s="57">
+      <c r="K76" s="51">
         <v>30</v>
       </c>
-      <c r="L76" s="112" cm="1">
+      <c r="L76" s="99" cm="1">
         <f t="array" ref="L76">IFERROR(SUMPRODUCT((Table1[Region]=D76)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M76*1000))),0)</f>
         <v>10.700547042052744</v>
       </c>
-      <c r="M76" s="112">
+      <c r="M76" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D76,Table1[Group],$A$65)/1000</f>
         <v>5.6119999999999996E-2</v>
       </c>
-      <c r="N76" s="104">
+      <c r="N76" s="125">
         <v>1</v>
       </c>
-      <c r="O76" s="107">
+      <c r="O76" s="122">
         <f t="shared" si="2"/>
         <v>0.32101641126158231</v>
       </c>
@@ -17844,44 +17832,44 @@
     </row>
     <row r="77" spans="1:27">
       <c r="C77" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D77" s="57" t="s">
         <v>524</v>
       </c>
       <c r="E77" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F77" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F77" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G77" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H77" s="57">
         <v>2020</v>
       </c>
-      <c r="I77" s="99" t="s">
+      <c r="I77" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J77" s="100">
+      <c r="J77" s="51">
         <v>0.85</v>
       </c>
-      <c r="K77" s="57">
+      <c r="K77" s="51">
         <v>30</v>
       </c>
-      <c r="L77" s="112" cm="1">
+      <c r="L77" s="99" cm="1">
         <f t="array" ref="L77">IFERROR(SUMPRODUCT((Table1[Region]=D77)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M77*1000))),0)</f>
         <v>12.009080892480032</v>
       </c>
-      <c r="M77" s="112">
+      <c r="M77" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D77,Table1[Group],$A$65)/1000</f>
         <v>0.21781999999999996</v>
       </c>
-      <c r="N77" s="104">
+      <c r="N77" s="125">
         <v>1</v>
       </c>
-      <c r="O77" s="107">
+      <c r="O77" s="122">
         <f t="shared" si="2"/>
         <v>0.36027242677440097</v>
       </c>
@@ -17894,44 +17882,44 @@
     </row>
     <row r="78" spans="1:27">
       <c r="C78" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D78" s="57" t="s">
         <v>514</v>
       </c>
       <c r="E78" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F78" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F78" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G78" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H78" s="57">
         <v>2020</v>
       </c>
-      <c r="I78" s="99" t="s">
+      <c r="I78" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J78" s="100">
+      <c r="J78" s="51">
         <v>0.85</v>
       </c>
-      <c r="K78" s="57">
+      <c r="K78" s="51">
         <v>30</v>
       </c>
-      <c r="L78" s="112" cm="1">
+      <c r="L78" s="99" cm="1">
         <f t="array" ref="L78">IFERROR(SUMPRODUCT((Table1[Region]=D78)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M78*1000))),0)</f>
         <v>15.338120362737019</v>
       </c>
-      <c r="M78" s="112">
+      <c r="M78" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D78,Table1[Group],$A$65)/1000</f>
         <v>2.4259999999999997E-2</v>
       </c>
-      <c r="N78" s="104">
+      <c r="N78" s="125">
         <v>1</v>
       </c>
-      <c r="O78" s="107">
+      <c r="O78" s="122">
         <f t="shared" si="2"/>
         <v>0.46014361088211053</v>
       </c>
@@ -17944,44 +17932,44 @@
     </row>
     <row r="79" spans="1:27">
       <c r="C79" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D79" s="57" t="s">
         <v>515</v>
       </c>
       <c r="E79" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F79" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F79" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G79" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H79" s="57">
         <v>2020</v>
       </c>
-      <c r="I79" s="99" t="s">
+      <c r="I79" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J79" s="100">
+      <c r="J79" s="51">
         <v>0.85</v>
       </c>
-      <c r="K79" s="57">
+      <c r="K79" s="51">
         <v>30</v>
       </c>
-      <c r="L79" s="112" cm="1">
+      <c r="L79" s="99" cm="1">
         <f t="array" ref="L79">IFERROR(SUMPRODUCT((Table1[Region]=D79)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M79*1000))),0)</f>
         <v>12.942052432928698</v>
       </c>
-      <c r="M79" s="112">
+      <c r="M79" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D79,Table1[Group],$A$65)/1000</f>
         <v>9.8029999999999992E-2</v>
       </c>
-      <c r="N79" s="104">
+      <c r="N79" s="125">
         <v>1</v>
       </c>
-      <c r="O79" s="107">
+      <c r="O79" s="122">
         <f t="shared" si="2"/>
         <v>0.3882615729878609</v>
       </c>
@@ -17994,44 +17982,44 @@
     </row>
     <row r="80" spans="1:27">
       <c r="C80" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D80" s="57" t="s">
         <v>529</v>
       </c>
       <c r="E80" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F80" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F80" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G80" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H80" s="57">
         <v>2020</v>
       </c>
-      <c r="I80" s="99" t="s">
+      <c r="I80" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J80" s="100">
+      <c r="J80" s="51">
         <v>0.85</v>
       </c>
-      <c r="K80" s="57">
+      <c r="K80" s="51">
         <v>30</v>
       </c>
-      <c r="L80" s="112" cm="1">
+      <c r="L80" s="99" cm="1">
         <f t="array" ref="L80">IFERROR(SUMPRODUCT((Table1[Region]=D80)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M80*1000))),0)</f>
         <v>13.994888631761647</v>
       </c>
-      <c r="M80" s="112">
+      <c r="M80" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D80,Table1[Group],$A$65)/1000</f>
         <v>0.10370999999999998</v>
       </c>
-      <c r="N80" s="104">
+      <c r="N80" s="125">
         <v>1</v>
       </c>
-      <c r="O80" s="107">
+      <c r="O80" s="122">
         <f t="shared" si="2"/>
         <v>0.41984665895284939</v>
       </c>
@@ -18044,44 +18032,44 @@
     </row>
     <row r="81" spans="3:53">
       <c r="C81" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D81" s="57" t="s">
         <v>516</v>
       </c>
       <c r="E81" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F81" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F81" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G81" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H81" s="57">
         <v>2020</v>
       </c>
-      <c r="I81" s="99" t="s">
+      <c r="I81" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J81" s="100">
+      <c r="J81" s="51">
         <v>0.85</v>
       </c>
-      <c r="K81" s="57">
+      <c r="K81" s="51">
         <v>30</v>
       </c>
-      <c r="L81" s="112" cm="1">
+      <c r="L81" s="99" cm="1">
         <f t="array" ref="L81">IFERROR(SUMPRODUCT((Table1[Region]=D81)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M81*1000))),0)</f>
         <v>14.145046674445741</v>
       </c>
-      <c r="M81" s="112">
+      <c r="M81" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D81,Table1[Group],$A$65)/1000</f>
         <v>3.4279999999999998E-2</v>
       </c>
-      <c r="N81" s="104">
+      <c r="N81" s="125">
         <v>1</v>
       </c>
-      <c r="O81" s="107">
+      <c r="O81" s="122">
         <f t="shared" si="2"/>
         <v>0.4243514002333722</v>
       </c>
@@ -18094,44 +18082,44 @@
     </row>
     <row r="82" spans="3:53">
       <c r="C82" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D82" s="57" t="s">
         <v>534</v>
       </c>
       <c r="E82" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F82" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F82" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G82" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H82" s="57">
         <v>2020</v>
       </c>
-      <c r="I82" s="99" t="s">
+      <c r="I82" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J82" s="100">
+      <c r="J82" s="51">
         <v>0.85</v>
       </c>
-      <c r="K82" s="57">
+      <c r="K82" s="51">
         <v>30</v>
       </c>
-      <c r="L82" s="112" cm="1">
+      <c r="L82" s="99" cm="1">
         <f t="array" ref="L82">IFERROR(SUMPRODUCT((Table1[Region]=D82)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M82*1000))),0)</f>
         <v>12.18051336332363</v>
       </c>
-      <c r="M82" s="112">
+      <c r="M82" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D82,Table1[Group],$A$65)/1000</f>
         <v>3.7789999999999997E-2</v>
       </c>
-      <c r="N82" s="104">
+      <c r="N82" s="125">
         <v>1</v>
       </c>
-      <c r="O82" s="107">
+      <c r="O82" s="122">
         <f t="shared" si="2"/>
         <v>0.36541540089970892</v>
       </c>
@@ -18144,44 +18132,44 @@
     </row>
     <row r="83" spans="3:53">
       <c r="C83" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D83" s="57" t="s">
         <v>517</v>
       </c>
       <c r="E83" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F83" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F83" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G83" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H83" s="57">
         <v>2020</v>
       </c>
-      <c r="I83" s="99" t="s">
+      <c r="I83" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J83" s="100">
+      <c r="J83" s="51">
         <v>0.85</v>
       </c>
-      <c r="K83" s="57">
+      <c r="K83" s="51">
         <v>30</v>
       </c>
-      <c r="L83" s="112" cm="1">
+      <c r="L83" s="99" cm="1">
         <f t="array" ref="L83">IFERROR(SUMPRODUCT((Table1[Region]=D83)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M83*1000))),0)</f>
         <v>11.669644869610797</v>
       </c>
-      <c r="M83" s="112">
+      <c r="M83" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D83,Table1[Group],$A$65)/1000</f>
         <v>7.6310000000000003E-2</v>
       </c>
-      <c r="N83" s="104">
+      <c r="N83" s="125">
         <v>1</v>
       </c>
-      <c r="O83" s="107">
+      <c r="O83" s="122">
         <f t="shared" si="2"/>
         <v>0.35008934608832393</v>
       </c>
@@ -18194,44 +18182,44 @@
     </row>
     <row r="84" spans="3:53">
       <c r="C84" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D84" s="57" t="s">
         <v>530</v>
       </c>
       <c r="E84" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F84" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F84" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G84" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H84" s="57">
         <v>2020</v>
       </c>
-      <c r="I84" s="99" t="s">
+      <c r="I84" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J84" s="100">
+      <c r="J84" s="51">
         <v>0.85</v>
       </c>
-      <c r="K84" s="57">
+      <c r="K84" s="51">
         <v>30</v>
       </c>
-      <c r="L84" s="112" cm="1">
+      <c r="L84" s="99" cm="1">
         <f t="array" ref="L84">IFERROR(SUMPRODUCT((Table1[Region]=D84)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M84*1000))),0)</f>
         <v>11.458100607111882</v>
       </c>
-      <c r="M84" s="112">
+      <c r="M84" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D84,Table1[Group],$A$65)/1000</f>
         <v>4.6119999999999994E-2</v>
       </c>
-      <c r="N84" s="104">
+      <c r="N84" s="125">
         <v>1</v>
       </c>
-      <c r="O84" s="107">
+      <c r="O84" s="122">
         <f t="shared" si="2"/>
         <v>0.34374301821335645</v>
       </c>
@@ -18244,44 +18232,44 @@
     </row>
     <row r="85" spans="3:53">
       <c r="C85" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D85" s="57" t="s">
         <v>531</v>
       </c>
       <c r="E85" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F85" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F85" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G85" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H85" s="57">
         <v>2020</v>
       </c>
-      <c r="I85" s="99" t="s">
+      <c r="I85" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J85" s="100">
+      <c r="J85" s="51">
         <v>0.85</v>
       </c>
-      <c r="K85" s="57">
+      <c r="K85" s="51">
         <v>30</v>
       </c>
-      <c r="L85" s="112" cm="1">
+      <c r="L85" s="99" cm="1">
         <f t="array" ref="L85">IFERROR(SUMPRODUCT((Table1[Region]=D85)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M85*1000))),0)</f>
         <v>12.163822751322751</v>
       </c>
-      <c r="M85" s="112">
+      <c r="M85" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D85,Table1[Group],$A$65)/1000</f>
         <v>9.8280000000000006E-2</v>
       </c>
-      <c r="N85" s="104">
+      <c r="N85" s="125">
         <v>1</v>
       </c>
-      <c r="O85" s="107">
+      <c r="O85" s="122">
         <f t="shared" si="2"/>
         <v>0.36491468253968251</v>
       </c>
@@ -18294,44 +18282,44 @@
     </row>
     <row r="86" spans="3:53">
       <c r="C86" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D86" s="57" t="s">
         <v>525</v>
       </c>
       <c r="E86" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F86" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F86" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G86" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H86" s="57">
         <v>2020</v>
       </c>
-      <c r="I86" s="99" t="s">
+      <c r="I86" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J86" s="100">
+      <c r="J86" s="51">
         <v>0.85</v>
       </c>
-      <c r="K86" s="57">
+      <c r="K86" s="51">
         <v>30</v>
       </c>
-      <c r="L86" s="112" cm="1">
+      <c r="L86" s="99" cm="1">
         <f t="array" ref="L86">IFERROR(SUMPRODUCT((Table1[Region]=D86)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M86*1000))),0)</f>
         <v>12.407495466908431</v>
       </c>
-      <c r="M86" s="112">
+      <c r="M86" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D86,Table1[Group],$A$65)/1000</f>
         <v>4.4120000000000006E-2</v>
       </c>
-      <c r="N86" s="104">
+      <c r="N86" s="125">
         <v>1</v>
       </c>
-      <c r="O86" s="107">
+      <c r="O86" s="122">
         <f t="shared" si="2"/>
         <v>0.37222486400725291</v>
       </c>
@@ -18344,44 +18332,44 @@
     </row>
     <row r="87" spans="3:53">
       <c r="C87" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D87" s="57" t="s">
         <v>526</v>
       </c>
       <c r="E87" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F87" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F87" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G87" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H87" s="57">
         <v>2020</v>
       </c>
-      <c r="I87" s="99" t="s">
+      <c r="I87" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J87" s="100">
+      <c r="J87" s="51">
         <v>0.85</v>
       </c>
-      <c r="K87" s="57">
+      <c r="K87" s="51">
         <v>30</v>
       </c>
-      <c r="L87" s="112" cm="1">
+      <c r="L87" s="99" cm="1">
         <f t="array" ref="L87">IFERROR(SUMPRODUCT((Table1[Region]=D87)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M87*1000))),0)</f>
         <v>11.674048456428292</v>
       </c>
-      <c r="M87" s="112">
+      <c r="M87" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D87,Table1[Group],$A$65)/1000</f>
         <v>7.6769999999999991E-2</v>
       </c>
-      <c r="N87" s="104">
+      <c r="N87" s="125">
         <v>1</v>
       </c>
-      <c r="O87" s="107">
+      <c r="O87" s="122">
         <f t="shared" si="2"/>
         <v>0.35022145369284874</v>
       </c>
@@ -18394,44 +18382,44 @@
     </row>
     <row r="88" spans="3:53">
       <c r="C88" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D88" s="57" t="s">
         <v>518</v>
       </c>
       <c r="E88" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F88" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F88" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G88" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H88" s="57">
         <v>2020</v>
       </c>
-      <c r="I88" s="99" t="s">
+      <c r="I88" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J88" s="100">
+      <c r="J88" s="51">
         <v>0.85</v>
       </c>
-      <c r="K88" s="57">
+      <c r="K88" s="51">
         <v>30</v>
       </c>
-      <c r="L88" s="112" cm="1">
+      <c r="L88" s="99" cm="1">
         <f t="array" ref="L88">IFERROR(SUMPRODUCT((Table1[Region]=D88)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M88*1000))),0)</f>
         <v>11.782901811805962</v>
       </c>
-      <c r="M88" s="112">
+      <c r="M88" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D88,Table1[Group],$A$65)/1000</f>
         <v>3.422E-2</v>
       </c>
-      <c r="N88" s="104">
+      <c r="N88" s="125">
         <v>1</v>
       </c>
-      <c r="O88" s="107">
+      <c r="O88" s="122">
         <f t="shared" si="2"/>
         <v>0.35348705435417882</v>
       </c>
@@ -18444,132 +18432,132 @@
     </row>
     <row r="89" spans="3:53">
       <c r="C89" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D89" s="57" t="s">
         <v>519</v>
       </c>
       <c r="E89" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="F89" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F89" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G89" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H89" s="57">
         <v>2020</v>
       </c>
-      <c r="I89" s="99" t="s">
+      <c r="I89" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="J89" s="100">
+      <c r="J89" s="51">
         <v>0.85</v>
       </c>
-      <c r="K89" s="57">
+      <c r="K89" s="51">
         <v>30</v>
       </c>
-      <c r="L89" s="112" cm="1">
+      <c r="L89" s="99" cm="1">
         <f t="array" ref="L89">IFERROR(SUMPRODUCT((Table1[Region]=D89)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M89*1000))),0)</f>
         <v>11.749842658746088</v>
       </c>
-      <c r="M89" s="112">
+      <c r="M89" s="99">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D89,Table1[Group],$A$65)/1000</f>
         <v>0.12456999999999999</v>
       </c>
-      <c r="N89" s="104">
+      <c r="N89" s="125">
         <v>1</v>
       </c>
-      <c r="O89" s="107">
+      <c r="O89" s="122">
         <f t="shared" si="2"/>
         <v>0.35249527976238265</v>
       </c>
     </row>
     <row r="90" spans="3:53" ht="13.5" thickBot="1">
       <c r="C90" s="91" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D90" s="90" t="s">
         <v>520</v>
       </c>
       <c r="E90" s="91" t="s">
+        <v>551</v>
+      </c>
+      <c r="F90" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="F90" s="44" t="s">
-        <v>553</v>
-      </c>
       <c r="G90" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H90" s="90">
         <v>2020</v>
       </c>
-      <c r="I90" s="101" t="s">
+      <c r="I90" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J90" s="102">
+      <c r="J90" s="117">
         <v>0.85</v>
       </c>
-      <c r="K90" s="90">
+      <c r="K90" s="117">
         <v>30</v>
       </c>
-      <c r="L90" s="113" cm="1">
+      <c r="L90" s="100" cm="1">
         <f t="array" ref="L90">IFERROR(SUMPRODUCT((Table1[Region]=D90)*(Table1[Group]=$A$65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M90*1000))),0)</f>
         <v>14.2956011196641</v>
       </c>
-      <c r="M90" s="113">
+      <c r="M90" s="100">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],D90,Table1[Group],$A$65)/1000</f>
         <v>0.1429</v>
       </c>
-      <c r="N90" s="105">
+      <c r="N90" s="126">
         <v>1</v>
       </c>
-      <c r="O90" s="108">
+      <c r="O90" s="123">
         <f t="shared" si="2"/>
         <v>0.42886803358992298</v>
       </c>
     </row>
     <row r="91" spans="3:53" ht="13.5" thickBot="1">
-      <c r="C91" s="117" t="s">
-        <v>549</v>
-      </c>
-      <c r="D91" s="125" t="s">
+      <c r="C91" s="102" t="s">
+        <v>548</v>
+      </c>
+      <c r="D91" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="E91" s="102" t="s">
+        <v>551</v>
+      </c>
+      <c r="F91" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G91" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="E91" s="117" t="s">
-        <v>552</v>
-      </c>
-      <c r="F91" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="G91" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="H91" s="118">
+      <c r="H91" s="103">
         <v>2020</v>
       </c>
-      <c r="I91" s="101" t="s">
+      <c r="I91" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="J91" s="120">
+      <c r="J91" s="105">
         <v>0.85</v>
       </c>
-      <c r="K91" s="118">
+      <c r="K91" s="105">
         <v>30</v>
       </c>
-      <c r="L91" s="123" cm="1">
+      <c r="L91" s="104" cm="1">
         <f t="array" ref="L91">IFERROR(SUMPRODUCT((Table1[Group]=A65)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/(M91*1000))),0)</f>
         <v>12.177971699043084</v>
       </c>
-      <c r="M91" s="123">
+      <c r="M91" s="104">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],$A$65)/1000</f>
         <v>2.5363100000000007</v>
       </c>
-      <c r="N91" s="126">
+      <c r="N91" s="107">
         <v>1</v>
       </c>
-      <c r="O91" s="122">
+      <c r="O91" s="124">
         <f t="shared" si="2"/>
         <v>0.36533915097129249</v>
       </c>
@@ -18620,7 +18608,7 @@
         <v>53</v>
       </c>
       <c r="G95" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H95" s="63" t="s">
         <v>509</v>
@@ -18703,22 +18691,22 @@
       <c r="AH95" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="AO95" s="130">
+      <c r="AO95" s="111">
         <v>2040</v>
       </c>
-      <c r="AP95" s="131"/>
-      <c r="AQ95" s="132"/>
-      <c r="AS95" s="133">
+      <c r="AP95" s="112"/>
+      <c r="AQ95" s="113"/>
+      <c r="AS95" s="114">
         <v>2018</v>
       </c>
-      <c r="AT95" s="134"/>
-      <c r="AU95" s="134"/>
-      <c r="AV95" s="134"/>
-      <c r="AX95" s="130">
+      <c r="AT95" s="115"/>
+      <c r="AU95" s="115"/>
+      <c r="AV95" s="115"/>
+      <c r="AX95" s="111">
         <v>2070</v>
       </c>
-      <c r="AY95" s="131"/>
-      <c r="AZ95" s="132"/>
+      <c r="AY95" s="112"/>
+      <c r="AZ95" s="113"/>
     </row>
     <row r="96" spans="3:53" ht="15.75" thickBot="1">
       <c r="C96" s="71" t="s">

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58120402-59A5-40C0-AEC0-8824A4747F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687A8DA-E00B-45DD-9275-892A67579709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,34 +1518,34 @@
     <t>~FI_T: VAROM</t>
   </si>
   <si>
-    <t>RSDHET_C</t>
+    <t>National</t>
   </si>
   <si>
-    <t>RSDHET_1</t>
+    <t>Share of Residential to Services heating energy</t>
   </si>
   <si>
-    <t>RSDHET_2</t>
+    <t>FT-RSDHET_C</t>
   </si>
   <si>
-    <t>RSDHET_3</t>
+    <t>FT-RSDHET_1</t>
   </si>
   <si>
-    <t>Share of Residential Energy</t>
+    <t>FT-RSDHET_2</t>
   </si>
   <si>
-    <t>SRVHET_C</t>
+    <t>FT-RSDHET_3</t>
   </si>
   <si>
-    <t>SRVHET_1</t>
+    <t>FT-SRVHET_C</t>
   </si>
   <si>
-    <t>SRVHET_2</t>
+    <t>FT-SRVHET_1</t>
   </si>
   <si>
-    <t>SRVHET_3</t>
+    <t>FT-SRVHET_2</t>
   </si>
   <si>
-    <t>National</t>
+    <t>FT-SRVHET_3</t>
   </si>
 </sst>
 </file>
@@ -5805,6 +5805,9 @@
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="64" borderId="0" xfId="2867" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5812,9 +5815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="64" borderId="0" xfId="2867" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9121,62 +9121,62 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
       <sheetData sheetId="39" refreshError="1"/>
       <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9995,12 +9995,12 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10084,11 +10084,11 @@
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -10116,11 +10116,11 @@
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -10208,11 +10208,11 @@
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -10238,11 +10238,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -10298,11 +10298,11 @@
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -10328,11 +10328,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -10420,11 +10420,11 @@
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="5"/>
@@ -10452,11 +10452,11 @@
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="5"/>
@@ -12414,7 +12414,7 @@
   <dimension ref="A4:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12430,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -12531,8 +12531,8 @@
       <c r="AD9" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE9" s="30" t="s">
-        <v>473</v>
+      <c r="AE9" s="27" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D10" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A10)/1000*$C$5</f>
@@ -12660,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A11)/1000*$C$5</f>
@@ -12780,7 +12780,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A12)/1000*$C$5</f>
@@ -12900,7 +12900,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A13)/1000*$C$5</f>
@@ -13118,8 +13118,8 @@
       <c r="AD16" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE16" s="30" t="s">
-        <v>473</v>
+      <c r="AE16" s="27" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D17" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A17)/1000*(1-$C$5)</f>
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A18)/1000*(1-$C$5)</f>
@@ -13367,7 +13367,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A19)/1000*(1-$C$5)</f>
@@ -13487,7 +13487,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A20)/1000*(1-$C$5)</f>
@@ -13692,8 +13692,8 @@
       <c r="AD23" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE23" s="30" t="s">
-        <v>473</v>
+      <c r="AE23" s="27" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D24" s="26" cm="1">
         <f t="array" ref="D24">IFERROR(SUMPRODUCT((Table1[Group]=A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D10+D17)*1000))),0)</f>
@@ -13821,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D25" s="26" cm="1">
         <f t="array" ref="D25">IFERROR(SUMPRODUCT((Table1[Group]=A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D11+D18)*1000))),0)</f>
@@ -13941,7 +13941,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D26" s="26" cm="1">
         <f t="array" ref="D26">IFERROR(SUMPRODUCT((Table1[Group]=A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D12+D19)*1000))),0)</f>
@@ -14061,7 +14061,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D27" s="26" cm="1">
         <f t="array" ref="D27">IFERROR(SUMPRODUCT((Table1[Group]=A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D13+D20)*1000))),0)</f>
@@ -14296,8 +14296,8 @@
       <c r="AD30" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE30" s="30" t="s">
-        <v>473</v>
+      <c r="AE30" s="27" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D31" s="26">
         <f>D24</f>
@@ -14425,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D32" s="26">
         <f t="shared" ref="D32:S34" si="4">D25</f>
@@ -14545,7 +14545,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D33" s="26">
         <f t="shared" si="4"/>
@@ -14665,7 +14665,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D34" s="26">
         <f t="shared" si="4"/>
@@ -14870,8 +14870,8 @@
       <c r="AD37" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE37" s="30" t="s">
-        <v>473</v>
+      <c r="AE37" s="27" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D38" s="26">
         <f>D24*$A$5</f>
@@ -14936,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D39" s="26">
         <f>D25*$A$5</f>
@@ -15050,7 +15050,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D40" s="26">
         <f>D26*$A$5</f>
@@ -15167,7 +15167,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D41" s="26">
         <f>D27*$A$5</f>
@@ -15380,8 +15380,8 @@
       <c r="AD44" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE44" s="30" t="s">
-        <v>473</v>
+      <c r="AE44" s="27" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D45" s="26">
         <f>D31*$A$5</f>
@@ -15446,7 +15446,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D46" s="26">
         <f>D32*$A$5</f>
@@ -15560,7 +15560,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D47" s="26">
         <f>D33*$A$5</f>
@@ -15677,7 +15677,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D48" s="26">
         <f>D34*$A$5</f>
@@ -16019,8 +16019,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AN371"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687A8DA-E00B-45DD-9275-892A67579709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70880C14-3562-4981-9FB1-E96CFE3C2647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="477">
   <si>
     <t>TechName</t>
   </si>
@@ -1546,6 +1546,15 @@
   </si>
   <si>
     <t>FT-SRVHET_3</t>
+  </si>
+  <si>
+    <t>Comm-Out</t>
+  </si>
+  <si>
+    <t>RSDHET</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
   </si>
 </sst>
 </file>
@@ -12411,21 +12420,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5009F66-579B-4F74-B783-938791DD3FCC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A4:AE75"/>
+  <dimension ref="A4:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C48"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="30" width="10.7109375" customWidth="1"/>
-    <col min="31" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28" customWidth="1"/>
+    <col min="5" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:31" ht="39" thickBot="1">
+    <row r="4" spans="1:32" ht="39" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -12433,130 +12442,133 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" s="22">
         <v>0.03</v>
       </c>
       <c r="C5" s="22">
         <v>0.6</v>
       </c>
+      <c r="D5" s="22"/>
     </row>
-    <row r="8" spans="1:31" ht="15">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:32" ht="15">
+      <c r="D8" s="23" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1">
+    <row r="9" spans="1:32" ht="15.75" thickBot="1">
       <c r="C9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="L9" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="M9" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="N9" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="P9" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="Q9" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="R9" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="S9" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="W9" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="X9" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="Y9" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Z9" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="AA9" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AB9" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AC9" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AD9" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AE9" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE9" s="27" t="s">
+      <c r="AF9" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A10)/1000*$C$5</f>
         <v>19.132728000000004</v>
       </c>
-      <c r="E10" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>0</v>
-      </c>
       <c r="F10" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>12.594144</v>
+        <v>0</v>
       </c>
       <c r="G10" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>0</v>
+        <v>12.594144</v>
       </c>
       <c r="H10" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A10)/1000*$C$5</f>
@@ -12582,7 +12594,7 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A10)/1000*$C$5</f>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A10)/1000*$C$5</f>
         <v>0</v>
       </c>
@@ -12600,31 +12612,31 @@
       </c>
       <c r="R10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>2.7547260000000002</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>0</v>
+        <v>2.7547260000000002</v>
       </c>
       <c r="T10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>1.402428</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>0</v>
+        <v>1.402428</v>
       </c>
       <c r="V10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>0.83192399999999989</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>1.549506</v>
+        <v>0.83192399999999989</v>
       </c>
       <c r="X10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A10)/1000*$C$5</f>
-        <v>0</v>
+        <v>1.549506</v>
       </c>
       <c r="Y10">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A10)/1000*$C$5</f>
@@ -12650,374 +12662,387 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A10)/1000*$C$5</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="26">
-        <f>D10</f>
+      <c r="AE10">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A10)/1000*$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="26">
+        <f>E10</f>
         <v>19.132728000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A11)/1000*$C$5</f>
         <v>14.431685999999996</v>
       </c>
-      <c r="E11" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0</v>
-      </c>
       <c r="F11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>1.6856340000000001</v>
+        <v>0</v>
       </c>
       <c r="G11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>1.6015560000000002</v>
+        <v>1.6856340000000001</v>
       </c>
       <c r="H11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.78573599999999988</v>
+        <v>1.6015560000000002</v>
       </c>
       <c r="I11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$I$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.44572799999999996</v>
+        <v>0.78573599999999988</v>
       </c>
       <c r="J11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$J$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.24961799999999995</v>
+        <v>0.44572799999999996</v>
       </c>
       <c r="K11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$K$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.96936</v>
+        <v>0.24961799999999995</v>
       </c>
       <c r="L11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$L$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>1.10118</v>
+        <v>0.96936</v>
       </c>
       <c r="M11" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A11)/1000*$C$5</f>
+        <v>1.10118</v>
+      </c>
+      <c r="N11" s="26">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A11)/1000*$C$5</f>
         <v>0.44381999999999999</v>
-      </c>
-      <c r="N11">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.303282</v>
       </c>
       <c r="O11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$O$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.77135999999999993</v>
+        <v>0.303282</v>
       </c>
       <c r="P11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$P$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.70641599999999993</v>
+        <v>0.77135999999999993</v>
       </c>
       <c r="Q11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Q$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.57931200000000005</v>
+        <v>0.70641599999999993</v>
       </c>
       <c r="R11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>1.0060379999999998</v>
+        <v>0.57931200000000005</v>
       </c>
       <c r="S11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0</v>
+        <v>1.0060379999999998</v>
       </c>
       <c r="T11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>3.1949999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.69735599999999998</v>
+        <v>3.1949999999999999E-2</v>
       </c>
       <c r="V11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.19029599999999997</v>
+        <v>0.69735599999999998</v>
       </c>
       <c r="W11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.19239599999999996</v>
+        <v>0.19029599999999997</v>
       </c>
       <c r="X11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.12723000000000001</v>
+        <v>0.19239599999999996</v>
       </c>
       <c r="Y11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.35235</v>
+        <v>0.12723000000000001</v>
       </c>
       <c r="Z11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Z$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.58315799999999995</v>
+        <v>0.35235</v>
       </c>
       <c r="AA11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AA$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.46268999999999999</v>
+        <v>0.58315799999999995</v>
       </c>
       <c r="AB11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AB$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.30500999999999995</v>
+        <v>0.46268999999999999</v>
       </c>
       <c r="AC11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AC$9,Table1[Group],A11)/1000*$C$5</f>
-        <v>0.69593399999999994</v>
+        <v>0.30500999999999995</v>
       </c>
       <c r="AD11">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A11)/1000*$C$5</f>
+        <v>0.69593399999999994</v>
+      </c>
+      <c r="AE11">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A11)/1000*$C$5</f>
         <v>0.14427599999999999</v>
       </c>
-      <c r="AE11" s="26">
-        <f t="shared" ref="AE11:AE13" si="0">D11</f>
+      <c r="AF11" s="26">
+        <f t="shared" ref="AF11:AF13" si="0">E11</f>
         <v>14.431685999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A12)/1000*$C$5</f>
         <v>6.1748459999999978</v>
       </c>
-      <c r="E12" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.33651599999999998</v>
-      </c>
       <c r="F12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.46932599999999997</v>
+        <v>0.33651599999999998</v>
       </c>
       <c r="G12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.45262800000000003</v>
+        <v>0.46932599999999997</v>
       </c>
       <c r="H12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>8.6255999999999999E-2</v>
+        <v>0.45262800000000003</v>
       </c>
       <c r="I12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$I$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>2.4971999999999998E-2</v>
+        <v>8.6255999999999999E-2</v>
       </c>
       <c r="J12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$J$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>4.827E-2</v>
+        <v>2.4971999999999998E-2</v>
       </c>
       <c r="K12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$K$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>3.8291999999999993E-2</v>
+        <v>4.827E-2</v>
       </c>
       <c r="L12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$L$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.8579819999999998</v>
+        <v>3.8291999999999993E-2</v>
       </c>
       <c r="M12" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A12)/1000*$C$5</f>
+        <v>0.8579819999999998</v>
+      </c>
+      <c r="N12" s="26">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A12)/1000*$C$5</f>
         <v>0.124866</v>
-      </c>
-      <c r="N12">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0</v>
       </c>
       <c r="O12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$O$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.15550800000000001</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$P$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.40150199999999997</v>
+        <v>0.15550800000000001</v>
       </c>
       <c r="Q12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Q$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>7.0691999999999991E-2</v>
+        <v>0.40150199999999997</v>
       </c>
       <c r="R12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.66862799999999989</v>
+        <v>7.0691999999999991E-2</v>
       </c>
       <c r="S12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.54047400000000001</v>
+        <v>0.66862799999999989</v>
       </c>
       <c r="T12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.31374000000000007</v>
+        <v>0.54047400000000001</v>
       </c>
       <c r="U12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.15889800000000001</v>
+        <v>0.31374000000000007</v>
       </c>
       <c r="V12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.18608399999999997</v>
+        <v>0.15889800000000001</v>
       </c>
       <c r="W12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.38371799999999995</v>
+        <v>0.18608399999999997</v>
       </c>
       <c r="X12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>2.3531999999999997E-2</v>
+        <v>0.38371799999999995</v>
       </c>
       <c r="Y12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.29723999999999995</v>
+        <v>2.3531999999999997E-2</v>
       </c>
       <c r="Z12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Z$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>6.0360000000000004E-2</v>
+        <v>0.29723999999999995</v>
       </c>
       <c r="AA12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AA$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>7.2893999999999987E-2</v>
+        <v>6.0360000000000004E-2</v>
       </c>
       <c r="AB12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AB$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>0.12728399999999998</v>
+        <v>7.2893999999999987E-2</v>
       </c>
       <c r="AC12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AC$9,Table1[Group],A12)/1000*$C$5</f>
-        <v>7.4345999999999995E-2</v>
+        <v>0.12728399999999998</v>
       </c>
       <c r="AD12">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A12)/1000*$C$5</f>
+        <v>7.4345999999999995E-2</v>
+      </c>
+      <c r="AE12">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A12)/1000*$C$5</f>
         <v>0.20083800000000002</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AF12" s="26">
         <f t="shared" si="0"/>
         <v>6.1748459999999978</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A13)/1000*$C$5</f>
         <v>1.5217860000000003</v>
       </c>
-      <c r="E13" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>4.6457999999999999E-2</v>
-      </c>
       <c r="F13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>7.5839999999999996E-3</v>
+        <v>4.6457999999999999E-2</v>
       </c>
       <c r="G13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>6.0912000000000015E-2</v>
+        <v>7.5839999999999996E-3</v>
       </c>
       <c r="H13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>3.1301999999999996E-2</v>
+        <v>6.0912000000000015E-2</v>
       </c>
       <c r="I13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$I$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>4.3115999999999988E-2</v>
+        <v>3.1301999999999996E-2</v>
       </c>
       <c r="J13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$J$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>1.4555999999999998E-2</v>
+        <v>4.3115999999999988E-2</v>
       </c>
       <c r="K13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$K$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>5.8817999999999995E-2</v>
+        <v>1.4555999999999998E-2</v>
       </c>
       <c r="L13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$L$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>2.0567999999999999E-2</v>
+        <v>5.8817999999999995E-2</v>
       </c>
       <c r="M13" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A13)/1000*$C$5</f>
+        <v>2.0567999999999999E-2</v>
+      </c>
+      <c r="N13" s="26">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A13)/1000*$C$5</f>
         <v>4.5786E-2</v>
-      </c>
-      <c r="N13">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>2.0531999999999998E-2</v>
       </c>
       <c r="O13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$O$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>7.4741999999999989E-2</v>
+        <v>2.0531999999999998E-2</v>
       </c>
       <c r="P13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$P$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>8.5739999999999997E-2</v>
+        <v>7.4741999999999989E-2</v>
       </c>
       <c r="Q13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Q$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>5.4011999999999998E-2</v>
+        <v>8.5739999999999997E-2</v>
       </c>
       <c r="R13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>0.16747800000000002</v>
+        <v>5.4011999999999998E-2</v>
       </c>
       <c r="S13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>0.10767</v>
+        <v>0.16747800000000002</v>
       </c>
       <c r="T13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>0.13069199999999997</v>
+        <v>0.10767</v>
       </c>
       <c r="U13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>2.6472000000000002E-2</v>
+        <v>0.13069199999999997</v>
       </c>
       <c r="V13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>4.6061999999999992E-2</v>
+        <v>2.6472000000000002E-2</v>
       </c>
       <c r="W13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>7.3133999999999991E-2</v>
+        <v>4.6061999999999992E-2</v>
       </c>
       <c r="X13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>3.3671999999999994E-2</v>
+        <v>7.3133999999999991E-2</v>
       </c>
       <c r="Y13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>6.222599999999999E-2</v>
+        <v>3.3671999999999994E-2</v>
       </c>
       <c r="Z13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Z$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>2.7671999999999995E-2</v>
+        <v>6.222599999999999E-2</v>
       </c>
       <c r="AA13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AA$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>5.8968E-2</v>
+        <v>2.7671999999999995E-2</v>
       </c>
       <c r="AB13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AB$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>2.8799999999999999E-2</v>
+        <v>5.8968E-2</v>
       </c>
       <c r="AC13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AC$9,Table1[Group],A13)/1000*$C$5</f>
-        <v>0.17214000000000002</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="AD13">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A13)/1000*$C$5</f>
+        <v>0.17214000000000002</v>
+      </c>
+      <c r="AE13">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A13)/1000*$C$5</f>
         <v>2.2673999999999996E-2</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AF13" s="26">
         <f t="shared" si="0"/>
         <v>1.5217860000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -13027,123 +13052,126 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:31" ht="15">
-      <c r="C15" s="23" t="s">
+    <row r="15" spans="1:32" ht="15">
+      <c r="D15" s="23" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1">
+    <row r="16" spans="1:32" ht="15.75" thickBot="1">
       <c r="C16" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="G16" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="H16" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="J16" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="K16" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="L16" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="M16" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="N16" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="O16" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="P16" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="Q16" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="R16" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="S16" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="T16" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="U16" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="V16" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="V16" s="24" t="s">
+      <c r="W16" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="W16" s="24" t="s">
+      <c r="X16" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="X16" s="24" t="s">
+      <c r="Y16" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="Y16" s="24" t="s">
+      <c r="Z16" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="Z16" s="24" t="s">
+      <c r="AA16" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="AA16" s="24" t="s">
+      <c r="AB16" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="AB16" s="24" t="s">
+      <c r="AC16" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="AC16" s="24" t="s">
+      <c r="AD16" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AE16" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE16" s="27" t="s">
+      <c r="AF16" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A17)/1000*(1-$C$5)</f>
         <v>12.755152000000002</v>
       </c>
-      <c r="E17" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0</v>
-      </c>
       <c r="F17" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>8.396096</v>
+        <v>0</v>
       </c>
       <c r="G17" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0</v>
+        <v>8.396096</v>
       </c>
       <c r="H17" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A17)/1000*(1-$C$5)</f>
@@ -13169,7 +13197,7 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A17)/1000*(1-$C$5)</f>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A17)/1000*(1-$C$5)</f>
         <v>0</v>
       </c>
@@ -13187,31 +13215,31 @@
       </c>
       <c r="R17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>1.8364840000000002</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0</v>
+        <v>1.8364840000000002</v>
       </c>
       <c r="T17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0.93495200000000001</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0</v>
+        <v>0.93495200000000001</v>
       </c>
       <c r="V17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0.554616</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>1.033004</v>
+        <v>0.554616</v>
       </c>
       <c r="X17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A17)/1000*(1-$C$5)</f>
-        <v>0</v>
+        <v>1.033004</v>
       </c>
       <c r="Y17">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A17)/1000*(1-$C$5)</f>
@@ -13237,487 +13265,502 @@
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A17)/1000*(1-$C$5)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="26">
-        <f>D17</f>
+      <c r="AE17">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A17)/1000*(1-$C$5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="26">
+        <f>E17</f>
         <v>12.755152000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A18)/1000*(1-$C$5)</f>
         <v>9.6211239999999982</v>
       </c>
-      <c r="E18" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0</v>
-      </c>
       <c r="F18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>1.123756</v>
+        <v>0</v>
       </c>
       <c r="G18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>1.0677040000000002</v>
+        <v>1.123756</v>
       </c>
       <c r="H18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.52382399999999996</v>
+        <v>1.0677040000000002</v>
       </c>
       <c r="I18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$I$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.29715200000000003</v>
+        <v>0.52382399999999996</v>
       </c>
       <c r="J18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$J$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.166412</v>
+        <v>0.29715200000000003</v>
       </c>
       <c r="K18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$K$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.64624000000000015</v>
+        <v>0.166412</v>
       </c>
       <c r="L18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$L$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.73412000000000011</v>
+        <v>0.64624000000000015</v>
       </c>
       <c r="M18" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A18)/1000*(1-$C$5)</f>
+        <v>0.73412000000000011</v>
+      </c>
+      <c r="N18" s="26">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A18)/1000*(1-$C$5)</f>
         <v>0.29588000000000003</v>
-      </c>
-      <c r="N18">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.20218800000000001</v>
       </c>
       <c r="O18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$O$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.51423999999999992</v>
+        <v>0.20218800000000001</v>
       </c>
       <c r="P18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$P$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.47094400000000003</v>
+        <v>0.51423999999999992</v>
       </c>
       <c r="Q18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Q$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.38620800000000005</v>
+        <v>0.47094400000000003</v>
       </c>
       <c r="R18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.67069199999999995</v>
+        <v>0.38620800000000005</v>
       </c>
       <c r="S18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0</v>
+        <v>0.67069199999999995</v>
       </c>
       <c r="T18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.46490400000000004</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="V18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.12686399999999998</v>
+        <v>0.46490400000000004</v>
       </c>
       <c r="W18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.12826399999999999</v>
+        <v>0.12686399999999998</v>
       </c>
       <c r="X18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>8.4820000000000007E-2</v>
+        <v>0.12826399999999999</v>
       </c>
       <c r="Y18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.23490000000000003</v>
+        <v>8.4820000000000007E-2</v>
       </c>
       <c r="Z18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Z$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.38877200000000001</v>
+        <v>0.23490000000000003</v>
       </c>
       <c r="AA18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AA$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.30846000000000001</v>
+        <v>0.38877200000000001</v>
       </c>
       <c r="AB18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AB$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.20333999999999999</v>
+        <v>0.30846000000000001</v>
       </c>
       <c r="AC18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AC$9,Table1[Group],A18)/1000*(1-$C$5)</f>
-        <v>0.46395599999999998</v>
+        <v>0.20333999999999999</v>
       </c>
       <c r="AD18">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A18)/1000*(1-$C$5)</f>
+        <v>0.46395599999999998</v>
+      </c>
+      <c r="AE18">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A18)/1000*(1-$C$5)</f>
         <v>9.6183999999999992E-2</v>
       </c>
-      <c r="AE18" s="26">
-        <f t="shared" ref="AE18:AE20" si="1">D18</f>
+      <c r="AF18" s="26">
+        <f t="shared" ref="AF18:AF20" si="1">E18</f>
         <v>9.6211239999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A19)/1000*(1-$C$5)</f>
         <v>4.1165639999999994</v>
       </c>
-      <c r="E19" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.22434400000000002</v>
-      </c>
       <c r="F19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.312884</v>
+        <v>0.22434400000000002</v>
       </c>
       <c r="G19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.30175200000000002</v>
+        <v>0.312884</v>
       </c>
       <c r="H19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>5.7504E-2</v>
+        <v>0.30175200000000002</v>
       </c>
       <c r="I19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$I$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>1.6648E-2</v>
+        <v>5.7504E-2</v>
       </c>
       <c r="J19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$J$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>3.2180000000000007E-2</v>
+        <v>1.6648E-2</v>
       </c>
       <c r="K19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$K$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>2.5527999999999995E-2</v>
+        <v>3.2180000000000007E-2</v>
       </c>
       <c r="L19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$L$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.57198799999999994</v>
+        <v>2.5527999999999995E-2</v>
       </c>
       <c r="M19" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A19)/1000*(1-$C$5)</f>
+        <v>0.57198799999999994</v>
+      </c>
+      <c r="N19" s="26">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A19)/1000*(1-$C$5)</f>
         <v>8.3244000000000012E-2</v>
-      </c>
-      <c r="N19">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0</v>
       </c>
       <c r="O19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$O$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.10367200000000001</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$P$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.26766799999999996</v>
+        <v>0.10367200000000001</v>
       </c>
       <c r="Q19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Q$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>4.7128000000000003E-2</v>
+        <v>0.26766799999999996</v>
       </c>
       <c r="R19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.44575199999999998</v>
+        <v>4.7128000000000003E-2</v>
       </c>
       <c r="S19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.36031600000000008</v>
+        <v>0.44575199999999998</v>
       </c>
       <c r="T19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.20916000000000007</v>
+        <v>0.36031600000000008</v>
       </c>
       <c r="U19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.10593200000000001</v>
+        <v>0.20916000000000007</v>
       </c>
       <c r="V19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.124056</v>
+        <v>0.10593200000000001</v>
       </c>
       <c r="W19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.25581199999999998</v>
+        <v>0.124056</v>
       </c>
       <c r="X19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>1.5688000000000001E-2</v>
+        <v>0.25581199999999998</v>
       </c>
       <c r="Y19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>0.19816</v>
+        <v>1.5688000000000001E-2</v>
       </c>
       <c r="Z19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Z$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>4.0240000000000005E-2</v>
+        <v>0.19816</v>
       </c>
       <c r="AA19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AA$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>4.8596E-2</v>
+        <v>4.0240000000000005E-2</v>
       </c>
       <c r="AB19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AB$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>8.4856000000000001E-2</v>
+        <v>4.8596E-2</v>
       </c>
       <c r="AC19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AC$9,Table1[Group],A19)/1000*(1-$C$5)</f>
-        <v>4.9563999999999997E-2</v>
+        <v>8.4856000000000001E-2</v>
       </c>
       <c r="AD19">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A19)/1000*(1-$C$5)</f>
+        <v>4.9563999999999997E-2</v>
+      </c>
+      <c r="AE19">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A19)/1000*(1-$C$5)</f>
         <v>0.13389200000000001</v>
       </c>
-      <c r="AE19" s="26">
+      <c r="AF19" s="26">
         <f t="shared" si="1"/>
         <v>4.1165639999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Group],A20)/1000*(1-$C$5)</f>
         <v>1.0145240000000004</v>
       </c>
-      <c r="E20" s="26">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$E$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>3.0972E-2</v>
-      </c>
       <c r="F20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$F$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>5.0560000000000006E-3</v>
+        <v>3.0972E-2</v>
       </c>
       <c r="G20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$G$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>4.0608000000000012E-2</v>
+        <v>5.0560000000000006E-3</v>
       </c>
       <c r="H20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$H$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>2.0868000000000001E-2</v>
+        <v>4.0608000000000012E-2</v>
       </c>
       <c r="I20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$I$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>2.8743999999999992E-2</v>
+        <v>2.0868000000000001E-2</v>
       </c>
       <c r="J20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$J$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>9.7039999999999991E-3</v>
+        <v>2.8743999999999992E-2</v>
       </c>
       <c r="K20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$K$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>3.9211999999999997E-2</v>
+        <v>9.7039999999999991E-3</v>
       </c>
       <c r="L20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$L$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>1.3712E-2</v>
+        <v>3.9211999999999997E-2</v>
       </c>
       <c r="M20" s="26">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$M$9,Table1[Group],A20)/1000*(1-$C$5)</f>
+        <v>1.3712E-2</v>
+      </c>
+      <c r="N20" s="26">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A20)/1000*(1-$C$5)</f>
         <v>3.0524000000000003E-2</v>
-      </c>
-      <c r="N20">
-        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$N$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>1.3688000000000001E-2</v>
       </c>
       <c r="O20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$O$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>4.9827999999999997E-2</v>
+        <v>1.3688000000000001E-2</v>
       </c>
       <c r="P20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$P$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>5.7160000000000002E-2</v>
+        <v>4.9827999999999997E-2</v>
       </c>
       <c r="Q20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Q$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>3.6008000000000005E-2</v>
+        <v>5.7160000000000002E-2</v>
       </c>
       <c r="R20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$R$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>0.11165200000000003</v>
+        <v>3.6008000000000005E-2</v>
       </c>
       <c r="S20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$S$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>7.1779999999999997E-2</v>
+        <v>0.11165200000000003</v>
       </c>
       <c r="T20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$T$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>8.7127999999999983E-2</v>
+        <v>7.1779999999999997E-2</v>
       </c>
       <c r="U20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$U$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>1.7648000000000004E-2</v>
+        <v>8.7127999999999983E-2</v>
       </c>
       <c r="V20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$V$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>3.0707999999999999E-2</v>
+        <v>1.7648000000000004E-2</v>
       </c>
       <c r="W20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$W$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>4.8755999999999994E-2</v>
+        <v>3.0707999999999999E-2</v>
       </c>
       <c r="X20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$X$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>2.2447999999999999E-2</v>
+        <v>4.8755999999999994E-2</v>
       </c>
       <c r="Y20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Y$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>4.1483999999999993E-2</v>
+        <v>2.2447999999999999E-2</v>
       </c>
       <c r="Z20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$Z$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>1.8447999999999999E-2</v>
+        <v>4.1483999999999993E-2</v>
       </c>
       <c r="AA20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AA$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>3.9312000000000007E-2</v>
+        <v>1.8447999999999999E-2</v>
       </c>
       <c r="AB20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AB$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>1.9200000000000002E-2</v>
+        <v>3.9312000000000007E-2</v>
       </c>
       <c r="AC20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AC$9,Table1[Group],A20)/1000*(1-$C$5)</f>
-        <v>0.11476000000000003</v>
+        <v>1.9200000000000002E-2</v>
       </c>
       <c r="AD20">
         <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AD$9,Table1[Group],A20)/1000*(1-$C$5)</f>
+        <v>0.11476000000000003</v>
+      </c>
+      <c r="AE20">
+        <f>SUMIFS(Table1[SumHD_TJ],Table1[Region],$AE$9,Table1[Group],A20)/1000*(1-$C$5)</f>
         <v>1.5115999999999999E-2</v>
       </c>
-      <c r="AE20" s="26">
+      <c r="AF20" s="26">
         <f t="shared" si="1"/>
         <v>1.0145240000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="1:32" ht="15">
+      <c r="D22" s="23" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1">
+    <row r="23" spans="1:32" ht="15.75" thickBot="1">
       <c r="C23" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="G23" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="H23" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="J23" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="K23" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="L23" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="M23" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="N23" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="O23" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="P23" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="Q23" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="R23" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="S23" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="T23" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="T23" s="24" t="s">
+      <c r="U23" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="V23" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="V23" s="24" t="s">
+      <c r="W23" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="W23" s="24" t="s">
+      <c r="X23" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="X23" s="24" t="s">
+      <c r="Y23" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="Y23" s="24" t="s">
+      <c r="Z23" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="Z23" s="24" t="s">
+      <c r="AA23" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="AA23" s="24" t="s">
+      <c r="AB23" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="AB23" s="24" t="s">
+      <c r="AC23" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="AC23" s="24" t="s">
+      <c r="AD23" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="AD23" s="24" t="s">
+      <c r="AE23" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE23" s="27" t="s">
+      <c r="AF23" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="D24" s="26" cm="1">
-        <f t="array" ref="D24">IFERROR(SUMPRODUCT((Table1[Group]=A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D10+D17)*1000))),0)</f>
+      <c r="D24" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E24" s="26" cm="1">
+        <f t="array" ref="E24">IFERROR(SUMPRODUCT((Table1[Group]=A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E10+E17)*1000))),0)</f>
         <v>3.0407225378419636</v>
-      </c>
-      <c r="E24" s="26" cm="1">
-        <f t="array" ref="E24">IFERROR(SUMPRODUCT((Table1[Region]=E$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E10+E17)*1000))),0)</f>
-        <v>0</v>
       </c>
       <c r="F24" s="26" cm="1">
         <f t="array" ref="F24">IFERROR(SUMPRODUCT((Table1[Region]=F$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((F10+F17)*1000))),0)</f>
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="G24" s="26" cm="1">
         <f t="array" ref="G24">IFERROR(SUMPRODUCT((Table1[Region]=G$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((G10+G17)*1000))),0)</f>
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="H24" s="26" cm="1">
         <f t="array" ref="H24">IFERROR(SUMPRODUCT((Table1[Region]=H$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((H10+H17)*1000))),0)</f>
@@ -13761,31 +13804,31 @@
       </c>
       <c r="R24" s="26" cm="1">
         <f t="array" ref="R24">IFERROR(SUMPRODUCT((Table1[Region]=R$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((R10+R17)*1000))),0)</f>
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="S24" s="26" cm="1">
         <f t="array" ref="S24">IFERROR(SUMPRODUCT((Table1[Region]=S$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((S10+S17)*1000))),0)</f>
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T24" s="26" cm="1">
         <f t="array" ref="T24">IFERROR(SUMPRODUCT((Table1[Region]=T$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((T10+T17)*1000))),0)</f>
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="U24" s="26" cm="1">
         <f t="array" ref="U24">IFERROR(SUMPRODUCT((Table1[Region]=U$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((U10+U17)*1000))),0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="V24" s="26" cm="1">
         <f t="array" ref="V24">IFERROR(SUMPRODUCT((Table1[Region]=V$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((V10+V17)*1000))),0)</f>
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="W24" s="26" cm="1">
         <f t="array" ref="W24">IFERROR(SUMPRODUCT((Table1[Region]=W$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((W10+W17)*1000))),0)</f>
-        <v>2.64</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="X24" s="26" cm="1">
         <f t="array" ref="X24">IFERROR(SUMPRODUCT((Table1[Region]=X$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((X10+X17)*1000))),0)</f>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="Y24" s="26" cm="1">
         <f t="array" ref="Y24">IFERROR(SUMPRODUCT((Table1[Region]=Y$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Y10+Y17)*1000))),0)</f>
@@ -13811,374 +13854,387 @@
         <f t="array" ref="AD24">IFERROR(SUMPRODUCT((Table1[Region]=AD$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AD10+AD17)*1000))),0)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="26">
-        <f>D24</f>
+      <c r="AE24" s="26" cm="1">
+        <f t="array" ref="AE24">IFERROR(SUMPRODUCT((Table1[Region]=AE$23)*(Table1[Group]=$A24)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AE10+AE17)*1000))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="26">
+        <f>E24</f>
         <v>3.0407225378419636</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="D25" s="26" cm="1">
-        <f t="array" ref="D25">IFERROR(SUMPRODUCT((Table1[Group]=A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D11+D18)*1000))),0)</f>
+      <c r="D25" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="26" cm="1">
+        <f t="array" ref="E25">IFERROR(SUMPRODUCT((Table1[Group]=A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E11+E18)*1000))),0)</f>
         <v>3.2309865999024647</v>
-      </c>
-      <c r="E25" s="26" cm="1">
-        <f t="array" ref="E25">IFERROR(SUMPRODUCT((Table1[Region]=E$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E11+E18)*1000))),0)</f>
-        <v>0</v>
       </c>
       <c r="F25" s="26" cm="1">
         <f t="array" ref="F25">IFERROR(SUMPRODUCT((Table1[Region]=F$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((F11+F18)*1000))),0)</f>
-        <v>4.3617632297402631</v>
+        <v>0</v>
       </c>
       <c r="G25" s="26" cm="1">
         <f t="array" ref="G25">IFERROR(SUMPRODUCT((Table1[Region]=G$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((G11+G18)*1000))),0)</f>
-        <v>2.4503708143830121</v>
+        <v>4.3617632297402631</v>
       </c>
       <c r="H25" s="26" cm="1">
         <f t="array" ref="H25">IFERROR(SUMPRODUCT((Table1[Region]=H$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((H11+H18)*1000))),0)</f>
-        <v>2.5445523687345375</v>
+        <v>2.4503708143830121</v>
       </c>
       <c r="I25" s="26" cm="1">
         <f t="array" ref="I25">IFERROR(SUMPRODUCT((Table1[Region]=I$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((I11+I18)*1000))),0)</f>
-        <v>2.5751231692870986</v>
+        <v>2.5445523687345375</v>
       </c>
       <c r="J25" s="26" cm="1">
         <f t="array" ref="J25">IFERROR(SUMPRODUCT((Table1[Region]=J$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((J11+J18)*1000))),0)</f>
-        <v>3.3725810638655869</v>
+        <v>2.5751231692870986</v>
       </c>
       <c r="K25" s="26" cm="1">
         <f t="array" ref="K25">IFERROR(SUMPRODUCT((Table1[Region]=K$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((K11+K18)*1000))),0)</f>
-        <v>2.7560777420153499</v>
+        <v>3.3725810638655869</v>
       </c>
       <c r="L25" s="26" cm="1">
         <f t="array" ref="L25">IFERROR(SUMPRODUCT((Table1[Region]=L$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((L11+L18)*1000))),0)</f>
-        <v>2.6909484008064073</v>
+        <v>2.7560777420153499</v>
       </c>
       <c r="M25" s="26" cm="1">
         <f t="array" ref="M25">IFERROR(SUMPRODUCT((Table1[Region]=M$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((M11+M18)*1000))),0)</f>
-        <v>2.8990957144788427</v>
+        <v>2.6909484008064073</v>
       </c>
       <c r="N25" s="26" cm="1">
         <f t="array" ref="N25">IFERROR(SUMPRODUCT((Table1[Region]=N$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((N11+N18)*1000))),0)</f>
-        <v>2.8066876372485012</v>
+        <v>2.8990957144788427</v>
       </c>
       <c r="O25" s="26" cm="1">
         <f t="array" ref="O25">IFERROR(SUMPRODUCT((Table1[Region]=O$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((O11+O18)*1000))),0)</f>
-        <v>3.2700493932794021</v>
+        <v>2.8066876372485012</v>
       </c>
       <c r="P25" s="26" cm="1">
         <f t="array" ref="P25">IFERROR(SUMPRODUCT((Table1[Region]=P$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((P11+P18)*1000))),0)</f>
-        <v>3.3485069137731882</v>
+        <v>3.2700493932794021</v>
       </c>
       <c r="Q25" s="26" cm="1">
         <f t="array" ref="Q25">IFERROR(SUMPRODUCT((Table1[Region]=Q$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Q11+Q18)*1000))),0)</f>
-        <v>4.3774391001739978</v>
+        <v>3.3485069137731882</v>
       </c>
       <c r="R25" s="26" cm="1">
         <f t="array" ref="R25">IFERROR(SUMPRODUCT((Table1[Region]=R$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((R11+R18)*1000))),0)</f>
-        <v>3.2276063528415433</v>
+        <v>4.3774391001739978</v>
       </c>
       <c r="S25" s="26" cm="1">
         <f t="array" ref="S25">IFERROR(SUMPRODUCT((Table1[Region]=S$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((S11+S18)*1000))),0)</f>
-        <v>0</v>
+        <v>3.2276063528415433</v>
       </c>
       <c r="T25" s="26" cm="1">
         <f t="array" ref="T25">IFERROR(SUMPRODUCT((Table1[Region]=T$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((T11+T18)*1000))),0)</f>
-        <v>1.2500882629107981</v>
+        <v>0</v>
       </c>
       <c r="U25" s="26" cm="1">
         <f t="array" ref="U25">IFERROR(SUMPRODUCT((Table1[Region]=U$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((U11+U18)*1000))),0)</f>
-        <v>4.2940457384750399</v>
+        <v>1.2500882629107981</v>
       </c>
       <c r="V25" s="26" cm="1">
         <f t="array" ref="V25">IFERROR(SUMPRODUCT((Table1[Region]=V$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((V11+V18)*1000))),0)</f>
-        <v>3.0074170765544208</v>
+        <v>4.2940457384750399</v>
       </c>
       <c r="W25" s="26" cm="1">
         <f t="array" ref="W25">IFERROR(SUMPRODUCT((Table1[Region]=W$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((W11+W18)*1000))),0)</f>
-        <v>3.6103879498534273</v>
+        <v>3.0074170765544208</v>
       </c>
       <c r="X25" s="26" cm="1">
         <f t="array" ref="X25">IFERROR(SUMPRODUCT((Table1[Region]=X$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((X11+X18)*1000))),0)</f>
-        <v>3.6</v>
+        <v>3.6103879498534273</v>
       </c>
       <c r="Y25" s="26" cm="1">
         <f t="array" ref="Y25">IFERROR(SUMPRODUCT((Table1[Region]=Y$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Y11+Y18)*1000))),0)</f>
-        <v>2.9590503192848017</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" s="26" cm="1">
         <f t="array" ref="Z25">IFERROR(SUMPRODUCT((Table1[Region]=Z$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Z11+Z18)*1000))),0)</f>
-        <v>3.7756996903069151</v>
+        <v>2.9590503192848017</v>
       </c>
       <c r="AA25" s="26" cm="1">
         <f t="array" ref="AA25">IFERROR(SUMPRODUCT((Table1[Region]=AA$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AA11+AA18)*1000))),0)</f>
-        <v>2.917711210529728</v>
+        <v>3.7756996903069151</v>
       </c>
       <c r="AB25" s="26" cm="1">
         <f t="array" ref="AB25">IFERROR(SUMPRODUCT((Table1[Region]=AB$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AB11+AB18)*1000))),0)</f>
-        <v>2.4883257598111537</v>
+        <v>2.917711210529728</v>
       </c>
       <c r="AC25" s="26" cm="1">
         <f t="array" ref="AC25">IFERROR(SUMPRODUCT((Table1[Region]=AC$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AC11+AC18)*1000))),0)</f>
-        <v>3.2851475570959323</v>
+        <v>2.4883257598111537</v>
       </c>
       <c r="AD25" s="26" cm="1">
         <f t="array" ref="AD25">IFERROR(SUMPRODUCT((Table1[Region]=AD$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AD11+AD18)*1000))),0)</f>
+        <v>3.2851475570959323</v>
+      </c>
+      <c r="AE25" s="26" cm="1">
+        <f t="array" ref="AE25">IFERROR(SUMPRODUCT((Table1[Region]=AE$23)*(Table1[Group]=$A25)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AE11+AE18)*1000))),0)</f>
         <v>3.6058670880811783</v>
       </c>
-      <c r="AE25" s="26">
-        <f t="shared" ref="AE25:AE27" si="2">D25</f>
+      <c r="AF25" s="26">
+        <f t="shared" ref="AF25:AF27" si="2">E25</f>
         <v>3.2309865999024647</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D26" s="26" cm="1">
-        <f t="array" ref="D26">IFERROR(SUMPRODUCT((Table1[Group]=A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D12+D19)*1000))),0)</f>
+      <c r="D26" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="26" cm="1">
+        <f t="array" ref="E26">IFERROR(SUMPRODUCT((Table1[Group]=A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E12+E19)*1000))),0)</f>
         <v>5.675035529631022</v>
-      </c>
-      <c r="E26" s="26" cm="1">
-        <f t="array" ref="E26">IFERROR(SUMPRODUCT((Table1[Region]=E$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E12+E19)*1000))),0)</f>
-        <v>4.0793470741361482</v>
       </c>
       <c r="F26" s="26" cm="1">
         <f t="array" ref="F26">IFERROR(SUMPRODUCT((Table1[Region]=F$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((F12+F19)*1000))),0)</f>
-        <v>6.6593508137201018</v>
+        <v>4.0793470741361482</v>
       </c>
       <c r="G26" s="26" cm="1">
         <f t="array" ref="G26">IFERROR(SUMPRODUCT((Table1[Region]=G$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((G12+G19)*1000))),0)</f>
-        <v>5.9571859010047978</v>
+        <v>6.6593508137201018</v>
       </c>
       <c r="H26" s="26" cm="1">
         <f t="array" ref="H26">IFERROR(SUMPRODUCT((Table1[Region]=H$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((H12+H19)*1000))),0)</f>
-        <v>8.9177191151919875</v>
+        <v>5.9571859010047978</v>
       </c>
       <c r="I26" s="26" cm="1">
         <f t="array" ref="I26">IFERROR(SUMPRODUCT((Table1[Region]=I$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((I12+I19)*1000))),0)</f>
-        <v>5.2124891878904371</v>
+        <v>8.9177191151919875</v>
       </c>
       <c r="J26" s="26" cm="1">
         <f t="array" ref="J26">IFERROR(SUMPRODUCT((Table1[Region]=J$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((J12+J19)*1000))),0)</f>
-        <v>7.2922635177128647</v>
+        <v>5.2124891878904371</v>
       </c>
       <c r="K26" s="26" cm="1">
         <f t="array" ref="K26">IFERROR(SUMPRODUCT((Table1[Region]=K$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((K12+K19)*1000))),0)</f>
-        <v>5.6395863365716092</v>
+        <v>7.2922635177128647</v>
       </c>
       <c r="L26" s="26" cm="1">
         <f t="array" ref="L26">IFERROR(SUMPRODUCT((Table1[Region]=L$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((L12+L19)*1000))),0)</f>
-        <v>5.3160711763183865</v>
+        <v>5.6395863365716092</v>
       </c>
       <c r="M26" s="26" cm="1">
         <f t="array" ref="M26">IFERROR(SUMPRODUCT((Table1[Region]=M$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((M12+M19)*1000))),0)</f>
-        <v>5.7256993897458068</v>
+        <v>5.3160711763183865</v>
       </c>
       <c r="N26" s="26" cm="1">
         <f t="array" ref="N26">IFERROR(SUMPRODUCT((Table1[Region]=N$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((N12+N19)*1000))),0)</f>
-        <v>0</v>
+        <v>5.7256993897458068</v>
       </c>
       <c r="O26" s="26" cm="1">
         <f t="array" ref="O26">IFERROR(SUMPRODUCT((Table1[Region]=O$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((O12+O19)*1000))),0)</f>
-        <v>7.0201994752681536</v>
+        <v>0</v>
       </c>
       <c r="P26" s="26" cm="1">
         <f t="array" ref="P26">IFERROR(SUMPRODUCT((Table1[Region]=P$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((P12+P19)*1000))),0)</f>
-        <v>5.8743219211859472</v>
+        <v>7.0201994752681536</v>
       </c>
       <c r="Q26" s="26" cm="1">
         <f t="array" ref="Q26">IFERROR(SUMPRODUCT((Table1[Region]=Q$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Q12+Q19)*1000))),0)</f>
-        <v>7.9187124427092179</v>
+        <v>5.8743219211859472</v>
       </c>
       <c r="R26" s="26" cm="1">
         <f t="array" ref="R26">IFERROR(SUMPRODUCT((Table1[Region]=R$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((R12+R19)*1000))),0)</f>
-        <v>5.7904222976004593</v>
+        <v>7.9187124427092179</v>
       </c>
       <c r="S26" s="26" cm="1">
         <f t="array" ref="S26">IFERROR(SUMPRODUCT((Table1[Region]=S$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((S12+S19)*1000))),0)</f>
-        <v>3.7254368942816862</v>
+        <v>5.7904222976004593</v>
       </c>
       <c r="T26" s="26" cm="1">
         <f t="array" ref="T26">IFERROR(SUMPRODUCT((Table1[Region]=T$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((T12+T19)*1000))),0)</f>
-        <v>5.6967699368904174</v>
+        <v>3.7254368942816862</v>
       </c>
       <c r="U26" s="26" cm="1">
         <f t="array" ref="U26">IFERROR(SUMPRODUCT((Table1[Region]=U$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((U12+U19)*1000))),0)</f>
-        <v>6.0029456632556739</v>
+        <v>5.6967699368904174</v>
       </c>
       <c r="V26" s="26" cm="1">
         <f t="array" ref="V26">IFERROR(SUMPRODUCT((Table1[Region]=V$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((V12+V19)*1000))),0)</f>
-        <v>7.3234358676726643</v>
+        <v>6.0029456632556739</v>
       </c>
       <c r="W26" s="26" cm="1">
         <f t="array" ref="W26">IFERROR(SUMPRODUCT((Table1[Region]=W$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((W12+W19)*1000))),0)</f>
-        <v>5.6935064813222214</v>
+        <v>7.3234358676726643</v>
       </c>
       <c r="X26" s="26" cm="1">
         <f t="array" ref="X26">IFERROR(SUMPRODUCT((Table1[Region]=X$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((X12+X19)*1000))),0)</f>
-        <v>6.9997118816930151</v>
+        <v>5.6935064813222214</v>
       </c>
       <c r="Y26" s="26" cm="1">
         <f t="array" ref="Y26">IFERROR(SUMPRODUCT((Table1[Region]=Y$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Y12+Y19)*1000))),0)</f>
-        <v>5.5836077916834883</v>
+        <v>6.9997118816930151</v>
       </c>
       <c r="Z26" s="26" cm="1">
         <f t="array" ref="Z26">IFERROR(SUMPRODUCT((Table1[Region]=Z$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Z12+Z19)*1000))),0)</f>
-        <v>6.1848518886679926</v>
+        <v>5.5836077916834883</v>
       </c>
       <c r="AA26" s="26" cm="1">
         <f t="array" ref="AA26">IFERROR(SUMPRODUCT((Table1[Region]=AA$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AA12+AA19)*1000))),0)</f>
-        <v>5.9208650917771024</v>
+        <v>6.1848518886679926</v>
       </c>
       <c r="AB26" s="26" cm="1">
         <f t="array" ref="AB26">IFERROR(SUMPRODUCT((Table1[Region]=AB$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AB12+AB19)*1000))),0)</f>
-        <v>6.2626256245875371</v>
+        <v>5.9208650917771024</v>
       </c>
       <c r="AC26" s="26" cm="1">
         <f t="array" ref="AC26">IFERROR(SUMPRODUCT((Table1[Region]=AC$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AC12+AC19)*1000))),0)</f>
-        <v>6.5033419417319021</v>
+        <v>6.2626256245875371</v>
       </c>
       <c r="AD26" s="26" cm="1">
         <f t="array" ref="AD26">IFERROR(SUMPRODUCT((Table1[Region]=AD$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AD12+AD19)*1000))),0)</f>
+        <v>6.5033419417319021</v>
+      </c>
+      <c r="AE26" s="26" cm="1">
+        <f t="array" ref="AE26">IFERROR(SUMPRODUCT((Table1[Region]=AE$23)*(Table1[Group]=$A26)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AE12+AE19)*1000))),0)</f>
         <v>5.0329253428136109</v>
       </c>
-      <c r="AE26" s="26">
+      <c r="AF26" s="26">
         <f t="shared" si="2"/>
         <v>5.675035529631022</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="D27" s="26" cm="1">
-        <f t="array" ref="D27">IFERROR(SUMPRODUCT((Table1[Group]=A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((D13+D20)*1000))),0)</f>
+      <c r="D27" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E27" s="26" cm="1">
+        <f t="array" ref="E27">IFERROR(SUMPRODUCT((Table1[Group]=A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E13+E20)*1000))),0)</f>
         <v>12.177971699043084</v>
-      </c>
-      <c r="E27" s="26" cm="1">
-        <f t="array" ref="E27">IFERROR(SUMPRODUCT((Table1[Region]=E$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((E13+E20)*1000))),0)</f>
-        <v>10.637242670799434</v>
       </c>
       <c r="F27" s="26" cm="1">
         <f t="array" ref="F27">IFERROR(SUMPRODUCT((Table1[Region]=F$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((F13+F20)*1000))),0)</f>
-        <v>20.5</v>
+        <v>10.637242670799434</v>
       </c>
       <c r="G27" s="26" cm="1">
         <f t="array" ref="G27">IFERROR(SUMPRODUCT((Table1[Region]=G$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((G13+G20)*1000))),0)</f>
-        <v>13.795917060677695</v>
+        <v>20.5</v>
       </c>
       <c r="H27" s="26" cm="1">
         <f t="array" ref="H27">IFERROR(SUMPRODUCT((Table1[Region]=H$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((H13+H20)*1000))),0)</f>
-        <v>12.430990990990992</v>
+        <v>13.795917060677695</v>
       </c>
       <c r="I27" s="26" cm="1">
         <f t="array" ref="I27">IFERROR(SUMPRODUCT((Table1[Region]=I$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((I13+I20)*1000))),0)</f>
-        <v>12.07431533537434</v>
+        <v>12.430990990990992</v>
       </c>
       <c r="J27" s="26" cm="1">
         <f t="array" ref="J27">IFERROR(SUMPRODUCT((Table1[Region]=J$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((J13+J20)*1000))),0)</f>
-        <v>15.338120362737019</v>
+        <v>12.07431533537434</v>
       </c>
       <c r="K27" s="26" cm="1">
         <f t="array" ref="K27">IFERROR(SUMPRODUCT((Table1[Region]=K$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((K13+K20)*1000))),0)</f>
-        <v>12.942052432928698</v>
+        <v>15.338120362737019</v>
       </c>
       <c r="L27" s="26" cm="1">
         <f t="array" ref="L27">IFERROR(SUMPRODUCT((Table1[Region]=L$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((L13+L20)*1000))),0)</f>
-        <v>14.145046674445741</v>
+        <v>12.942052432928698</v>
       </c>
       <c r="M27" s="26" cm="1">
         <f t="array" ref="M27">IFERROR(SUMPRODUCT((Table1[Region]=M$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((M13+M20)*1000))),0)</f>
-        <v>11.669644869610797</v>
+        <v>14.145046674445741</v>
       </c>
       <c r="N27" s="26" cm="1">
         <f t="array" ref="N27">IFERROR(SUMPRODUCT((Table1[Region]=N$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((N13+N20)*1000))),0)</f>
-        <v>11.782901811805962</v>
+        <v>11.669644869610797</v>
       </c>
       <c r="O27" s="26" cm="1">
         <f t="array" ref="O27">IFERROR(SUMPRODUCT((Table1[Region]=O$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((O13+O20)*1000))),0)</f>
-        <v>11.749842658746088</v>
+        <v>11.782901811805962</v>
       </c>
       <c r="P27" s="26" cm="1">
         <f t="array" ref="P27">IFERROR(SUMPRODUCT((Table1[Region]=P$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((P13+P20)*1000))),0)</f>
-        <v>14.2956011196641</v>
+        <v>11.749842658746088</v>
       </c>
       <c r="Q27" s="26" cm="1">
         <f t="array" ref="Q27">IFERROR(SUMPRODUCT((Table1[Region]=Q$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Q13+Q20)*1000))),0)</f>
-        <v>13.219953343701402</v>
+        <v>14.2956011196641</v>
       </c>
       <c r="R27" s="26" cm="1">
         <f t="array" ref="R27">IFERROR(SUMPRODUCT((Table1[Region]=R$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((R13+R20)*1000))),0)</f>
-        <v>9.9402787231755809</v>
+        <v>13.219953343701402</v>
       </c>
       <c r="S27" s="26" cm="1">
         <f t="array" ref="S27">IFERROR(SUMPRODUCT((Table1[Region]=S$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((S13+S20)*1000))),0)</f>
-        <v>11.532456951797158</v>
+        <v>9.9402787231755809</v>
       </c>
       <c r="T27" s="26" cm="1">
         <f t="array" ref="T27">IFERROR(SUMPRODUCT((Table1[Region]=T$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((T13+T20)*1000))),0)</f>
-        <v>12.009080892480032</v>
+        <v>11.532456951797158</v>
       </c>
       <c r="U27" s="26" cm="1">
         <f t="array" ref="U27">IFERROR(SUMPRODUCT((Table1[Region]=U$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((U13+U20)*1000))),0)</f>
-        <v>12.407495466908431</v>
+        <v>12.009080892480032</v>
       </c>
       <c r="V27" s="26" cm="1">
         <f t="array" ref="V27">IFERROR(SUMPRODUCT((Table1[Region]=V$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((V13+V20)*1000))),0)</f>
-        <v>11.674048456428292</v>
+        <v>12.407495466908431</v>
       </c>
       <c r="W27" s="26" cm="1">
         <f t="array" ref="W27">IFERROR(SUMPRODUCT((Table1[Region]=W$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((W13+W20)*1000))),0)</f>
-        <v>12.172261875461484</v>
+        <v>11.674048456428292</v>
       </c>
       <c r="X27" s="26" cm="1">
         <f t="array" ref="X27">IFERROR(SUMPRODUCT((Table1[Region]=X$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((X13+X20)*1000))),0)</f>
-        <v>10.700547042052746</v>
+        <v>12.172261875461484</v>
       </c>
       <c r="Y27" s="26" cm="1">
         <f t="array" ref="Y27">IFERROR(SUMPRODUCT((Table1[Region]=Y$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Y13+Y20)*1000))),0)</f>
-        <v>13.994888631761647</v>
+        <v>10.700547042052746</v>
       </c>
       <c r="Z27" s="26" cm="1">
         <f t="array" ref="Z27">IFERROR(SUMPRODUCT((Table1[Region]=Z$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((Z13+Z20)*1000))),0)</f>
-        <v>11.458100607111882</v>
+        <v>13.994888631761647</v>
       </c>
       <c r="AA27" s="26" cm="1">
         <f t="array" ref="AA27">IFERROR(SUMPRODUCT((Table1[Region]=AA$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AA13+AA20)*1000))),0)</f>
-        <v>12.163822751322751</v>
+        <v>11.458100607111882</v>
       </c>
       <c r="AB27" s="26" cm="1">
         <f t="array" ref="AB27">IFERROR(SUMPRODUCT((Table1[Region]=AB$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AB13+AB20)*1000))),0)</f>
-        <v>12.729979166666666</v>
+        <v>12.163822751322751</v>
       </c>
       <c r="AC27" s="26" cm="1">
         <f t="array" ref="AC27">IFERROR(SUMPRODUCT((Table1[Region]=AC$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AC13+AC20)*1000))),0)</f>
-        <v>12.328911118856743</v>
+        <v>12.729979166666666</v>
       </c>
       <c r="AD27" s="26" cm="1">
         <f t="array" ref="AD27">IFERROR(SUMPRODUCT((Table1[Region]=AD$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AD13+AD20)*1000))),0)</f>
+        <v>12.328911118856743</v>
+      </c>
+      <c r="AE27" s="26" cm="1">
+        <f t="array" ref="AE27">IFERROR(SUMPRODUCT((Table1[Region]=AE$23)*(Table1[Group]=$A27)*(Table1[Avg_DCCH_50percDH])*(Table1[SumHD_TJ]/((AE13+AE20)*1000))),0)</f>
         <v>12.18051336332363</v>
       </c>
-      <c r="AE27" s="26">
+      <c r="AF27" s="26">
         <f t="shared" si="2"/>
         <v>12.177971699043084</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -14205,124 +14261,127 @@
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
     </row>
-    <row r="29" spans="1:31" ht="15">
-      <c r="C29" s="23" t="s">
+    <row r="29" spans="1:32" ht="15">
+      <c r="D29" s="23" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1">
+    <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="C30" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="F30" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="H30" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="I30" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="J30" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="K30" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="L30" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="M30" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="N30" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="O30" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="P30" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="P30" s="24" t="s">
+      <c r="Q30" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="R30" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="R30" s="24" t="s">
+      <c r="S30" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="S30" s="24" t="s">
+      <c r="T30" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="T30" s="24" t="s">
+      <c r="U30" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="U30" s="24" t="s">
+      <c r="V30" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="V30" s="24" t="s">
+      <c r="W30" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="W30" s="24" t="s">
+      <c r="X30" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="X30" s="24" t="s">
+      <c r="Y30" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="Y30" s="24" t="s">
+      <c r="Z30" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="Z30" s="24" t="s">
+      <c r="AA30" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="AA30" s="24" t="s">
+      <c r="AB30" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="AB30" s="24" t="s">
+      <c r="AC30" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="AC30" s="24" t="s">
+      <c r="AD30" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="AD30" s="24" t="s">
+      <c r="AE30" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE30" s="27" t="s">
+      <c r="AF30" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>0</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="D31" s="26">
-        <f>D24</f>
+      <c r="D31" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E31" s="26">
+        <f>E24</f>
         <v>3.0407225378419636</v>
       </c>
-      <c r="E31" s="26">
-        <f t="shared" ref="E31:AD34" si="3">E24</f>
-        <v>0</v>
-      </c>
       <c r="F31" s="26">
+        <f t="shared" ref="F31:AE34" si="3">F24</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="26">
         <f t="shared" si="3"/>
         <v>3.13</v>
       </c>
-      <c r="G31" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H31" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14365,31 +14424,31 @@
       </c>
       <c r="R31" s="26">
         <f t="shared" si="3"/>
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="S31" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T31" s="26">
         <f t="shared" si="3"/>
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="U31" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="V31" s="26">
         <f t="shared" si="3"/>
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="W31" s="26">
         <f t="shared" si="3"/>
-        <v>2.64</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="X31" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="Y31" s="26">
         <f t="shared" si="3"/>
@@ -14416,481 +14475,499 @@
         <v>0</v>
       </c>
       <c r="AE31" s="26">
-        <f>D31</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="26">
+        <f>E31</f>
         <v>3.0407225378419636</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="D32" s="26">
-        <f t="shared" ref="D32:S34" si="4">D25</f>
+      <c r="D32" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" ref="E32:T34" si="4">E25</f>
         <v>3.2309865999024647</v>
-      </c>
-      <c r="E32" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="F32" s="26">
         <f t="shared" si="4"/>
-        <v>4.3617632297402631</v>
+        <v>0</v>
       </c>
       <c r="G32" s="26">
         <f t="shared" si="4"/>
-        <v>2.4503708143830121</v>
+        <v>4.3617632297402631</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="4"/>
-        <v>2.5445523687345375</v>
+        <v>2.4503708143830121</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="4"/>
-        <v>2.5751231692870986</v>
+        <v>2.5445523687345375</v>
       </c>
       <c r="J32" s="26">
         <f t="shared" si="4"/>
-        <v>3.3725810638655869</v>
+        <v>2.5751231692870986</v>
       </c>
       <c r="K32" s="26">
         <f t="shared" si="4"/>
-        <v>2.7560777420153499</v>
+        <v>3.3725810638655869</v>
       </c>
       <c r="L32" s="26">
         <f t="shared" si="4"/>
-        <v>2.6909484008064073</v>
+        <v>2.7560777420153499</v>
       </c>
       <c r="M32" s="26">
         <f t="shared" si="4"/>
-        <v>2.8990957144788427</v>
+        <v>2.6909484008064073</v>
       </c>
       <c r="N32" s="26">
         <f t="shared" si="4"/>
-        <v>2.8066876372485012</v>
+        <v>2.8990957144788427</v>
       </c>
       <c r="O32" s="26">
         <f t="shared" si="4"/>
-        <v>3.2700493932794021</v>
+        <v>2.8066876372485012</v>
       </c>
       <c r="P32" s="26">
         <f t="shared" si="4"/>
-        <v>3.3485069137731882</v>
+        <v>3.2700493932794021</v>
       </c>
       <c r="Q32" s="26">
         <f t="shared" si="4"/>
-        <v>4.3774391001739978</v>
+        <v>3.3485069137731882</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="4"/>
-        <v>3.2276063528415433</v>
+        <v>4.3774391001739978</v>
       </c>
       <c r="S32" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2276063528415433</v>
       </c>
       <c r="T32" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="26">
         <f t="shared" si="3"/>
         <v>1.2500882629107981</v>
       </c>
-      <c r="U32" s="26">
+      <c r="V32" s="26">
         <f t="shared" si="3"/>
         <v>4.2940457384750399</v>
       </c>
-      <c r="V32" s="26">
+      <c r="W32" s="26">
         <f t="shared" si="3"/>
         <v>3.0074170765544208</v>
       </c>
-      <c r="W32" s="26">
+      <c r="X32" s="26">
         <f t="shared" si="3"/>
         <v>3.6103879498534273</v>
       </c>
-      <c r="X32" s="26">
+      <c r="Y32" s="26">
         <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
-      <c r="Y32" s="26">
+      <c r="Z32" s="26">
         <f t="shared" si="3"/>
         <v>2.9590503192848017</v>
       </c>
-      <c r="Z32" s="26">
+      <c r="AA32" s="26">
         <f t="shared" si="3"/>
         <v>3.7756996903069151</v>
       </c>
-      <c r="AA32" s="26">
+      <c r="AB32" s="26">
         <f t="shared" si="3"/>
         <v>2.917711210529728</v>
       </c>
-      <c r="AB32" s="26">
+      <c r="AC32" s="26">
         <f t="shared" si="3"/>
         <v>2.4883257598111537</v>
       </c>
-      <c r="AC32" s="26">
+      <c r="AD32" s="26">
         <f t="shared" si="3"/>
         <v>3.2851475570959323</v>
       </c>
-      <c r="AD32" s="26">
+      <c r="AE32" s="26">
         <f t="shared" si="3"/>
         <v>3.6058670880811783</v>
       </c>
-      <c r="AE32" s="26">
-        <f t="shared" ref="AE32:AE34" si="5">D32</f>
+      <c r="AF32" s="26">
+        <f t="shared" ref="AF32:AF34" si="5">E32</f>
         <v>3.2309865999024647</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E33" s="26">
         <f t="shared" si="4"/>
         <v>5.675035529631022</v>
       </c>
-      <c r="E33" s="26">
+      <c r="F33" s="26">
         <f t="shared" si="3"/>
         <v>4.0793470741361482</v>
       </c>
-      <c r="F33" s="26">
+      <c r="G33" s="26">
         <f t="shared" si="3"/>
         <v>6.6593508137201018</v>
       </c>
-      <c r="G33" s="26">
+      <c r="H33" s="26">
         <f t="shared" si="3"/>
         <v>5.9571859010047978</v>
       </c>
-      <c r="H33" s="26">
+      <c r="I33" s="26">
         <f t="shared" si="3"/>
         <v>8.9177191151919875</v>
       </c>
-      <c r="I33" s="26">
+      <c r="J33" s="26">
         <f t="shared" si="3"/>
         <v>5.2124891878904371</v>
       </c>
-      <c r="J33" s="26">
+      <c r="K33" s="26">
         <f t="shared" si="3"/>
         <v>7.2922635177128647</v>
       </c>
-      <c r="K33" s="26">
+      <c r="L33" s="26">
         <f t="shared" si="3"/>
         <v>5.6395863365716092</v>
       </c>
-      <c r="L33" s="26">
+      <c r="M33" s="26">
         <f t="shared" si="3"/>
         <v>5.3160711763183865</v>
       </c>
-      <c r="M33" s="26">
+      <c r="N33" s="26">
         <f t="shared" si="3"/>
         <v>5.7256993897458068</v>
       </c>
-      <c r="N33" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="O33" s="26">
         <f t="shared" si="3"/>
-        <v>7.0201994752681536</v>
+        <v>0</v>
       </c>
       <c r="P33" s="26">
         <f t="shared" si="3"/>
-        <v>5.8743219211859472</v>
+        <v>7.0201994752681536</v>
       </c>
       <c r="Q33" s="26">
         <f t="shared" si="3"/>
-        <v>7.9187124427092179</v>
+        <v>5.8743219211859472</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="3"/>
-        <v>5.7904222976004593</v>
+        <v>7.9187124427092179</v>
       </c>
       <c r="S33" s="26">
         <f t="shared" si="3"/>
-        <v>3.7254368942816862</v>
+        <v>5.7904222976004593</v>
       </c>
       <c r="T33" s="26">
         <f t="shared" si="3"/>
-        <v>5.6967699368904174</v>
+        <v>3.7254368942816862</v>
       </c>
       <c r="U33" s="26">
         <f t="shared" si="3"/>
-        <v>6.0029456632556739</v>
+        <v>5.6967699368904174</v>
       </c>
       <c r="V33" s="26">
         <f t="shared" si="3"/>
-        <v>7.3234358676726643</v>
+        <v>6.0029456632556739</v>
       </c>
       <c r="W33" s="26">
         <f t="shared" si="3"/>
-        <v>5.6935064813222214</v>
+        <v>7.3234358676726643</v>
       </c>
       <c r="X33" s="26">
         <f t="shared" si="3"/>
-        <v>6.9997118816930151</v>
+        <v>5.6935064813222214</v>
       </c>
       <c r="Y33" s="26">
         <f t="shared" si="3"/>
-        <v>5.5836077916834883</v>
+        <v>6.9997118816930151</v>
       </c>
       <c r="Z33" s="26">
         <f t="shared" si="3"/>
-        <v>6.1848518886679926</v>
+        <v>5.5836077916834883</v>
       </c>
       <c r="AA33" s="26">
         <f t="shared" si="3"/>
-        <v>5.9208650917771024</v>
+        <v>6.1848518886679926</v>
       </c>
       <c r="AB33" s="26">
         <f t="shared" si="3"/>
-        <v>6.2626256245875371</v>
+        <v>5.9208650917771024</v>
       </c>
       <c r="AC33" s="26">
         <f t="shared" si="3"/>
-        <v>6.5033419417319021</v>
+        <v>6.2626256245875371</v>
       </c>
       <c r="AD33" s="26">
         <f t="shared" si="3"/>
+        <v>6.5033419417319021</v>
+      </c>
+      <c r="AE33" s="26">
+        <f t="shared" si="3"/>
         <v>5.0329253428136109</v>
       </c>
-      <c r="AE33" s="26">
+      <c r="AF33" s="26">
         <f t="shared" si="5"/>
         <v>5.675035529631022</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34" s="26">
         <f t="shared" si="4"/>
         <v>12.177971699043084</v>
       </c>
-      <c r="E34" s="26">
+      <c r="F34" s="26">
         <f t="shared" si="3"/>
         <v>10.637242670799434</v>
       </c>
-      <c r="F34" s="26">
+      <c r="G34" s="26">
         <f t="shared" si="3"/>
         <v>20.5</v>
       </c>
-      <c r="G34" s="26">
+      <c r="H34" s="26">
         <f t="shared" si="3"/>
         <v>13.795917060677695</v>
       </c>
-      <c r="H34" s="26">
+      <c r="I34" s="26">
         <f t="shared" si="3"/>
         <v>12.430990990990992</v>
       </c>
-      <c r="I34" s="26">
+      <c r="J34" s="26">
         <f t="shared" si="3"/>
         <v>12.07431533537434</v>
       </c>
-      <c r="J34" s="26">
+      <c r="K34" s="26">
         <f t="shared" si="3"/>
         <v>15.338120362737019</v>
       </c>
-      <c r="K34" s="26">
+      <c r="L34" s="26">
         <f t="shared" si="3"/>
         <v>12.942052432928698</v>
       </c>
-      <c r="L34" s="26">
+      <c r="M34" s="26">
         <f t="shared" si="3"/>
         <v>14.145046674445741</v>
       </c>
-      <c r="M34" s="26">
+      <c r="N34" s="26">
         <f t="shared" si="3"/>
         <v>11.669644869610797</v>
       </c>
-      <c r="N34" s="26">
+      <c r="O34" s="26">
         <f t="shared" si="3"/>
         <v>11.782901811805962</v>
       </c>
-      <c r="O34" s="26">
+      <c r="P34" s="26">
         <f t="shared" si="3"/>
         <v>11.749842658746088</v>
       </c>
-      <c r="P34" s="26">
+      <c r="Q34" s="26">
         <f t="shared" si="3"/>
         <v>14.2956011196641</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="R34" s="26">
         <f t="shared" si="3"/>
         <v>13.219953343701402</v>
       </c>
-      <c r="R34" s="26">
+      <c r="S34" s="26">
         <f t="shared" si="3"/>
         <v>9.9402787231755809</v>
       </c>
-      <c r="S34" s="26">
+      <c r="T34" s="26">
         <f t="shared" si="3"/>
         <v>11.532456951797158</v>
       </c>
-      <c r="T34" s="26">
+      <c r="U34" s="26">
         <f t="shared" si="3"/>
         <v>12.009080892480032</v>
       </c>
-      <c r="U34" s="26">
+      <c r="V34" s="26">
         <f t="shared" si="3"/>
         <v>12.407495466908431</v>
       </c>
-      <c r="V34" s="26">
+      <c r="W34" s="26">
         <f t="shared" si="3"/>
         <v>11.674048456428292</v>
       </c>
-      <c r="W34" s="26">
+      <c r="X34" s="26">
         <f t="shared" si="3"/>
         <v>12.172261875461484</v>
       </c>
-      <c r="X34" s="26">
+      <c r="Y34" s="26">
         <f t="shared" si="3"/>
         <v>10.700547042052746</v>
       </c>
-      <c r="Y34" s="26">
+      <c r="Z34" s="26">
         <f t="shared" si="3"/>
         <v>13.994888631761647</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="AA34" s="26">
         <f t="shared" si="3"/>
         <v>11.458100607111882</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AB34" s="26">
         <f t="shared" si="3"/>
         <v>12.163822751322751</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AC34" s="26">
         <f t="shared" si="3"/>
         <v>12.729979166666666</v>
       </c>
-      <c r="AC34" s="26">
+      <c r="AD34" s="26">
         <f t="shared" si="3"/>
         <v>12.328911118856743</v>
       </c>
-      <c r="AD34" s="26">
+      <c r="AE34" s="26">
         <f t="shared" si="3"/>
         <v>12.18051336332363</v>
       </c>
-      <c r="AE34" s="26">
+      <c r="AF34" s="26">
         <f t="shared" si="5"/>
         <v>12.177971699043084</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15">
-      <c r="C36" s="23" t="s">
+    <row r="36" spans="1:32" ht="15">
+      <c r="D36" s="23" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15.75" thickBot="1">
+    <row r="37" spans="1:32" ht="15.75" thickBot="1">
       <c r="C37" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="F37" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="G37" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="H37" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="I37" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="J37" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="K37" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="M37" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="N37" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="O37" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="P37" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="P37" s="24" t="s">
+      <c r="Q37" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="Q37" s="24" t="s">
+      <c r="R37" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="R37" s="24" t="s">
+      <c r="S37" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="S37" s="24" t="s">
+      <c r="T37" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="T37" s="24" t="s">
+      <c r="U37" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="U37" s="24" t="s">
+      <c r="V37" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="V37" s="24" t="s">
+      <c r="W37" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="W37" s="24" t="s">
+      <c r="X37" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="X37" s="24" t="s">
+      <c r="Y37" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="Y37" s="24" t="s">
+      <c r="Z37" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="Z37" s="24" t="s">
+      <c r="AA37" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="AA37" s="24" t="s">
+      <c r="AB37" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="AB37" s="24" t="s">
+      <c r="AC37" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="AC37" s="24" t="s">
+      <c r="AD37" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="AD37" s="24" t="s">
+      <c r="AE37" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE37" s="27" t="s">
+      <c r="AF37" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38">
         <v>0</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="D38" s="26">
-        <f>D24*$A$5</f>
+      <c r="D38" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" s="26">
+        <f>E24*$A$5</f>
         <v>9.1221676135258903E-2</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26">
-        <f>F24*$A$5</f>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26">
+        <f>G24*$A$5</f>
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
@@ -14901,506 +14978,521 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
-      <c r="R38" s="26">
-        <f>R24*$A$5</f>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26">
+        <f>S24*$A$5</f>
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26">
-        <f>T24*$A$5</f>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26">
+        <f>U24*$A$5</f>
         <v>9.69E-2</v>
       </c>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26">
-        <f t="shared" ref="V38:W41" si="6">V24*$A$5</f>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26">
+        <f t="shared" ref="W38:X41" si="6">W24*$A$5</f>
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="W38" s="26">
+      <c r="X38" s="26">
         <f t="shared" si="6"/>
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="X38" s="26"/>
       <c r="Y38" s="26"/>
       <c r="Z38" s="26"/>
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
       <c r="AC38" s="26"/>
       <c r="AD38" s="26"/>
-      <c r="AE38" s="26">
-        <f>D38</f>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26">
+        <f>E38</f>
         <v>9.1221676135258903E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="D39" s="26">
-        <f>D25*$A$5</f>
+      <c r="D39" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="26">
+        <f>E25*$A$5</f>
         <v>9.6929597997073944E-2</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26">
-        <f>F25*$A$5</f>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26">
+        <f>G25*$A$5</f>
         <v>0.13085289689220789</v>
       </c>
-      <c r="G39" s="26">
-        <f t="shared" ref="G39:Q39" si="7">G25*$A$5</f>
+      <c r="H39" s="26">
+        <f t="shared" ref="H39:R39" si="7">H25*$A$5</f>
         <v>7.3511124431490354E-2</v>
       </c>
-      <c r="H39" s="26">
+      <c r="I39" s="26">
         <f t="shared" si="7"/>
         <v>7.6336571062036118E-2</v>
       </c>
-      <c r="I39" s="26">
+      <c r="J39" s="26">
         <f t="shared" si="7"/>
         <v>7.7253695078612961E-2</v>
       </c>
-      <c r="J39" s="26">
+      <c r="K39" s="26">
         <f t="shared" si="7"/>
         <v>0.10117743191596761</v>
       </c>
-      <c r="K39" s="26">
+      <c r="L39" s="26">
         <f t="shared" si="7"/>
         <v>8.2682332260460498E-2</v>
       </c>
-      <c r="L39" s="26">
+      <c r="M39" s="26">
         <f t="shared" si="7"/>
         <v>8.072845202419221E-2</v>
       </c>
-      <c r="M39" s="26">
+      <c r="N39" s="26">
         <f t="shared" si="7"/>
         <v>8.6972871434365273E-2</v>
       </c>
-      <c r="N39" s="26">
+      <c r="O39" s="26">
         <f t="shared" si="7"/>
         <v>8.4200629117455031E-2</v>
       </c>
-      <c r="O39" s="26">
+      <c r="P39" s="26">
         <f t="shared" si="7"/>
         <v>9.8101481798382059E-2</v>
       </c>
-      <c r="P39" s="26">
+      <c r="Q39" s="26">
         <f t="shared" si="7"/>
         <v>0.10045520741319565</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="R39" s="26">
         <f t="shared" si="7"/>
         <v>0.13132317300521992</v>
       </c>
-      <c r="R39" s="26">
-        <f>R25*$A$5</f>
+      <c r="S39" s="26">
+        <f>S25*$A$5</f>
         <v>9.682819058524629E-2</v>
       </c>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26">
-        <f>T25*$A$5</f>
-        <v>3.7502647887323944E-2</v>
-      </c>
+      <c r="T39" s="26"/>
       <c r="U39" s="26">
         <f>U25*$A$5</f>
+        <v>3.7502647887323944E-2</v>
+      </c>
+      <c r="V39" s="26">
+        <f>V25*$A$5</f>
         <v>0.12882137215425118</v>
       </c>
-      <c r="V39" s="26">
+      <c r="W39" s="26">
         <f t="shared" si="6"/>
         <v>9.0222512296632626E-2</v>
       </c>
-      <c r="W39" s="26">
+      <c r="X39" s="26">
         <f t="shared" si="6"/>
         <v>0.10831163849560281</v>
       </c>
-      <c r="X39" s="26">
-        <f t="shared" ref="X39:AD41" si="8">X25*$A$5</f>
+      <c r="Y39" s="26">
+        <f t="shared" ref="Y39:AE41" si="8">Y25*$A$5</f>
         <v>0.108</v>
       </c>
-      <c r="Y39" s="26">
+      <c r="Z39" s="26">
         <f t="shared" si="8"/>
         <v>8.8771509578544044E-2</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="AA39" s="26">
         <f t="shared" si="8"/>
         <v>0.11327099070920744</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AB39" s="26">
         <f t="shared" si="8"/>
         <v>8.7531336315891842E-2</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AC39" s="26">
         <f t="shared" si="8"/>
         <v>7.4649772794334601E-2</v>
       </c>
-      <c r="AC39" s="26">
+      <c r="AD39" s="26">
         <f t="shared" si="8"/>
         <v>9.8554426712877966E-2</v>
       </c>
-      <c r="AD39" s="26">
+      <c r="AE39" s="26">
         <f t="shared" si="8"/>
         <v>0.10817601264243534</v>
       </c>
-      <c r="AE39" s="26">
-        <f t="shared" ref="AE39:AE41" si="9">D39</f>
+      <c r="AF39" s="26">
+        <f t="shared" ref="AF39:AF41" si="9">E39</f>
         <v>9.6929597997073944E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D40" s="26">
-        <f>D26*$A$5</f>
-        <v>0.17025106588893066</v>
+      <c r="D40" s="25" t="s">
+        <v>475</v>
       </c>
       <c r="E40" s="26">
         <f>E26*$A$5</f>
-        <v>0.12238041222408444</v>
+        <v>0.17025106588893066</v>
       </c>
       <c r="F40" s="26">
         <f>F26*$A$5</f>
+        <v>0.12238041222408444</v>
+      </c>
+      <c r="G40" s="26">
+        <f>G26*$A$5</f>
         <v>0.19978052441160304</v>
       </c>
-      <c r="G40" s="26">
-        <f t="shared" ref="G40:M41" si="10">G26*$A$5</f>
+      <c r="H40" s="26">
+        <f t="shared" ref="H40:N41" si="10">H26*$A$5</f>
         <v>0.17871557703014393</v>
       </c>
-      <c r="H40" s="26">
+      <c r="I40" s="26">
         <f t="shared" si="10"/>
         <v>0.26753157345575962</v>
       </c>
-      <c r="I40" s="26">
+      <c r="J40" s="26">
         <f t="shared" si="10"/>
         <v>0.15637467563671312</v>
       </c>
-      <c r="J40" s="26">
+      <c r="K40" s="26">
         <f t="shared" si="10"/>
         <v>0.21876790553138595</v>
       </c>
-      <c r="K40" s="26">
+      <c r="L40" s="26">
         <f t="shared" si="10"/>
         <v>0.16918759009714826</v>
       </c>
-      <c r="L40" s="26">
+      <c r="M40" s="26">
         <f t="shared" si="10"/>
         <v>0.1594821352895516</v>
       </c>
-      <c r="M40" s="26">
+      <c r="N40" s="26">
         <f t="shared" si="10"/>
         <v>0.1717709816923742</v>
       </c>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26">
-        <f t="shared" ref="O40:Q41" si="11">O26*$A$5</f>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26">
+        <f t="shared" ref="P40:R41" si="11">P26*$A$5</f>
         <v>0.21060598425804461</v>
       </c>
-      <c r="P40" s="26">
+      <c r="Q40" s="26">
         <f t="shared" si="11"/>
         <v>0.17622965763557841</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="R40" s="26">
         <f t="shared" si="11"/>
         <v>0.23756137328127652</v>
       </c>
-      <c r="R40" s="26">
-        <f>R26*$A$5</f>
-        <v>0.17371266892801376</v>
-      </c>
       <c r="S40" s="26">
         <f>S26*$A$5</f>
-        <v>0.11176310682845059</v>
+        <v>0.17371266892801376</v>
       </c>
       <c r="T40" s="26">
         <f>T26*$A$5</f>
-        <v>0.1709030981067125</v>
+        <v>0.11176310682845059</v>
       </c>
       <c r="U40" s="26">
         <f>U26*$A$5</f>
+        <v>0.1709030981067125</v>
+      </c>
+      <c r="V40" s="26">
+        <f>V26*$A$5</f>
         <v>0.18008836989767021</v>
       </c>
-      <c r="V40" s="26">
+      <c r="W40" s="26">
         <f t="shared" si="6"/>
         <v>0.21970307603017991</v>
       </c>
-      <c r="W40" s="26">
+      <c r="X40" s="26">
         <f t="shared" si="6"/>
         <v>0.17080519443966663</v>
       </c>
-      <c r="X40" s="26">
+      <c r="Y40" s="26">
         <f t="shared" si="8"/>
         <v>0.20999135645079045</v>
       </c>
-      <c r="Y40" s="26">
+      <c r="Z40" s="26">
         <f t="shared" si="8"/>
         <v>0.16750823375050464</v>
       </c>
-      <c r="Z40" s="26">
+      <c r="AA40" s="26">
         <f t="shared" si="8"/>
         <v>0.18554555666003977</v>
       </c>
-      <c r="AA40" s="26">
+      <c r="AB40" s="26">
         <f t="shared" si="8"/>
         <v>0.17762595275331305</v>
       </c>
-      <c r="AB40" s="26">
+      <c r="AC40" s="26">
         <f t="shared" si="8"/>
         <v>0.1878787687376261</v>
       </c>
-      <c r="AC40" s="26">
+      <c r="AD40" s="26">
         <f t="shared" si="8"/>
         <v>0.19510025825195706</v>
       </c>
-      <c r="AD40" s="26">
+      <c r="AE40" s="26">
         <f t="shared" si="8"/>
         <v>0.15098776028440833</v>
       </c>
-      <c r="AE40" s="26">
+      <c r="AF40" s="26">
         <f t="shared" si="9"/>
         <v>0.17025106588893066</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="26">
-        <f>D27*$A$5</f>
-        <v>0.36533915097129249</v>
+      <c r="D41" s="25" t="s">
+        <v>475</v>
       </c>
       <c r="E41" s="26">
         <f>E27*$A$5</f>
-        <v>0.31911728012398299</v>
+        <v>0.36533915097129249</v>
       </c>
       <c r="F41" s="26">
         <f>F27*$A$5</f>
+        <v>0.31911728012398299</v>
+      </c>
+      <c r="G41" s="26">
+        <f>G27*$A$5</f>
         <v>0.61499999999999999</v>
       </c>
-      <c r="G41" s="26">
+      <c r="H41" s="26">
         <f t="shared" si="10"/>
         <v>0.41387751182033083</v>
       </c>
-      <c r="H41" s="26">
+      <c r="I41" s="26">
         <f t="shared" si="10"/>
         <v>0.37292972972972976</v>
       </c>
-      <c r="I41" s="26">
+      <c r="J41" s="26">
         <f t="shared" si="10"/>
         <v>0.36222946006123019</v>
       </c>
-      <c r="J41" s="26">
+      <c r="K41" s="26">
         <f t="shared" si="10"/>
         <v>0.46014361088211053</v>
       </c>
-      <c r="K41" s="26">
+      <c r="L41" s="26">
         <f t="shared" si="10"/>
         <v>0.3882615729878609</v>
       </c>
-      <c r="L41" s="26">
+      <c r="M41" s="26">
         <f t="shared" si="10"/>
         <v>0.4243514002333722</v>
       </c>
-      <c r="M41" s="26">
+      <c r="N41" s="26">
         <f t="shared" si="10"/>
         <v>0.35008934608832393</v>
       </c>
-      <c r="N41" s="26">
-        <f>N27*$A$5</f>
+      <c r="O41" s="26">
+        <f>O27*$A$5</f>
         <v>0.35348705435417882</v>
       </c>
-      <c r="O41" s="26">
+      <c r="P41" s="26">
         <f t="shared" si="11"/>
         <v>0.35249527976238265</v>
       </c>
-      <c r="P41" s="26">
+      <c r="Q41" s="26">
         <f t="shared" si="11"/>
         <v>0.42886803358992298</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="R41" s="26">
         <f t="shared" si="11"/>
         <v>0.39659860031104205</v>
       </c>
-      <c r="R41" s="26">
-        <f>R27*$A$5</f>
-        <v>0.29820836169526743</v>
-      </c>
       <c r="S41" s="26">
         <f>S27*$A$5</f>
-        <v>0.34597370855391474</v>
+        <v>0.29820836169526743</v>
       </c>
       <c r="T41" s="26">
         <f>T27*$A$5</f>
-        <v>0.36027242677440097</v>
+        <v>0.34597370855391474</v>
       </c>
       <c r="U41" s="26">
         <f>U27*$A$5</f>
+        <v>0.36027242677440097</v>
+      </c>
+      <c r="V41" s="26">
+        <f>V27*$A$5</f>
         <v>0.37222486400725291</v>
       </c>
-      <c r="V41" s="26">
+      <c r="W41" s="26">
         <f t="shared" si="6"/>
         <v>0.35022145369284874</v>
       </c>
-      <c r="W41" s="26">
+      <c r="X41" s="26">
         <f t="shared" si="6"/>
         <v>0.36516785626384451</v>
       </c>
-      <c r="X41" s="26">
+      <c r="Y41" s="26">
         <f t="shared" si="8"/>
         <v>0.32101641126158237</v>
       </c>
-      <c r="Y41" s="26">
+      <c r="Z41" s="26">
         <f t="shared" si="8"/>
         <v>0.41984665895284939</v>
       </c>
-      <c r="Z41" s="26">
+      <c r="AA41" s="26">
         <f t="shared" si="8"/>
         <v>0.34374301821335645</v>
       </c>
-      <c r="AA41" s="26">
+      <c r="AB41" s="26">
         <f t="shared" si="8"/>
         <v>0.36491468253968251</v>
       </c>
-      <c r="AB41" s="26">
+      <c r="AC41" s="26">
         <f t="shared" si="8"/>
         <v>0.38189937499999999</v>
       </c>
-      <c r="AC41" s="26">
+      <c r="AD41" s="26">
         <f t="shared" si="8"/>
         <v>0.36986733356570228</v>
       </c>
-      <c r="AD41" s="26">
+      <c r="AE41" s="26">
         <f t="shared" si="8"/>
         <v>0.36541540089970892</v>
       </c>
-      <c r="AE41" s="26">
+      <c r="AF41" s="26">
         <f t="shared" si="9"/>
         <v>0.36533915097129249</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
-      <c r="F42" s="3"/>
+    <row r="42" spans="1:32">
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:31" ht="15">
-      <c r="C43" s="23" t="s">
+    <row r="43" spans="1:32" ht="15">
+      <c r="D43" s="23" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15.75" thickBot="1">
+    <row r="44" spans="1:32" ht="15.75" thickBot="1">
       <c r="C44" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="F44" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="G44" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="H44" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="I44" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="J44" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="K44" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="L44" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="M44" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="N44" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="O44" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="P44" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="Q44" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="R44" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="S44" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="S44" s="24" t="s">
+      <c r="T44" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="T44" s="24" t="s">
+      <c r="U44" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="V44" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="W44" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="W44" s="24" t="s">
+      <c r="X44" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="X44" s="24" t="s">
+      <c r="Y44" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="Y44" s="24" t="s">
+      <c r="Z44" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="Z44" s="24" t="s">
+      <c r="AA44" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="AA44" s="24" t="s">
+      <c r="AB44" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="AB44" s="24" t="s">
+      <c r="AC44" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="AC44" s="24" t="s">
+      <c r="AD44" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="AD44" s="24" t="s">
+      <c r="AE44" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="AE44" s="27" t="s">
+      <c r="AF44" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45">
         <v>0</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="D45" s="26">
-        <f>D31*$A$5</f>
+      <c r="D45" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E45" s="26">
+        <f>E31*$A$5</f>
         <v>9.1221676135258903E-2</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26">
-        <f>F31*$A$5</f>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26">
+        <f>G31*$A$5</f>
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="G45" s="26"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
@@ -15411,602 +15503,612 @@
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
-      <c r="R45" s="26">
-        <f>R31*$A$5</f>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26">
+        <f>S31*$A$5</f>
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26">
-        <f>T31*$A$5</f>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26">
+        <f>U31*$A$5</f>
         <v>9.69E-2</v>
       </c>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26">
-        <f t="shared" ref="V45:W48" si="12">V31*$A$5</f>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26">
+        <f t="shared" ref="W45:X48" si="12">W31*$A$5</f>
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="W45" s="26">
+      <c r="X45" s="26">
         <f t="shared" si="12"/>
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
       <c r="AC45" s="26"/>
       <c r="AD45" s="26"/>
-      <c r="AE45" s="26">
-        <f>D45</f>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26">
+        <f>E45</f>
         <v>9.1221676135258903E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="D46" s="26">
-        <f>D32*$A$5</f>
+      <c r="D46" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="E46" s="26">
+        <f>E32*$A$5</f>
         <v>9.6929597997073944E-2</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26">
-        <f>F32*$A$5</f>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26">
+        <f>G32*$A$5</f>
         <v>0.13085289689220789</v>
       </c>
-      <c r="G46" s="26">
-        <f t="shared" ref="G46:Q46" si="13">G32*$A$5</f>
+      <c r="H46" s="26">
+        <f t="shared" ref="H46:R46" si="13">H32*$A$5</f>
         <v>7.3511124431490354E-2</v>
       </c>
-      <c r="H46" s="26">
+      <c r="I46" s="26">
         <f t="shared" si="13"/>
         <v>7.6336571062036118E-2</v>
       </c>
-      <c r="I46" s="26">
+      <c r="J46" s="26">
         <f t="shared" si="13"/>
         <v>7.7253695078612961E-2</v>
       </c>
-      <c r="J46" s="26">
+      <c r="K46" s="26">
         <f t="shared" si="13"/>
         <v>0.10117743191596761</v>
       </c>
-      <c r="K46" s="26">
+      <c r="L46" s="26">
         <f t="shared" si="13"/>
         <v>8.2682332260460498E-2</v>
       </c>
-      <c r="L46" s="26">
+      <c r="M46" s="26">
         <f t="shared" si="13"/>
         <v>8.072845202419221E-2</v>
       </c>
-      <c r="M46" s="26">
+      <c r="N46" s="26">
         <f t="shared" si="13"/>
         <v>8.6972871434365273E-2</v>
       </c>
-      <c r="N46" s="26">
+      <c r="O46" s="26">
         <f t="shared" si="13"/>
         <v>8.4200629117455031E-2</v>
       </c>
-      <c r="O46" s="26">
+      <c r="P46" s="26">
         <f t="shared" si="13"/>
         <v>9.8101481798382059E-2</v>
       </c>
-      <c r="P46" s="26">
+      <c r="Q46" s="26">
         <f t="shared" si="13"/>
         <v>0.10045520741319565</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="R46" s="26">
         <f t="shared" si="13"/>
         <v>0.13132317300521992</v>
       </c>
-      <c r="R46" s="26">
-        <f>R32*$A$5</f>
+      <c r="S46" s="26">
+        <f>S32*$A$5</f>
         <v>9.682819058524629E-2</v>
       </c>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26">
-        <f>T32*$A$5</f>
-        <v>3.7502647887323944E-2</v>
-      </c>
+      <c r="T46" s="26"/>
       <c r="U46" s="26">
         <f>U32*$A$5</f>
+        <v>3.7502647887323944E-2</v>
+      </c>
+      <c r="V46" s="26">
+        <f>V32*$A$5</f>
         <v>0.12882137215425118</v>
       </c>
-      <c r="V46" s="26">
+      <c r="W46" s="26">
         <f t="shared" si="12"/>
         <v>9.0222512296632626E-2</v>
       </c>
-      <c r="W46" s="26">
+      <c r="X46" s="26">
         <f t="shared" si="12"/>
         <v>0.10831163849560281</v>
       </c>
-      <c r="X46" s="26">
-        <f t="shared" ref="X46:AD48" si="14">X32*$A$5</f>
+      <c r="Y46" s="26">
+        <f t="shared" ref="Y46:AE48" si="14">Y32*$A$5</f>
         <v>0.108</v>
       </c>
-      <c r="Y46" s="26">
+      <c r="Z46" s="26">
         <f t="shared" si="14"/>
         <v>8.8771509578544044E-2</v>
       </c>
-      <c r="Z46" s="26">
+      <c r="AA46" s="26">
         <f t="shared" si="14"/>
         <v>0.11327099070920744</v>
       </c>
-      <c r="AA46" s="26">
+      <c r="AB46" s="26">
         <f t="shared" si="14"/>
         <v>8.7531336315891842E-2</v>
       </c>
-      <c r="AB46" s="26">
+      <c r="AC46" s="26">
         <f t="shared" si="14"/>
         <v>7.4649772794334601E-2</v>
       </c>
-      <c r="AC46" s="26">
+      <c r="AD46" s="26">
         <f t="shared" si="14"/>
         <v>9.8554426712877966E-2</v>
       </c>
-      <c r="AD46" s="26">
+      <c r="AE46" s="26">
         <f t="shared" si="14"/>
         <v>0.10817601264243534</v>
       </c>
-      <c r="AE46" s="26">
-        <f t="shared" ref="AE46:AE48" si="15">D46</f>
+      <c r="AF46" s="26">
+        <f t="shared" ref="AF46:AF48" si="15">E46</f>
         <v>9.6929597997073944E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="D47" s="26">
-        <f>D33*$A$5</f>
-        <v>0.17025106588893066</v>
+      <c r="D47" s="25" t="s">
+        <v>476</v>
       </c>
       <c r="E47" s="26">
         <f>E33*$A$5</f>
-        <v>0.12238041222408444</v>
+        <v>0.17025106588893066</v>
       </c>
       <c r="F47" s="26">
         <f>F33*$A$5</f>
+        <v>0.12238041222408444</v>
+      </c>
+      <c r="G47" s="26">
+        <f>G33*$A$5</f>
         <v>0.19978052441160304</v>
       </c>
-      <c r="G47" s="26">
-        <f t="shared" ref="G47:M48" si="16">G33*$A$5</f>
+      <c r="H47" s="26">
+        <f t="shared" ref="H47:N48" si="16">H33*$A$5</f>
         <v>0.17871557703014393</v>
       </c>
-      <c r="H47" s="26">
+      <c r="I47" s="26">
         <f t="shared" si="16"/>
         <v>0.26753157345575962</v>
       </c>
-      <c r="I47" s="26">
+      <c r="J47" s="26">
         <f t="shared" si="16"/>
         <v>0.15637467563671312</v>
       </c>
-      <c r="J47" s="26">
+      <c r="K47" s="26">
         <f t="shared" si="16"/>
         <v>0.21876790553138595</v>
       </c>
-      <c r="K47" s="26">
+      <c r="L47" s="26">
         <f t="shared" si="16"/>
         <v>0.16918759009714826</v>
       </c>
-      <c r="L47" s="26">
+      <c r="M47" s="26">
         <f t="shared" si="16"/>
         <v>0.1594821352895516</v>
       </c>
-      <c r="M47" s="26">
+      <c r="N47" s="26">
         <f t="shared" si="16"/>
         <v>0.1717709816923742</v>
       </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26">
-        <f t="shared" ref="O47:Q48" si="17">O33*$A$5</f>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26">
+        <f t="shared" ref="P47:R48" si="17">P33*$A$5</f>
         <v>0.21060598425804461</v>
       </c>
-      <c r="P47" s="26">
+      <c r="Q47" s="26">
         <f t="shared" si="17"/>
         <v>0.17622965763557841</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="R47" s="26">
         <f t="shared" si="17"/>
         <v>0.23756137328127652</v>
       </c>
-      <c r="R47" s="26">
-        <f>R33*$A$5</f>
-        <v>0.17371266892801376</v>
-      </c>
       <c r="S47" s="26">
         <f>S33*$A$5</f>
-        <v>0.11176310682845059</v>
+        <v>0.17371266892801376</v>
       </c>
       <c r="T47" s="26">
         <f>T33*$A$5</f>
-        <v>0.1709030981067125</v>
+        <v>0.11176310682845059</v>
       </c>
       <c r="U47" s="26">
         <f>U33*$A$5</f>
+        <v>0.1709030981067125</v>
+      </c>
+      <c r="V47" s="26">
+        <f>V33*$A$5</f>
         <v>0.18008836989767021</v>
       </c>
-      <c r="V47" s="26">
+      <c r="W47" s="26">
         <f t="shared" si="12"/>
         <v>0.21970307603017991</v>
       </c>
-      <c r="W47" s="26">
+      <c r="X47" s="26">
         <f t="shared" si="12"/>
         <v>0.17080519443966663</v>
       </c>
-      <c r="X47" s="26">
+      <c r="Y47" s="26">
         <f t="shared" si="14"/>
         <v>0.20999135645079045</v>
       </c>
-      <c r="Y47" s="26">
+      <c r="Z47" s="26">
         <f t="shared" si="14"/>
         <v>0.16750823375050464</v>
       </c>
-      <c r="Z47" s="26">
+      <c r="AA47" s="26">
         <f t="shared" si="14"/>
         <v>0.18554555666003977</v>
       </c>
-      <c r="AA47" s="26">
+      <c r="AB47" s="26">
         <f t="shared" si="14"/>
         <v>0.17762595275331305</v>
       </c>
-      <c r="AB47" s="26">
+      <c r="AC47" s="26">
         <f t="shared" si="14"/>
         <v>0.1878787687376261</v>
       </c>
-      <c r="AC47" s="26">
+      <c r="AD47" s="26">
         <f t="shared" si="14"/>
         <v>0.19510025825195706</v>
       </c>
-      <c r="AD47" s="26">
+      <c r="AE47" s="26">
         <f t="shared" si="14"/>
         <v>0.15098776028440833</v>
       </c>
-      <c r="AE47" s="26">
+      <c r="AF47" s="26">
         <f t="shared" si="15"/>
         <v>0.17025106588893066</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="D48" s="26">
-        <f>D34*$A$5</f>
-        <v>0.36533915097129249</v>
+      <c r="D48" s="25" t="s">
+        <v>476</v>
       </c>
       <c r="E48" s="26">
         <f>E34*$A$5</f>
-        <v>0.31911728012398299</v>
+        <v>0.36533915097129249</v>
       </c>
       <c r="F48" s="26">
         <f>F34*$A$5</f>
+        <v>0.31911728012398299</v>
+      </c>
+      <c r="G48" s="26">
+        <f>G34*$A$5</f>
         <v>0.61499999999999999</v>
       </c>
-      <c r="G48" s="26">
+      <c r="H48" s="26">
         <f t="shared" si="16"/>
         <v>0.41387751182033083</v>
       </c>
-      <c r="H48" s="26">
+      <c r="I48" s="26">
         <f t="shared" si="16"/>
         <v>0.37292972972972976</v>
       </c>
-      <c r="I48" s="26">
+      <c r="J48" s="26">
         <f t="shared" si="16"/>
         <v>0.36222946006123019</v>
       </c>
-      <c r="J48" s="26">
+      <c r="K48" s="26">
         <f t="shared" si="16"/>
         <v>0.46014361088211053</v>
       </c>
-      <c r="K48" s="26">
+      <c r="L48" s="26">
         <f t="shared" si="16"/>
         <v>0.3882615729878609</v>
       </c>
-      <c r="L48" s="26">
+      <c r="M48" s="26">
         <f t="shared" si="16"/>
         <v>0.4243514002333722</v>
       </c>
-      <c r="M48" s="26">
+      <c r="N48" s="26">
         <f t="shared" si="16"/>
         <v>0.35008934608832393</v>
       </c>
-      <c r="N48" s="26">
-        <f>N34*$A$5</f>
+      <c r="O48" s="26">
+        <f>O34*$A$5</f>
         <v>0.35348705435417882</v>
       </c>
-      <c r="O48" s="26">
+      <c r="P48" s="26">
         <f t="shared" si="17"/>
         <v>0.35249527976238265</v>
       </c>
-      <c r="P48" s="26">
+      <c r="Q48" s="26">
         <f t="shared" si="17"/>
         <v>0.42886803358992298</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="R48" s="26">
         <f t="shared" si="17"/>
         <v>0.39659860031104205</v>
       </c>
-      <c r="R48" s="26">
-        <f>R34*$A$5</f>
-        <v>0.29820836169526743</v>
-      </c>
       <c r="S48" s="26">
         <f>S34*$A$5</f>
-        <v>0.34597370855391474</v>
+        <v>0.29820836169526743</v>
       </c>
       <c r="T48" s="26">
         <f>T34*$A$5</f>
-        <v>0.36027242677440097</v>
+        <v>0.34597370855391474</v>
       </c>
       <c r="U48" s="26">
         <f>U34*$A$5</f>
+        <v>0.36027242677440097</v>
+      </c>
+      <c r="V48" s="26">
+        <f>V34*$A$5</f>
         <v>0.37222486400725291</v>
       </c>
-      <c r="V48" s="26">
+      <c r="W48" s="26">
         <f t="shared" si="12"/>
         <v>0.35022145369284874</v>
       </c>
-      <c r="W48" s="26">
+      <c r="X48" s="26">
         <f t="shared" si="12"/>
         <v>0.36516785626384451</v>
       </c>
-      <c r="X48" s="26">
+      <c r="Y48" s="26">
         <f t="shared" si="14"/>
         <v>0.32101641126158237</v>
       </c>
-      <c r="Y48" s="26">
+      <c r="Z48" s="26">
         <f t="shared" si="14"/>
         <v>0.41984665895284939</v>
       </c>
-      <c r="Z48" s="26">
+      <c r="AA48" s="26">
         <f t="shared" si="14"/>
         <v>0.34374301821335645</v>
       </c>
-      <c r="AA48" s="26">
+      <c r="AB48" s="26">
         <f t="shared" si="14"/>
         <v>0.36491468253968251</v>
       </c>
-      <c r="AB48" s="26">
+      <c r="AC48" s="26">
         <f t="shared" si="14"/>
         <v>0.38189937499999999</v>
       </c>
-      <c r="AC48" s="26">
+      <c r="AD48" s="26">
         <f t="shared" si="14"/>
         <v>0.36986733356570228</v>
       </c>
-      <c r="AD48" s="26">
+      <c r="AE48" s="26">
         <f t="shared" si="14"/>
         <v>0.36541540089970892</v>
       </c>
-      <c r="AE48" s="26">
+      <c r="AF48" s="26">
         <f t="shared" si="15"/>
         <v>0.36533915097129249</v>
       </c>
     </row>
-    <row r="49" spans="6:11">
-      <c r="F49" s="3"/>
+    <row r="49" spans="7:12">
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="6:11">
-      <c r="F50" s="3"/>
+    <row r="50" spans="7:12">
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="6:11">
-      <c r="F51" s="3"/>
+    <row r="51" spans="7:12">
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="6:11">
-      <c r="F52" s="3"/>
+    <row r="52" spans="7:12">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="6:11">
-      <c r="F53" s="3"/>
+    <row r="53" spans="7:12">
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="6:11">
-      <c r="F54" s="3"/>
+    <row r="54" spans="7:12">
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="6:11">
-      <c r="F55" s="3"/>
+    <row r="55" spans="7:12">
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="6:11">
-      <c r="F56" s="3"/>
+    <row r="56" spans="7:12">
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="6:11">
-      <c r="F57" s="3"/>
+    <row r="57" spans="7:12">
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="6:11">
-      <c r="F58" s="3"/>
+    <row r="58" spans="7:12">
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="6:11">
-      <c r="F59" s="3"/>
+    <row r="59" spans="7:12">
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="6:11">
-      <c r="F60" s="3"/>
+    <row r="60" spans="7:12">
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="6:11">
-      <c r="F61" s="3"/>
+    <row r="61" spans="7:12">
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="6:11">
-      <c r="F62" s="3"/>
+    <row r="62" spans="7:12">
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="6:11">
-      <c r="F63" s="3"/>
+    <row r="63" spans="7:12">
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="6:11">
-      <c r="F64" s="3"/>
+    <row r="64" spans="7:12">
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="6:11">
-      <c r="F65" s="3"/>
+    <row r="65" spans="7:12">
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="6:11">
-      <c r="F66" s="3"/>
+    <row r="66" spans="7:12">
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="3"/>
+    <row r="67" spans="7:12">
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="6:11">
-      <c r="F68" s="3"/>
+    <row r="68" spans="7:12">
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="6:11">
-      <c r="F69" s="3"/>
+    <row r="69" spans="7:12">
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="6:11">
-      <c r="F70" s="3"/>
+    <row r="70" spans="7:12">
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="6:11">
-      <c r="F71" s="3"/>
+    <row r="71" spans="7:12">
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="6:11">
-      <c r="F72" s="3"/>
+    <row r="72" spans="7:12">
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="6:11">
-      <c r="F73" s="3"/>
+    <row r="73" spans="7:12">
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="6:11">
-      <c r="F74" s="3"/>
+    <row r="74" spans="7:12">
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="6:11">
-      <c r="F75" s="3"/>
+    <row r="75" spans="7:12">
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="71" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E196C2-02FF-4A7D-A508-ACE0DFB4638A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC182D2-8450-41F1-AD1F-6943E1868E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -126,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="517">
   <si>
     <t>TechName</t>
   </si>
@@ -1589,9 +1588,6 @@
     <t>PJ</t>
   </si>
   <si>
-    <t>IE,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</t>
-  </si>
-  <si>
     <t>HETD</t>
   </si>
   <si>
@@ -1678,6 +1674,9 @@
   <si>
     <t>District heating (SRV) in Low Urban Density</t>
   </si>
+  <si>
+    <t>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</t>
+  </si>
 </sst>
 </file>
 
@@ -1694,7 +1693,7 @@
     <numFmt numFmtId="169" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="#,##0;#\ ##0"/>
-    <numFmt numFmtId="179" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="172" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="82">
     <font>
@@ -5925,7 +5924,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5994,15 +5993,6 @@
     <xf numFmtId="0" fontId="10" fillId="64" borderId="0" xfId="2867" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6019,37 +6009,36 @@
     <xf numFmtId="0" fontId="81" fillId="30" borderId="25" xfId="2868" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="30" borderId="25" xfId="2868" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="6" fillId="65" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="6" fillId="65" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="81" fillId="30" borderId="1" xfId="2868" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="81" fillId="30" borderId="1" xfId="2868" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="81" fillId="30" borderId="1" xfId="2868" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="81" fillId="30" borderId="1" xfId="2868" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6060,6 +6049,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2870">
@@ -8936,13 +8934,6 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8978,10 +8969,17 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{D0B49E4B-F6FB-41D5-8270-1813D83E0A72}">
-      <tableStyleElement type="firstRowStripe" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9439,65 +9437,11 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Legend"/>
-      <sheetName val="Regions"/>
-      <sheetName val="EB_SRV"/>
-      <sheetName val="Key Inputs"/>
-      <sheetName val="Commodities"/>
-      <sheetName val="Fuel Techs"/>
-      <sheetName val="Building stock"/>
-      <sheetName val="TH_Techs"/>
-      <sheetName val="CK_Techs"/>
-      <sheetName val="EAP_Techs"/>
-      <sheetName val="PLIG_Techs"/>
-      <sheetName val="DCE_Techs"/>
-      <sheetName val="Emissions"/>
-      <sheetName val="EB2018"/>
-      <sheetName val="CSO data"/>
-      <sheetName val="Public SEAI"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>IE</v>
-          </cell>
-          <cell r="AD3" t="str">
-            <v>IE-MN</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01865128-BCE7-4440-B1B2-38943CC31D55}" name="Table1" displayName="Table1" ref="A2:AN371" totalsRowShown="0">
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{808D2F88-0299-4274-ACD4-A1E7C5239C92}" name="PSD_ID"/>
-    <tableColumn id="2" xr3:uid="{CD32EBC7-02E3-45AF-85C3-A3B227737514}" name="Placename_assigned" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CD32EBC7-02E3-45AF-85C3-A3B227737514}" name="Placename_assigned" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{C9FA889B-08F9-4639-A2DA-75401A8D2C61}" name="SumHD_0_20"/>
     <tableColumn id="4" xr3:uid="{774667E8-5E7F-46D0-9CD2-C71CCAE388E7}" name="SumHD_20_50"/>
     <tableColumn id="5" xr3:uid="{8FDC7A56-0E80-48E0-8E9A-0203A9AFC428}" name="SumHD_50_120"/>
@@ -10306,12 +10250,12 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10395,11 +10339,11 @@
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -10427,11 +10371,11 @@
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -10519,11 +10463,11 @@
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -10549,11 +10493,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -10609,11 +10553,11 @@
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -10639,11 +10583,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -10731,11 +10675,11 @@
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="5"/>
@@ -10763,11 +10707,11 @@
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="5"/>
@@ -12724,7 +12668,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12735,453 +12679,445 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="42" t="s">
+      <c r="L3" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="M3" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="N3" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="O3" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="P3" s="39" t="s">
         <v>495</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="45.75" thickBot="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="I4" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="J4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="L4" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="M4" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="N4" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="O4" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="P4" s="40" t="s">
         <v>503</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="13.5" thickBot="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="43" t="s">
-        <v>505</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="E6" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="M6" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="L6" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="M6" s="47" t="s">
+      <c r="N6" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="E7" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J7" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="F7" s="53">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>509</v>
-      </c>
-      <c r="L7" s="47" t="s">
+      <c r="K7" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="L7" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N7" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="E8" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J8" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="F8" s="53">
-        <v>1</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>510</v>
-      </c>
-      <c r="L8" s="47" t="s">
+      <c r="K8" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="L8" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N8" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="E9" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="F9" s="53">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="L9" s="47" t="s">
+      <c r="K9" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="L9" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N9" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="51" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="D10" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="46">
         <v>1</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="I10" s="37" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N10" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="51" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="E11" s="50" t="s">
+      <c r="D11" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="46">
         <v>1</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I11" s="37" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="J11" s="37" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="L11" s="37" t="s">
+      <c r="K11" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="L11" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N11" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N11" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="51" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="46">
         <v>1</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I12" s="37" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="J12" s="37" t="s">
+      <c r="H12" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="K12" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="L12" s="37" t="s">
+      <c r="K12" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="L12" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N12" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="51" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="C13" s="49" t="s">
+      <c r="B13" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="46">
         <v>1</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I13" s="37" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,[2]Regions!$C$3:'[2]Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="H13" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="L13" s="37" t="s">
+      <c r="K13" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="L13" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="N13" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -13195,7 +13131,7 @@
   <dimension ref="A4:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC182D2-8450-41F1-AD1F-6943E1868E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222758EC-32C0-42F5-87B9-C559E8040B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13131,7 +13131,7 @@
   <dimension ref="A4:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13157,6 +13157,9 @@
       <c r="C5" s="22">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="C8" s="23" t="s">

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222758EC-32C0-42F5-87B9-C559E8040B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EE2D3C-7132-4283-935F-6679B3405DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="523">
   <si>
     <t>TechName</t>
   </si>
@@ -1676,6 +1676,24 @@
   </si>
   <si>
     <t>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</t>
+  </si>
+  <si>
+    <t>Threshold ( TJ/km2)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Urban 1</t>
+  </si>
+  <si>
+    <t>Urban 2</t>
+  </si>
+  <si>
+    <t>Urban 3</t>
+  </si>
+  <si>
+    <t>50.1-74.9</t>
   </si>
 </sst>
 </file>
@@ -5924,7 +5942,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6058,6 +6076,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2870">
@@ -13130,8 +13151,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16737,10 +16758,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B74BA95-C352-4F0B-86EA-A0A7055A8E2E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN371"/>
+  <dimension ref="A1:AR371"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ117" sqref="AQ117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16751,16 +16772,19 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
     <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="43" max="43" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:44">
       <c r="A1" s="3"/>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -16881,8 +16905,15 @@
       <c r="AN2" s="1" t="s">
         <v>459</v>
       </c>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="AR2" s="42" t="s">
+        <v>518</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:44">
       <c r="A3">
         <v>507</v>
       </c>
@@ -16999,13 +17030,24 @@
         <v>60</v>
       </c>
       <c r="AM3">
+        <f>IF(J3&gt;$AQ$5,1,IF(J3&lt;$AQ$3,3,2))</f>
         <v>2</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="AP3" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="AQ3" s="42">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="42">
+        <f>COUNTIF(AM3:AM371,1)</f>
+        <v>114</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:44">
       <c r="A4">
         <v>520</v>
       </c>
@@ -17121,14 +17163,25 @@
       <c r="AL4" t="s">
         <v>60</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="42">
+        <f t="shared" ref="AM4:AM67" si="1">IF(J4&gt;$AQ$5,1,IF(J4&lt;$AQ$3,3,2))</f>
         <v>3</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="AP4" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ4" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR4" s="42">
+        <f>COUNTIF(AM3:AM371,2)</f>
+        <v>124</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:44">
       <c r="A5">
         <v>528</v>
       </c>
@@ -17244,14 +17297,25 @@
       <c r="AL5" t="s">
         <v>60</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="AP5" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ5" s="42">
+        <v>75</v>
+      </c>
+      <c r="AR5" s="42">
+        <f>COUNTIF(AM3:AM371,3)</f>
+        <v>126</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:44">
       <c r="A6">
         <v>523</v>
       </c>
@@ -17367,14 +17431,15 @@
       <c r="AL6" t="s">
         <v>60</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>291</v>
       </c>
@@ -17490,14 +17555,15 @@
       <c r="AL7" t="s">
         <v>65</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>326</v>
       </c>
@@ -17613,14 +17679,15 @@
       <c r="AL8" t="s">
         <v>65</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>322</v>
       </c>
@@ -17736,14 +17803,15 @@
       <c r="AL9" t="s">
         <v>65</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN9" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:44">
       <c r="A10">
         <v>282</v>
       </c>
@@ -17859,14 +17927,15 @@
       <c r="AL10" t="s">
         <v>65</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:44">
       <c r="A11">
         <v>263</v>
       </c>
@@ -17982,14 +18051,15 @@
       <c r="AL11" t="s">
         <v>65</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:44">
       <c r="A12">
         <v>258</v>
       </c>
@@ -18105,14 +18175,15 @@
       <c r="AL12" t="s">
         <v>65</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:44">
       <c r="A13">
         <v>444</v>
       </c>
@@ -18228,14 +18299,15 @@
       <c r="AL13" t="s">
         <v>65</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:44">
       <c r="A14">
         <v>309</v>
       </c>
@@ -18351,14 +18423,15 @@
       <c r="AL14" t="s">
         <v>65</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN14" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:44">
       <c r="A15">
         <v>310</v>
       </c>
@@ -18474,14 +18547,15 @@
       <c r="AL15" t="s">
         <v>65</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN15" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:44">
       <c r="A16">
         <v>333</v>
       </c>
@@ -18597,7 +18671,8 @@
       <c r="AL16" t="s">
         <v>65</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN16" s="1" t="s">
@@ -18720,7 +18795,8 @@
       <c r="AL17" t="s">
         <v>65</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN17" s="1" t="s">
@@ -18843,7 +18919,8 @@
       <c r="AL18" t="s">
         <v>65</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN18" s="1" t="s">
@@ -18966,7 +19043,8 @@
       <c r="AL19" t="s">
         <v>76</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN19" s="1" t="s">
@@ -19089,7 +19167,8 @@
       <c r="AL20" t="s">
         <v>76</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN20" s="1" t="s">
@@ -19212,7 +19291,8 @@
       <c r="AL21" t="s">
         <v>76</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN21" s="1" t="s">
@@ -19335,7 +19415,8 @@
       <c r="AL22" t="s">
         <v>76</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN22" s="1" t="s">
@@ -19458,7 +19539,8 @@
       <c r="AL23" t="s">
         <v>76</v>
       </c>
-      <c r="AM23">
+      <c r="AM23" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN23" s="1" t="s">
@@ -19581,7 +19663,8 @@
       <c r="AL24" t="s">
         <v>76</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN24" s="1" t="s">
@@ -19704,7 +19787,8 @@
       <c r="AL25" t="s">
         <v>76</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN25" s="1" t="s">
@@ -19827,7 +19911,8 @@
       <c r="AL26" t="s">
         <v>76</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN26" s="1" t="s">
@@ -19950,7 +20035,8 @@
       <c r="AL27" t="s">
         <v>76</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN27" s="1" t="s">
@@ -20073,7 +20159,8 @@
       <c r="AL28" t="s">
         <v>76</v>
       </c>
-      <c r="AM28">
+      <c r="AM28" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN28" s="1" t="s">
@@ -20196,7 +20283,8 @@
       <c r="AL29" t="s">
         <v>76</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN29" s="1" t="s">
@@ -20319,7 +20407,8 @@
       <c r="AL30" t="s">
         <v>76</v>
       </c>
-      <c r="AM30">
+      <c r="AM30" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN30" s="1" t="s">
@@ -20442,7 +20531,8 @@
       <c r="AL31" t="s">
         <v>88</v>
       </c>
-      <c r="AM31">
+      <c r="AM31" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN31" s="1" t="s">
@@ -20565,7 +20655,8 @@
       <c r="AL32" t="s">
         <v>88</v>
       </c>
-      <c r="AM32">
+      <c r="AM32" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN32" s="1" t="s">
@@ -20688,7 +20779,8 @@
       <c r="AL33" t="s">
         <v>88</v>
       </c>
-      <c r="AM33">
+      <c r="AM33" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN33" s="1" t="s">
@@ -20811,7 +20903,8 @@
       <c r="AL34" t="s">
         <v>88</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN34" s="1" t="s">
@@ -20934,7 +21027,8 @@
       <c r="AL35" t="s">
         <v>88</v>
       </c>
-      <c r="AM35">
+      <c r="AM35" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN35" s="1" t="s">
@@ -21057,7 +21151,8 @@
       <c r="AL36" t="s">
         <v>88</v>
       </c>
-      <c r="AM36">
+      <c r="AM36" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN36" s="1" t="s">
@@ -21180,7 +21275,8 @@
       <c r="AL37" t="s">
         <v>88</v>
       </c>
-      <c r="AM37">
+      <c r="AM37" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN37" s="1" t="s">
@@ -21303,7 +21399,8 @@
       <c r="AL38" t="s">
         <v>88</v>
       </c>
-      <c r="AM38">
+      <c r="AM38" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN38" s="1" t="s">
@@ -21426,7 +21523,8 @@
       <c r="AL39" t="s">
         <v>88</v>
       </c>
-      <c r="AM39">
+      <c r="AM39" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN39" s="1" t="s">
@@ -21549,7 +21647,8 @@
       <c r="AL40" t="s">
         <v>88</v>
       </c>
-      <c r="AM40">
+      <c r="AM40" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN40" s="1" t="s">
@@ -21672,7 +21771,8 @@
       <c r="AL41" t="s">
         <v>88</v>
       </c>
-      <c r="AM41">
+      <c r="AM41" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN41" s="1" t="s">
@@ -21795,7 +21895,8 @@
       <c r="AL42" t="s">
         <v>88</v>
       </c>
-      <c r="AM42">
+      <c r="AM42" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN42" s="1" t="s">
@@ -21918,7 +22019,8 @@
       <c r="AL43" t="s">
         <v>88</v>
       </c>
-      <c r="AM43">
+      <c r="AM43" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN43" s="1" t="s">
@@ -22041,7 +22143,8 @@
       <c r="AL44" t="s">
         <v>88</v>
       </c>
-      <c r="AM44">
+      <c r="AM44" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN44" s="1" t="s">
@@ -22164,7 +22267,8 @@
       <c r="AL45" t="s">
         <v>88</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN45" s="1" t="s">
@@ -22287,7 +22391,8 @@
       <c r="AL46" t="s">
         <v>88</v>
       </c>
-      <c r="AM46">
+      <c r="AM46" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN46" s="1" t="s">
@@ -22410,7 +22515,8 @@
       <c r="AL47" t="s">
         <v>88</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN47" s="1" t="s">
@@ -22533,7 +22639,8 @@
       <c r="AL48" t="s">
         <v>88</v>
       </c>
-      <c r="AM48">
+      <c r="AM48" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN48" s="1" t="s">
@@ -22656,7 +22763,8 @@
       <c r="AL49" t="s">
         <v>88</v>
       </c>
-      <c r="AM49">
+      <c r="AM49" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN49" s="1" t="s">
@@ -22779,7 +22887,8 @@
       <c r="AL50" t="s">
         <v>88</v>
       </c>
-      <c r="AM50">
+      <c r="AM50" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN50" s="1" t="s">
@@ -22902,7 +23011,8 @@
       <c r="AL51" t="s">
         <v>88</v>
       </c>
-      <c r="AM51">
+      <c r="AM51" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN51" s="1" t="s">
@@ -23025,7 +23135,8 @@
       <c r="AL52" t="s">
         <v>88</v>
       </c>
-      <c r="AM52">
+      <c r="AM52" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN52" s="1" t="s">
@@ -23148,7 +23259,8 @@
       <c r="AL53" t="s">
         <v>88</v>
       </c>
-      <c r="AM53">
+      <c r="AM53" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN53" s="1" t="s">
@@ -23271,7 +23383,8 @@
       <c r="AL54" t="s">
         <v>88</v>
       </c>
-      <c r="AM54">
+      <c r="AM54" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN54" s="1" t="s">
@@ -23394,7 +23507,8 @@
       <c r="AL55" t="s">
         <v>88</v>
       </c>
-      <c r="AM55">
+      <c r="AM55" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN55" s="1" t="s">
@@ -23517,7 +23631,8 @@
       <c r="AL56" t="s">
         <v>88</v>
       </c>
-      <c r="AM56">
+      <c r="AM56" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN56" s="1" t="s">
@@ -23640,7 +23755,8 @@
       <c r="AL57" t="s">
         <v>88</v>
       </c>
-      <c r="AM57">
+      <c r="AM57" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN57" s="1" t="s">
@@ -23763,7 +23879,8 @@
       <c r="AL58" t="s">
         <v>88</v>
       </c>
-      <c r="AM58">
+      <c r="AM58" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN58" s="1" t="s">
@@ -23886,7 +24003,8 @@
       <c r="AL59" t="s">
         <v>88</v>
       </c>
-      <c r="AM59">
+      <c r="AM59" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN59" s="1" t="s">
@@ -24009,7 +24127,8 @@
       <c r="AL60" t="s">
         <v>88</v>
       </c>
-      <c r="AM60">
+      <c r="AM60" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN60" s="1" t="s">
@@ -24132,7 +24251,8 @@
       <c r="AL61" t="s">
         <v>88</v>
       </c>
-      <c r="AM61">
+      <c r="AM61" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN61" s="1" t="s">
@@ -24255,7 +24375,8 @@
       <c r="AL62" t="s">
         <v>88</v>
       </c>
-      <c r="AM62">
+      <c r="AM62" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN62" s="1" t="s">
@@ -24378,7 +24499,8 @@
       <c r="AL63" t="s">
         <v>88</v>
       </c>
-      <c r="AM63">
+      <c r="AM63" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN63" s="1" t="s">
@@ -24501,7 +24623,8 @@
       <c r="AL64" t="s">
         <v>88</v>
       </c>
-      <c r="AM64">
+      <c r="AM64" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN64" s="1" t="s">
@@ -24624,7 +24747,8 @@
       <c r="AL65" t="s">
         <v>88</v>
       </c>
-      <c r="AM65">
+      <c r="AM65" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN65" s="1" t="s">
@@ -24747,7 +24871,8 @@
       <c r="AL66" t="s">
         <v>88</v>
       </c>
-      <c r="AM66">
+      <c r="AM66" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN66" s="1" t="s">
@@ -24783,7 +24908,7 @@
         <v>0.21</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">H67/I67</f>
+        <f t="shared" ref="J67:J130" si="2">H67/I67</f>
         <v>56.523809523809526</v>
       </c>
       <c r="K67">
@@ -24870,7 +24995,8 @@
       <c r="AL67" t="s">
         <v>88</v>
       </c>
-      <c r="AM67">
+      <c r="AM67" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN67" s="1" t="s">
@@ -24906,7 +25032,7 @@
         <v>7.25</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.442758620689659</v>
       </c>
       <c r="K68">
@@ -24993,7 +25119,8 @@
       <c r="AL68" t="s">
         <v>126</v>
       </c>
-      <c r="AM68">
+      <c r="AM68" s="42">
+        <f t="shared" ref="AM68:AM131" si="3">IF(J68&gt;$AQ$5,1,IF(J68&lt;$AQ$3,3,2))</f>
         <v>1</v>
       </c>
       <c r="AN68" s="1" t="s">
@@ -25029,7 +25156,7 @@
         <v>2.9</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.913793103448285</v>
       </c>
       <c r="K69">
@@ -25116,7 +25243,8 @@
       <c r="AL69" t="s">
         <v>126</v>
       </c>
-      <c r="AM69">
+      <c r="AM69" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN69" s="1" t="s">
@@ -25152,7 +25280,7 @@
         <v>1.83</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.595628415300546</v>
       </c>
       <c r="K70">
@@ -25239,7 +25367,8 @@
       <c r="AL70" t="s">
         <v>126</v>
       </c>
-      <c r="AM70">
+      <c r="AM70" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN70" s="1" t="s">
@@ -25275,7 +25404,7 @@
         <v>0.05</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>292.2</v>
       </c>
       <c r="K71">
@@ -25362,7 +25491,8 @@
       <c r="AL71" t="s">
         <v>126</v>
       </c>
-      <c r="AM71">
+      <c r="AM71" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN71" s="1" t="s">
@@ -25398,7 +25528,7 @@
         <v>0.97</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.154639175257735</v>
       </c>
       <c r="K72">
@@ -25485,7 +25615,8 @@
       <c r="AL72" t="s">
         <v>126</v>
       </c>
-      <c r="AM72">
+      <c r="AM72" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN72" s="1" t="s">
@@ -25521,7 +25652,7 @@
         <v>0.85</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.141176470588242</v>
       </c>
       <c r="K73">
@@ -25608,7 +25739,8 @@
       <c r="AL73" t="s">
         <v>126</v>
       </c>
-      <c r="AM73">
+      <c r="AM73" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN73" s="1" t="s">
@@ -25644,7 +25776,7 @@
         <v>0.8</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.8</v>
       </c>
       <c r="K74">
@@ -25731,7 +25863,8 @@
       <c r="AL74" t="s">
         <v>126</v>
       </c>
-      <c r="AM74">
+      <c r="AM74" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN74" s="1" t="s">
@@ -25767,7 +25900,7 @@
         <v>0.66</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.30303030303028</v>
       </c>
       <c r="K75">
@@ -25854,7 +25987,8 @@
       <c r="AL75" t="s">
         <v>126</v>
       </c>
-      <c r="AM75">
+      <c r="AM75" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN75" s="1" t="s">
@@ -25890,7 +26024,7 @@
         <v>0.62</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.435483870967744</v>
       </c>
       <c r="K76">
@@ -25977,7 +26111,8 @@
       <c r="AL76" t="s">
         <v>126</v>
       </c>
-      <c r="AM76">
+      <c r="AM76" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN76" s="1" t="s">
@@ -26013,7 +26148,7 @@
         <v>0.04</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>269.75</v>
       </c>
       <c r="K77">
@@ -26100,7 +26235,8 @@
       <c r="AL77" t="s">
         <v>126</v>
       </c>
-      <c r="AM77">
+      <c r="AM77" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN77" s="1" t="s">
@@ -26136,7 +26272,7 @@
         <v>0.6</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.716666666666669</v>
       </c>
       <c r="K78">
@@ -26223,7 +26359,8 @@
       <c r="AL78" t="s">
         <v>126</v>
       </c>
-      <c r="AM78">
+      <c r="AM78" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN78" s="1" t="s">
@@ -26259,7 +26396,7 @@
         <v>0.31</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.612903225806448</v>
       </c>
       <c r="K79">
@@ -26346,7 +26483,8 @@
       <c r="AL79" t="s">
         <v>126</v>
       </c>
-      <c r="AM79">
+      <c r="AM79" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN79" s="1" t="s">
@@ -26382,7 +26520,7 @@
         <v>0.52</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.82692307692308</v>
       </c>
       <c r="K80">
@@ -26469,7 +26607,8 @@
       <c r="AL80" t="s">
         <v>126</v>
       </c>
-      <c r="AM80">
+      <c r="AM80" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN80" s="1" t="s">
@@ -26505,7 +26644,7 @@
         <v>0.5</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.22</v>
       </c>
       <c r="K81">
@@ -26592,7 +26731,8 @@
       <c r="AL81" t="s">
         <v>126</v>
       </c>
-      <c r="AM81">
+      <c r="AM81" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN81" s="1" t="s">
@@ -26628,7 +26768,7 @@
         <v>0.48</v>
       </c>
       <c r="J82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.104166666666671</v>
       </c>
       <c r="K82">
@@ -26715,7 +26855,8 @@
       <c r="AL82" t="s">
         <v>126</v>
       </c>
-      <c r="AM82">
+      <c r="AM82" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN82" s="1" t="s">
@@ -26751,7 +26892,7 @@
         <v>0.46</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.608695652173907</v>
       </c>
       <c r="K83">
@@ -26838,7 +26979,8 @@
       <c r="AL83" t="s">
         <v>126</v>
       </c>
-      <c r="AM83">
+      <c r="AM83" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN83" s="1" t="s">
@@ -26874,7 +27016,7 @@
         <v>0.43</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.279069767441868</v>
       </c>
       <c r="K84">
@@ -26961,7 +27103,8 @@
       <c r="AL84" t="s">
         <v>126</v>
       </c>
-      <c r="AM84">
+      <c r="AM84" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN84" s="1" t="s">
@@ -26997,7 +27140,7 @@
         <v>0.39</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.897435897435891</v>
       </c>
       <c r="K85">
@@ -27084,7 +27227,8 @@
       <c r="AL85" t="s">
         <v>126</v>
       </c>
-      <c r="AM85">
+      <c r="AM85" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN85" s="1" t="s">
@@ -27120,7 +27264,7 @@
         <v>0.38</v>
       </c>
       <c r="J86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.131578947368411</v>
       </c>
       <c r="K86">
@@ -27207,7 +27351,8 @@
       <c r="AL86" t="s">
         <v>126</v>
       </c>
-      <c r="AM86">
+      <c r="AM86" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN86" s="1" t="s">
@@ -27243,7 +27388,7 @@
         <v>0.01</v>
       </c>
       <c r="J87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3328</v>
       </c>
       <c r="K87">
@@ -27330,7 +27475,8 @@
       <c r="AL87" t="s">
         <v>126</v>
       </c>
-      <c r="AM87">
+      <c r="AM87" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN87" s="1" t="s">
@@ -27366,7 +27512,7 @@
         <v>0.3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.63333333333334</v>
       </c>
       <c r="K88">
@@ -27453,7 +27599,8 @@
       <c r="AL88" t="s">
         <v>126</v>
       </c>
-      <c r="AM88">
+      <c r="AM88" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN88" s="1" t="s">
@@ -27489,7 +27636,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.137931034482762</v>
       </c>
       <c r="K89">
@@ -27576,7 +27723,8 @@
       <c r="AL89" t="s">
         <v>126</v>
       </c>
-      <c r="AM89">
+      <c r="AM89" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN89" s="1" t="s">
@@ -27612,7 +27760,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.214285714285715</v>
       </c>
       <c r="K90">
@@ -27699,7 +27847,8 @@
       <c r="AL90" t="s">
         <v>126</v>
       </c>
-      <c r="AM90">
+      <c r="AM90" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN90" s="1" t="s">
@@ -27735,7 +27884,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.214285714285715</v>
       </c>
       <c r="K91">
@@ -27822,7 +27971,8 @@
       <c r="AL91" t="s">
         <v>126</v>
       </c>
-      <c r="AM91">
+      <c r="AM91" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN91" s="1" t="s">
@@ -27858,7 +28008,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101.14285714285714</v>
       </c>
       <c r="K92">
@@ -27945,7 +28095,8 @@
       <c r="AL92" t="s">
         <v>126</v>
       </c>
-      <c r="AM92">
+      <c r="AM92" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN92" s="1" t="s">
@@ -27981,7 +28132,7 @@
         <v>0.04</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>395.75</v>
       </c>
       <c r="K93">
@@ -28068,7 +28219,8 @@
       <c r="AL93" t="s">
         <v>126</v>
       </c>
-      <c r="AM93">
+      <c r="AM93" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN93" s="1" t="s">
@@ -28104,7 +28256,7 @@
         <v>0.13</v>
       </c>
       <c r="J94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145.69230769230771</v>
       </c>
       <c r="K94">
@@ -28191,7 +28343,8 @@
       <c r="AL94" t="s">
         <v>126</v>
       </c>
-      <c r="AM94">
+      <c r="AM94" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN94" s="1" t="s">
@@ -28227,7 +28380,7 @@
         <v>0.1</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.69999999999999</v>
       </c>
       <c r="K95">
@@ -28314,7 +28467,8 @@
       <c r="AL95" t="s">
         <v>126</v>
       </c>
-      <c r="AM95">
+      <c r="AM95" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN95" s="1" t="s">
@@ -28350,7 +28504,7 @@
         <v>18.41</v>
       </c>
       <c r="J96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.857686040195546</v>
       </c>
       <c r="K96">
@@ -28437,7 +28591,8 @@
       <c r="AL96" t="s">
         <v>151</v>
       </c>
-      <c r="AM96">
+      <c r="AM96" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN96" s="1" t="s">
@@ -28473,7 +28628,7 @@
         <v>8.35</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.202395209580843</v>
       </c>
       <c r="K97">
@@ -28560,7 +28715,8 @@
       <c r="AL97" t="s">
         <v>151</v>
       </c>
-      <c r="AM97">
+      <c r="AM97" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN97" s="1" t="s">
@@ -28596,7 +28752,7 @@
         <v>5.33</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.121951219512198</v>
       </c>
       <c r="K98">
@@ -28683,7 +28839,8 @@
       <c r="AL98" t="s">
         <v>151</v>
       </c>
-      <c r="AM98">
+      <c r="AM98" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN98" s="1" t="s">
@@ -28719,7 +28876,7 @@
         <v>3.92</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.298469387755091</v>
       </c>
       <c r="K99">
@@ -28806,7 +28963,8 @@
       <c r="AL99" t="s">
         <v>151</v>
       </c>
-      <c r="AM99">
+      <c r="AM99" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN99" s="1" t="s">
@@ -28842,7 +29000,7 @@
         <v>2.76</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.090579710144929</v>
       </c>
       <c r="K100">
@@ -28929,7 +29087,8 @@
       <c r="AL100" t="s">
         <v>151</v>
       </c>
-      <c r="AM100">
+      <c r="AM100" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN100" s="1" t="s">
@@ -28965,7 +29124,7 @@
         <v>2.08</v>
       </c>
       <c r="J101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.028846153846146</v>
       </c>
       <c r="K101">
@@ -29052,7 +29211,8 @@
       <c r="AL101" t="s">
         <v>151</v>
       </c>
-      <c r="AM101">
+      <c r="AM101" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN101" s="1" t="s">
@@ -29088,7 +29248,7 @@
         <v>1.38</v>
       </c>
       <c r="J102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.268115942028984</v>
       </c>
       <c r="K102">
@@ -29175,7 +29335,8 @@
       <c r="AL102" t="s">
         <v>151</v>
       </c>
-      <c r="AM102">
+      <c r="AM102" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN102" s="1" t="s">
@@ -29211,7 +29372,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.33620689655173</v>
       </c>
       <c r="K103">
@@ -29298,7 +29459,8 @@
       <c r="AL103" t="s">
         <v>151</v>
       </c>
-      <c r="AM103">
+      <c r="AM103" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN103" s="1" t="s">
@@ -29334,7 +29496,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.643478260869571</v>
       </c>
       <c r="K104">
@@ -29421,7 +29583,8 @@
       <c r="AL104" t="s">
         <v>151</v>
       </c>
-      <c r="AM104">
+      <c r="AM104" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN104" s="1" t="s">
@@ -29457,7 +29620,7 @@
         <v>0.64</v>
       </c>
       <c r="J105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.609375</v>
       </c>
       <c r="K105">
@@ -29544,7 +29707,8 @@
       <c r="AL105" t="s">
         <v>151</v>
       </c>
-      <c r="AM105">
+      <c r="AM105" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN105" s="1" t="s">
@@ -29580,7 +29744,7 @@
         <v>0.32</v>
       </c>
       <c r="J106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.5</v>
       </c>
       <c r="K106">
@@ -29667,7 +29831,8 @@
       <c r="AL106" t="s">
         <v>151</v>
       </c>
-      <c r="AM106">
+      <c r="AM106" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN106" s="1" t="s">
@@ -29703,7 +29868,7 @@
         <v>0.11</v>
       </c>
       <c r="J107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238.72727272727275</v>
       </c>
       <c r="K107">
@@ -29790,7 +29955,8 @@
       <c r="AL107" t="s">
         <v>151</v>
       </c>
-      <c r="AM107">
+      <c r="AM107" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN107" s="1" t="s">
@@ -29826,7 +29992,7 @@
         <v>0.3</v>
       </c>
       <c r="J108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.833333333333336</v>
       </c>
       <c r="K108">
@@ -29913,7 +30079,8 @@
       <c r="AL108" t="s">
         <v>151</v>
       </c>
-      <c r="AM108">
+      <c r="AM108" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN108" s="1" t="s">
@@ -29949,7 +30116,7 @@
         <v>0.13</v>
       </c>
       <c r="J109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160.92307692307693</v>
       </c>
       <c r="K109">
@@ -30036,7 +30203,8 @@
       <c r="AL109" t="s">
         <v>151</v>
       </c>
-      <c r="AM109">
+      <c r="AM109" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN109" s="1" t="s">
@@ -30072,7 +30240,7 @@
         <v>0.62</v>
       </c>
       <c r="J110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110.29032258064515</v>
       </c>
       <c r="K110">
@@ -30159,7 +30327,8 @@
       <c r="AL110" t="s">
         <v>151</v>
       </c>
-      <c r="AM110">
+      <c r="AM110" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN110" s="1" t="s">
@@ -30195,7 +30364,7 @@
         <v>0.34</v>
       </c>
       <c r="J111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103.29411764705881</v>
       </c>
       <c r="K111">
@@ -30282,7 +30451,8 @@
       <c r="AL111" t="s">
         <v>151</v>
       </c>
-      <c r="AM111">
+      <c r="AM111" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN111" s="1" t="s">
@@ -30318,7 +30488,7 @@
         <v>3.28</v>
       </c>
       <c r="J112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.481707317073173</v>
       </c>
       <c r="K112">
@@ -30405,7 +30575,8 @@
       <c r="AL112" t="s">
         <v>165</v>
       </c>
-      <c r="AM112">
+      <c r="AM112" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN112" s="1" t="s">
@@ -30441,7 +30612,7 @@
         <v>2.13</v>
       </c>
       <c r="J113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.699530516431921</v>
       </c>
       <c r="K113">
@@ -30528,7 +30699,8 @@
       <c r="AL113" t="s">
         <v>165</v>
       </c>
-      <c r="AM113">
+      <c r="AM113" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN113" s="1" t="s">
@@ -30564,7 +30736,7 @@
         <v>1.56</v>
       </c>
       <c r="J114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.487179487179489</v>
       </c>
       <c r="K114">
@@ -30651,7 +30823,8 @@
       <c r="AL114" t="s">
         <v>165</v>
       </c>
-      <c r="AM114">
+      <c r="AM114" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN114" s="1" t="s">
@@ -30687,7 +30860,7 @@
         <v>1.5</v>
       </c>
       <c r="J115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.066666666666663</v>
       </c>
       <c r="K115">
@@ -30774,7 +30947,8 @@
       <c r="AL115" t="s">
         <v>165</v>
       </c>
-      <c r="AM115">
+      <c r="AM115" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN115" s="1" t="s">
@@ -30810,7 +30984,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.702702702702695</v>
       </c>
       <c r="K116">
@@ -30897,7 +31071,8 @@
       <c r="AL116" t="s">
         <v>165</v>
       </c>
-      <c r="AM116">
+      <c r="AM116" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN116" s="1" t="s">
@@ -30933,7 +31108,7 @@
         <v>0.93</v>
       </c>
       <c r="J117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.44086021505376</v>
       </c>
       <c r="K117">
@@ -31020,7 +31195,8 @@
       <c r="AL117" t="s">
         <v>165</v>
       </c>
-      <c r="AM117">
+      <c r="AM117" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN117" s="1" t="s">
@@ -31056,7 +31232,7 @@
         <v>0.88</v>
       </c>
       <c r="J118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156.95454545454547</v>
       </c>
       <c r="K118">
@@ -31143,7 +31319,8 @@
       <c r="AL118" t="s">
         <v>165</v>
       </c>
-      <c r="AM118">
+      <c r="AM118" s="42">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AN118" s="1" t="s">
@@ -31179,7 +31356,7 @@
         <v>0.72</v>
       </c>
       <c r="J119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.902777777777779</v>
       </c>
       <c r="K119">
@@ -31266,7 +31443,8 @@
       <c r="AL119" t="s">
         <v>165</v>
       </c>
-      <c r="AM119">
+      <c r="AM119" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN119" s="1" t="s">
@@ -31302,7 +31480,7 @@
         <v>0.6</v>
       </c>
       <c r="J120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.3</v>
       </c>
       <c r="K120">
@@ -31389,7 +31567,8 @@
       <c r="AL120" t="s">
         <v>165</v>
       </c>
-      <c r="AM120">
+      <c r="AM120" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN120" s="1" t="s">
@@ -31425,7 +31604,7 @@
         <v>0.59</v>
       </c>
       <c r="J121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.96610169491526</v>
       </c>
       <c r="K121">
@@ -31512,7 +31691,8 @@
       <c r="AL121" t="s">
         <v>165</v>
       </c>
-      <c r="AM121">
+      <c r="AM121" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN121" s="1" t="s">
@@ -31548,7 +31728,7 @@
         <v>0.47</v>
       </c>
       <c r="J122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.936170212765958</v>
       </c>
       <c r="K122">
@@ -31635,7 +31815,8 @@
       <c r="AL122" t="s">
         <v>165</v>
       </c>
-      <c r="AM122">
+      <c r="AM122" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN122" s="1" t="s">
@@ -31671,7 +31852,7 @@
         <v>0.38</v>
       </c>
       <c r="J123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.342105263157897</v>
       </c>
       <c r="K123">
@@ -31758,7 +31939,8 @@
       <c r="AL123" t="s">
         <v>165</v>
       </c>
-      <c r="AM123">
+      <c r="AM123" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN123" s="1" t="s">
@@ -31794,7 +31976,7 @@
         <v>0.34</v>
       </c>
       <c r="J124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.441176470588232</v>
       </c>
       <c r="K124">
@@ -31881,7 +32063,8 @@
       <c r="AL124" t="s">
         <v>165</v>
       </c>
-      <c r="AM124">
+      <c r="AM124" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN124" s="1" t="s">
@@ -31917,7 +32100,7 @@
         <v>0.32</v>
       </c>
       <c r="J125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.46875</v>
       </c>
       <c r="K125">
@@ -32004,7 +32187,8 @@
       <c r="AL125" t="s">
         <v>165</v>
       </c>
-      <c r="AM125">
+      <c r="AM125" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN125" s="1" t="s">
@@ -32040,7 +32224,7 @@
         <v>0.3</v>
       </c>
       <c r="J126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.300000000000004</v>
       </c>
       <c r="K126">
@@ -32127,7 +32311,8 @@
       <c r="AL126" t="s">
         <v>165</v>
       </c>
-      <c r="AM126">
+      <c r="AM126" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN126" s="1" t="s">
@@ -32163,7 +32348,7 @@
         <v>0.26</v>
       </c>
       <c r="J127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.307692307692307</v>
       </c>
       <c r="K127">
@@ -32250,7 +32435,8 @@
       <c r="AL127" t="s">
         <v>165</v>
       </c>
-      <c r="AM127">
+      <c r="AM127" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN127" s="1" t="s">
@@ -32286,7 +32472,7 @@
         <v>0.24</v>
       </c>
       <c r="J128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.875</v>
       </c>
       <c r="K128">
@@ -32373,7 +32559,8 @@
       <c r="AL128" t="s">
         <v>165</v>
       </c>
-      <c r="AM128">
+      <c r="AM128" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN128" s="1" t="s">
@@ -32409,7 +32596,7 @@
         <v>7.38</v>
       </c>
       <c r="J129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.134146341463421</v>
       </c>
       <c r="K129">
@@ -32496,7 +32683,8 @@
       <c r="AL129" t="s">
         <v>181</v>
       </c>
-      <c r="AM129">
+      <c r="AM129" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN129" s="1" t="s">
@@ -32532,7 +32720,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="J130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.286697247706428</v>
       </c>
       <c r="K130">
@@ -32619,7 +32807,8 @@
       <c r="AL130" t="s">
         <v>181</v>
       </c>
-      <c r="AM130">
+      <c r="AM130" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AN130" s="1" t="s">
@@ -32655,7 +32844,7 @@
         <v>1.56</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">H131/I131</f>
+        <f t="shared" ref="J131:J194" si="4">H131/I131</f>
         <v>48.71153846153846</v>
       </c>
       <c r="K131">
@@ -32742,7 +32931,8 @@
       <c r="AL131" t="s">
         <v>181</v>
       </c>
-      <c r="AM131">
+      <c r="AM131" s="42">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN131" s="1" t="s">
@@ -32778,7 +32968,7 @@
         <v>0.75</v>
       </c>
       <c r="J132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.586666666666666</v>
       </c>
       <c r="K132">
@@ -32865,7 +33055,8 @@
       <c r="AL132" t="s">
         <v>181</v>
       </c>
-      <c r="AM132">
+      <c r="AM132" s="42">
+        <f t="shared" ref="AM132:AM195" si="5">IF(J132&gt;$AQ$5,1,IF(J132&lt;$AQ$3,3,2))</f>
         <v>3</v>
       </c>
       <c r="AN132" s="1" t="s">
@@ -32901,7 +33092,7 @@
         <v>0.68</v>
       </c>
       <c r="J133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44.264705882352942</v>
       </c>
       <c r="K133">
@@ -32988,7 +33179,8 @@
       <c r="AL133" t="s">
         <v>181</v>
       </c>
-      <c r="AM133">
+      <c r="AM133" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN133" s="1" t="s">
@@ -33024,7 +33216,7 @@
         <v>0.65</v>
       </c>
       <c r="J134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72.676923076923075</v>
       </c>
       <c r="K134">
@@ -33111,7 +33303,8 @@
       <c r="AL134" t="s">
         <v>181</v>
       </c>
-      <c r="AM134">
+      <c r="AM134" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN134" s="1" t="s">
@@ -33147,7 +33340,7 @@
         <v>0.63</v>
       </c>
       <c r="J135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.682539682539677</v>
       </c>
       <c r="K135">
@@ -33234,7 +33427,8 @@
       <c r="AL135" t="s">
         <v>181</v>
       </c>
-      <c r="AM135">
+      <c r="AM135" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN135" s="1" t="s">
@@ -33270,7 +33464,7 @@
         <v>0.34</v>
       </c>
       <c r="J136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.117647058823522</v>
       </c>
       <c r="K136">
@@ -33357,7 +33551,8 @@
       <c r="AL136" t="s">
         <v>181</v>
       </c>
-      <c r="AM136">
+      <c r="AM136" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN136" s="1" t="s">
@@ -33393,7 +33588,7 @@
         <v>0.32</v>
       </c>
       <c r="J137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.28125</v>
       </c>
       <c r="K137">
@@ -33480,7 +33675,8 @@
       <c r="AL137" t="s">
         <v>181</v>
       </c>
-      <c r="AM137">
+      <c r="AM137" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN137" s="1" t="s">
@@ -33516,7 +33712,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.964285714285715</v>
       </c>
       <c r="K138">
@@ -33603,7 +33799,8 @@
       <c r="AL138" t="s">
         <v>181</v>
       </c>
-      <c r="AM138">
+      <c r="AM138" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN138" s="1" t="s">
@@ -33639,7 +33836,7 @@
         <v>0.27</v>
       </c>
       <c r="J139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.555555555555557</v>
       </c>
       <c r="K139">
@@ -33726,7 +33923,8 @@
       <c r="AL139" t="s">
         <v>181</v>
       </c>
-      <c r="AM139">
+      <c r="AM139" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN139" s="1" t="s">
@@ -33762,7 +33960,7 @@
         <v>5.94</v>
       </c>
       <c r="J140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>132.63636363636363</v>
       </c>
       <c r="K140">
@@ -33849,7 +34047,8 @@
       <c r="AL140" t="s">
         <v>193</v>
       </c>
-      <c r="AM140">
+      <c r="AM140" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN140" s="1" t="s">
@@ -33885,7 +34084,7 @@
         <v>5.52</v>
       </c>
       <c r="J141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87.773550724637687</v>
       </c>
       <c r="K141">
@@ -33972,7 +34171,8 @@
       <c r="AL141" t="s">
         <v>193</v>
       </c>
-      <c r="AM141">
+      <c r="AM141" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN141" s="1" t="s">
@@ -34008,7 +34208,7 @@
         <v>3.78</v>
       </c>
       <c r="J142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.063492063492063</v>
       </c>
       <c r="K142">
@@ -34095,7 +34295,8 @@
       <c r="AL142" t="s">
         <v>193</v>
       </c>
-      <c r="AM142">
+      <c r="AM142" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN142" s="1" t="s">
@@ -34131,7 +34332,7 @@
         <v>3.17</v>
       </c>
       <c r="J143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>157.90536277602524</v>
       </c>
       <c r="K143">
@@ -34218,7 +34419,8 @@
       <c r="AL143" t="s">
         <v>193</v>
       </c>
-      <c r="AM143">
+      <c r="AM143" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN143" s="1" t="s">
@@ -34254,7 +34456,7 @@
         <v>2.94</v>
       </c>
       <c r="J144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.204081632653057</v>
       </c>
       <c r="K144">
@@ -34341,7 +34543,8 @@
       <c r="AL144" t="s">
         <v>193</v>
       </c>
-      <c r="AM144">
+      <c r="AM144" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN144" s="1" t="s">
@@ -34377,7 +34580,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106.53043478260871</v>
       </c>
       <c r="K145">
@@ -34464,7 +34667,8 @@
       <c r="AL145" t="s">
         <v>193</v>
       </c>
-      <c r="AM145">
+      <c r="AM145" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN145" s="1" t="s">
@@ -34500,7 +34704,7 @@
         <v>1.88</v>
       </c>
       <c r="J146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.388297872340431</v>
       </c>
       <c r="K146">
@@ -34587,7 +34791,8 @@
       <c r="AL146" t="s">
         <v>193</v>
       </c>
-      <c r="AM146">
+      <c r="AM146" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN146" s="1" t="s">
@@ -34623,7 +34828,7 @@
         <v>1.34</v>
       </c>
       <c r="J147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.701492537313435</v>
       </c>
       <c r="K147">
@@ -34710,7 +34915,8 @@
       <c r="AL147" t="s">
         <v>193</v>
       </c>
-      <c r="AM147">
+      <c r="AM147" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN147" s="1" t="s">
@@ -34746,7 +34952,7 @@
         <v>1.21</v>
       </c>
       <c r="J148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.396694214876035</v>
       </c>
       <c r="K148">
@@ -34833,7 +35039,8 @@
       <c r="AL148" t="s">
         <v>193</v>
       </c>
-      <c r="AM148">
+      <c r="AM148" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN148" s="1" t="s">
@@ -34869,7 +35076,7 @@
         <v>1.21</v>
       </c>
       <c r="J149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.421487603305785</v>
       </c>
       <c r="K149">
@@ -34956,7 +35163,8 @@
       <c r="AL149" t="s">
         <v>193</v>
       </c>
-      <c r="AM149">
+      <c r="AM149" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN149" s="1" t="s">
@@ -34992,7 +35200,7 @@
         <v>0.92</v>
       </c>
       <c r="J150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.619565217391305</v>
       </c>
       <c r="K150">
@@ -35079,7 +35287,8 @@
       <c r="AL150" t="s">
         <v>193</v>
       </c>
-      <c r="AM150">
+      <c r="AM150" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN150" s="1" t="s">
@@ -35115,7 +35324,7 @@
         <v>0.87</v>
       </c>
       <c r="J151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.172413793103445</v>
       </c>
       <c r="K151">
@@ -35202,7 +35411,8 @@
       <c r="AL151" t="s">
         <v>193</v>
       </c>
-      <c r="AM151">
+      <c r="AM151" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN151" s="1" t="s">
@@ -35238,7 +35448,7 @@
         <v>0.84</v>
       </c>
       <c r="J152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.416666666666664</v>
       </c>
       <c r="K152">
@@ -35325,7 +35535,8 @@
       <c r="AL152" t="s">
         <v>193</v>
       </c>
-      <c r="AM152">
+      <c r="AM152" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN152" s="1" t="s">
@@ -35361,7 +35572,7 @@
         <v>0.68</v>
       </c>
       <c r="J153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.911764705882355</v>
       </c>
       <c r="K153">
@@ -35448,7 +35659,8 @@
       <c r="AL153" t="s">
         <v>193</v>
       </c>
-      <c r="AM153">
+      <c r="AM153" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN153" s="1" t="s">
@@ -35484,7 +35696,7 @@
         <v>0.59</v>
       </c>
       <c r="J154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300.77966101694921</v>
       </c>
       <c r="K154">
@@ -35571,7 +35783,8 @@
       <c r="AL154" t="s">
         <v>193</v>
       </c>
-      <c r="AM154">
+      <c r="AM154" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN154" s="1" t="s">
@@ -35607,7 +35820,7 @@
         <v>0.48</v>
       </c>
       <c r="J155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47.229166666666671</v>
       </c>
       <c r="K155">
@@ -35694,7 +35907,8 @@
       <c r="AL155" t="s">
         <v>193</v>
       </c>
-      <c r="AM155">
+      <c r="AM155" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN155" s="1" t="s">
@@ -35730,7 +35944,7 @@
         <v>0.48</v>
       </c>
       <c r="J156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124.20833333333333</v>
       </c>
       <c r="K156">
@@ -35817,7 +36031,8 @@
       <c r="AL156" t="s">
         <v>193</v>
       </c>
-      <c r="AM156">
+      <c r="AM156" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN156" s="1" t="s">
@@ -35853,7 +36068,7 @@
         <v>0.42</v>
       </c>
       <c r="J157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.285714285714292</v>
       </c>
       <c r="K157">
@@ -35940,7 +36155,8 @@
       <c r="AL157" t="s">
         <v>193</v>
       </c>
-      <c r="AM157">
+      <c r="AM157" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN157" s="1" t="s">
@@ -35976,7 +36192,7 @@
         <v>0.41</v>
       </c>
       <c r="J158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.853658536585371</v>
       </c>
       <c r="K158">
@@ -36063,7 +36279,8 @@
       <c r="AL158" t="s">
         <v>193</v>
       </c>
-      <c r="AM158">
+      <c r="AM158" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN158" s="1" t="s">
@@ -36099,7 +36316,7 @@
         <v>0.27</v>
       </c>
       <c r="J159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.81481481481481</v>
       </c>
       <c r="K159">
@@ -36186,7 +36403,8 @@
       <c r="AL159" t="s">
         <v>193</v>
       </c>
-      <c r="AM159">
+      <c r="AM159" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN159" s="1" t="s">
@@ -36222,7 +36440,7 @@
         <v>0.26</v>
       </c>
       <c r="J160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44.153846153846153</v>
       </c>
       <c r="K160">
@@ -36309,7 +36527,8 @@
       <c r="AL160" t="s">
         <v>193</v>
       </c>
-      <c r="AM160">
+      <c r="AM160" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN160" s="1" t="s">
@@ -36345,7 +36564,7 @@
         <v>0.26</v>
       </c>
       <c r="J161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
       <c r="K161">
@@ -36432,7 +36651,8 @@
       <c r="AL161" t="s">
         <v>193</v>
       </c>
-      <c r="AM161">
+      <c r="AM161" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN161" s="1" t="s">
@@ -36468,7 +36688,7 @@
         <v>0.25</v>
       </c>
       <c r="J162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.48</v>
       </c>
       <c r="K162">
@@ -36555,7 +36775,8 @@
       <c r="AL162" t="s">
         <v>193</v>
       </c>
-      <c r="AM162">
+      <c r="AM162" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN162" s="1" t="s">
@@ -36591,7 +36812,7 @@
         <v>0.22</v>
       </c>
       <c r="J163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.13636363636364</v>
       </c>
       <c r="K163">
@@ -36678,7 +36899,8 @@
       <c r="AL163" t="s">
         <v>193</v>
       </c>
-      <c r="AM163">
+      <c r="AM163" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN163" s="1" t="s">
@@ -36714,7 +36936,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>321.14285714285711</v>
       </c>
       <c r="K164">
@@ -36801,7 +37023,8 @@
       <c r="AL164" t="s">
         <v>193</v>
       </c>
-      <c r="AM164">
+      <c r="AM164" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN164" s="1" t="s">
@@ -36837,7 +37060,7 @@
         <v>0.11</v>
       </c>
       <c r="J165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>157.45454545454547</v>
       </c>
       <c r="K165">
@@ -36924,7 +37147,8 @@
       <c r="AL165" t="s">
         <v>193</v>
       </c>
-      <c r="AM165">
+      <c r="AM165" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN165" s="1" t="s">
@@ -36960,7 +37184,7 @@
         <v>0.35</v>
       </c>
       <c r="J166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124.54285714285716</v>
       </c>
       <c r="K166">
@@ -37047,7 +37271,8 @@
       <c r="AL166" t="s">
         <v>193</v>
       </c>
-      <c r="AM166">
+      <c r="AM166" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN166" s="1" t="s">
@@ -37083,7 +37308,7 @@
         <v>0.04</v>
       </c>
       <c r="J167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>298.5</v>
       </c>
       <c r="K167">
@@ -37170,7 +37395,8 @@
       <c r="AL167" t="s">
         <v>193</v>
       </c>
-      <c r="AM167">
+      <c r="AM167" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN167" s="1" t="s">
@@ -37206,7 +37432,7 @@
         <v>9.19</v>
       </c>
       <c r="J168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>133.66920565832427</v>
       </c>
       <c r="K168">
@@ -37293,7 +37519,8 @@
       <c r="AL168" t="s">
         <v>221</v>
       </c>
-      <c r="AM168">
+      <c r="AM168" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN168" s="1" t="s">
@@ -37329,7 +37556,7 @@
         <v>0.82</v>
       </c>
       <c r="J169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.243902439024396</v>
       </c>
       <c r="K169">
@@ -37416,7 +37643,8 @@
       <c r="AL169" t="s">
         <v>221</v>
       </c>
-      <c r="AM169">
+      <c r="AM169" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN169" s="1" t="s">
@@ -37452,7 +37680,7 @@
         <v>0.73</v>
       </c>
       <c r="J170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.945205479452056</v>
       </c>
       <c r="K170">
@@ -37539,7 +37767,8 @@
       <c r="AL170" t="s">
         <v>221</v>
       </c>
-      <c r="AM170">
+      <c r="AM170" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN170" s="1" t="s">
@@ -37575,7 +37804,7 @@
         <v>0.48</v>
       </c>
       <c r="J171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.854166666666671</v>
       </c>
       <c r="K171">
@@ -37662,7 +37891,8 @@
       <c r="AL171" t="s">
         <v>221</v>
       </c>
-      <c r="AM171">
+      <c r="AM171" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN171" s="1" t="s">
@@ -37698,7 +37928,7 @@
         <v>0.44</v>
       </c>
       <c r="J172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54.18181818181818</v>
       </c>
       <c r="K172">
@@ -37785,7 +38015,8 @@
       <c r="AL172" t="s">
         <v>221</v>
       </c>
-      <c r="AM172">
+      <c r="AM172" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN172" s="1" t="s">
@@ -37821,7 +38052,7 @@
         <v>0.32</v>
       </c>
       <c r="J173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.343749999999993</v>
       </c>
       <c r="K173">
@@ -37908,7 +38139,8 @@
       <c r="AL173" t="s">
         <v>221</v>
       </c>
-      <c r="AM173">
+      <c r="AM173" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN173" s="1" t="s">
@@ -37944,7 +38176,7 @@
         <v>0.32</v>
       </c>
       <c r="J174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72.90625</v>
       </c>
       <c r="K174">
@@ -38031,7 +38263,8 @@
       <c r="AL174" t="s">
         <v>221</v>
       </c>
-      <c r="AM174">
+      <c r="AM174" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN174" s="1" t="s">
@@ -38067,7 +38300,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>189.06896551724139</v>
       </c>
       <c r="K175">
@@ -38154,7 +38387,8 @@
       <c r="AL175" t="s">
         <v>221</v>
       </c>
-      <c r="AM175">
+      <c r="AM175" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN175" s="1" t="s">
@@ -38190,7 +38424,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.310344827586206</v>
       </c>
       <c r="K176">
@@ -38277,7 +38511,8 @@
       <c r="AL176" t="s">
         <v>221</v>
       </c>
-      <c r="AM176">
+      <c r="AM176" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN176" s="1" t="s">
@@ -38313,7 +38548,7 @@
         <v>0.22</v>
       </c>
       <c r="J177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51.545454545454547</v>
       </c>
       <c r="K177">
@@ -38400,7 +38635,8 @@
       <c r="AL177" t="s">
         <v>221</v>
       </c>
-      <c r="AM177">
+      <c r="AM177" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN177" s="1" t="s">
@@ -38436,7 +38672,7 @@
         <v>0.18</v>
       </c>
       <c r="J178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.166666666666671</v>
       </c>
       <c r="K178">
@@ -38523,7 +38759,8 @@
       <c r="AL178" t="s">
         <v>221</v>
       </c>
-      <c r="AM178">
+      <c r="AM178" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN178" s="1" t="s">
@@ -38559,7 +38796,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>146.99999999999997</v>
       </c>
       <c r="K179">
@@ -38646,7 +38883,8 @@
       <c r="AL179" t="s">
         <v>221</v>
       </c>
-      <c r="AM179">
+      <c r="AM179" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN179" s="1" t="s">
@@ -38682,7 +38920,7 @@
         <v>0.09</v>
       </c>
       <c r="J180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>178</v>
       </c>
       <c r="K180">
@@ -38769,7 +39007,8 @@
       <c r="AL180" t="s">
         <v>221</v>
       </c>
-      <c r="AM180">
+      <c r="AM180" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN180" s="1" t="s">
@@ -38805,7 +39044,7 @@
         <v>5.65</v>
       </c>
       <c r="J181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>122.07610619469025</v>
       </c>
       <c r="K181">
@@ -38892,7 +39131,8 @@
       <c r="AL181" t="s">
         <v>235</v>
       </c>
-      <c r="AM181">
+      <c r="AM181" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN181" s="1" t="s">
@@ -38928,7 +39168,7 @@
         <v>0.51</v>
       </c>
       <c r="J182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.078431372549012</v>
       </c>
       <c r="K182">
@@ -39015,7 +39255,8 @@
       <c r="AL182" t="s">
         <v>235</v>
       </c>
-      <c r="AM182">
+      <c r="AM182" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN182" s="1" t="s">
@@ -39051,7 +39292,7 @@
         <v>0.49</v>
       </c>
       <c r="J183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108.46938775510203</v>
       </c>
       <c r="K183">
@@ -39138,7 +39379,8 @@
       <c r="AL183" t="s">
         <v>235</v>
       </c>
-      <c r="AM183">
+      <c r="AM183" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN183" s="1" t="s">
@@ -39174,7 +39416,7 @@
         <v>0.44</v>
       </c>
       <c r="J184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71.36363636363636</v>
       </c>
       <c r="K184">
@@ -39261,7 +39503,8 @@
       <c r="AL184" t="s">
         <v>235</v>
       </c>
-      <c r="AM184">
+      <c r="AM184" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN184" s="1" t="s">
@@ -39297,7 +39540,7 @@
         <v>0.38</v>
       </c>
       <c r="J185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.94736842105263</v>
       </c>
       <c r="K185">
@@ -39384,7 +39627,8 @@
       <c r="AL185" t="s">
         <v>235</v>
       </c>
-      <c r="AM185">
+      <c r="AM185" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN185" s="1" t="s">
@@ -39420,7 +39664,7 @@
         <v>0.37</v>
       </c>
       <c r="J186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.972972972972968</v>
       </c>
       <c r="K186">
@@ -39507,7 +39751,8 @@
       <c r="AL186" t="s">
         <v>235</v>
       </c>
-      <c r="AM186">
+      <c r="AM186" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN186" s="1" t="s">
@@ -39543,7 +39788,7 @@
         <v>0.33</v>
       </c>
       <c r="J187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.272727272727266</v>
       </c>
       <c r="K187">
@@ -39630,7 +39875,8 @@
       <c r="AL187" t="s">
         <v>235</v>
       </c>
-      <c r="AM187">
+      <c r="AM187" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN187" s="1" t="s">
@@ -39666,7 +39912,7 @@
         <v>0.16</v>
       </c>
       <c r="J188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.875</v>
       </c>
       <c r="K188">
@@ -39753,7 +39999,8 @@
       <c r="AL188" t="s">
         <v>235</v>
       </c>
-      <c r="AM188">
+      <c r="AM188" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN188" s="1" t="s">
@@ -39789,7 +40036,7 @@
         <v>1.99</v>
       </c>
       <c r="J189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106.55778894472363</v>
       </c>
       <c r="K189">
@@ -39876,7 +40123,8 @@
       <c r="AL189" t="s">
         <v>244</v>
       </c>
-      <c r="AM189">
+      <c r="AM189" s="42">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AN189" s="1" t="s">
@@ -39912,7 +40160,7 @@
         <v>0.42</v>
       </c>
       <c r="J190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54.880952380952387</v>
       </c>
       <c r="K190">
@@ -39999,7 +40247,8 @@
       <c r="AL190" t="s">
         <v>244</v>
       </c>
-      <c r="AM190">
+      <c r="AM190" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN190" s="1" t="s">
@@ -40035,7 +40284,7 @@
         <v>0.39</v>
       </c>
       <c r="J191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.282051282051277</v>
       </c>
       <c r="K191">
@@ -40122,7 +40371,8 @@
       <c r="AL191" t="s">
         <v>244</v>
       </c>
-      <c r="AM191">
+      <c r="AM191" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN191" s="1" t="s">
@@ -40158,7 +40408,7 @@
         <v>0.32</v>
       </c>
       <c r="J192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39.96875</v>
       </c>
       <c r="K192">
@@ -40245,7 +40495,8 @@
       <c r="AL192" t="s">
         <v>244</v>
       </c>
-      <c r="AM192">
+      <c r="AM192" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN192" s="1" t="s">
@@ -40281,7 +40532,7 @@
         <v>0.3</v>
       </c>
       <c r="J193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.466666666666669</v>
       </c>
       <c r="K193">
@@ -40368,7 +40619,8 @@
       <c r="AL193" t="s">
         <v>244</v>
       </c>
-      <c r="AM193">
+      <c r="AM193" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN193" s="1" t="s">
@@ -40404,7 +40656,7 @@
         <v>0.27</v>
       </c>
       <c r="J194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.55555555555555</v>
       </c>
       <c r="K194">
@@ -40491,7 +40743,8 @@
       <c r="AL194" t="s">
         <v>244</v>
       </c>
-      <c r="AM194">
+      <c r="AM194" s="42">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AN194" s="1" t="s">
@@ -40527,7 +40780,7 @@
         <v>0.26</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="3">H195/I195</f>
+        <f t="shared" ref="J195:J258" si="6">H195/I195</f>
         <v>62.192307692307693</v>
       </c>
       <c r="K195">
@@ -40614,7 +40867,8 @@
       <c r="AL195" t="s">
         <v>244</v>
       </c>
-      <c r="AM195">
+      <c r="AM195" s="42">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AN195" s="1" t="s">
@@ -40650,7 +40904,7 @@
         <v>5.03</v>
       </c>
       <c r="J196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.528827037773354</v>
       </c>
       <c r="K196">
@@ -40737,7 +40991,8 @@
       <c r="AL196" t="s">
         <v>252</v>
       </c>
-      <c r="AM196">
+      <c r="AM196" s="42">
+        <f t="shared" ref="AM196:AM259" si="7">IF(J196&gt;$AQ$5,1,IF(J196&lt;$AQ$3,3,2))</f>
         <v>2</v>
       </c>
       <c r="AN196" s="1" t="s">
@@ -40773,7 +41028,7 @@
         <v>2</v>
       </c>
       <c r="J197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>73.234999999999999</v>
       </c>
       <c r="K197">
@@ -40860,7 +41115,8 @@
       <c r="AL197" t="s">
         <v>252</v>
       </c>
-      <c r="AM197">
+      <c r="AM197" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN197" s="1" t="s">
@@ -40896,7 +41152,7 @@
         <v>1.3</v>
       </c>
       <c r="J198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71.292307692307702</v>
       </c>
       <c r="K198">
@@ -40983,7 +41239,8 @@
       <c r="AL198" t="s">
         <v>252</v>
       </c>
-      <c r="AM198">
+      <c r="AM198" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN198" s="1" t="s">
@@ -41019,7 +41276,7 @@
         <v>0.78</v>
       </c>
       <c r="J199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43.653846153846146</v>
       </c>
       <c r="K199">
@@ -41106,7 +41363,8 @@
       <c r="AL199" t="s">
         <v>252</v>
       </c>
-      <c r="AM199">
+      <c r="AM199" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN199" s="1" t="s">
@@ -41142,7 +41400,7 @@
         <v>0.69</v>
       </c>
       <c r="J200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44.985507246376812</v>
       </c>
       <c r="K200">
@@ -41229,7 +41487,8 @@
       <c r="AL200" t="s">
         <v>252</v>
       </c>
-      <c r="AM200">
+      <c r="AM200" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN200" s="1" t="s">
@@ -41265,7 +41524,7 @@
         <v>0.59</v>
       </c>
       <c r="J201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41.542372881355938</v>
       </c>
       <c r="K201">
@@ -41352,7 +41611,8 @@
       <c r="AL201" t="s">
         <v>252</v>
       </c>
-      <c r="AM201">
+      <c r="AM201" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN201" s="1" t="s">
@@ -41388,7 +41648,7 @@
         <v>0.45</v>
       </c>
       <c r="J202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47.333333333333336</v>
       </c>
       <c r="K202">
@@ -41475,7 +41735,8 @@
       <c r="AL202" t="s">
         <v>252</v>
       </c>
-      <c r="AM202">
+      <c r="AM202" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN202" s="1" t="s">
@@ -41511,7 +41772,7 @@
         <v>0.44</v>
       </c>
       <c r="J203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46.68181818181818</v>
       </c>
       <c r="K203">
@@ -41598,7 +41859,8 @@
       <c r="AL203" t="s">
         <v>252</v>
       </c>
-      <c r="AM203">
+      <c r="AM203" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN203" s="1" t="s">
@@ -41634,7 +41896,7 @@
         <v>0.38</v>
       </c>
       <c r="J204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45.315789473684205</v>
       </c>
       <c r="K204">
@@ -41721,7 +41983,8 @@
       <c r="AL204" t="s">
         <v>252</v>
       </c>
-      <c r="AM204">
+      <c r="AM204" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN204" s="1" t="s">
@@ -41757,7 +42020,7 @@
         <v>0.37</v>
       </c>
       <c r="J205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.486486486486484</v>
       </c>
       <c r="K205">
@@ -41844,7 +42107,8 @@
       <c r="AL205" t="s">
         <v>252</v>
       </c>
-      <c r="AM205">
+      <c r="AM205" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN205" s="1" t="s">
@@ -41880,7 +42144,7 @@
         <v>0.35</v>
       </c>
       <c r="J206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48.571428571428577</v>
       </c>
       <c r="K206">
@@ -41967,7 +42231,8 @@
       <c r="AL206" t="s">
         <v>252</v>
       </c>
-      <c r="AM206">
+      <c r="AM206" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN206" s="1" t="s">
@@ -42003,7 +42268,7 @@
         <v>0.35</v>
       </c>
       <c r="J207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42.714285714285715</v>
       </c>
       <c r="K207">
@@ -42090,7 +42355,8 @@
       <c r="AL207" t="s">
         <v>252</v>
       </c>
-      <c r="AM207">
+      <c r="AM207" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN207" s="1" t="s">
@@ -42126,7 +42392,7 @@
         <v>0.33</v>
       </c>
       <c r="J208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36.030303030303031</v>
       </c>
       <c r="K208">
@@ -42213,7 +42479,8 @@
       <c r="AL208" t="s">
         <v>252</v>
       </c>
-      <c r="AM208">
+      <c r="AM208" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN208" s="1" t="s">
@@ -42249,7 +42516,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.785714285714278</v>
       </c>
       <c r="K209">
@@ -42336,7 +42603,8 @@
       <c r="AL209" t="s">
         <v>252</v>
       </c>
-      <c r="AM209">
+      <c r="AM209" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN209" s="1" t="s">
@@ -42372,7 +42640,7 @@
         <v>0.27</v>
       </c>
       <c r="J210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.666666666666664</v>
       </c>
       <c r="K210">
@@ -42459,7 +42727,8 @@
       <c r="AL210" t="s">
         <v>252</v>
       </c>
-      <c r="AM210">
+      <c r="AM210" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN210" s="1" t="s">
@@ -42495,7 +42764,7 @@
         <v>0.03</v>
       </c>
       <c r="J211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>349.33333333333337</v>
       </c>
       <c r="K211">
@@ -42582,7 +42851,8 @@
       <c r="AL211" t="s">
         <v>252</v>
       </c>
-      <c r="AM211">
+      <c r="AM211" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN211" s="1" t="s">
@@ -42618,7 +42888,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>237.99999999999997</v>
       </c>
       <c r="K212">
@@ -42705,7 +42975,8 @@
       <c r="AL212" t="s">
         <v>252</v>
       </c>
-      <c r="AM212">
+      <c r="AM212" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN212" s="1" t="s">
@@ -42741,7 +43012,7 @@
         <v>0.18</v>
       </c>
       <c r="J213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>145.05555555555557</v>
       </c>
       <c r="K213">
@@ -42828,7 +43099,8 @@
       <c r="AL213" t="s">
         <v>252</v>
       </c>
-      <c r="AM213">
+      <c r="AM213" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN213" s="1" t="s">
@@ -42864,7 +43136,7 @@
         <v>3.12</v>
       </c>
       <c r="J214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>116.77564102564101</v>
       </c>
       <c r="K214">
@@ -42951,7 +43223,8 @@
       <c r="AL214" t="s">
         <v>268</v>
       </c>
-      <c r="AM214">
+      <c r="AM214" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN214" s="1" t="s">
@@ -42987,7 +43260,7 @@
         <v>0.68</v>
       </c>
       <c r="J215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76.014705882352928</v>
       </c>
       <c r="K215">
@@ -43074,7 +43347,8 @@
       <c r="AL215" t="s">
         <v>268</v>
       </c>
-      <c r="AM215">
+      <c r="AM215" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN215" s="1" t="s">
@@ -43110,7 +43384,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.896551724137936</v>
       </c>
       <c r="K216">
@@ -43197,7 +43471,8 @@
       <c r="AL216" t="s">
         <v>268</v>
       </c>
-      <c r="AM216">
+      <c r="AM216" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN216" s="1" t="s">
@@ -43233,7 +43508,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55.232142857142854</v>
       </c>
       <c r="K217">
@@ -43320,7 +43595,8 @@
       <c r="AL217" t="s">
         <v>268</v>
       </c>
-      <c r="AM217">
+      <c r="AM217" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN217" s="1" t="s">
@@ -43356,7 +43632,7 @@
         <v>0.37</v>
       </c>
       <c r="J218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54.054054054054056</v>
       </c>
       <c r="K218">
@@ -43443,7 +43719,8 @@
       <c r="AL218" t="s">
         <v>268</v>
       </c>
-      <c r="AM218">
+      <c r="AM218" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN218" s="1" t="s">
@@ -43479,7 +43756,7 @@
         <v>0.31</v>
       </c>
       <c r="J219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41.741935483870968</v>
       </c>
       <c r="K219">
@@ -43566,7 +43843,8 @@
       <c r="AL219" t="s">
         <v>268</v>
       </c>
-      <c r="AM219">
+      <c r="AM219" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN219" s="1" t="s">
@@ -43602,7 +43880,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.03448275862069</v>
       </c>
       <c r="K220">
@@ -43689,7 +43967,8 @@
       <c r="AL220" t="s">
         <v>268</v>
       </c>
-      <c r="AM220">
+      <c r="AM220" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN220" s="1" t="s">
@@ -43725,7 +44004,7 @@
         <v>12.02</v>
       </c>
       <c r="J221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120.51913477537438</v>
       </c>
       <c r="K221">
@@ -43812,7 +44091,8 @@
       <c r="AL221" t="s">
         <v>276</v>
       </c>
-      <c r="AM221">
+      <c r="AM221" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN221" s="1" t="s">
@@ -43848,7 +44128,7 @@
         <v>1.91</v>
       </c>
       <c r="J222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>87.413612565445035</v>
       </c>
       <c r="K222">
@@ -43935,7 +44215,8 @@
       <c r="AL222" t="s">
         <v>276</v>
       </c>
-      <c r="AM222">
+      <c r="AM222" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN222" s="1" t="s">
@@ -43971,7 +44252,7 @@
         <v>0.63</v>
       </c>
       <c r="J223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49.460317460317462</v>
       </c>
       <c r="K223">
@@ -44058,7 +44339,8 @@
       <c r="AL223" t="s">
         <v>276</v>
       </c>
-      <c r="AM223">
+      <c r="AM223" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN223" s="1" t="s">
@@ -44094,7 +44376,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43.724137931034484</v>
       </c>
       <c r="K224">
@@ -44181,7 +44463,8 @@
       <c r="AL224" t="s">
         <v>276</v>
       </c>
-      <c r="AM224">
+      <c r="AM224" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN224" s="1" t="s">
@@ -44217,7 +44500,7 @@
         <v>0.53</v>
       </c>
       <c r="J225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.283018867924525</v>
       </c>
       <c r="K225">
@@ -44304,7 +44587,8 @@
       <c r="AL225" t="s">
         <v>276</v>
       </c>
-      <c r="AM225">
+      <c r="AM225" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN225" s="1" t="s">
@@ -44340,7 +44624,7 @@
         <v>0.38</v>
       </c>
       <c r="J226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44.789473684210527</v>
       </c>
       <c r="K226">
@@ -44427,7 +44711,8 @@
       <c r="AL226" t="s">
         <v>276</v>
       </c>
-      <c r="AM226">
+      <c r="AM226" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN226" s="1" t="s">
@@ -44463,7 +44748,7 @@
         <v>0.38</v>
       </c>
       <c r="J227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.184210526315788</v>
       </c>
       <c r="K227">
@@ -44550,7 +44835,8 @@
       <c r="AL227" t="s">
         <v>276</v>
       </c>
-      <c r="AM227">
+      <c r="AM227" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN227" s="1" t="s">
@@ -44586,7 +44872,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48.448275862068968</v>
       </c>
       <c r="K228">
@@ -44673,7 +44959,8 @@
       <c r="AL228" t="s">
         <v>276</v>
       </c>
-      <c r="AM228">
+      <c r="AM228" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN228" s="1" t="s">
@@ -44709,7 +44996,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37.285714285714278</v>
       </c>
       <c r="K229">
@@ -44796,7 +45083,8 @@
       <c r="AL229" t="s">
         <v>276</v>
       </c>
-      <c r="AM229">
+      <c r="AM229" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN229" s="1" t="s">
@@ -44832,7 +45120,7 @@
         <v>0.18</v>
       </c>
       <c r="J230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.222222222222229</v>
       </c>
       <c r="K230">
@@ -44919,7 +45207,8 @@
       <c r="AL230" t="s">
         <v>276</v>
       </c>
-      <c r="AM230">
+      <c r="AM230" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN230" s="1" t="s">
@@ -44955,7 +45244,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="J231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>105.24324324324326</v>
       </c>
       <c r="K231">
@@ -45042,7 +45331,8 @@
       <c r="AL231" t="s">
         <v>287</v>
       </c>
-      <c r="AM231">
+      <c r="AM231" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN231" s="1" t="s">
@@ -45078,7 +45368,7 @@
         <v>3.55</v>
       </c>
       <c r="J232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>69.295774647887328</v>
       </c>
       <c r="K232">
@@ -45165,7 +45455,8 @@
       <c r="AL232" t="s">
         <v>287</v>
       </c>
-      <c r="AM232">
+      <c r="AM232" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN232" s="1" t="s">
@@ -45201,7 +45492,7 @@
         <v>1.81</v>
       </c>
       <c r="J233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.270718232044196</v>
       </c>
       <c r="K233">
@@ -45288,7 +45579,8 @@
       <c r="AL233" t="s">
         <v>287</v>
       </c>
-      <c r="AM233">
+      <c r="AM233" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN233" s="1" t="s">
@@ -45324,7 +45616,7 @@
         <v>1.26</v>
       </c>
       <c r="J234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.476190476190474</v>
       </c>
       <c r="K234">
@@ -45411,7 +45703,8 @@
       <c r="AL234" t="s">
         <v>287</v>
       </c>
-      <c r="AM234">
+      <c r="AM234" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN234" s="1" t="s">
@@ -45447,7 +45740,7 @@
         <v>1.03</v>
       </c>
       <c r="J235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>78.669902912621353</v>
       </c>
       <c r="K235">
@@ -45534,7 +45827,8 @@
       <c r="AL235" t="s">
         <v>287</v>
       </c>
-      <c r="AM235">
+      <c r="AM235" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN235" s="1" t="s">
@@ -45570,7 +45864,7 @@
         <v>0.75</v>
       </c>
       <c r="J236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60.093333333333334</v>
       </c>
       <c r="K236">
@@ -45657,7 +45951,8 @@
       <c r="AL236" t="s">
         <v>287</v>
       </c>
-      <c r="AM236">
+      <c r="AM236" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN236" s="1" t="s">
@@ -45693,7 +45988,7 @@
         <v>0.46</v>
       </c>
       <c r="J237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33.739130434782609</v>
       </c>
       <c r="K237">
@@ -45780,7 +46075,8 @@
       <c r="AL237" t="s">
         <v>287</v>
       </c>
-      <c r="AM237">
+      <c r="AM237" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN237" s="1" t="s">
@@ -45816,7 +46112,7 @@
         <v>0.45</v>
       </c>
       <c r="J238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48.822222222222216</v>
       </c>
       <c r="K238">
@@ -45903,7 +46199,8 @@
       <c r="AL238" t="s">
         <v>287</v>
       </c>
-      <c r="AM238">
+      <c r="AM238" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN238" s="1" t="s">
@@ -45939,7 +46236,7 @@
         <v>0.43</v>
       </c>
       <c r="J239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.232558139534888</v>
       </c>
       <c r="K239">
@@ -46026,7 +46323,8 @@
       <c r="AL239" t="s">
         <v>287</v>
       </c>
-      <c r="AM239">
+      <c r="AM239" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN239" s="1" t="s">
@@ -46062,7 +46360,7 @@
         <v>0.43</v>
       </c>
       <c r="J240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33.255813953488371</v>
       </c>
       <c r="K240">
@@ -46149,7 +46447,8 @@
       <c r="AL240" t="s">
         <v>287</v>
       </c>
-      <c r="AM240">
+      <c r="AM240" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN240" s="1" t="s">
@@ -46185,7 +46484,7 @@
         <v>0.35</v>
       </c>
       <c r="J241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49.514285714285712</v>
       </c>
       <c r="K241">
@@ -46272,7 +46571,8 @@
       <c r="AL241" t="s">
         <v>287</v>
       </c>
-      <c r="AM241">
+      <c r="AM241" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN241" s="1" t="s">
@@ -46308,7 +46608,7 @@
         <v>0.34</v>
       </c>
       <c r="J242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32.323529411764703</v>
       </c>
       <c r="K242">
@@ -46395,7 +46695,8 @@
       <c r="AL242" t="s">
         <v>287</v>
       </c>
-      <c r="AM242">
+      <c r="AM242" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN242" s="1" t="s">
@@ -46431,7 +46732,7 @@
         <v>0.32</v>
       </c>
       <c r="J243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40.28125</v>
       </c>
       <c r="K243">
@@ -46518,7 +46819,8 @@
       <c r="AL243" t="s">
         <v>287</v>
       </c>
-      <c r="AM243">
+      <c r="AM243" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN243" s="1" t="s">
@@ -46554,7 +46856,7 @@
         <v>0.3</v>
       </c>
       <c r="J244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35.700000000000003</v>
       </c>
       <c r="K244">
@@ -46641,7 +46943,8 @@
       <c r="AL244" t="s">
         <v>287</v>
       </c>
-      <c r="AM244">
+      <c r="AM244" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN244" s="1" t="s">
@@ -46677,7 +46980,7 @@
         <v>10.14</v>
       </c>
       <c r="J245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74.553254437869825</v>
       </c>
       <c r="K245">
@@ -46764,7 +47067,8 @@
       <c r="AL245" t="s">
         <v>302</v>
       </c>
-      <c r="AM245">
+      <c r="AM245" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN245" s="1" t="s">
@@ -46800,7 +47104,7 @@
         <v>7.95</v>
       </c>
       <c r="J246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>128.11572327044024</v>
       </c>
       <c r="K246">
@@ -46887,7 +47191,8 @@
       <c r="AL246" t="s">
         <v>302</v>
       </c>
-      <c r="AM246">
+      <c r="AM246" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN246" s="1" t="s">
@@ -46923,7 +47228,7 @@
         <v>3.15</v>
       </c>
       <c r="J247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>104.74603174603175</v>
       </c>
       <c r="K247">
@@ -47010,7 +47315,8 @@
       <c r="AL247" t="s">
         <v>302</v>
       </c>
-      <c r="AM247">
+      <c r="AM247" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN247" s="1" t="s">
@@ -47046,7 +47352,7 @@
         <v>2.81</v>
       </c>
       <c r="J248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56.960854092526688</v>
       </c>
       <c r="K248">
@@ -47133,7 +47439,8 @@
       <c r="AL248" t="s">
         <v>302</v>
       </c>
-      <c r="AM248">
+      <c r="AM248" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN248" s="1" t="s">
@@ -47169,7 +47476,7 @@
         <v>2.57</v>
       </c>
       <c r="J249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>79.027237354085599</v>
       </c>
       <c r="K249">
@@ -47256,7 +47563,8 @@
       <c r="AL249" t="s">
         <v>302</v>
       </c>
-      <c r="AM249">
+      <c r="AM249" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN249" s="1" t="s">
@@ -47292,7 +47600,7 @@
         <v>2.52</v>
       </c>
       <c r="J250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56.472222222222221</v>
       </c>
       <c r="K250">
@@ -47379,7 +47687,8 @@
       <c r="AL250" t="s">
         <v>302</v>
       </c>
-      <c r="AM250">
+      <c r="AM250" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN250" s="1" t="s">
@@ -47415,7 +47724,7 @@
         <v>1.68</v>
       </c>
       <c r="J251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68.773809523809533</v>
       </c>
       <c r="K251">
@@ -47502,7 +47811,8 @@
       <c r="AL251" t="s">
         <v>302</v>
       </c>
-      <c r="AM251">
+      <c r="AM251" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN251" s="1" t="s">
@@ -47538,7 +47848,7 @@
         <v>1.25</v>
       </c>
       <c r="J252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.335999999999999</v>
       </c>
       <c r="K252">
@@ -47625,7 +47935,8 @@
       <c r="AL252" t="s">
         <v>302</v>
       </c>
-      <c r="AM252">
+      <c r="AM252" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN252" s="1" t="s">
@@ -47661,7 +47972,7 @@
         <v>1.07</v>
       </c>
       <c r="J253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.186915887850468</v>
       </c>
       <c r="K253">
@@ -47748,7 +48059,8 @@
       <c r="AL253" t="s">
         <v>302</v>
       </c>
-      <c r="AM253">
+      <c r="AM253" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN253" s="1" t="s">
@@ -47784,7 +48096,7 @@
         <v>0.71</v>
       </c>
       <c r="J254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>96.74647887323944</v>
       </c>
       <c r="K254">
@@ -47871,7 +48183,8 @@
       <c r="AL254" t="s">
         <v>302</v>
       </c>
-      <c r="AM254">
+      <c r="AM254" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN254" s="1" t="s">
@@ -47907,7 +48220,7 @@
         <v>0.71</v>
       </c>
       <c r="J255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.74647887323944</v>
       </c>
       <c r="K255">
@@ -47994,7 +48307,8 @@
       <c r="AL255" t="s">
         <v>302</v>
       </c>
-      <c r="AM255">
+      <c r="AM255" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN255" s="1" t="s">
@@ -48030,7 +48344,7 @@
         <v>0.68</v>
       </c>
       <c r="J256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>104.51470588235293</v>
       </c>
       <c r="K256">
@@ -48117,7 +48431,8 @@
       <c r="AL256" t="s">
         <v>302</v>
       </c>
-      <c r="AM256">
+      <c r="AM256" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN256" s="1" t="s">
@@ -48153,7 +48468,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88.232142857142847</v>
       </c>
       <c r="K257">
@@ -48240,7 +48555,8 @@
       <c r="AL257" t="s">
         <v>302</v>
       </c>
-      <c r="AM257">
+      <c r="AM257" s="42">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN257" s="1" t="s">
@@ -48276,7 +48592,7 @@
         <v>0.51</v>
       </c>
       <c r="J258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.980392156862742</v>
       </c>
       <c r="K258">
@@ -48363,7 +48679,8 @@
       <c r="AL258" t="s">
         <v>302</v>
       </c>
-      <c r="AM258">
+      <c r="AM258" s="42">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AN258" s="1" t="s">
@@ -48399,7 +48716,7 @@
         <v>0.4</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="4">H259/I259</f>
+        <f t="shared" ref="J259:J322" si="8">H259/I259</f>
         <v>44.55</v>
       </c>
       <c r="K259">
@@ -48486,7 +48803,8 @@
       <c r="AL259" t="s">
         <v>302</v>
       </c>
-      <c r="AM259">
+      <c r="AM259" s="42">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AN259" s="1" t="s">
@@ -48522,7 +48840,7 @@
         <v>0.38</v>
       </c>
       <c r="J260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43.315789473684212</v>
       </c>
       <c r="K260">
@@ -48609,7 +48927,8 @@
       <c r="AL260" t="s">
         <v>302</v>
       </c>
-      <c r="AM260">
+      <c r="AM260" s="42">
+        <f t="shared" ref="AM260:AM323" si="9">IF(J260&gt;$AQ$5,1,IF(J260&lt;$AQ$3,3,2))</f>
         <v>3</v>
       </c>
       <c r="AN260" s="1" t="s">
@@ -48645,7 +48964,7 @@
         <v>0.35</v>
       </c>
       <c r="J261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>66.771428571428572</v>
       </c>
       <c r="K261">
@@ -48732,7 +49051,8 @@
       <c r="AL261" t="s">
         <v>302</v>
       </c>
-      <c r="AM261">
+      <c r="AM261" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN261" s="1" t="s">
@@ -48768,7 +49088,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>66.551724137931046</v>
       </c>
       <c r="K262">
@@ -48855,7 +49175,8 @@
       <c r="AL262" t="s">
         <v>302</v>
       </c>
-      <c r="AM262">
+      <c r="AM262" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN262" s="1" t="s">
@@ -48891,7 +49212,7 @@
         <v>0.19</v>
       </c>
       <c r="J263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>187.15789473684211</v>
       </c>
       <c r="K263">
@@ -48978,7 +49299,8 @@
       <c r="AL263" t="s">
         <v>302</v>
       </c>
-      <c r="AM263">
+      <c r="AM263" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN263" s="1" t="s">
@@ -49014,7 +49336,7 @@
         <v>0.13</v>
       </c>
       <c r="J264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>107.38461538461539</v>
       </c>
       <c r="K264">
@@ -49101,7 +49423,8 @@
       <c r="AL264" t="s">
         <v>302</v>
       </c>
-      <c r="AM264">
+      <c r="AM264" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN264" s="1" t="s">
@@ -49137,7 +49460,7 @@
         <v>0.34</v>
       </c>
       <c r="J265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>92.323529411764696</v>
       </c>
       <c r="K265">
@@ -49224,7 +49547,8 @@
       <c r="AL265" t="s">
         <v>302</v>
       </c>
-      <c r="AM265">
+      <c r="AM265" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN265" s="1" t="s">
@@ -49260,7 +49584,7 @@
         <v>0.04</v>
       </c>
       <c r="J266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>341.25</v>
       </c>
       <c r="K266">
@@ -49347,7 +49671,8 @@
       <c r="AL266" t="s">
         <v>302</v>
       </c>
-      <c r="AM266">
+      <c r="AM266" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN266" s="1" t="s">
@@ -49383,7 +49708,7 @@
         <v>2.88</v>
       </c>
       <c r="J267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>73.666666666666671</v>
       </c>
       <c r="K267">
@@ -49470,7 +49795,8 @@
       <c r="AL267" t="s">
         <v>324</v>
       </c>
-      <c r="AM267">
+      <c r="AM267" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN267" s="1" t="s">
@@ -49506,7 +49832,7 @@
         <v>1.83</v>
       </c>
       <c r="J268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>66.978142076502721</v>
       </c>
       <c r="K268">
@@ -49593,7 +49919,8 @@
       <c r="AL268" t="s">
         <v>324</v>
       </c>
-      <c r="AM268">
+      <c r="AM268" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN268" s="1" t="s">
@@ -49629,7 +49956,7 @@
         <v>1.47</v>
       </c>
       <c r="J269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>121.26530612244898</v>
       </c>
       <c r="K269">
@@ -49716,7 +50043,8 @@
       <c r="AL269" t="s">
         <v>324</v>
       </c>
-      <c r="AM269">
+      <c r="AM269" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN269" s="1" t="s">
@@ -49752,7 +50080,7 @@
         <v>0.76</v>
       </c>
       <c r="J270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>81.842105263157904</v>
       </c>
       <c r="K270">
@@ -49839,7 +50167,8 @@
       <c r="AL270" t="s">
         <v>324</v>
       </c>
-      <c r="AM270">
+      <c r="AM270" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN270" s="1" t="s">
@@ -49875,7 +50204,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>45.517857142857139</v>
       </c>
       <c r="K271">
@@ -49962,7 +50291,8 @@
       <c r="AL271" t="s">
         <v>324</v>
       </c>
-      <c r="AM271">
+      <c r="AM271" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN271" s="1" t="s">
@@ -49998,7 +50328,7 @@
         <v>0.25</v>
       </c>
       <c r="J272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>49.2</v>
       </c>
       <c r="K272">
@@ -50085,7 +50415,8 @@
       <c r="AL272" t="s">
         <v>324</v>
       </c>
-      <c r="AM272">
+      <c r="AM272" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN272" s="1" t="s">
@@ -50121,7 +50452,7 @@
         <v>5</v>
       </c>
       <c r="J273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>107.952</v>
       </c>
       <c r="K273">
@@ -50208,7 +50539,8 @@
       <c r="AL273" t="s">
         <v>331</v>
       </c>
-      <c r="AM273">
+      <c r="AM273" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN273" s="1" t="s">
@@ -50244,7 +50576,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>69.009852216748783</v>
       </c>
       <c r="K274">
@@ -50331,7 +50663,8 @@
       <c r="AL274" t="s">
         <v>331</v>
       </c>
-      <c r="AM274">
+      <c r="AM274" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN274" s="1" t="s">
@@ -50367,7 +50700,7 @@
         <v>1.27</v>
       </c>
       <c r="J275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>83.614173228346459</v>
       </c>
       <c r="K275">
@@ -50454,7 +50787,8 @@
       <c r="AL275" t="s">
         <v>331</v>
       </c>
-      <c r="AM275">
+      <c r="AM275" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN275" s="1" t="s">
@@ -50490,7 +50824,7 @@
         <v>0.94</v>
       </c>
       <c r="J276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>86.106382978723403</v>
       </c>
       <c r="K276">
@@ -50577,7 +50911,8 @@
       <c r="AL276" t="s">
         <v>331</v>
       </c>
-      <c r="AM276">
+      <c r="AM276" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN276" s="1" t="s">
@@ -50613,7 +50948,7 @@
         <v>0.76</v>
       </c>
       <c r="J277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>47.631578947368425</v>
       </c>
       <c r="K277">
@@ -50700,7 +51035,8 @@
       <c r="AL277" t="s">
         <v>331</v>
       </c>
-      <c r="AM277">
+      <c r="AM277" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN277" s="1" t="s">
@@ -50736,7 +51072,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="J278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>69.929824561403507</v>
       </c>
       <c r="K278">
@@ -50823,7 +51159,8 @@
       <c r="AL278" t="s">
         <v>331</v>
       </c>
-      <c r="AM278">
+      <c r="AM278" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN278" s="1" t="s">
@@ -50859,7 +51196,7 @@
         <v>0.39</v>
       </c>
       <c r="J279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44.410256410256409</v>
       </c>
       <c r="K279">
@@ -50946,7 +51283,8 @@
       <c r="AL279" t="s">
         <v>331</v>
       </c>
-      <c r="AM279">
+      <c r="AM279" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN279" s="1" t="s">
@@ -50982,7 +51320,7 @@
         <v>0.35</v>
       </c>
       <c r="J280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>50.142857142857146</v>
       </c>
       <c r="K280">
@@ -51069,7 +51407,8 @@
       <c r="AL280" t="s">
         <v>331</v>
       </c>
-      <c r="AM280">
+      <c r="AM280" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN280" s="1" t="s">
@@ -51105,7 +51444,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>38.965517241379317</v>
       </c>
       <c r="K281">
@@ -51192,7 +51531,8 @@
       <c r="AL281" t="s">
         <v>331</v>
       </c>
-      <c r="AM281">
+      <c r="AM281" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN281" s="1" t="s">
@@ -51228,7 +51568,7 @@
         <v>0.23</v>
       </c>
       <c r="J282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>49.95652173913043</v>
       </c>
       <c r="K282">
@@ -51315,7 +51655,8 @@
       <c r="AL282" t="s">
         <v>331</v>
       </c>
-      <c r="AM282">
+      <c r="AM282" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN282" s="1" t="s">
@@ -51351,7 +51692,7 @@
         <v>0.19</v>
       </c>
       <c r="J283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>55.84210526315789</v>
       </c>
       <c r="K283">
@@ -51438,7 +51779,8 @@
       <c r="AL283" t="s">
         <v>331</v>
       </c>
-      <c r="AM283">
+      <c r="AM283" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN283" s="1" t="s">
@@ -51474,7 +51816,7 @@
         <v>0.17</v>
       </c>
       <c r="J284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>75.35294117647058</v>
       </c>
       <c r="K284">
@@ -51561,7 +51903,8 @@
       <c r="AL284" t="s">
         <v>331</v>
       </c>
-      <c r="AM284">
+      <c r="AM284" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN284" s="1" t="s">
@@ -51597,7 +51940,7 @@
         <v>8.25</v>
       </c>
       <c r="J285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>95.092121212121214</v>
       </c>
       <c r="K285">
@@ -51684,7 +52027,8 @@
       <c r="AL285" t="s">
         <v>344</v>
       </c>
-      <c r="AM285">
+      <c r="AM285" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN285" s="1" t="s">
@@ -51720,7 +52064,7 @@
         <v>2.46</v>
       </c>
       <c r="J286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>76.1869918699187</v>
       </c>
       <c r="K286">
@@ -51807,7 +52151,8 @@
       <c r="AL286" t="s">
         <v>344</v>
       </c>
-      <c r="AM286">
+      <c r="AM286" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN286" s="1" t="s">
@@ -51843,7 +52188,7 @@
         <v>0.83</v>
       </c>
       <c r="J287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>53.698795180722897</v>
       </c>
       <c r="K287">
@@ -51930,7 +52275,8 @@
       <c r="AL287" t="s">
         <v>344</v>
       </c>
-      <c r="AM287">
+      <c r="AM287" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN287" s="1" t="s">
@@ -51966,7 +52312,7 @@
         <v>0.77</v>
       </c>
       <c r="J288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42.259740259740255</v>
       </c>
       <c r="K288">
@@ -52053,7 +52399,8 @@
       <c r="AL288" t="s">
         <v>344</v>
       </c>
-      <c r="AM288">
+      <c r="AM288" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN288" s="1" t="s">
@@ -52089,7 +52436,7 @@
         <v>0.75</v>
       </c>
       <c r="J289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>55.186666666666667</v>
       </c>
       <c r="K289">
@@ -52176,7 +52523,8 @@
       <c r="AL289" t="s">
         <v>344</v>
       </c>
-      <c r="AM289">
+      <c r="AM289" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN289" s="1" t="s">
@@ -52212,7 +52560,7 @@
         <v>0.33</v>
       </c>
       <c r="J290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>41.151515151515149</v>
       </c>
       <c r="K290">
@@ -52299,7 +52647,8 @@
       <c r="AL290" t="s">
         <v>344</v>
       </c>
-      <c r="AM290">
+      <c r="AM290" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN290" s="1" t="s">
@@ -52335,7 +52684,7 @@
         <v>0.25</v>
       </c>
       <c r="J291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.56</v>
       </c>
       <c r="K291">
@@ -52422,7 +52771,8 @@
       <c r="AL291" t="s">
         <v>344</v>
       </c>
-      <c r="AM291">
+      <c r="AM291" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN291" s="1" t="s">
@@ -52458,7 +52808,7 @@
         <v>6.58</v>
       </c>
       <c r="J292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>106.81762917933131</v>
       </c>
       <c r="K292">
@@ -52545,7 +52895,8 @@
       <c r="AL292" t="s">
         <v>352</v>
       </c>
-      <c r="AM292">
+      <c r="AM292" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN292" s="1" t="s">
@@ -52581,7 +52932,7 @@
         <v>0.74</v>
       </c>
       <c r="J293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>71.783783783783775</v>
       </c>
       <c r="K293">
@@ -52668,7 +53019,8 @@
       <c r="AL293" t="s">
         <v>352</v>
       </c>
-      <c r="AM293">
+      <c r="AM293" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN293" s="1" t="s">
@@ -52704,7 +53056,7 @@
         <v>0.71</v>
       </c>
       <c r="J294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>96.18309859154931</v>
       </c>
       <c r="K294">
@@ -52791,7 +53143,8 @@
       <c r="AL294" t="s">
         <v>352</v>
       </c>
-      <c r="AM294">
+      <c r="AM294" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN294" s="1" t="s">
@@ -52827,7 +53180,7 @@
         <v>0.64</v>
       </c>
       <c r="J295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>54.765624999999993</v>
       </c>
       <c r="K295">
@@ -52914,7 +53267,8 @@
       <c r="AL295" t="s">
         <v>352</v>
       </c>
-      <c r="AM295">
+      <c r="AM295" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN295" s="1" t="s">
@@ -52950,7 +53304,7 @@
         <v>0.54</v>
       </c>
       <c r="J296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>46.537037037037031</v>
       </c>
       <c r="K296">
@@ -53037,7 +53391,8 @@
       <c r="AL296" t="s">
         <v>352</v>
       </c>
-      <c r="AM296">
+      <c r="AM296" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN296" s="1" t="s">
@@ -53073,7 +53428,7 @@
         <v>0.51</v>
       </c>
       <c r="J297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>48.607843137254896</v>
       </c>
       <c r="K297">
@@ -53160,7 +53515,8 @@
       <c r="AL297" t="s">
         <v>352</v>
       </c>
-      <c r="AM297">
+      <c r="AM297" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN297" s="1" t="s">
@@ -53196,7 +53552,7 @@
         <v>0.43</v>
       </c>
       <c r="J298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>49.97674418604651</v>
       </c>
       <c r="K298">
@@ -53283,7 +53639,8 @@
       <c r="AL298" t="s">
         <v>352</v>
       </c>
-      <c r="AM298">
+      <c r="AM298" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN298" s="1" t="s">
@@ -53319,7 +53676,7 @@
         <v>0.43</v>
       </c>
       <c r="J299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>51.162790697674417</v>
       </c>
       <c r="K299">
@@ -53406,7 +53763,8 @@
       <c r="AL299" t="s">
         <v>352</v>
       </c>
-      <c r="AM299">
+      <c r="AM299" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN299" s="1" t="s">
@@ -53442,7 +53800,7 @@
         <v>0.36</v>
       </c>
       <c r="J300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>40.611111111111107</v>
       </c>
       <c r="K300">
@@ -53529,7 +53887,8 @@
       <c r="AL300" t="s">
         <v>352</v>
       </c>
-      <c r="AM300">
+      <c r="AM300" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN300" s="1" t="s">
@@ -53565,7 +53924,7 @@
         <v>0.34</v>
       </c>
       <c r="J301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>36.029411764705877</v>
       </c>
       <c r="K301">
@@ -53652,7 +54011,8 @@
       <c r="AL301" t="s">
         <v>352</v>
       </c>
-      <c r="AM301">
+      <c r="AM301" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN301" s="1" t="s">
@@ -53688,7 +54048,7 @@
         <v>0.21</v>
       </c>
       <c r="J302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>53.904761904761905</v>
       </c>
       <c r="K302">
@@ -53775,7 +54135,8 @@
       <c r="AL302" t="s">
         <v>352</v>
       </c>
-      <c r="AM302">
+      <c r="AM302" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN302" s="1" t="s">
@@ -53811,7 +54172,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="J303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>81.223451327433636</v>
       </c>
       <c r="K303">
@@ -53898,7 +54259,8 @@
       <c r="AL303" t="s">
         <v>363</v>
       </c>
-      <c r="AM303">
+      <c r="AM303" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN303" s="1" t="s">
@@ -53934,7 +54296,7 @@
         <v>3.58</v>
       </c>
       <c r="J304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>86.687150837988824</v>
       </c>
       <c r="K304">
@@ -54021,7 +54383,8 @@
       <c r="AL304" t="s">
         <v>363</v>
       </c>
-      <c r="AM304">
+      <c r="AM304" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN304" s="1" t="s">
@@ -54057,7 +54420,7 @@
         <v>2.75</v>
       </c>
       <c r="J305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>84.796363636363637</v>
       </c>
       <c r="K305">
@@ -54144,7 +54507,8 @@
       <c r="AL305" t="s">
         <v>363</v>
       </c>
-      <c r="AM305">
+      <c r="AM305" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN305" s="1" t="s">
@@ -54180,7 +54544,7 @@
         <v>2.25</v>
       </c>
       <c r="J306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>65.431111111111107</v>
       </c>
       <c r="K306">
@@ -54267,7 +54631,8 @@
       <c r="AL306" t="s">
         <v>363</v>
       </c>
-      <c r="AM306">
+      <c r="AM306" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN306" s="1" t="s">
@@ -54303,7 +54668,7 @@
         <v>1.62</v>
       </c>
       <c r="J307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>85.376543209876544</v>
       </c>
       <c r="K307">
@@ -54390,7 +54755,8 @@
       <c r="AL307" t="s">
         <v>363</v>
       </c>
-      <c r="AM307">
+      <c r="AM307" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN307" s="1" t="s">
@@ -54426,7 +54792,7 @@
         <v>1.45</v>
       </c>
       <c r="J308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>78.131034482758622</v>
       </c>
       <c r="K308">
@@ -54513,7 +54879,8 @@
       <c r="AL308" t="s">
         <v>363</v>
       </c>
-      <c r="AM308">
+      <c r="AM308" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN308" s="1" t="s">
@@ -54549,7 +54916,7 @@
         <v>0.79</v>
       </c>
       <c r="J309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>65.506329113924053</v>
       </c>
       <c r="K309">
@@ -54636,7 +55003,8 @@
       <c r="AL309" t="s">
         <v>363</v>
       </c>
-      <c r="AM309">
+      <c r="AM309" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN309" s="1" t="s">
@@ -54672,7 +55040,7 @@
         <v>0.63</v>
       </c>
       <c r="J310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>48.523809523809526</v>
       </c>
       <c r="K310">
@@ -54759,7 +55127,8 @@
       <c r="AL310" t="s">
         <v>363</v>
       </c>
-      <c r="AM310">
+      <c r="AM310" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN310" s="1" t="s">
@@ -54795,7 +55164,7 @@
         <v>0.4</v>
       </c>
       <c r="J311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>69.274999999999991</v>
       </c>
       <c r="K311">
@@ -54882,7 +55251,8 @@
       <c r="AL311" t="s">
         <v>363</v>
       </c>
-      <c r="AM311">
+      <c r="AM311" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN311" s="1" t="s">
@@ -54918,7 +55288,7 @@
         <v>0.35</v>
       </c>
       <c r="J312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>38.714285714285715</v>
       </c>
       <c r="K312">
@@ -55005,7 +55375,8 @@
       <c r="AL312" t="s">
         <v>363</v>
       </c>
-      <c r="AM312">
+      <c r="AM312" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN312" s="1" t="s">
@@ -55041,7 +55412,7 @@
         <v>0.33</v>
       </c>
       <c r="J313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.696969696969695</v>
       </c>
       <c r="K313">
@@ -55128,7 +55499,8 @@
       <c r="AL313" t="s">
         <v>363</v>
       </c>
-      <c r="AM313">
+      <c r="AM313" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN313" s="1" t="s">
@@ -55164,7 +55536,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.206896551724142</v>
       </c>
       <c r="K314">
@@ -55251,7 +55623,8 @@
       <c r="AL314" t="s">
         <v>363</v>
       </c>
-      <c r="AM314">
+      <c r="AM314" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN314" s="1" t="s">
@@ -55287,7 +55660,7 @@
         <v>3.69</v>
       </c>
       <c r="J315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>50.601626016260163</v>
       </c>
       <c r="K315">
@@ -55374,7 +55747,8 @@
       <c r="AL315" t="s">
         <v>376</v>
       </c>
-      <c r="AM315">
+      <c r="AM315" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN315" s="1" t="s">
@@ -55410,7 +55784,7 @@
         <v>1.45</v>
       </c>
       <c r="J316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>137.63448275862069</v>
       </c>
       <c r="K316">
@@ -55497,7 +55871,8 @@
       <c r="AL316" t="s">
         <v>376</v>
       </c>
-      <c r="AM316">
+      <c r="AM316" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN316" s="1" t="s">
@@ -55533,7 +55908,7 @@
         <v>1.23</v>
       </c>
       <c r="J317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>70.341463414634148</v>
       </c>
       <c r="K317">
@@ -55620,7 +55995,8 @@
       <c r="AL317" t="s">
         <v>376</v>
       </c>
-      <c r="AM317">
+      <c r="AM317" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN317" s="1" t="s">
@@ -55656,7 +56032,7 @@
         <v>0.8</v>
       </c>
       <c r="J318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>89.174999999999997</v>
       </c>
       <c r="K318">
@@ -55743,7 +56119,8 @@
       <c r="AL318" t="s">
         <v>376</v>
       </c>
-      <c r="AM318">
+      <c r="AM318" s="42">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AN318" s="1" t="s">
@@ -55779,7 +56156,7 @@
         <v>0.67</v>
       </c>
       <c r="J319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>47.35820895522388</v>
       </c>
       <c r="K319">
@@ -55866,7 +56243,8 @@
       <c r="AL319" t="s">
         <v>376</v>
       </c>
-      <c r="AM319">
+      <c r="AM319" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN319" s="1" t="s">
@@ -55902,7 +56280,7 @@
         <v>0.49</v>
       </c>
       <c r="J320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>53.204081632653065</v>
       </c>
       <c r="K320">
@@ -55989,7 +56367,8 @@
       <c r="AL320" t="s">
         <v>376</v>
       </c>
-      <c r="AM320">
+      <c r="AM320" s="42">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AN320" s="1" t="s">
@@ -56025,7 +56404,7 @@
         <v>0.26</v>
       </c>
       <c r="J321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42.46153846153846</v>
       </c>
       <c r="K321">
@@ -56112,7 +56491,8 @@
       <c r="AL321" t="s">
         <v>376</v>
       </c>
-      <c r="AM321">
+      <c r="AM321" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN321" s="1" t="s">
@@ -56148,7 +56528,7 @@
         <v>0.25</v>
       </c>
       <c r="J322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>41.52</v>
       </c>
       <c r="K322">
@@ -56235,7 +56615,8 @@
       <c r="AL322" t="s">
         <v>376</v>
       </c>
-      <c r="AM322">
+      <c r="AM322" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN322" s="1" t="s">
@@ -56271,7 +56652,7 @@
         <v>0.23</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J371" si="5">H323/I323</f>
+        <f t="shared" ref="J323:J371" si="10">H323/I323</f>
         <v>45.739130434782602</v>
       </c>
       <c r="K323">
@@ -56358,7 +56739,8 @@
       <c r="AL323" t="s">
         <v>376</v>
       </c>
-      <c r="AM323">
+      <c r="AM323" s="42">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN323" s="1" t="s">
@@ -56394,7 +56776,7 @@
         <v>0.1</v>
       </c>
       <c r="J324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
       <c r="K324">
@@ -56481,7 +56863,8 @@
       <c r="AL324" t="s">
         <v>376</v>
       </c>
-      <c r="AM324">
+      <c r="AM324" s="42">
+        <f t="shared" ref="AM324:AM366" si="11">IF(J324&gt;$AQ$5,1,IF(J324&lt;$AQ$3,3,2))</f>
         <v>1</v>
       </c>
       <c r="AN324" s="1" t="s">
@@ -56517,7 +56900,7 @@
         <v>0.23</v>
       </c>
       <c r="J325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>143.2608695652174</v>
       </c>
       <c r="K325">
@@ -56604,7 +56987,8 @@
       <c r="AL325" t="s">
         <v>376</v>
       </c>
-      <c r="AM325">
+      <c r="AM325" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN325" s="1" t="s">
@@ -56640,7 +57024,7 @@
         <v>0.27</v>
       </c>
       <c r="J326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48.518518518518512</v>
       </c>
       <c r="K326">
@@ -56727,7 +57111,8 @@
       <c r="AL326" t="s">
         <v>376</v>
       </c>
-      <c r="AM326">
+      <c r="AM326" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN326" s="1" t="s">
@@ -56763,7 +57148,7 @@
         <v>0.21</v>
       </c>
       <c r="J327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>51.571428571428577</v>
       </c>
       <c r="K327">
@@ -56850,7 +57235,8 @@
       <c r="AL327" t="s">
         <v>376</v>
       </c>
-      <c r="AM327">
+      <c r="AM327" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN327" s="1" t="s">
@@ -56886,7 +57272,7 @@
         <v>4.13</v>
       </c>
       <c r="J328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>109.58111380145279</v>
       </c>
       <c r="K328">
@@ -56973,7 +57359,8 @@
       <c r="AL328" t="s">
         <v>389</v>
       </c>
-      <c r="AM328">
+      <c r="AM328" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN328" s="1" t="s">
@@ -57009,7 +57396,7 @@
         <v>0.32</v>
       </c>
       <c r="J329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>42.53125</v>
       </c>
       <c r="K329">
@@ -57096,7 +57483,8 @@
       <c r="AL329" t="s">
         <v>389</v>
       </c>
-      <c r="AM329">
+      <c r="AM329" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN329" s="1" t="s">
@@ -57132,7 +57520,7 @@
         <v>0.26</v>
       </c>
       <c r="J330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="K330">
@@ -57219,7 +57607,8 @@
       <c r="AL330" t="s">
         <v>389</v>
       </c>
-      <c r="AM330">
+      <c r="AM330" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN330" s="1" t="s">
@@ -57255,7 +57644,7 @@
         <v>0.22</v>
       </c>
       <c r="J331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>46.409090909090914</v>
       </c>
       <c r="K331">
@@ -57342,7 +57731,8 @@
       <c r="AL331" t="s">
         <v>389</v>
       </c>
-      <c r="AM331">
+      <c r="AM331" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN331" s="1" t="s">
@@ -57378,7 +57768,7 @@
         <v>0.15</v>
       </c>
       <c r="J332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>89.2</v>
       </c>
       <c r="K332">
@@ -57465,7 +57855,8 @@
       <c r="AL332" t="s">
         <v>389</v>
       </c>
-      <c r="AM332">
+      <c r="AM332" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN332" s="1" t="s">
@@ -57501,7 +57892,7 @@
         <v>0.13</v>
       </c>
       <c r="J333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>157.46153846153845</v>
       </c>
       <c r="K333">
@@ -57588,7 +57979,8 @@
       <c r="AL333" t="s">
         <v>389</v>
       </c>
-      <c r="AM333">
+      <c r="AM333" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN333" s="1" t="s">
@@ -57624,7 +58016,7 @@
         <v>0.09</v>
       </c>
       <c r="J334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>211.66666666666669</v>
       </c>
       <c r="K334">
@@ -57711,7 +58103,8 @@
       <c r="AL334" t="s">
         <v>389</v>
       </c>
-      <c r="AM334">
+      <c r="AM334" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN334" s="1" t="s">
@@ -57747,7 +58140,7 @@
         <v>6.03</v>
       </c>
       <c r="J335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>109.52072968490877</v>
       </c>
       <c r="K335">
@@ -57834,7 +58227,8 @@
       <c r="AL335" t="s">
         <v>397</v>
       </c>
-      <c r="AM335">
+      <c r="AM335" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN335" s="1" t="s">
@@ -57870,7 +58264,7 @@
         <v>3.59</v>
       </c>
       <c r="J336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>54.208913649025078</v>
       </c>
       <c r="K336">
@@ -57957,7 +58351,8 @@
       <c r="AL336" t="s">
         <v>397</v>
       </c>
-      <c r="AM336">
+      <c r="AM336" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN336" s="1" t="s">
@@ -57993,7 +58388,7 @@
         <v>3.02</v>
       </c>
       <c r="J337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>81.350993377483448</v>
       </c>
       <c r="K337">
@@ -58080,7 +58475,8 @@
       <c r="AL337" t="s">
         <v>397</v>
       </c>
-      <c r="AM337">
+      <c r="AM337" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN337" s="1" t="s">
@@ -58116,7 +58512,7 @@
         <v>2.69</v>
       </c>
       <c r="J338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>97.873605947955383</v>
       </c>
       <c r="K338">
@@ -58203,7 +58599,8 @@
       <c r="AL338" t="s">
         <v>397</v>
       </c>
-      <c r="AM338">
+      <c r="AM338" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN338" s="1" t="s">
@@ -58239,7 +58636,7 @@
         <v>1.28</v>
       </c>
       <c r="J339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>50.445312499999993</v>
       </c>
       <c r="K339">
@@ -58326,7 +58723,8 @@
       <c r="AL339" t="s">
         <v>397</v>
       </c>
-      <c r="AM339">
+      <c r="AM339" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN339" s="1" t="s">
@@ -58362,7 +58760,7 @@
         <v>0.68</v>
       </c>
       <c r="J340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>111.98529411764706</v>
       </c>
       <c r="K340">
@@ -58449,7 +58847,8 @@
       <c r="AL340" t="s">
         <v>397</v>
       </c>
-      <c r="AM340">
+      <c r="AM340" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN340" s="1" t="s">
@@ -58485,7 +58884,7 @@
         <v>0.65</v>
       </c>
       <c r="J341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48.861538461538466</v>
       </c>
       <c r="K341">
@@ -58572,7 +58971,8 @@
       <c r="AL341" t="s">
         <v>397</v>
       </c>
-      <c r="AM341">
+      <c r="AM341" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN341" s="1" t="s">
@@ -58608,7 +59008,7 @@
         <v>0.62</v>
       </c>
       <c r="J342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>47.548387096774192</v>
       </c>
       <c r="K342">
@@ -58695,7 +59095,8 @@
       <c r="AL342" t="s">
         <v>397</v>
       </c>
-      <c r="AM342">
+      <c r="AM342" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN342" s="1" t="s">
@@ -58731,7 +59132,7 @@
         <v>0.6</v>
       </c>
       <c r="J343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.650000000000006</v>
       </c>
       <c r="K343">
@@ -58818,7 +59219,8 @@
       <c r="AL343" t="s">
         <v>397</v>
       </c>
-      <c r="AM343">
+      <c r="AM343" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN343" s="1" t="s">
@@ -58854,7 +59256,7 @@
         <v>0.44</v>
       </c>
       <c r="J344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>42.363636363636367</v>
       </c>
       <c r="K344">
@@ -58941,7 +59343,8 @@
       <c r="AL344" t="s">
         <v>397</v>
       </c>
-      <c r="AM344">
+      <c r="AM344" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN344" s="1" t="s">
@@ -58977,7 +59380,7 @@
         <v>0.27</v>
       </c>
       <c r="J345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.555555555555557</v>
       </c>
       <c r="K345">
@@ -59064,7 +59467,8 @@
       <c r="AL345" t="s">
         <v>397</v>
       </c>
-      <c r="AM345">
+      <c r="AM345" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN345" s="1" t="s">
@@ -59100,7 +59504,7 @@
         <v>0.21</v>
       </c>
       <c r="J346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48.380952380952387</v>
       </c>
       <c r="K346">
@@ -59187,7 +59591,8 @@
       <c r="AL346" t="s">
         <v>397</v>
       </c>
-      <c r="AM346">
+      <c r="AM346" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN346" s="1" t="s">
@@ -59223,7 +59628,7 @@
         <v>0.24</v>
       </c>
       <c r="J347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>106.54166666666667</v>
       </c>
       <c r="K347">
@@ -59310,7 +59715,8 @@
       <c r="AL347" t="s">
         <v>397</v>
       </c>
-      <c r="AM347">
+      <c r="AM347" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN347" s="1" t="s">
@@ -59346,7 +59752,7 @@
         <v>0.1</v>
       </c>
       <c r="J348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>145.1</v>
       </c>
       <c r="K348">
@@ -59433,7 +59839,8 @@
       <c r="AL348" t="s">
         <v>397</v>
       </c>
-      <c r="AM348">
+      <c r="AM348" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN348" s="1" t="s">
@@ -59469,7 +59876,7 @@
         <v>6.97</v>
       </c>
       <c r="J349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>103.44906743185079</v>
       </c>
       <c r="K349">
@@ -59556,7 +59963,8 @@
       <c r="AL349" t="s">
         <v>411</v>
       </c>
-      <c r="AM349">
+      <c r="AM349" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN349" s="1" t="s">
@@ -59592,7 +60000,7 @@
         <v>4.29</v>
       </c>
       <c r="J350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>64.48251748251748</v>
       </c>
       <c r="K350">
@@ -59679,7 +60087,8 @@
       <c r="AL350" t="s">
         <v>411</v>
       </c>
-      <c r="AM350">
+      <c r="AM350" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN350" s="1" t="s">
@@ -59715,7 +60124,7 @@
         <v>3.81</v>
       </c>
       <c r="J351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>67.464566929133866</v>
       </c>
       <c r="K351">
@@ -59802,7 +60211,8 @@
       <c r="AL351" t="s">
         <v>411</v>
       </c>
-      <c r="AM351">
+      <c r="AM351" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN351" s="1" t="s">
@@ -59838,7 +60248,7 @@
         <v>3.58</v>
       </c>
       <c r="J352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>105.20111731843575</v>
       </c>
       <c r="K352">
@@ -59925,7 +60335,8 @@
       <c r="AL352" t="s">
         <v>411</v>
       </c>
-      <c r="AM352">
+      <c r="AM352" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN352" s="1" t="s">
@@ -59961,7 +60372,7 @@
         <v>1.3</v>
       </c>
       <c r="J353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.269230769230774</v>
       </c>
       <c r="K353">
@@ -60048,7 +60459,8 @@
       <c r="AL353" t="s">
         <v>411</v>
       </c>
-      <c r="AM353">
+      <c r="AM353" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN353" s="1" t="s">
@@ -60084,7 +60496,7 @@
         <v>0.86</v>
       </c>
       <c r="J354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>77.616279069767444</v>
       </c>
       <c r="K354">
@@ -60171,7 +60583,8 @@
       <c r="AL354" t="s">
         <v>411</v>
       </c>
-      <c r="AM354">
+      <c r="AM354" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN354" s="1" t="s">
@@ -60207,7 +60620,7 @@
         <v>0.72</v>
       </c>
       <c r="J355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>43.472222222222221</v>
       </c>
       <c r="K355">
@@ -60294,7 +60707,8 @@
       <c r="AL355" t="s">
         <v>411</v>
       </c>
-      <c r="AM355">
+      <c r="AM355" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN355" s="1" t="s">
@@ -60330,7 +60744,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="J356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>67.438596491228068</v>
       </c>
       <c r="K356">
@@ -60417,7 +60831,8 @@
       <c r="AL356" t="s">
         <v>411</v>
       </c>
-      <c r="AM356">
+      <c r="AM356" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN356" s="1" t="s">
@@ -60453,7 +60868,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.749999999999993</v>
       </c>
       <c r="K357">
@@ -60540,7 +60955,8 @@
       <c r="AL357" t="s">
         <v>411</v>
       </c>
-      <c r="AM357">
+      <c r="AM357" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN357" s="1" t="s">
@@ -60576,7 +60992,7 @@
         <v>0.47</v>
       </c>
       <c r="J358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>49.574468085106389</v>
       </c>
       <c r="K358">
@@ -60663,7 +61079,8 @@
       <c r="AL358" t="s">
         <v>411</v>
       </c>
-      <c r="AM358">
+      <c r="AM358" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN358" s="1" t="s">
@@ -60699,7 +61116,7 @@
         <v>0.46</v>
       </c>
       <c r="J359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.152173913043477</v>
       </c>
       <c r="K359">
@@ -60786,7 +61203,8 @@
       <c r="AL359" t="s">
         <v>411</v>
       </c>
-      <c r="AM359">
+      <c r="AM359" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN359" s="1" t="s">
@@ -60822,7 +61240,7 @@
         <v>0.37</v>
       </c>
       <c r="J360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.270270270270267</v>
       </c>
       <c r="K360">
@@ -60909,7 +61327,8 @@
       <c r="AL360" t="s">
         <v>411</v>
       </c>
-      <c r="AM360">
+      <c r="AM360" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN360" s="1" t="s">
@@ -60945,7 +61364,7 @@
         <v>0.35</v>
       </c>
       <c r="J361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>33.971428571428575</v>
       </c>
       <c r="K361">
@@ -61032,7 +61451,8 @@
       <c r="AL361" t="s">
         <v>411</v>
       </c>
-      <c r="AM361">
+      <c r="AM361" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN361" s="1" t="s">
@@ -61068,7 +61488,7 @@
         <v>0.26</v>
       </c>
       <c r="J362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>43.46153846153846</v>
       </c>
       <c r="K362">
@@ -61155,7 +61575,8 @@
       <c r="AL362" t="s">
         <v>411</v>
       </c>
-      <c r="AM362">
+      <c r="AM362" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN362" s="1" t="s">
@@ -61191,7 +61612,7 @@
         <v>0.25</v>
       </c>
       <c r="J363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>43.4</v>
       </c>
       <c r="K363">
@@ -61278,7 +61699,8 @@
       <c r="AL363" t="s">
         <v>411</v>
       </c>
-      <c r="AM363">
+      <c r="AM363" s="42">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AN363" s="1" t="s">
@@ -61314,7 +61736,7 @@
         <v>0.24</v>
       </c>
       <c r="J364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.791666666666671</v>
       </c>
       <c r="K364">
@@ -61401,7 +61823,8 @@
       <c r="AL364" t="s">
         <v>411</v>
       </c>
-      <c r="AM364">
+      <c r="AM364" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN364" s="1" t="s">
@@ -61437,7 +61860,7 @@
         <v>0.2</v>
       </c>
       <c r="J365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>51.399999999999991</v>
       </c>
       <c r="K365">
@@ -61524,7 +61947,8 @@
       <c r="AL365" t="s">
         <v>411</v>
       </c>
-      <c r="AM365">
+      <c r="AM365" s="42">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AN365" s="1" t="s">
@@ -61560,7 +61984,7 @@
         <v>0.13</v>
       </c>
       <c r="J366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>99.615384615384613</v>
       </c>
       <c r="K366">
@@ -61647,7 +62071,8 @@
       <c r="AL366" t="s">
         <v>411</v>
       </c>
-      <c r="AM366">
+      <c r="AM366" s="42">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AN366" s="1" t="s">
@@ -61683,7 +62108,7 @@
         <v>223.29</v>
       </c>
       <c r="J367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>94.00438891128131</v>
       </c>
       <c r="K367">
@@ -61803,7 +62228,7 @@
         <v>45.84</v>
       </c>
       <c r="J368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>100.15728621291449</v>
       </c>
       <c r="K368">
@@ -61923,7 +62348,7 @@
         <v>22.95</v>
       </c>
       <c r="J369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>101.84662309368193</v>
       </c>
       <c r="K369">
@@ -62043,7 +62468,7 @@
         <v>21</v>
       </c>
       <c r="J370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>122.97666666666667</v>
       </c>
       <c r="K370">
@@ -62163,7 +62588,7 @@
         <v>10.8</v>
       </c>
       <c r="J371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>128.38333333333333</v>
       </c>
       <c r="K371">

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A72218F-D0C6-4312-9D5F-4D913BFF535B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373A797-A05E-42D9-8A76-8E5BF0B9559D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="540">
   <si>
     <t>TechName</t>
   </si>
@@ -1769,6 +1769,21 @@
   <si>
     <t>More Info: https://heatroadmap.eu/wp-content/uploads/2018/11/D6.5-Updated-Peta-atlas-for-each-MS-with-the-final-level-of-district-heating-recommended-in-WP6.pdf</t>
   </si>
+  <si>
+    <t>HET-GRID_EXP</t>
+  </si>
+  <si>
+    <t>Heat Grid expanison</t>
+  </si>
+  <si>
+    <t>HETC</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
 </sst>
 </file>
 
@@ -2328,7 +2343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2681,6 +2696,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6022,7 +6043,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6151,6 +6172,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6160,24 +6191,20 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2870">
@@ -10370,12 +10397,12 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10459,11 +10486,11 @@
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -10491,11 +10518,11 @@
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -10583,11 +10610,11 @@
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -10613,11 +10640,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -10673,11 +10700,11 @@
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -10703,11 +10730,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -10795,11 +10822,11 @@
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="5"/>
@@ -10827,11 +10854,11 @@
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="5"/>
@@ -12785,20 +12812,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161A295B-3C31-4123-A842-676A41E4E5B5}">
-  <dimension ref="B2:P13"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" style="42" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="42"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:18">
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -12806,20 +12837,22 @@
         <v>476</v>
       </c>
       <c r="F2" s="29"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:18">
       <c r="B3" s="30" t="s">
         <v>459</v>
       </c>
@@ -12833,38 +12866,44 @@
         <v>478</v>
       </c>
       <c r="F3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="39" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="K3" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="N3" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="O3" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="P3" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="Q3" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="R3" s="39" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="45.75" thickBot="1">
+    <row r="4" spans="2:18" ht="45.75" thickBot="1">
       <c r="B4" s="32" t="s">
         <v>480</v>
       </c>
@@ -12877,39 +12916,41 @@
       <c r="E4" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="40" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="K4" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="L4" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="M4" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="N4" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="O4" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="P4" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="R4" s="40" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="13.5" thickBot="1">
+    <row r="5" spans="2:18" ht="13.5" thickBot="1">
       <c r="B5" s="33"/>
       <c r="C5" s="33" t="s">
         <v>485</v>
@@ -12917,20 +12958,22 @@
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="40" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="2:16" ht="15" customHeight="1">
+    <row r="6" spans="2:18" ht="15" customHeight="1">
       <c r="B6" s="47" t="s">
         <v>516</v>
       </c>
@@ -12943,33 +12986,35 @@
       <c r="E6" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="49">
         <v>1</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="42" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="K6" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="L6" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="N6" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="P6" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1">
+    <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="47" t="s">
         <v>516</v>
       </c>
@@ -12982,33 +13027,35 @@
       <c r="E7" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="49">
         <v>1</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="42" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="K7" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="L7" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="N7" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="O7" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="P7" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1">
+    <row r="8" spans="2:18" ht="15" customHeight="1">
       <c r="B8" s="47" t="s">
         <v>516</v>
       </c>
@@ -13021,33 +13068,35 @@
       <c r="E8" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="49">
         <v>1</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="42" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="K8" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="L8" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="N8" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="P8" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1">
+    <row r="9" spans="2:18" ht="15" customHeight="1">
       <c r="B9" s="47" t="s">
         <v>516</v>
       </c>
@@ -13060,33 +13109,35 @@
       <c r="E9" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="49">
         <v>1</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="42" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="K9" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="L9" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="M9" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="N9" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="O9" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="P9" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:18">
       <c r="B10" s="47" t="s">
         <v>516</v>
       </c>
@@ -13099,33 +13150,35 @@
       <c r="E10" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46">
         <v>1</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="34" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="K10" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="L10" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="M10" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="N10" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="O10" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="P10" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:18">
       <c r="B11" s="47" t="s">
         <v>516</v>
       </c>
@@ -13138,33 +13191,35 @@
       <c r="E11" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46">
         <v>1</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="36"/>
+      <c r="J11" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="K11" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="L11" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="M11" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="N11" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="O11" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="P11" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:18">
       <c r="B12" s="47" t="s">
         <v>516</v>
       </c>
@@ -13177,32 +13232,34 @@
       <c r="E12" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46">
         <v>1</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="J12" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="K12" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="L12" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="M12" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="N12" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="P12" s="42" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:18">
       <c r="B13" s="47" t="s">
         <v>516</v>
       </c>
@@ -13215,30 +13272,77 @@
       <c r="E13" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46">
         <v>1</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="J13" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="K13" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="L13" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="M13" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="N13" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="O13" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="P13" s="42" t="s">
         <v>507</v>
       </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1E-3</v>
+      </c>
+      <c r="G14" s="46">
+        <v>69</v>
+      </c>
+      <c r="H14" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="P14" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q14" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13250,8 +13354,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16882,81 +16986,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>523</v>
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="52" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="42" customFormat="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>526</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="52" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="42" customFormat="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="52" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:44" s="42" customFormat="1" ht="15.75">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="61" t="s">
         <v>529</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="53" t="s">
         <v>532</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="59" t="s">
         <v>533</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="58" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
@@ -17001,7 +17105,7 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="54" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">

--- a/SubRES_TMPL/SubRES_PWR_DH.xlsx
+++ b/SubRES_TMPL/SubRES_PWR_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373A797-A05E-42D9-8A76-8E5BF0B9559D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D7D947-2986-4AEF-A996-BEFDEEFAF2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6182,6 +6182,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6199,12 +6205,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2870">
@@ -10397,12 +10397,12 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10486,11 +10486,11 @@
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -10518,11 +10518,11 @@
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -10610,11 +10610,11 @@
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -10640,11 +10640,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -10700,11 +10700,11 @@
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -10730,11 +10730,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -10822,11 +10822,11 @@
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="5"/>
@@ -10854,11 +10854,11 @@
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="5"/>
@@ -12815,7 +12815,7 @@
   <dimension ref="B2:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13303,7 +13303,7 @@
       <c r="B14" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="56" t="s">
         <v>535</v>
       </c>
       <c r="D14" s="50" t="s">
@@ -13313,12 +13313,12 @@
         <v>487</v>
       </c>
       <c r="F14" s="50">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G14" s="46">
         <v>69</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="57">
         <v>0.8</v>
       </c>
       <c r="J14" s="34" t="s">
@@ -13327,10 +13327,10 @@
       <c r="K14" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="56" t="s">
         <v>535</v>
       </c>
-      <c r="M14" s="62" t="s">
+      <c r="M14" s="56" t="s">
         <v>536</v>
       </c>
       <c r="N14" s="34" t="s">
@@ -17018,13 +17018,13 @@
       <c r="B4" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="63" t="s">
         <v>529</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="53" t="s">
         <v>532</v>
       </c>
@@ -17034,33 +17034,33 @@
       <c r="J4" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="61" t="s">
         <v>533</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="59" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="61" t="s">
         <v>530</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
